--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1632" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC323"/>
+  <dimension ref="A1:AC321"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5965131</v>
+        <v>5965129</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,13 +2488,13 @@
         <v>44955.875</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2503,34 +2503,34 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L23">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
         <v>1.85</v>
@@ -2539,7 +2539,7 @@
         <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5965129</v>
+        <v>5965131</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,13 +2577,13 @@
         <v>44955.875</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2592,34 +2592,34 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N24">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
         <v>1.85</v>
@@ -2628,7 +2628,7 @@
         <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2637,7 +2637,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5965176</v>
+        <v>5965174</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,16 +8451,16 @@
         <v>45015.95833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>43</v>
@@ -8472,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="M90">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N90">
         <v>1.363</v>
@@ -8481,19 +8481,19 @@
         <v>5</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
         <v>1.925</v>
@@ -8511,16 +8511,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5965174</v>
+        <v>5965176</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,16 +8540,16 @@
         <v>45015.95833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
@@ -8561,7 +8561,7 @@
         <v>4</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N91">
         <v>1.363</v>
@@ -8570,19 +8570,19 @@
         <v>5</v>
       </c>
       <c r="P91">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U91">
         <v>1.925</v>
@@ -8600,16 +8600,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA91">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5963942</v>
+        <v>5965201</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M124">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N124">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P124">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X124">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5965201</v>
+        <v>5963942</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="L125">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6601572</v>
+        <v>5965204</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,76 +12189,76 @@
         <v>45053.75</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K132">
+        <v>5</v>
+      </c>
+      <c r="L132">
+        <v>3.75</v>
+      </c>
+      <c r="M132">
+        <v>1.533</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132">
+        <v>3.8</v>
+      </c>
+      <c r="P132">
+        <v>1.615</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+      <c r="R132">
         <v>1.8</v>
       </c>
-      <c r="L132">
-        <v>3.5</v>
-      </c>
-      <c r="M132">
-        <v>3.75</v>
-      </c>
-      <c r="N132">
-        <v>2.1</v>
-      </c>
-      <c r="O132">
-        <v>3.4</v>
-      </c>
-      <c r="P132">
+      <c r="S132">
+        <v>2</v>
+      </c>
+      <c r="T132">
+        <v>3.25</v>
+      </c>
+      <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
+        <v>1.975</v>
+      </c>
+      <c r="W132">
         <v>3</v>
       </c>
-      <c r="Q132">
-        <v>-0.25</v>
-      </c>
-      <c r="R132">
-        <v>1.9</v>
-      </c>
-      <c r="S132">
-        <v>1.9</v>
-      </c>
-      <c r="T132">
-        <v>2.5</v>
-      </c>
-      <c r="U132">
-        <v>1.925</v>
-      </c>
-      <c r="V132">
-        <v>1.875</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA132">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5965204</v>
+        <v>6601572</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,76 +12278,76 @@
         <v>45053.75</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G133" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H133">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>44</v>
+      </c>
+      <c r="K133">
+        <v>1.8</v>
+      </c>
+      <c r="L133">
+        <v>3.5</v>
+      </c>
+      <c r="M133">
+        <v>3.75</v>
+      </c>
+      <c r="N133">
+        <v>2.1</v>
+      </c>
+      <c r="O133">
+        <v>3.4</v>
+      </c>
+      <c r="P133">
         <v>3</v>
       </c>
-      <c r="I133">
-        <v>2</v>
-      </c>
-      <c r="J133" t="s">
-        <v>43</v>
-      </c>
-      <c r="K133">
-        <v>5</v>
-      </c>
-      <c r="L133">
-        <v>3.75</v>
-      </c>
-      <c r="M133">
-        <v>1.533</v>
-      </c>
-      <c r="N133">
-        <v>4</v>
-      </c>
-      <c r="O133">
-        <v>3.8</v>
-      </c>
-      <c r="P133">
-        <v>1.615</v>
-      </c>
       <c r="Q133">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB133">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,76 +21356,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H235">
         <v>2</v>
       </c>
       <c r="I235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K235">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M235">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N235">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O235">
         <v>3.5</v>
       </c>
       <c r="P235">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
+        <v>2</v>
+      </c>
+      <c r="V235">
         <v>1.8</v>
       </c>
-      <c r="V235">
-        <v>2</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
         <v>0.8</v>
-      </c>
-      <c r="AC235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21445,76 +21445,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H236">
         <v>2</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K236">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L236">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N236">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O236">
         <v>3.5</v>
       </c>
       <c r="P236">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S236">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.75</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W236">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z236">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -22679,7 +22679,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22691,76 +22691,76 @@
         <v>45238.875</v>
       </c>
       <c r="F250" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H250">
+        <v>2</v>
+      </c>
+      <c r="I250">
         <v>0</v>
       </c>
-      <c r="I250">
-        <v>2</v>
-      </c>
       <c r="J250" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K250">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L250">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M250">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N250">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O250">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P250">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R250">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
+        <v>1.825</v>
+      </c>
+      <c r="T250">
+        <v>3.25</v>
+      </c>
+      <c r="U250">
+        <v>2</v>
+      </c>
+      <c r="V250">
         <v>1.8</v>
       </c>
-      <c r="T250">
-        <v>2.5</v>
-      </c>
-      <c r="U250">
-        <v>1.875</v>
-      </c>
-      <c r="V250">
-        <v>1.925</v>
-      </c>
       <c r="W250">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA250">
+        <v>-0.5</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
+      </c>
+      <c r="AC250">
         <v>0.8</v>
-      </c>
-      <c r="AB250">
-        <v>-1</v>
-      </c>
-      <c r="AC250">
-        <v>0.925</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22768,7 +22768,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22780,76 +22780,76 @@
         <v>45238.875</v>
       </c>
       <c r="F251" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K251">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M251">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N251">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P251">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q251">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T251">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V251">
+        <v>1.925</v>
+      </c>
+      <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
         <v>1.8</v>
       </c>
-      <c r="W251">
-        <v>0.25</v>
-      </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>-1</v>
-      </c>
       <c r="Z251">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -28731,7 +28731,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7623984</v>
+        <v>7623914</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28740,49 +28740,49 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45338.875</v>
+        <v>45339.75</v>
       </c>
       <c r="F318" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G318" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K318">
-        <v>2.7</v>
+        <v>2</v>
       </c>
       <c r="L318">
         <v>3.25</v>
       </c>
       <c r="M318">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="N318">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="O318">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P318">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="Q318">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R318">
+        <v>2</v>
+      </c>
+      <c r="S318">
+        <v>1.8</v>
+      </c>
+      <c r="T318">
+        <v>2.25</v>
+      </c>
+      <c r="U318">
         <v>1.825</v>
       </c>
-      <c r="S318">
+      <c r="V318">
         <v>1.975</v>
-      </c>
-      <c r="T318">
-        <v>2.5</v>
-      </c>
-      <c r="U318">
-        <v>1.85</v>
-      </c>
-      <c r="V318">
-        <v>1.95</v>
       </c>
       <c r="W318">
         <v>0</v>
@@ -28805,7 +28805,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7623913</v>
+        <v>7623915</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28814,49 +28814,49 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45339</v>
+        <v>45339.92708333334</v>
       </c>
       <c r="F319" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G319" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K319">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L319">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M319">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N319">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="O319">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P319">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="Q319">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R319">
+        <v>1.9</v>
+      </c>
+      <c r="S319">
+        <v>1.9</v>
+      </c>
+      <c r="T319">
+        <v>2.5</v>
+      </c>
+      <c r="U319">
+        <v>1.925</v>
+      </c>
+      <c r="V319">
         <v>1.875</v>
-      </c>
-      <c r="S319">
-        <v>1.925</v>
-      </c>
-      <c r="T319">
-        <v>2.25</v>
-      </c>
-      <c r="U319">
-        <v>1.775</v>
-      </c>
-      <c r="V319">
-        <v>2.025</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28879,7 +28879,7 @@
         <v>318</v>
       </c>
       <c r="B320">
-        <v>7623914</v>
+        <v>7623911</v>
       </c>
       <c r="C320" t="s">
         <v>28</v>
@@ -28888,49 +28888,49 @@
         <v>28</v>
       </c>
       <c r="E320" s="2">
-        <v>45339.75</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F320" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G320" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K320">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L320">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M320">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N320">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="O320">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P320">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="Q320">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R320">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S320">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T320">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U320">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="V320">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="W320">
         <v>0</v>
@@ -28953,7 +28953,7 @@
         <v>319</v>
       </c>
       <c r="B321">
-        <v>7623915</v>
+        <v>7623912</v>
       </c>
       <c r="C321" t="s">
         <v>28</v>
@@ -28962,49 +28962,49 @@
         <v>28</v>
       </c>
       <c r="E321" s="2">
-        <v>45339.92708333334</v>
+        <v>45340.875</v>
       </c>
       <c r="F321" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G321" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K321">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L321">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M321">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N321">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O321">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P321">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q321">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R321">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S321">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T321">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U321">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V321">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W321">
         <v>0</v>
@@ -29019,154 +29019,6 @@
         <v>0</v>
       </c>
       <c r="AA321">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="322" spans="1:27">
-      <c r="A322" s="1">
-        <v>320</v>
-      </c>
-      <c r="B322">
-        <v>7623911</v>
-      </c>
-      <c r="C322" t="s">
-        <v>28</v>
-      </c>
-      <c r="D322" t="s">
-        <v>28</v>
-      </c>
-      <c r="E322" s="2">
-        <v>45340.58333333334</v>
-      </c>
-      <c r="F322" t="s">
-        <v>31</v>
-      </c>
-      <c r="G322" t="s">
-        <v>41</v>
-      </c>
-      <c r="K322">
-        <v>1.666</v>
-      </c>
-      <c r="L322">
-        <v>3.75</v>
-      </c>
-      <c r="M322">
-        <v>4.2</v>
-      </c>
-      <c r="N322">
-        <v>1.75</v>
-      </c>
-      <c r="O322">
-        <v>3.6</v>
-      </c>
-      <c r="P322">
-        <v>4</v>
-      </c>
-      <c r="Q322">
-        <v>-0.5</v>
-      </c>
-      <c r="R322">
-        <v>1.8</v>
-      </c>
-      <c r="S322">
-        <v>2</v>
-      </c>
-      <c r="T322">
-        <v>2.75</v>
-      </c>
-      <c r="U322">
-        <v>1.825</v>
-      </c>
-      <c r="V322">
-        <v>1.975</v>
-      </c>
-      <c r="W322">
-        <v>0</v>
-      </c>
-      <c r="X322">
-        <v>0</v>
-      </c>
-      <c r="Y322">
-        <v>0</v>
-      </c>
-      <c r="Z322">
-        <v>0</v>
-      </c>
-      <c r="AA322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:27">
-      <c r="A323" s="1">
-        <v>321</v>
-      </c>
-      <c r="B323">
-        <v>7623912</v>
-      </c>
-      <c r="C323" t="s">
-        <v>28</v>
-      </c>
-      <c r="D323" t="s">
-        <v>28</v>
-      </c>
-      <c r="E323" s="2">
-        <v>45340.875</v>
-      </c>
-      <c r="F323" t="s">
-        <v>30</v>
-      </c>
-      <c r="G323" t="s">
-        <v>36</v>
-      </c>
-      <c r="K323">
-        <v>1.8</v>
-      </c>
-      <c r="L323">
-        <v>3.5</v>
-      </c>
-      <c r="M323">
-        <v>3.75</v>
-      </c>
-      <c r="N323">
-        <v>1.6</v>
-      </c>
-      <c r="O323">
-        <v>3.6</v>
-      </c>
-      <c r="P323">
-        <v>4.75</v>
-      </c>
-      <c r="Q323">
-        <v>-0.75</v>
-      </c>
-      <c r="R323">
-        <v>1.775</v>
-      </c>
-      <c r="S323">
-        <v>2.025</v>
-      </c>
-      <c r="T323">
-        <v>2.75</v>
-      </c>
-      <c r="U323">
-        <v>2</v>
-      </c>
-      <c r="V323">
-        <v>1.8</v>
-      </c>
-      <c r="W323">
-        <v>0</v>
-      </c>
-      <c r="X323">
-        <v>0</v>
-      </c>
-      <c r="Y323">
-        <v>0</v>
-      </c>
-      <c r="Z323">
-        <v>0</v>
-      </c>
-      <c r="AA323">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1624" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC321"/>
+  <dimension ref="A1:AC319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5965129</v>
+        <v>5965131</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,13 +2488,13 @@
         <v>44955.875</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2503,34 +2503,34 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
         <v>1.85</v>
@@ -2539,7 +2539,7 @@
         <v>1.95</v>
       </c>
       <c r="W23">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5965131</v>
+        <v>5965129</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,13 +2577,13 @@
         <v>44955.875</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2592,34 +2592,34 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
         <v>1.85</v>
@@ -2628,7 +2628,7 @@
         <v>1.95</v>
       </c>
       <c r="W24">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2637,7 +2637,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5965174</v>
+        <v>5965176</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,16 +8451,16 @@
         <v>45015.95833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>43</v>
@@ -8472,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N90">
         <v>1.363</v>
@@ -8481,19 +8481,19 @@
         <v>5</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U90">
         <v>1.925</v>
@@ -8511,16 +8511,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5965176</v>
+        <v>5965174</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,16 +8540,16 @@
         <v>45015.95833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
@@ -8561,7 +8561,7 @@
         <v>4</v>
       </c>
       <c r="M91">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N91">
         <v>1.363</v>
@@ -8570,19 +8570,19 @@
         <v>5</v>
       </c>
       <c r="P91">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S91">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
         <v>1.925</v>
@@ -8600,16 +8600,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5965201</v>
+        <v>5963942</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="L124">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N124">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5963942</v>
+        <v>5965201</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X125">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5965203</v>
+        <v>5965204</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,10 +12100,10 @@
         <v>45053.75</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H131">
         <v>3</v>
@@ -12115,43 +12115,43 @@
         <v>43</v>
       </c>
       <c r="K131">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O131">
+        <v>3.8</v>
+      </c>
+      <c r="P131">
+        <v>1.615</v>
+      </c>
+      <c r="Q131">
+        <v>1</v>
+      </c>
+      <c r="R131">
+        <v>1.8</v>
+      </c>
+      <c r="S131">
+        <v>2</v>
+      </c>
+      <c r="T131">
         <v>3.25</v>
       </c>
-      <c r="P131">
-        <v>2.875</v>
-      </c>
-      <c r="Q131">
-        <v>-0.25</v>
-      </c>
-      <c r="R131">
+      <c r="U131">
+        <v>1.825</v>
+      </c>
+      <c r="V131">
         <v>1.975</v>
       </c>
-      <c r="S131">
-        <v>1.825</v>
-      </c>
-      <c r="T131">
-        <v>2.5</v>
-      </c>
-      <c r="U131">
-        <v>1.925</v>
-      </c>
-      <c r="V131">
-        <v>1.875</v>
-      </c>
       <c r="W131">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12160,13 +12160,13 @@
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5965204</v>
+        <v>6601572</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,76 +12189,76 @@
         <v>45053.75</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>44</v>
+      </c>
+      <c r="K132">
+        <v>1.8</v>
+      </c>
+      <c r="L132">
+        <v>3.5</v>
+      </c>
+      <c r="M132">
+        <v>3.75</v>
+      </c>
+      <c r="N132">
+        <v>2.1</v>
+      </c>
+      <c r="O132">
+        <v>3.4</v>
+      </c>
+      <c r="P132">
         <v>3</v>
       </c>
-      <c r="I132">
-        <v>2</v>
-      </c>
-      <c r="J132" t="s">
-        <v>43</v>
-      </c>
-      <c r="K132">
-        <v>5</v>
-      </c>
-      <c r="L132">
-        <v>3.75</v>
-      </c>
-      <c r="M132">
-        <v>1.533</v>
-      </c>
-      <c r="N132">
-        <v>4</v>
-      </c>
-      <c r="O132">
-        <v>3.8</v>
-      </c>
-      <c r="P132">
-        <v>1.615</v>
-      </c>
       <c r="Q132">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6601572</v>
+        <v>5965203</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,46 +12278,46 @@
         <v>45053.75</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K133">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L133">
         <v>3.5</v>
       </c>
       <c r="M133">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N133">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q133">
         <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
         <v>2.5</v>
@@ -12329,25 +12329,25 @@
         <v>1.875</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X133">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,76 +21356,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H235">
         <v>2</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K235">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N235">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O235">
         <v>3.5</v>
       </c>
       <c r="P235">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R235">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W235">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z235">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21445,76 +21445,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H236">
         <v>2</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K236">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L236">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N236">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O236">
         <v>3.5</v>
       </c>
       <c r="P236">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T236">
         <v>2.75</v>
       </c>
       <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
         <v>1.8</v>
       </c>
-      <c r="V236">
-        <v>2</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.8</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -22679,7 +22679,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22691,76 +22691,76 @@
         <v>45238.875</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G250" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K250">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L250">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M250">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N250">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O250">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P250">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q250">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S250">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T250">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
+        <v>1.925</v>
+      </c>
+      <c r="W250">
+        <v>-1</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
         <v>1.8</v>
       </c>
-      <c r="W250">
-        <v>0.25</v>
-      </c>
-      <c r="X250">
-        <v>-1</v>
-      </c>
-      <c r="Y250">
-        <v>-1</v>
-      </c>
       <c r="Z250">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22768,7 +22768,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22780,76 +22780,76 @@
         <v>45238.875</v>
       </c>
       <c r="F251" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G251" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H251">
+        <v>2</v>
+      </c>
+      <c r="I251">
         <v>0</v>
       </c>
-      <c r="I251">
-        <v>2</v>
-      </c>
       <c r="J251" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L251">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M251">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O251">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P251">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S251">
+        <v>1.825</v>
+      </c>
+      <c r="T251">
+        <v>3.25</v>
+      </c>
+      <c r="U251">
+        <v>2</v>
+      </c>
+      <c r="V251">
         <v>1.8</v>
       </c>
-      <c r="T251">
-        <v>2.5</v>
-      </c>
-      <c r="U251">
-        <v>1.875</v>
-      </c>
-      <c r="V251">
-        <v>1.925</v>
-      </c>
       <c r="W251">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA251">
+        <v>-0.5</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.8</v>
-      </c>
-      <c r="AB251">
-        <v>-1</v>
-      </c>
-      <c r="AC251">
-        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -28731,7 +28731,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7623914</v>
+        <v>7623911</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28740,43 +28740,43 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45339.75</v>
+        <v>45340.58333333334</v>
       </c>
       <c r="F318" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G318" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K318">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L318">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M318">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="N318">
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="O318">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P318">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="Q318">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R318">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S318">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T318">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U318">
         <v>1.825</v>
@@ -28805,7 +28805,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7623915</v>
+        <v>7623912</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28814,49 +28814,49 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45339.92708333334</v>
+        <v>45340.875</v>
       </c>
       <c r="F319" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G319" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K319">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L319">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M319">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N319">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="O319">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P319">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q319">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R319">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S319">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T319">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U319">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V319">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W319">
         <v>0</v>
@@ -28871,154 +28871,6 @@
         <v>0</v>
       </c>
       <c r="AA319">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="320" spans="1:29">
-      <c r="A320" s="1">
-        <v>318</v>
-      </c>
-      <c r="B320">
-        <v>7623911</v>
-      </c>
-      <c r="C320" t="s">
-        <v>28</v>
-      </c>
-      <c r="D320" t="s">
-        <v>28</v>
-      </c>
-      <c r="E320" s="2">
-        <v>45340.58333333334</v>
-      </c>
-      <c r="F320" t="s">
-        <v>31</v>
-      </c>
-      <c r="G320" t="s">
-        <v>41</v>
-      </c>
-      <c r="K320">
-        <v>1.666</v>
-      </c>
-      <c r="L320">
-        <v>3.75</v>
-      </c>
-      <c r="M320">
-        <v>4.2</v>
-      </c>
-      <c r="N320">
-        <v>1.75</v>
-      </c>
-      <c r="O320">
-        <v>3.6</v>
-      </c>
-      <c r="P320">
-        <v>4</v>
-      </c>
-      <c r="Q320">
-        <v>-0.5</v>
-      </c>
-      <c r="R320">
-        <v>1.775</v>
-      </c>
-      <c r="S320">
-        <v>2.025</v>
-      </c>
-      <c r="T320">
-        <v>2.75</v>
-      </c>
-      <c r="U320">
-        <v>1.825</v>
-      </c>
-      <c r="V320">
-        <v>1.975</v>
-      </c>
-      <c r="W320">
-        <v>0</v>
-      </c>
-      <c r="X320">
-        <v>0</v>
-      </c>
-      <c r="Y320">
-        <v>0</v>
-      </c>
-      <c r="Z320">
-        <v>0</v>
-      </c>
-      <c r="AA320">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="321" spans="1:27">
-      <c r="A321" s="1">
-        <v>319</v>
-      </c>
-      <c r="B321">
-        <v>7623912</v>
-      </c>
-      <c r="C321" t="s">
-        <v>28</v>
-      </c>
-      <c r="D321" t="s">
-        <v>28</v>
-      </c>
-      <c r="E321" s="2">
-        <v>45340.875</v>
-      </c>
-      <c r="F321" t="s">
-        <v>30</v>
-      </c>
-      <c r="G321" t="s">
-        <v>36</v>
-      </c>
-      <c r="K321">
-        <v>1.8</v>
-      </c>
-      <c r="L321">
-        <v>3.5</v>
-      </c>
-      <c r="M321">
-        <v>3.75</v>
-      </c>
-      <c r="N321">
-        <v>1.571</v>
-      </c>
-      <c r="O321">
-        <v>3.75</v>
-      </c>
-      <c r="P321">
-        <v>5</v>
-      </c>
-      <c r="Q321">
-        <v>-1</v>
-      </c>
-      <c r="R321">
-        <v>2</v>
-      </c>
-      <c r="S321">
-        <v>1.8</v>
-      </c>
-      <c r="T321">
-        <v>2.75</v>
-      </c>
-      <c r="U321">
-        <v>1.975</v>
-      </c>
-      <c r="V321">
-        <v>1.825</v>
-      </c>
-      <c r="W321">
-        <v>0</v>
-      </c>
-      <c r="X321">
-        <v>0</v>
-      </c>
-      <c r="Y321">
-        <v>0</v>
-      </c>
-      <c r="Z321">
-        <v>0</v>
-      </c>
-      <c r="AA321">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC319"/>
+  <dimension ref="A1:AC322"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5963936</v>
+        <v>5965190</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,10 +9697,10 @@
         <v>45030.91666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,46 +9712,46 @@
         <v>44</v>
       </c>
       <c r="K104">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L104">
         <v>3.25</v>
       </c>
       <c r="M104">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N104">
         <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9760,13 +9760,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5965190</v>
+        <v>5963936</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,10 +9786,10 @@
         <v>45030.91666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9801,46 +9801,46 @@
         <v>44</v>
       </c>
       <c r="K105">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L105">
         <v>3.25</v>
       </c>
       <c r="M105">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
         <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -9849,13 +9849,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5963942</v>
+        <v>5965201</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M124">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N124">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P124">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X124">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5965201</v>
+        <v>5963942</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="L125">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5965205</v>
+        <v>5965203</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,73 +12011,73 @@
         <v>45053.75</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K130">
+        <v>1.85</v>
+      </c>
+      <c r="L130">
         <v>3.5</v>
       </c>
-      <c r="L130">
-        <v>3.3</v>
-      </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N130">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P130">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA130">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5965203</v>
+        <v>5965205</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45053.75</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,49 +16283,49 @@
         <v>45171.75</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N178">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P178">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
         <v>1.9</v>
@@ -16334,25 +16334,25 @@
         <v>1.9</v>
       </c>
       <c r="W178">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,49 +16372,49 @@
         <v>45171.75</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K179">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N179">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O179">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
         <v>1.9</v>
@@ -16423,25 +16423,25 @@
         <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB179">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -28731,7 +28731,7 @@
         <v>316</v>
       </c>
       <c r="B318">
-        <v>7623911</v>
+        <v>7623984</v>
       </c>
       <c r="C318" t="s">
         <v>28</v>
@@ -28740,64 +28740,79 @@
         <v>28</v>
       </c>
       <c r="E318" s="2">
-        <v>45340.58333333334</v>
+        <v>45338.875</v>
       </c>
       <c r="F318" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G318" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="H318">
+        <v>0</v>
+      </c>
+      <c r="I318">
+        <v>2</v>
+      </c>
+      <c r="J318" t="s">
+        <v>42</v>
       </c>
       <c r="K318">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="L318">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M318">
-        <v>4.2</v>
+        <v>2.3</v>
       </c>
       <c r="N318">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="O318">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P318">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="Q318">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R318">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S318">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T318">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U318">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V318">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y318">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="Z318">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA318">
-        <v>0</v>
+        <v>0.95</v>
+      </c>
+      <c r="AB318">
+        <v>-1</v>
+      </c>
+      <c r="AC318">
+        <v>0.95</v>
       </c>
     </row>
     <row r="319" spans="1:29">
@@ -28805,7 +28820,7 @@
         <v>317</v>
       </c>
       <c r="B319">
-        <v>7623912</v>
+        <v>7623913</v>
       </c>
       <c r="C319" t="s">
         <v>28</v>
@@ -28814,64 +28829,346 @@
         <v>28</v>
       </c>
       <c r="E319" s="2">
-        <v>45340.875</v>
+        <v>45339</v>
       </c>
       <c r="F319" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G319" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H319">
+        <v>0</v>
+      </c>
+      <c r="I319">
+        <v>0</v>
+      </c>
+      <c r="J319" t="s">
+        <v>44</v>
       </c>
       <c r="K319">
+        <v>2.25</v>
+      </c>
+      <c r="L319">
+        <v>3.1</v>
+      </c>
+      <c r="M319">
+        <v>2.875</v>
+      </c>
+      <c r="N319">
+        <v>2.1</v>
+      </c>
+      <c r="O319">
+        <v>3.1</v>
+      </c>
+      <c r="P319">
+        <v>3.2</v>
+      </c>
+      <c r="Q319">
+        <v>-0.25</v>
+      </c>
+      <c r="R319">
+        <v>1.9</v>
+      </c>
+      <c r="S319">
+        <v>1.9</v>
+      </c>
+      <c r="T319">
+        <v>2.25</v>
+      </c>
+      <c r="U319">
+        <v>1.85</v>
+      </c>
+      <c r="V319">
+        <v>1.95</v>
+      </c>
+      <c r="W319">
+        <v>-1</v>
+      </c>
+      <c r="X319">
+        <v>2.1</v>
+      </c>
+      <c r="Y319">
+        <v>-1</v>
+      </c>
+      <c r="Z319">
+        <v>-0.5</v>
+      </c>
+      <c r="AA319">
+        <v>0.45</v>
+      </c>
+      <c r="AB319">
+        <v>-1</v>
+      </c>
+      <c r="AC319">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="320" spans="1:29">
+      <c r="A320" s="1">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>7623914</v>
+      </c>
+      <c r="C320" t="s">
+        <v>28</v>
+      </c>
+      <c r="D320" t="s">
+        <v>28</v>
+      </c>
+      <c r="E320" s="2">
+        <v>45339.75</v>
+      </c>
+      <c r="F320" t="s">
+        <v>40</v>
+      </c>
+      <c r="G320" t="s">
+        <v>39</v>
+      </c>
+      <c r="H320">
+        <v>2</v>
+      </c>
+      <c r="I320">
+        <v>1</v>
+      </c>
+      <c r="J320" t="s">
+        <v>43</v>
+      </c>
+      <c r="K320">
+        <v>2</v>
+      </c>
+      <c r="L320">
+        <v>3.25</v>
+      </c>
+      <c r="M320">
+        <v>3.3</v>
+      </c>
+      <c r="N320">
+        <v>2.25</v>
+      </c>
+      <c r="O320">
+        <v>3.1</v>
+      </c>
+      <c r="P320">
+        <v>2.9</v>
+      </c>
+      <c r="Q320">
+        <v>-0.25</v>
+      </c>
+      <c r="R320">
+        <v>2</v>
+      </c>
+      <c r="S320">
         <v>1.8</v>
       </c>
-      <c r="L319">
+      <c r="T320">
+        <v>2.25</v>
+      </c>
+      <c r="U320">
+        <v>1.8</v>
+      </c>
+      <c r="V320">
+        <v>2</v>
+      </c>
+      <c r="W320">
+        <v>1.25</v>
+      </c>
+      <c r="X320">
+        <v>-1</v>
+      </c>
+      <c r="Y320">
+        <v>-1</v>
+      </c>
+      <c r="Z320">
+        <v>1</v>
+      </c>
+      <c r="AA320">
+        <v>-1</v>
+      </c>
+      <c r="AB320">
+        <v>0.8</v>
+      </c>
+      <c r="AC320">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:29">
+      <c r="A321" s="1">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>7623915</v>
+      </c>
+      <c r="C321" t="s">
+        <v>28</v>
+      </c>
+      <c r="D321" t="s">
+        <v>28</v>
+      </c>
+      <c r="E321" s="2">
+        <v>45339.92708333334</v>
+      </c>
+      <c r="F321" t="s">
+        <v>35</v>
+      </c>
+      <c r="G321" t="s">
+        <v>29</v>
+      </c>
+      <c r="H321">
+        <v>3</v>
+      </c>
+      <c r="I321">
+        <v>1</v>
+      </c>
+      <c r="J321" t="s">
+        <v>43</v>
+      </c>
+      <c r="K321">
+        <v>2</v>
+      </c>
+      <c r="L321">
+        <v>3.4</v>
+      </c>
+      <c r="M321">
+        <v>3.2</v>
+      </c>
+      <c r="N321">
+        <v>1.727</v>
+      </c>
+      <c r="O321">
         <v>3.5</v>
       </c>
-      <c r="M319">
+      <c r="P321">
+        <v>4.2</v>
+      </c>
+      <c r="Q321">
+        <v>-0.75</v>
+      </c>
+      <c r="R321">
+        <v>2</v>
+      </c>
+      <c r="S321">
+        <v>1.8</v>
+      </c>
+      <c r="T321">
+        <v>2.5</v>
+      </c>
+      <c r="U321">
+        <v>1.95</v>
+      </c>
+      <c r="V321">
+        <v>1.85</v>
+      </c>
+      <c r="W321">
+        <v>0.7270000000000001</v>
+      </c>
+      <c r="X321">
+        <v>-1</v>
+      </c>
+      <c r="Y321">
+        <v>-1</v>
+      </c>
+      <c r="Z321">
+        <v>1</v>
+      </c>
+      <c r="AA321">
+        <v>-1</v>
+      </c>
+      <c r="AB321">
+        <v>0.95</v>
+      </c>
+      <c r="AC321">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:29">
+      <c r="A322" s="1">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>7623911</v>
+      </c>
+      <c r="C322" t="s">
+        <v>28</v>
+      </c>
+      <c r="D322" t="s">
+        <v>28</v>
+      </c>
+      <c r="E322" s="2">
+        <v>45340.58333333334</v>
+      </c>
+      <c r="F322" t="s">
+        <v>31</v>
+      </c>
+      <c r="G322" t="s">
+        <v>41</v>
+      </c>
+      <c r="H322">
+        <v>0</v>
+      </c>
+      <c r="I322">
+        <v>1</v>
+      </c>
+      <c r="J322" t="s">
+        <v>42</v>
+      </c>
+      <c r="K322">
+        <v>1.666</v>
+      </c>
+      <c r="L322">
         <v>3.75</v>
       </c>
-      <c r="N319">
-        <v>1.571</v>
-      </c>
-      <c r="O319">
-        <v>3.75</v>
-      </c>
-      <c r="P319">
-        <v>5</v>
-      </c>
-      <c r="Q319">
-        <v>-1</v>
-      </c>
-      <c r="R319">
+      <c r="M322">
+        <v>4.2</v>
+      </c>
+      <c r="N322">
+        <v>1.533</v>
+      </c>
+      <c r="O322">
+        <v>4</v>
+      </c>
+      <c r="P322">
+        <v>5.25</v>
+      </c>
+      <c r="Q322">
+        <v>-0.75</v>
+      </c>
+      <c r="R322">
+        <v>1.7</v>
+      </c>
+      <c r="S322">
+        <v>2.1</v>
+      </c>
+      <c r="T322">
+        <v>2.75</v>
+      </c>
+      <c r="U322">
+        <v>1.825</v>
+      </c>
+      <c r="V322">
         <v>1.975</v>
       </c>
-      <c r="S319">
-        <v>1.825</v>
-      </c>
-      <c r="T319">
-        <v>2.75</v>
-      </c>
-      <c r="U319">
-        <v>1.975</v>
-      </c>
-      <c r="V319">
-        <v>1.825</v>
-      </c>
-      <c r="W319">
-        <v>0</v>
-      </c>
-      <c r="X319">
-        <v>0</v>
-      </c>
-      <c r="Y319">
-        <v>0</v>
-      </c>
-      <c r="Z319">
-        <v>0</v>
-      </c>
-      <c r="AA319">
-        <v>0</v>
+      <c r="W322">
+        <v>-1</v>
+      </c>
+      <c r="X322">
+        <v>-1</v>
+      </c>
+      <c r="Y322">
+        <v>4.25</v>
+      </c>
+      <c r="Z322">
+        <v>-1</v>
+      </c>
+      <c r="AA322">
+        <v>1.1</v>
+      </c>
+      <c r="AB322">
+        <v>-1</v>
+      </c>
+      <c r="AC322">
+        <v>0.9750000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1633" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Sporting San Jose</t>
   </si>
   <si>
-    <t>Puntarenas</t>
+    <t>AD Guanacasteca</t>
   </si>
   <si>
-    <t>AD Guanacasteca</t>
+    <t>Puntarenas</t>
   </si>
   <si>
     <t>Alajuelense</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC322"/>
+  <dimension ref="A1:AC323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5963906</v>
+        <v>5965123</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,37 +1156,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
         <v>1.8</v>
@@ -1198,31 +1198,31 @@
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5965123</v>
+        <v>5963906</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,37 +1245,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M9">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="N9">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
         <v>1.8</v>
@@ -1287,31 +1287,31 @@
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>44950.75</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1957,7 +1957,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2224,7 +2224,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>44955.75</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>44965.75</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3645,7 +3645,7 @@
         <v>44965.95833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -4004,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4093,7 +4093,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4446,10 +4446,10 @@
         <v>44975.75</v>
       </c>
       <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
         <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>44980.91666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5425,7 +5425,7 @@
         <v>44982.75</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5781,7 +5781,7 @@
         <v>44983.84375</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -6140,7 +6140,7 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -6760,7 +6760,7 @@
         <v>44997.75</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7119,7 +7119,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5965170</v>
+        <v>5963929</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,58 +7650,58 @@
         <v>45009.95833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>43</v>
       </c>
       <c r="K81">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="L81">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M81">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="N81">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O81">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P81">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="Q81">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R81">
+        <v>2</v>
+      </c>
+      <c r="S81">
+        <v>1.8</v>
+      </c>
+      <c r="T81">
+        <v>2.25</v>
+      </c>
+      <c r="U81">
+        <v>1.975</v>
+      </c>
+      <c r="V81">
         <v>1.825</v>
       </c>
-      <c r="S81">
-        <v>1.975</v>
-      </c>
-      <c r="T81">
-        <v>2.75</v>
-      </c>
-      <c r="U81">
-        <v>1.8</v>
-      </c>
-      <c r="V81">
-        <v>2</v>
-      </c>
       <c r="W81">
-        <v>0.2849999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7710,16 +7710,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA81">
         <v>-1</v>
       </c>
       <c r="AB81">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC81">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5963929</v>
+        <v>5965170</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,58 +7739,58 @@
         <v>45009.95833333334</v>
       </c>
       <c r="F82" t="s">
+        <v>37</v>
+      </c>
+      <c r="G82" t="s">
         <v>35</v>
       </c>
-      <c r="G82" t="s">
-        <v>33</v>
-      </c>
       <c r="H82">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="s">
         <v>43</v>
       </c>
       <c r="K82">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="L82">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M82">
+        <v>8</v>
+      </c>
+      <c r="N82">
+        <v>1.285</v>
+      </c>
+      <c r="O82">
+        <v>5</v>
+      </c>
+      <c r="P82">
+        <v>9</v>
+      </c>
+      <c r="Q82">
+        <v>-1.5</v>
+      </c>
+      <c r="R82">
+        <v>1.825</v>
+      </c>
+      <c r="S82">
+        <v>1.975</v>
+      </c>
+      <c r="T82">
+        <v>2.75</v>
+      </c>
+      <c r="U82">
         <v>1.8</v>
       </c>
-      <c r="N82">
-        <v>4.2</v>
-      </c>
-      <c r="O82">
-        <v>3.3</v>
-      </c>
-      <c r="P82">
-        <v>1.75</v>
-      </c>
-      <c r="Q82">
-        <v>0.5</v>
-      </c>
-      <c r="R82">
-        <v>2</v>
-      </c>
-      <c r="S82">
-        <v>1.8</v>
-      </c>
-      <c r="T82">
-        <v>2.25</v>
-      </c>
-      <c r="U82">
-        <v>1.975</v>
-      </c>
       <c r="V82">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W82">
-        <v>3.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7799,16 +7799,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
+        <v>0.825</v>
+      </c>
+      <c r="AA82">
+        <v>-1</v>
+      </c>
+      <c r="AB82">
+        <v>-1</v>
+      </c>
+      <c r="AC82">
         <v>1</v>
-      </c>
-      <c r="AA82">
-        <v>-1</v>
-      </c>
-      <c r="AB82">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC82">
-        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>45013.75</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>30</v>
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>45017.75</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>39</v>
@@ -9074,7 +9074,7 @@
         <v>45019.9375</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>38</v>
@@ -9166,7 +9166,7 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5965190</v>
+        <v>5963936</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,10 +9697,10 @@
         <v>45030.91666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,46 +9712,46 @@
         <v>44</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L104">
         <v>3.25</v>
       </c>
       <c r="M104">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
         <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9760,13 +9760,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5963936</v>
+        <v>5965190</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,10 +9786,10 @@
         <v>45030.91666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9801,46 +9801,46 @@
         <v>44</v>
       </c>
       <c r="K105">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L105">
         <v>3.25</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N105">
         <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -9849,13 +9849,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>45031.91666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -10053,7 +10053,7 @@
         <v>45032.75</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10498,10 +10498,10 @@
         <v>45035.9375</v>
       </c>
       <c r="F113" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" t="s">
         <v>35</v>
-      </c>
-      <c r="G113" t="s">
-        <v>36</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10765,7 +10765,7 @@
         <v>45038.75</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -10857,7 +10857,7 @@
         <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11302,7 +11302,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5965201</v>
+        <v>5963942</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="L124">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N124">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5963942</v>
+        <v>5965201</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X125">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5965203</v>
+        <v>5965204</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,10 +12011,10 @@
         <v>45053.75</v>
       </c>
       <c r="F130" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H130">
         <v>3</v>
@@ -12026,43 +12026,43 @@
         <v>43</v>
       </c>
       <c r="K130">
-        <v>1.85</v>
+        <v>5</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>3.4</v>
+        <v>1.533</v>
       </c>
       <c r="N130">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="O130">
+        <v>3.8</v>
+      </c>
+      <c r="P130">
+        <v>1.615</v>
+      </c>
+      <c r="Q130">
+        <v>1</v>
+      </c>
+      <c r="R130">
+        <v>1.8</v>
+      </c>
+      <c r="S130">
+        <v>2</v>
+      </c>
+      <c r="T130">
         <v>3.25</v>
       </c>
-      <c r="P130">
-        <v>2.875</v>
-      </c>
-      <c r="Q130">
-        <v>-0.25</v>
-      </c>
-      <c r="R130">
+      <c r="U130">
+        <v>1.825</v>
+      </c>
+      <c r="V130">
         <v>1.975</v>
       </c>
-      <c r="S130">
-        <v>1.825</v>
-      </c>
-      <c r="T130">
-        <v>2.5</v>
-      </c>
-      <c r="U130">
-        <v>1.925</v>
-      </c>
-      <c r="V130">
-        <v>1.875</v>
-      </c>
       <c r="W130">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12071,13 +12071,13 @@
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.925</v>
+        <v>0.825</v>
       </c>
       <c r="AC130">
         <v>-1</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5965204</v>
+        <v>6601572</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,76 +12100,76 @@
         <v>45053.75</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H131">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>44</v>
+      </c>
+      <c r="K131">
+        <v>1.8</v>
+      </c>
+      <c r="L131">
+        <v>3.5</v>
+      </c>
+      <c r="M131">
+        <v>3.75</v>
+      </c>
+      <c r="N131">
+        <v>2.1</v>
+      </c>
+      <c r="O131">
+        <v>3.4</v>
+      </c>
+      <c r="P131">
         <v>3</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
-      <c r="J131" t="s">
-        <v>43</v>
-      </c>
-      <c r="K131">
-        <v>5</v>
-      </c>
-      <c r="L131">
-        <v>3.75</v>
-      </c>
-      <c r="M131">
-        <v>1.533</v>
-      </c>
-      <c r="N131">
-        <v>4</v>
-      </c>
-      <c r="O131">
-        <v>3.8</v>
-      </c>
-      <c r="P131">
-        <v>1.615</v>
-      </c>
       <c r="Q131">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T131">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V131">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W131">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6601572</v>
+        <v>5965205</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12192,73 +12192,73 @@
         <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N132">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z132">
         <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.45</v>
+        <v>0.4375</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5965205</v>
+        <v>5965203</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45053.75</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
+        <v>1.85</v>
+      </c>
+      <c r="L133">
         <v>3.5</v>
       </c>
-      <c r="L133">
-        <v>3.3</v>
-      </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N133">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -13880,7 +13880,7 @@
         <v>45137.75</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -14147,7 +14147,7 @@
         <v>45143.75</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14506,7 +14506,7 @@
         <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>45151.875</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
         <v>33</v>
@@ -15482,7 +15482,7 @@
         <v>45158.75</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15660,7 +15660,7 @@
         <v>45159.75</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -16105,10 +16105,10 @@
         <v>45165.75</v>
       </c>
       <c r="F176" t="s">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
         <v>36</v>
-      </c>
-      <c r="G176" t="s">
-        <v>35</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,49 +16283,49 @@
         <v>45171.75</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K178">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N178">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O178">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
         <v>1.9</v>
@@ -16334,25 +16334,25 @@
         <v>1.9</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB178">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC178">
-        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,49 +16372,49 @@
         <v>45171.75</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K179">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N179">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P179">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
         <v>1.9</v>
@@ -16423,25 +16423,25 @@
         <v>1.9</v>
       </c>
       <c r="W179">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16817,7 +16817,7 @@
         <v>45178.75</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
         <v>39</v>
@@ -16909,7 +16909,7 @@
         <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17532,7 +17532,7 @@
         <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17707,7 +17707,7 @@
         <v>45182.91666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
         <v>41</v>
@@ -17977,7 +17977,7 @@
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18244,7 +18244,7 @@
         <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18419,7 +18419,7 @@
         <v>45188.75</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
         <v>37</v>
@@ -18867,7 +18867,7 @@
         <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>45192.75</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>31</v>
@@ -19220,7 +19220,7 @@
         <v>45193.75</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
         <v>39</v>
@@ -19490,7 +19490,7 @@
         <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19935,7 +19935,7 @@
         <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>4</v>
@@ -20288,7 +20288,7 @@
         <v>45207.75</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
         <v>31</v>
@@ -20469,7 +20469,7 @@
         <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20736,7 +20736,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>4</v>
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J231" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K231">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N231">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P231">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U231">
+        <v>1.975</v>
+      </c>
+      <c r="V231">
         <v>1.825</v>
       </c>
-      <c r="V231">
-        <v>1.975</v>
-      </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,76 +21089,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K232">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L232">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M232">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N232">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O232">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
+        <v>1.825</v>
+      </c>
+      <c r="V232">
         <v>1.975</v>
       </c>
-      <c r="V232">
-        <v>1.825</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y232">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21712,10 +21712,10 @@
         <v>45227.75</v>
       </c>
       <c r="F239" t="s">
+        <v>36</v>
+      </c>
+      <c r="G239" t="s">
         <v>35</v>
-      </c>
-      <c r="G239" t="s">
-        <v>36</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -22071,7 +22071,7 @@
         <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22157,7 +22157,7 @@
         <v>45234.75</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G244" t="s">
         <v>29</v>
@@ -22605,7 +22605,7 @@
         <v>39</v>
       </c>
       <c r="G249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22679,7 +22679,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22691,76 +22691,76 @@
         <v>45238.875</v>
       </c>
       <c r="F250" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H250">
+        <v>2</v>
+      </c>
+      <c r="I250">
         <v>0</v>
       </c>
-      <c r="I250">
-        <v>2</v>
-      </c>
       <c r="J250" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K250">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L250">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M250">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N250">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O250">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P250">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R250">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
+        <v>1.825</v>
+      </c>
+      <c r="T250">
+        <v>3.25</v>
+      </c>
+      <c r="U250">
+        <v>2</v>
+      </c>
+      <c r="V250">
         <v>1.8</v>
       </c>
-      <c r="T250">
-        <v>2.5</v>
-      </c>
-      <c r="U250">
-        <v>1.875</v>
-      </c>
-      <c r="V250">
-        <v>1.925</v>
-      </c>
       <c r="W250">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA250">
+        <v>-0.5</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
+      </c>
+      <c r="AC250">
         <v>0.8</v>
-      </c>
-      <c r="AB250">
-        <v>-1</v>
-      </c>
-      <c r="AC250">
-        <v>0.925</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22768,7 +22768,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22780,76 +22780,76 @@
         <v>45238.875</v>
       </c>
       <c r="F251" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K251">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M251">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N251">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P251">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q251">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T251">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V251">
+        <v>1.925</v>
+      </c>
+      <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
         <v>1.8</v>
       </c>
-      <c r="W251">
-        <v>0.25</v>
-      </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>-1</v>
-      </c>
       <c r="Z251">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -22869,7 +22869,7 @@
         <v>45238.96875</v>
       </c>
       <c r="F252" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
         <v>34</v>
@@ -23136,7 +23136,7 @@
         <v>45241.75</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G255" t="s">
         <v>40</v>
@@ -23317,7 +23317,7 @@
         <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>45245.75</v>
       </c>
       <c r="F261" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G261" t="s">
         <v>30</v>
@@ -23848,7 +23848,7 @@
         <v>45252.75</v>
       </c>
       <c r="F263" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G263" t="s">
         <v>41</v>
@@ -23937,7 +23937,7 @@
         <v>45252.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G264" t="s">
         <v>37</v>
@@ -24293,7 +24293,7 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G268" t="s">
         <v>40</v>
@@ -24370,7 +24370,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24382,76 +24382,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G269" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H269">
         <v>3</v>
       </c>
       <c r="I269">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K269">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L269">
         <v>4.75</v>
       </c>
       <c r="M269">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N269">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O269">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P269">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q269">
         <v>-1.25</v>
       </c>
       <c r="R269">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S269">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T269">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U269">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V269">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA269">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24548,7 +24548,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24560,76 +24560,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G271" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H271">
         <v>3</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J271" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K271">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L271">
         <v>4.75</v>
       </c>
       <c r="M271">
+        <v>8</v>
+      </c>
+      <c r="N271">
+        <v>1.444</v>
+      </c>
+      <c r="O271">
+        <v>4.333</v>
+      </c>
+      <c r="P271">
         <v>7</v>
-      </c>
-      <c r="N271">
-        <v>1.363</v>
-      </c>
-      <c r="O271">
-        <v>4.75</v>
-      </c>
-      <c r="P271">
-        <v>8.5</v>
       </c>
       <c r="Q271">
         <v>-1.25</v>
       </c>
       <c r="R271">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S271">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T271">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U271">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W271">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z271">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA271">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB271">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC271">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -25450,7 +25450,7 @@
         <v>45304.75</v>
       </c>
       <c r="F281" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G281" t="s">
         <v>40</v>
@@ -25720,7 +25720,7 @@
         <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -25987,7 +25987,7 @@
         <v>31</v>
       </c>
       <c r="G287" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26162,7 +26162,7 @@
         <v>45308.91666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G289" t="s">
         <v>37</v>
@@ -26429,7 +26429,7 @@
         <v>45311.75</v>
       </c>
       <c r="F292" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G292" t="s">
         <v>29</v>
@@ -26607,7 +26607,7 @@
         <v>45311.95833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G294" t="s">
         <v>40</v>
@@ -27052,7 +27052,7 @@
         <v>45315.75</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G299" t="s">
         <v>34</v>
@@ -27411,7 +27411,7 @@
         <v>41</v>
       </c>
       <c r="G303" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H303">
         <v>2</v>
@@ -27764,10 +27764,10 @@
         <v>45319.75</v>
       </c>
       <c r="F307" t="s">
+        <v>36</v>
+      </c>
+      <c r="G307" t="s">
         <v>35</v>
-      </c>
-      <c r="G307" t="s">
-        <v>36</v>
       </c>
       <c r="H307">
         <v>3</v>
@@ -28123,7 +28123,7 @@
         <v>37</v>
       </c>
       <c r="G311" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28301,7 +28301,7 @@
         <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28390,7 +28390,7 @@
         <v>39</v>
       </c>
       <c r="G314" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -29010,7 +29010,7 @@
         <v>45339.92708333334</v>
       </c>
       <c r="F321" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G321" t="s">
         <v>29</v>
@@ -29169,6 +29169,95 @@
       </c>
       <c r="AC322">
         <v>0.9750000000000001</v>
+      </c>
+    </row>
+    <row r="323" spans="1:29">
+      <c r="A323" s="1">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>7623912</v>
+      </c>
+      <c r="C323" t="s">
+        <v>28</v>
+      </c>
+      <c r="D323" t="s">
+        <v>28</v>
+      </c>
+      <c r="E323" s="2">
+        <v>45340.875</v>
+      </c>
+      <c r="F323" t="s">
+        <v>30</v>
+      </c>
+      <c r="G323" t="s">
+        <v>35</v>
+      </c>
+      <c r="H323">
+        <v>2</v>
+      </c>
+      <c r="I323">
+        <v>1</v>
+      </c>
+      <c r="J323" t="s">
+        <v>43</v>
+      </c>
+      <c r="K323">
+        <v>1.8</v>
+      </c>
+      <c r="L323">
+        <v>3.5</v>
+      </c>
+      <c r="M323">
+        <v>3.75</v>
+      </c>
+      <c r="N323">
+        <v>1.5</v>
+      </c>
+      <c r="O323">
+        <v>3.8</v>
+      </c>
+      <c r="P323">
+        <v>5.5</v>
+      </c>
+      <c r="Q323">
+        <v>-1</v>
+      </c>
+      <c r="R323">
+        <v>1.85</v>
+      </c>
+      <c r="S323">
+        <v>1.95</v>
+      </c>
+      <c r="T323">
+        <v>2.75</v>
+      </c>
+      <c r="U323">
+        <v>2</v>
+      </c>
+      <c r="V323">
+        <v>1.8</v>
+      </c>
+      <c r="W323">
+        <v>0.5</v>
+      </c>
+      <c r="X323">
+        <v>-1</v>
+      </c>
+      <c r="Y323">
+        <v>-1</v>
+      </c>
+      <c r="Z323">
+        <v>0</v>
+      </c>
+      <c r="AA323">
+        <v>-0</v>
+      </c>
+      <c r="AB323">
+        <v>0.5</v>
+      </c>
+      <c r="AC323">
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Sporting San Jose</t>
   </si>
   <si>
-    <t>AD Guanacasteca</t>
+    <t>Puntarenas</t>
   </si>
   <si>
-    <t>Puntarenas</t>
+    <t>AD Guanacasteca</t>
   </si>
   <si>
     <t>Alajuelense</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC323"/>
+  <dimension ref="A1:AC325"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5965123</v>
+        <v>5963906</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,37 +1156,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M8">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="N8">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
         <v>1.8</v>
@@ -1198,31 +1198,31 @@
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5963906</v>
+        <v>5965123</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,37 +1245,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L9">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
         <v>1.8</v>
@@ -1287,31 +1287,31 @@
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>44950.75</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1957,7 +1957,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2224,7 +2224,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>44955.75</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5965131</v>
+        <v>5965129</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,13 +2488,13 @@
         <v>44955.875</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2503,34 +2503,34 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L23">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
         <v>1.85</v>
@@ -2539,7 +2539,7 @@
         <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5965129</v>
+        <v>5965131</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,13 +2577,13 @@
         <v>44955.875</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2592,34 +2592,34 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N24">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
         <v>1.85</v>
@@ -2628,7 +2628,7 @@
         <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2637,7 +2637,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>44965.75</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3645,7 +3645,7 @@
         <v>44965.95833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
         <v>31</v>
@@ -4004,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4093,7 +4093,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4446,10 +4446,10 @@
         <v>44975.75</v>
       </c>
       <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
         <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>44980.91666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5425,7 +5425,7 @@
         <v>44982.75</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5781,7 +5781,7 @@
         <v>44983.84375</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -6140,7 +6140,7 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -6760,7 +6760,7 @@
         <v>44997.75</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7119,7 +7119,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7650,7 +7650,7 @@
         <v>45009.95833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G81" t="s">
         <v>33</v>
@@ -7742,7 +7742,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8095,7 +8095,7 @@
         <v>45013.75</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>30</v>
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>45017.75</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>39</v>
@@ -9074,7 +9074,7 @@
         <v>45019.9375</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>38</v>
@@ -9166,7 +9166,7 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9964,7 +9964,7 @@
         <v>45031.91666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -10053,7 +10053,7 @@
         <v>45032.75</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10498,10 +10498,10 @@
         <v>45035.9375</v>
       </c>
       <c r="F113" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" t="s">
         <v>36</v>
-      </c>
-      <c r="G113" t="s">
-        <v>35</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10765,7 +10765,7 @@
         <v>45038.75</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -10857,7 +10857,7 @@
         <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11302,7 +11302,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11747,7 +11747,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6601572</v>
+        <v>5965203</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,46 +12100,46 @@
         <v>45053.75</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G131" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L131">
         <v>3.5</v>
       </c>
       <c r="M131">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N131">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P131">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q131">
         <v>-0.25</v>
       </c>
       <c r="R131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.5</v>
@@ -12151,25 +12151,25 @@
         <v>1.875</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X131">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA131">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC131">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5965205</v>
+        <v>6601572</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12192,73 +12192,73 @@
         <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K132">
+        <v>1.8</v>
+      </c>
+      <c r="L132">
         <v>3.5</v>
       </c>
-      <c r="L132">
-        <v>3.3</v>
-      </c>
       <c r="M132">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P132">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y132">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
         <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5965203</v>
+        <v>5965205</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45053.75</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -13880,7 +13880,7 @@
         <v>45137.75</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -14147,7 +14147,7 @@
         <v>45143.75</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14506,7 +14506,7 @@
         <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>45151.875</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>33</v>
@@ -15482,7 +15482,7 @@
         <v>45158.75</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15660,7 +15660,7 @@
         <v>45159.75</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -16105,10 +16105,10 @@
         <v>45165.75</v>
       </c>
       <c r="F176" t="s">
+        <v>36</v>
+      </c>
+      <c r="G176" t="s">
         <v>35</v>
-      </c>
-      <c r="G176" t="s">
-        <v>36</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,49 +16283,49 @@
         <v>45171.75</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K178">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L178">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M178">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N178">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O178">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P178">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T178">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U178">
         <v>1.9</v>
@@ -16334,25 +16334,25 @@
         <v>1.9</v>
       </c>
       <c r="W178">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,49 +16372,49 @@
         <v>45171.75</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K179">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L179">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M179">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N179">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O179">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P179">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S179">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U179">
         <v>1.9</v>
@@ -16423,25 +16423,25 @@
         <v>1.9</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA179">
+        <v>-1</v>
+      </c>
+      <c r="AB179">
+        <v>-1</v>
+      </c>
+      <c r="AC179">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB179">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC179">
-        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16817,7 +16817,7 @@
         <v>45178.75</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
         <v>39</v>
@@ -16909,7 +16909,7 @@
         <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17532,7 +17532,7 @@
         <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17707,7 +17707,7 @@
         <v>45182.91666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
         <v>41</v>
@@ -17977,7 +17977,7 @@
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18244,7 +18244,7 @@
         <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18419,7 +18419,7 @@
         <v>45188.75</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
         <v>37</v>
@@ -18867,7 +18867,7 @@
         <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>45192.75</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
         <v>31</v>
@@ -19220,7 +19220,7 @@
         <v>45193.75</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
         <v>39</v>
@@ -19490,7 +19490,7 @@
         <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19935,7 +19935,7 @@
         <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>4</v>
@@ -20288,7 +20288,7 @@
         <v>45207.75</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
         <v>31</v>
@@ -20469,7 +20469,7 @@
         <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20736,7 +20736,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H228">
         <v>4</v>
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K231">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N231">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O231">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
+        <v>1.825</v>
+      </c>
+      <c r="V231">
         <v>1.975</v>
       </c>
-      <c r="V231">
-        <v>1.825</v>
-      </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y231">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC231">
-        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,76 +21089,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J232" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K232">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M232">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N232">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P232">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q232">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U232">
+        <v>1.975</v>
+      </c>
+      <c r="V232">
         <v>1.825</v>
       </c>
-      <c r="V232">
-        <v>1.975</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21712,10 +21712,10 @@
         <v>45227.75</v>
       </c>
       <c r="F239" t="s">
+        <v>35</v>
+      </c>
+      <c r="G239" t="s">
         <v>36</v>
-      </c>
-      <c r="G239" t="s">
-        <v>35</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -22071,7 +22071,7 @@
         <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22157,7 +22157,7 @@
         <v>45234.75</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G244" t="s">
         <v>29</v>
@@ -22605,7 +22605,7 @@
         <v>39</v>
       </c>
       <c r="G249" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22869,7 +22869,7 @@
         <v>45238.96875</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G252" t="s">
         <v>34</v>
@@ -23136,7 +23136,7 @@
         <v>45241.75</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G255" t="s">
         <v>40</v>
@@ -23317,7 +23317,7 @@
         <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>45245.75</v>
       </c>
       <c r="F261" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G261" t="s">
         <v>30</v>
@@ -23848,7 +23848,7 @@
         <v>45252.75</v>
       </c>
       <c r="F263" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G263" t="s">
         <v>41</v>
@@ -23937,7 +23937,7 @@
         <v>45252.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G264" t="s">
         <v>37</v>
@@ -24293,7 +24293,7 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G268" t="s">
         <v>40</v>
@@ -24459,7 +24459,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24471,76 +24471,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F270" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G270" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J270" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K270">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L270">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M270">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N270">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O270">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P270">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q270">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R270">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S270">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T270">
         <v>2.75</v>
       </c>
       <c r="U270">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V270">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W270">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z270">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC270">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24548,7 +24548,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24560,76 +24560,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F271" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G271" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I271">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J271" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K271">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L271">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M271">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N271">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O271">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P271">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q271">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S271">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T271">
         <v>2.75</v>
       </c>
       <c r="U271">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V271">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X271">
         <v>-1</v>
       </c>
       <c r="Y271">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z271">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA271">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -25450,7 +25450,7 @@
         <v>45304.75</v>
       </c>
       <c r="F281" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G281" t="s">
         <v>40</v>
@@ -25720,7 +25720,7 @@
         <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -25987,7 +25987,7 @@
         <v>31</v>
       </c>
       <c r="G287" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26162,7 +26162,7 @@
         <v>45308.91666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G289" t="s">
         <v>37</v>
@@ -26429,7 +26429,7 @@
         <v>45311.75</v>
       </c>
       <c r="F292" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G292" t="s">
         <v>29</v>
@@ -26607,7 +26607,7 @@
         <v>45311.95833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G294" t="s">
         <v>40</v>
@@ -27052,7 +27052,7 @@
         <v>45315.75</v>
       </c>
       <c r="F299" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G299" t="s">
         <v>34</v>
@@ -27411,7 +27411,7 @@
         <v>41</v>
       </c>
       <c r="G303" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H303">
         <v>2</v>
@@ -27764,10 +27764,10 @@
         <v>45319.75</v>
       </c>
       <c r="F307" t="s">
+        <v>35</v>
+      </c>
+      <c r="G307" t="s">
         <v>36</v>
-      </c>
-      <c r="G307" t="s">
-        <v>35</v>
       </c>
       <c r="H307">
         <v>3</v>
@@ -28123,7 +28123,7 @@
         <v>37</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28301,7 +28301,7 @@
         <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28390,7 +28390,7 @@
         <v>39</v>
       </c>
       <c r="G314" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -29010,7 +29010,7 @@
         <v>45339.92708333334</v>
       </c>
       <c r="F321" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G321" t="s">
         <v>29</v>
@@ -29191,7 +29191,7 @@
         <v>30</v>
       </c>
       <c r="G323" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H323">
         <v>2</v>
@@ -29258,6 +29258,154 @@
       </c>
       <c r="AC323">
         <v>-0.5</v>
+      </c>
+    </row>
+    <row r="324" spans="1:29">
+      <c r="A324" s="1">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>7764338</v>
+      </c>
+      <c r="C324" t="s">
+        <v>28</v>
+      </c>
+      <c r="D324" t="s">
+        <v>28</v>
+      </c>
+      <c r="E324" s="2">
+        <v>45342.91666666666</v>
+      </c>
+      <c r="F324" t="s">
+        <v>34</v>
+      </c>
+      <c r="G324" t="s">
+        <v>35</v>
+      </c>
+      <c r="K324">
+        <v>2.1</v>
+      </c>
+      <c r="L324">
+        <v>3.3</v>
+      </c>
+      <c r="M324">
+        <v>3</v>
+      </c>
+      <c r="N324">
+        <v>2</v>
+      </c>
+      <c r="O324">
+        <v>3.4</v>
+      </c>
+      <c r="P324">
+        <v>3.2</v>
+      </c>
+      <c r="Q324">
+        <v>-0.25</v>
+      </c>
+      <c r="R324">
+        <v>1.8</v>
+      </c>
+      <c r="S324">
+        <v>2</v>
+      </c>
+      <c r="T324">
+        <v>2.25</v>
+      </c>
+      <c r="U324">
+        <v>1.9</v>
+      </c>
+      <c r="V324">
+        <v>1.9</v>
+      </c>
+      <c r="W324">
+        <v>0</v>
+      </c>
+      <c r="X324">
+        <v>0</v>
+      </c>
+      <c r="Y324">
+        <v>0</v>
+      </c>
+      <c r="Z324">
+        <v>0</v>
+      </c>
+      <c r="AA324">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:29">
+      <c r="A325" s="1">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>7764528</v>
+      </c>
+      <c r="C325" t="s">
+        <v>28</v>
+      </c>
+      <c r="D325" t="s">
+        <v>28</v>
+      </c>
+      <c r="E325" s="2">
+        <v>45342.95833333334</v>
+      </c>
+      <c r="F325" t="s">
+        <v>37</v>
+      </c>
+      <c r="G325" t="s">
+        <v>39</v>
+      </c>
+      <c r="K325">
+        <v>1.533</v>
+      </c>
+      <c r="L325">
+        <v>4</v>
+      </c>
+      <c r="M325">
+        <v>5</v>
+      </c>
+      <c r="N325">
+        <v>1.222</v>
+      </c>
+      <c r="O325">
+        <v>5.75</v>
+      </c>
+      <c r="P325">
+        <v>8</v>
+      </c>
+      <c r="Q325">
+        <v>-1.75</v>
+      </c>
+      <c r="R325">
+        <v>1.975</v>
+      </c>
+      <c r="S325">
+        <v>1.825</v>
+      </c>
+      <c r="T325">
+        <v>3</v>
+      </c>
+      <c r="U325">
+        <v>1.85</v>
+      </c>
+      <c r="V325">
+        <v>1.95</v>
+      </c>
+      <c r="W325">
+        <v>0</v>
+      </c>
+      <c r="X325">
+        <v>0</v>
+      </c>
+      <c r="Y325">
+        <v>0</v>
+      </c>
+      <c r="Z325">
+        <v>0</v>
+      </c>
+      <c r="AA325">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1646" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Sporting San Jose</t>
   </si>
   <si>
-    <t>Puntarenas</t>
+    <t>AD Guanacasteca</t>
   </si>
   <si>
-    <t>AD Guanacasteca</t>
+    <t>Puntarenas</t>
   </si>
   <si>
     <t>Alajuelense</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC325"/>
+  <dimension ref="A1:AC328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5963906</v>
+        <v>5965123</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,37 +1156,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
         <v>1.8</v>
@@ -1198,31 +1198,31 @@
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5965123</v>
+        <v>5963906</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,37 +1245,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M9">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="N9">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
         <v>1.8</v>
@@ -1287,31 +1287,31 @@
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>44950.75</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1957,7 +1957,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2224,7 +2224,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>44955.75</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>44965.75</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5965138</v>
+        <v>5965141</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,58 +3556,58 @@
         <v>44965.95833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>43</v>
       </c>
       <c r="K35">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O35">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P35">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q35">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3616,16 +3616,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA35">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5965141</v>
+        <v>5965138</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>44965.95833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>43</v>
       </c>
       <c r="K36">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3705,16 +3705,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4093,7 +4093,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4446,10 +4446,10 @@
         <v>44975.75</v>
       </c>
       <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
         <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>44980.91666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5425,7 +5425,7 @@
         <v>44982.75</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5781,7 +5781,7 @@
         <v>44983.84375</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -6140,7 +6140,7 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -6760,7 +6760,7 @@
         <v>44997.75</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7119,7 +7119,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7650,7 +7650,7 @@
         <v>45009.95833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
         <v>33</v>
@@ -7742,7 +7742,7 @@
         <v>37</v>
       </c>
       <c r="G82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H82">
         <v>2</v>
@@ -8095,7 +8095,7 @@
         <v>45013.75</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>30</v>
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>45017.75</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>39</v>
@@ -9074,7 +9074,7 @@
         <v>45019.9375</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>38</v>
@@ -9166,7 +9166,7 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9964,7 +9964,7 @@
         <v>45031.91666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -10053,7 +10053,7 @@
         <v>45032.75</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10498,10 +10498,10 @@
         <v>45035.9375</v>
       </c>
       <c r="F113" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" t="s">
         <v>35</v>
-      </c>
-      <c r="G113" t="s">
-        <v>36</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10765,7 +10765,7 @@
         <v>45038.75</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -10857,7 +10857,7 @@
         <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11302,7 +11302,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5963942</v>
+        <v>5965201</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M124">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N124">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P124">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X124">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5965201</v>
+        <v>5963942</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="L125">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5965204</v>
+        <v>6601572</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45053.75</v>
       </c>
       <c r="F130" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H130">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>44</v>
+      </c>
+      <c r="K130">
+        <v>1.8</v>
+      </c>
+      <c r="L130">
+        <v>3.5</v>
+      </c>
+      <c r="M130">
+        <v>3.75</v>
+      </c>
+      <c r="N130">
+        <v>2.1</v>
+      </c>
+      <c r="O130">
+        <v>3.4</v>
+      </c>
+      <c r="P130">
         <v>3</v>
       </c>
-      <c r="I130">
-        <v>2</v>
-      </c>
-      <c r="J130" t="s">
-        <v>43</v>
-      </c>
-      <c r="K130">
-        <v>5</v>
-      </c>
-      <c r="L130">
-        <v>3.75</v>
-      </c>
-      <c r="M130">
-        <v>1.533</v>
-      </c>
-      <c r="N130">
-        <v>4</v>
-      </c>
-      <c r="O130">
-        <v>3.8</v>
-      </c>
-      <c r="P130">
-        <v>1.615</v>
-      </c>
       <c r="Q130">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5965203</v>
+        <v>5965205</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,73 +12100,73 @@
         <v>45053.75</v>
       </c>
       <c r="F131" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L131">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N131">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O131">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="Q131">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
         <v>2.5</v>
       </c>
       <c r="U131">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z131">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB131">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6601572</v>
+        <v>5965204</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,76 +12189,76 @@
         <v>45053.75</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K132">
+        <v>5</v>
+      </c>
+      <c r="L132">
+        <v>3.75</v>
+      </c>
+      <c r="M132">
+        <v>1.533</v>
+      </c>
+      <c r="N132">
+        <v>4</v>
+      </c>
+      <c r="O132">
+        <v>3.8</v>
+      </c>
+      <c r="P132">
+        <v>1.615</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+      <c r="R132">
         <v>1.8</v>
       </c>
-      <c r="L132">
-        <v>3.5</v>
-      </c>
-      <c r="M132">
-        <v>3.75</v>
-      </c>
-      <c r="N132">
-        <v>2.1</v>
-      </c>
-      <c r="O132">
-        <v>3.4</v>
-      </c>
-      <c r="P132">
+      <c r="S132">
+        <v>2</v>
+      </c>
+      <c r="T132">
+        <v>3.25</v>
+      </c>
+      <c r="U132">
+        <v>1.825</v>
+      </c>
+      <c r="V132">
+        <v>1.975</v>
+      </c>
+      <c r="W132">
         <v>3</v>
       </c>
-      <c r="Q132">
-        <v>-0.25</v>
-      </c>
-      <c r="R132">
-        <v>1.9</v>
-      </c>
-      <c r="S132">
-        <v>1.9</v>
-      </c>
-      <c r="T132">
-        <v>2.5</v>
-      </c>
-      <c r="U132">
-        <v>1.925</v>
-      </c>
-      <c r="V132">
-        <v>1.875</v>
-      </c>
-      <c r="W132">
-        <v>-1</v>
-      </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA132">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5965205</v>
+        <v>5965203</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45053.75</v>
       </c>
       <c r="F133" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K133">
+        <v>1.85</v>
+      </c>
+      <c r="L133">
         <v>3.5</v>
       </c>
-      <c r="L133">
-        <v>3.3</v>
-      </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N133">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P133">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -13171,7 +13171,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -13880,7 +13880,7 @@
         <v>45137.75</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -14147,7 +14147,7 @@
         <v>45143.75</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14506,7 +14506,7 @@
         <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>45151.875</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
         <v>33</v>
@@ -15482,7 +15482,7 @@
         <v>45158.75</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15660,7 +15660,7 @@
         <v>45159.75</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -16105,10 +16105,10 @@
         <v>45165.75</v>
       </c>
       <c r="F176" t="s">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
         <v>36</v>
-      </c>
-      <c r="G176" t="s">
-        <v>35</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16372,7 +16372,7 @@
         <v>45171.75</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
         <v>32</v>
@@ -16553,7 +16553,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16817,7 +16817,7 @@
         <v>45178.75</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
         <v>39</v>
@@ -16909,7 +16909,7 @@
         <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17532,7 +17532,7 @@
         <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17707,7 +17707,7 @@
         <v>45182.91666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
         <v>41</v>
@@ -17977,7 +17977,7 @@
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18244,7 +18244,7 @@
         <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18419,7 +18419,7 @@
         <v>45188.75</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
         <v>37</v>
@@ -18867,7 +18867,7 @@
         <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>45192.75</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>31</v>
@@ -19220,7 +19220,7 @@
         <v>45193.75</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
         <v>39</v>
@@ -19490,7 +19490,7 @@
         <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19935,7 +19935,7 @@
         <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>4</v>
@@ -20288,7 +20288,7 @@
         <v>45207.75</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
         <v>31</v>
@@ -20469,7 +20469,7 @@
         <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20736,7 +20736,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>4</v>
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J231" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K231">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N231">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P231">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q231">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R231">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U231">
+        <v>1.975</v>
+      </c>
+      <c r="V231">
         <v>1.825</v>
       </c>
-      <c r="V231">
-        <v>1.975</v>
-      </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC231">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,76 +21089,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I232">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K232">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L232">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M232">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N232">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O232">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P232">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q232">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R232">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S232">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T232">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
+        <v>1.825</v>
+      </c>
+      <c r="V232">
         <v>1.975</v>
       </c>
-      <c r="V232">
-        <v>1.825</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y232">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21270,7 +21270,7 @@
         <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21712,10 +21712,10 @@
         <v>45227.75</v>
       </c>
       <c r="F239" t="s">
+        <v>36</v>
+      </c>
+      <c r="G239" t="s">
         <v>35</v>
-      </c>
-      <c r="G239" t="s">
-        <v>36</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -22071,7 +22071,7 @@
         <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22157,7 +22157,7 @@
         <v>45234.75</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G244" t="s">
         <v>29</v>
@@ -22605,7 +22605,7 @@
         <v>39</v>
       </c>
       <c r="G249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22869,7 +22869,7 @@
         <v>45238.96875</v>
       </c>
       <c r="F252" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
         <v>34</v>
@@ -23136,7 +23136,7 @@
         <v>45241.75</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G255" t="s">
         <v>40</v>
@@ -23317,7 +23317,7 @@
         <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>45245.75</v>
       </c>
       <c r="F261" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G261" t="s">
         <v>30</v>
@@ -23848,7 +23848,7 @@
         <v>45252.75</v>
       </c>
       <c r="F263" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G263" t="s">
         <v>41</v>
@@ -23937,7 +23937,7 @@
         <v>45252.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G264" t="s">
         <v>37</v>
@@ -24293,7 +24293,7 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G268" t="s">
         <v>40</v>
@@ -24370,7 +24370,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24382,76 +24382,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G269" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H269">
         <v>3</v>
       </c>
       <c r="I269">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J269" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K269">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L269">
         <v>4.75</v>
       </c>
       <c r="M269">
+        <v>8</v>
+      </c>
+      <c r="N269">
+        <v>1.444</v>
+      </c>
+      <c r="O269">
+        <v>4.333</v>
+      </c>
+      <c r="P269">
         <v>7</v>
-      </c>
-      <c r="N269">
-        <v>1.363</v>
-      </c>
-      <c r="O269">
-        <v>4.75</v>
-      </c>
-      <c r="P269">
-        <v>8.5</v>
       </c>
       <c r="Q269">
         <v>-1.25</v>
       </c>
       <c r="R269">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S269">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T269">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U269">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V269">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W269">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z269">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA269">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB269">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC269">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24459,7 +24459,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24471,76 +24471,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F270" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G270" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H270">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I270">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J270" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K270">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L270">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M270">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N270">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O270">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P270">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q270">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R270">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S270">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T270">
         <v>2.75</v>
       </c>
       <c r="U270">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V270">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W270">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z270">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA270">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB270">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC270">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24548,7 +24548,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24560,13 +24560,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F271" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -24575,25 +24575,25 @@
         <v>43</v>
       </c>
       <c r="K271">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L271">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M271">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N271">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O271">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P271">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q271">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R271">
         <v>1.8</v>
@@ -24602,16 +24602,16 @@
         <v>2</v>
       </c>
       <c r="T271">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U271">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W271">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24626,10 +24626,10 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC271">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -25450,7 +25450,7 @@
         <v>45304.75</v>
       </c>
       <c r="F281" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G281" t="s">
         <v>40</v>
@@ -25720,7 +25720,7 @@
         <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -25987,7 +25987,7 @@
         <v>31</v>
       </c>
       <c r="G287" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26162,7 +26162,7 @@
         <v>45308.91666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G289" t="s">
         <v>37</v>
@@ -26429,7 +26429,7 @@
         <v>45311.75</v>
       </c>
       <c r="F292" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G292" t="s">
         <v>29</v>
@@ -26607,7 +26607,7 @@
         <v>45311.95833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G294" t="s">
         <v>40</v>
@@ -27052,7 +27052,7 @@
         <v>45315.75</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G299" t="s">
         <v>34</v>
@@ -27411,7 +27411,7 @@
         <v>41</v>
       </c>
       <c r="G303" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H303">
         <v>2</v>
@@ -27764,10 +27764,10 @@
         <v>45319.75</v>
       </c>
       <c r="F307" t="s">
+        <v>36</v>
+      </c>
+      <c r="G307" t="s">
         <v>35</v>
-      </c>
-      <c r="G307" t="s">
-        <v>36</v>
       </c>
       <c r="H307">
         <v>3</v>
@@ -28123,7 +28123,7 @@
         <v>37</v>
       </c>
       <c r="G311" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28301,7 +28301,7 @@
         <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28390,7 +28390,7 @@
         <v>39</v>
       </c>
       <c r="G314" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -29010,7 +29010,7 @@
         <v>45339.92708333334</v>
       </c>
       <c r="F321" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G321" t="s">
         <v>29</v>
@@ -29191,7 +29191,7 @@
         <v>30</v>
       </c>
       <c r="G323" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H323">
         <v>2</v>
@@ -29280,7 +29280,16 @@
         <v>34</v>
       </c>
       <c r="G324" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324">
+        <v>0</v>
+      </c>
+      <c r="J324" t="s">
+        <v>43</v>
       </c>
       <c r="K324">
         <v>2.1</v>
@@ -29313,25 +29322,31 @@
         <v>2.25</v>
       </c>
       <c r="U324">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V324">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y324">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z324">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA324">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB324">
+        <v>-1</v>
+      </c>
+      <c r="AC324">
+        <v>0.95</v>
       </c>
     </row>
     <row r="325" spans="1:29">
@@ -29356,6 +29371,15 @@
       <c r="G325" t="s">
         <v>39</v>
       </c>
+      <c r="H325">
+        <v>3</v>
+      </c>
+      <c r="I325">
+        <v>2</v>
+      </c>
+      <c r="J325" t="s">
+        <v>43</v>
+      </c>
       <c r="K325">
         <v>1.533</v>
       </c>
@@ -29372,16 +29396,16 @@
         <v>5.75</v>
       </c>
       <c r="P325">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q325">
         <v>-1.75</v>
       </c>
       <c r="R325">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S325">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T325">
         <v>3</v>
@@ -29393,18 +29417,261 @@
         <v>1.95</v>
       </c>
       <c r="W325">
+        <v>0.222</v>
+      </c>
+      <c r="X325">
+        <v>-1</v>
+      </c>
+      <c r="Y325">
+        <v>-1</v>
+      </c>
+      <c r="Z325">
+        <v>-1</v>
+      </c>
+      <c r="AA325">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB325">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC325">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:29">
+      <c r="A326" s="1">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>7764930</v>
+      </c>
+      <c r="C326" t="s">
+        <v>28</v>
+      </c>
+      <c r="D326" t="s">
+        <v>28</v>
+      </c>
+      <c r="E326" s="2">
+        <v>45343.75</v>
+      </c>
+      <c r="F326" t="s">
+        <v>35</v>
+      </c>
+      <c r="G326" t="s">
+        <v>41</v>
+      </c>
+      <c r="H326">
+        <v>1</v>
+      </c>
+      <c r="I326">
+        <v>1</v>
+      </c>
+      <c r="J326" t="s">
+        <v>44</v>
+      </c>
+      <c r="K326">
+        <v>2</v>
+      </c>
+      <c r="L326">
+        <v>3.4</v>
+      </c>
+      <c r="M326">
+        <v>3.2</v>
+      </c>
+      <c r="N326">
+        <v>2.25</v>
+      </c>
+      <c r="O326">
+        <v>3.4</v>
+      </c>
+      <c r="P326">
+        <v>2.7</v>
+      </c>
+      <c r="Q326">
+        <v>-0.25</v>
+      </c>
+      <c r="R326">
+        <v>2.025</v>
+      </c>
+      <c r="S326">
+        <v>1.775</v>
+      </c>
+      <c r="T326">
+        <v>2.5</v>
+      </c>
+      <c r="U326">
+        <v>1.8</v>
+      </c>
+      <c r="V326">
+        <v>2</v>
+      </c>
+      <c r="W326">
+        <v>-1</v>
+      </c>
+      <c r="X326">
+        <v>2.4</v>
+      </c>
+      <c r="Y326">
+        <v>-1</v>
+      </c>
+      <c r="Z326">
+        <v>-0.5</v>
+      </c>
+      <c r="AA326">
+        <v>0.3875</v>
+      </c>
+      <c r="AB326">
+        <v>-1</v>
+      </c>
+      <c r="AC326">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:29">
+      <c r="A327" s="1">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>7764929</v>
+      </c>
+      <c r="C327" t="s">
+        <v>28</v>
+      </c>
+      <c r="D327" t="s">
+        <v>28</v>
+      </c>
+      <c r="E327" s="2">
+        <v>45343.91666666666</v>
+      </c>
+      <c r="F327" t="s">
+        <v>32</v>
+      </c>
+      <c r="G327" t="s">
+        <v>31</v>
+      </c>
+      <c r="K327">
+        <v>1.909</v>
+      </c>
+      <c r="L327">
+        <v>3.3</v>
+      </c>
+      <c r="M327">
+        <v>3.5</v>
+      </c>
+      <c r="N327">
+        <v>1.909</v>
+      </c>
+      <c r="O327">
+        <v>3.3</v>
+      </c>
+      <c r="P327">
+        <v>3.5</v>
+      </c>
+      <c r="Q327">
+        <v>-0.5</v>
+      </c>
+      <c r="R327">
+        <v>1.925</v>
+      </c>
+      <c r="S327">
+        <v>1.875</v>
+      </c>
+      <c r="T327">
+        <v>2.75</v>
+      </c>
+      <c r="U327">
+        <v>2</v>
+      </c>
+      <c r="V327">
+        <v>1.8</v>
+      </c>
+      <c r="W327">
         <v>0</v>
       </c>
-      <c r="X325">
+      <c r="X327">
         <v>0</v>
       </c>
-      <c r="Y325">
+      <c r="Y327">
         <v>0</v>
       </c>
-      <c r="Z325">
+      <c r="Z327">
         <v>0</v>
       </c>
-      <c r="AA325">
+      <c r="AA327">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:29">
+      <c r="A328" s="1">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>7763915</v>
+      </c>
+      <c r="C328" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" t="s">
+        <v>28</v>
+      </c>
+      <c r="E328" s="2">
+        <v>45343.95833333334</v>
+      </c>
+      <c r="F328" t="s">
+        <v>30</v>
+      </c>
+      <c r="G328" t="s">
+        <v>29</v>
+      </c>
+      <c r="K328">
+        <v>1.25</v>
+      </c>
+      <c r="L328">
+        <v>5</v>
+      </c>
+      <c r="M328">
+        <v>9</v>
+      </c>
+      <c r="N328">
+        <v>1.285</v>
+      </c>
+      <c r="O328">
+        <v>5</v>
+      </c>
+      <c r="P328">
+        <v>8</v>
+      </c>
+      <c r="Q328">
+        <v>-1.5</v>
+      </c>
+      <c r="R328">
+        <v>1.85</v>
+      </c>
+      <c r="S328">
+        <v>1.95</v>
+      </c>
+      <c r="T328">
+        <v>3</v>
+      </c>
+      <c r="U328">
+        <v>2.025</v>
+      </c>
+      <c r="V328">
+        <v>1.775</v>
+      </c>
+      <c r="W328">
+        <v>0</v>
+      </c>
+      <c r="X328">
+        <v>0</v>
+      </c>
+      <c r="Y328">
+        <v>0</v>
+      </c>
+      <c r="Z328">
+        <v>0</v>
+      </c>
+      <c r="AA328">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5965129</v>
+        <v>5965131</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,13 +2488,13 @@
         <v>44955.875</v>
       </c>
       <c r="F23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2503,34 +2503,34 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L23">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M23">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N23">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O23">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P23">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q23">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S23">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T23">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U23">
         <v>1.85</v>
@@ -2539,7 +2539,7 @@
         <v>1.95</v>
       </c>
       <c r="W23">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5965131</v>
+        <v>5965129</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,13 +2577,13 @@
         <v>44955.875</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2592,34 +2592,34 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M24">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N24">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O24">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P24">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R24">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S24">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U24">
         <v>1.85</v>
@@ -2628,7 +2628,7 @@
         <v>1.95</v>
       </c>
       <c r="W24">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2637,7 +2637,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -7638,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>5963929</v>
+        <v>5965170</v>
       </c>
       <c r="C81" t="s">
         <v>28</v>
@@ -7650,58 +7650,58 @@
         <v>45009.95833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J81" t="s">
         <v>43</v>
       </c>
       <c r="K81">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="L81">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M81">
+        <v>8</v>
+      </c>
+      <c r="N81">
+        <v>1.285</v>
+      </c>
+      <c r="O81">
+        <v>5</v>
+      </c>
+      <c r="P81">
+        <v>9</v>
+      </c>
+      <c r="Q81">
+        <v>-1.5</v>
+      </c>
+      <c r="R81">
+        <v>1.825</v>
+      </c>
+      <c r="S81">
+        <v>1.975</v>
+      </c>
+      <c r="T81">
+        <v>2.75</v>
+      </c>
+      <c r="U81">
         <v>1.8</v>
       </c>
-      <c r="N81">
-        <v>4.2</v>
-      </c>
-      <c r="O81">
-        <v>3.3</v>
-      </c>
-      <c r="P81">
-        <v>1.75</v>
-      </c>
-      <c r="Q81">
-        <v>0.5</v>
-      </c>
-      <c r="R81">
-        <v>2</v>
-      </c>
-      <c r="S81">
-        <v>1.8</v>
-      </c>
-      <c r="T81">
-        <v>2.25</v>
-      </c>
-      <c r="U81">
-        <v>1.975</v>
-      </c>
       <c r="V81">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W81">
-        <v>3.2</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X81">
         <v>-1</v>
@@ -7710,16 +7710,16 @@
         <v>-1</v>
       </c>
       <c r="Z81">
+        <v>0.825</v>
+      </c>
+      <c r="AA81">
+        <v>-1</v>
+      </c>
+      <c r="AB81">
+        <v>-1</v>
+      </c>
+      <c r="AC81">
         <v>1</v>
-      </c>
-      <c r="AA81">
-        <v>-1</v>
-      </c>
-      <c r="AB81">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AC81">
-        <v>-1</v>
       </c>
     </row>
     <row r="82" spans="1:29">
@@ -7727,7 +7727,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>5965170</v>
+        <v>5963929</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7739,58 +7739,58 @@
         <v>45009.95833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>43</v>
       </c>
       <c r="K82">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="L82">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M82">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="N82">
-        <v>1.285</v>
+        <v>4.2</v>
       </c>
       <c r="O82">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="P82">
-        <v>9</v>
+        <v>1.75</v>
       </c>
       <c r="Q82">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R82">
+        <v>2</v>
+      </c>
+      <c r="S82">
+        <v>1.8</v>
+      </c>
+      <c r="T82">
+        <v>2.25</v>
+      </c>
+      <c r="U82">
+        <v>1.975</v>
+      </c>
+      <c r="V82">
         <v>1.825</v>
       </c>
-      <c r="S82">
-        <v>1.975</v>
-      </c>
-      <c r="T82">
-        <v>2.75</v>
-      </c>
-      <c r="U82">
-        <v>1.8</v>
-      </c>
-      <c r="V82">
-        <v>2</v>
-      </c>
       <c r="W82">
-        <v>0.2849999999999999</v>
+        <v>3.2</v>
       </c>
       <c r="X82">
         <v>-1</v>
@@ -7799,16 +7799,16 @@
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AA82">
         <v>-1</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC82">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5965176</v>
+        <v>5965174</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,16 +8451,16 @@
         <v>45015.95833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>43</v>
@@ -8472,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="M90">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N90">
         <v>1.363</v>
@@ -8481,19 +8481,19 @@
         <v>5</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
         <v>1.925</v>
@@ -8511,16 +8511,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5965174</v>
+        <v>5965176</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,16 +8540,16 @@
         <v>45015.95833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
@@ -8561,7 +8561,7 @@
         <v>4</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N91">
         <v>1.363</v>
@@ -8570,19 +8570,19 @@
         <v>5</v>
       </c>
       <c r="P91">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U91">
         <v>1.925</v>
@@ -8600,16 +8600,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA91">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5963936</v>
+        <v>5965190</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,10 +9697,10 @@
         <v>45030.91666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,46 +9712,46 @@
         <v>44</v>
       </c>
       <c r="K104">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L104">
         <v>3.25</v>
       </c>
       <c r="M104">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N104">
         <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P104">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S104">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T104">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V104">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9760,13 +9760,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB104">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC104">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5965190</v>
+        <v>5963936</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,10 +9786,10 @@
         <v>45030.91666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9801,46 +9801,46 @@
         <v>44</v>
       </c>
       <c r="K105">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L105">
         <v>3.25</v>
       </c>
       <c r="M105">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
         <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P105">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U105">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V105">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -9849,13 +9849,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC105">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5965201</v>
+        <v>5963942</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G124" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H124">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K124">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="L124">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M124">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N124">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="O124">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P124">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q124">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R124">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S124">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T124">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W124">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC124">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5963942</v>
+        <v>5965201</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K125">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="L125">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N125">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="O125">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P125">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q125">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S125">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V125">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W125">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X125">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC125">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6601572</v>
+        <v>5965205</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,76 +12011,76 @@
         <v>45053.75</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="L130">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N130">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P130">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="Q130">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z130">
         <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>0.45</v>
+        <v>0.4375</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12088,7 +12088,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>5965205</v>
+        <v>5965204</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12100,73 +12100,73 @@
         <v>45053.75</v>
       </c>
       <c r="F131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>2</v>
+      </c>
+      <c r="J131" t="s">
+        <v>43</v>
+      </c>
+      <c r="K131">
+        <v>5</v>
+      </c>
+      <c r="L131">
+        <v>3.75</v>
+      </c>
+      <c r="M131">
+        <v>1.533</v>
+      </c>
+      <c r="N131">
+        <v>4</v>
+      </c>
+      <c r="O131">
+        <v>3.8</v>
+      </c>
+      <c r="P131">
+        <v>1.615</v>
+      </c>
+      <c r="Q131">
         <v>1</v>
       </c>
-      <c r="I131">
-        <v>2</v>
-      </c>
-      <c r="J131" t="s">
-        <v>42</v>
-      </c>
-      <c r="K131">
-        <v>3.5</v>
-      </c>
-      <c r="L131">
-        <v>3.3</v>
-      </c>
-      <c r="M131">
-        <v>1.909</v>
-      </c>
-      <c r="N131">
-        <v>4.5</v>
-      </c>
-      <c r="O131">
-        <v>3.6</v>
-      </c>
-      <c r="P131">
-        <v>1.65</v>
-      </c>
-      <c r="Q131">
-        <v>0.75</v>
-      </c>
       <c r="R131">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC131">
         <v>-1</v>
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5965204</v>
+        <v>6601572</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,76 +12189,76 @@
         <v>45053.75</v>
       </c>
       <c r="F132" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H132">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>44</v>
+      </c>
+      <c r="K132">
+        <v>1.8</v>
+      </c>
+      <c r="L132">
+        <v>3.5</v>
+      </c>
+      <c r="M132">
+        <v>3.75</v>
+      </c>
+      <c r="N132">
+        <v>2.1</v>
+      </c>
+      <c r="O132">
+        <v>3.4</v>
+      </c>
+      <c r="P132">
         <v>3</v>
       </c>
-      <c r="I132">
-        <v>2</v>
-      </c>
-      <c r="J132" t="s">
-        <v>43</v>
-      </c>
-      <c r="K132">
-        <v>5</v>
-      </c>
-      <c r="L132">
-        <v>3.75</v>
-      </c>
-      <c r="M132">
-        <v>1.533</v>
-      </c>
-      <c r="N132">
-        <v>4</v>
-      </c>
-      <c r="O132">
-        <v>3.8</v>
-      </c>
-      <c r="P132">
-        <v>1.615</v>
-      </c>
       <c r="Q132">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S132">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AB132">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC132">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -22679,7 +22679,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22691,76 +22691,76 @@
         <v>45238.875</v>
       </c>
       <c r="F250" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G250" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K250">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L250">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M250">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N250">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O250">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P250">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q250">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R250">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S250">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T250">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U250">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V250">
+        <v>1.925</v>
+      </c>
+      <c r="W250">
+        <v>-1</v>
+      </c>
+      <c r="X250">
+        <v>-1</v>
+      </c>
+      <c r="Y250">
         <v>1.8</v>
       </c>
-      <c r="W250">
-        <v>0.25</v>
-      </c>
-      <c r="X250">
-        <v>-1</v>
-      </c>
-      <c r="Y250">
-        <v>-1</v>
-      </c>
       <c r="Z250">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA250">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB250">
         <v>-1</v>
       </c>
       <c r="AC250">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22768,7 +22768,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22780,76 +22780,76 @@
         <v>45238.875</v>
       </c>
       <c r="F251" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G251" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H251">
+        <v>2</v>
+      </c>
+      <c r="I251">
         <v>0</v>
       </c>
-      <c r="I251">
-        <v>2</v>
-      </c>
       <c r="J251" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K251">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L251">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M251">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N251">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O251">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P251">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q251">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R251">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S251">
+        <v>1.825</v>
+      </c>
+      <c r="T251">
+        <v>3.25</v>
+      </c>
+      <c r="U251">
+        <v>2</v>
+      </c>
+      <c r="V251">
         <v>1.8</v>
       </c>
-      <c r="T251">
-        <v>2.5</v>
-      </c>
-      <c r="U251">
-        <v>1.875</v>
-      </c>
-      <c r="V251">
-        <v>1.925</v>
-      </c>
       <c r="W251">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X251">
         <v>-1</v>
       </c>
       <c r="Y251">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z251">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA251">
+        <v>-0.5</v>
+      </c>
+      <c r="AB251">
+        <v>-1</v>
+      </c>
+      <c r="AC251">
         <v>0.8</v>
-      </c>
-      <c r="AB251">
-        <v>-1</v>
-      </c>
-      <c r="AC251">
-        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -29549,6 +29549,15 @@
       <c r="G327" t="s">
         <v>31</v>
       </c>
+      <c r="H327">
+        <v>2</v>
+      </c>
+      <c r="I327">
+        <v>0</v>
+      </c>
+      <c r="J327" t="s">
+        <v>43</v>
+      </c>
       <c r="K327">
         <v>1.909</v>
       </c>
@@ -29571,34 +29580,40 @@
         <v>-0.5</v>
       </c>
       <c r="R327">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S327">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="T327">
         <v>2.75</v>
       </c>
       <c r="U327">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V327">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W327">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y327">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z327">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA327">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB327">
+        <v>-1</v>
+      </c>
+      <c r="AC327">
+        <v>0.825</v>
       </c>
     </row>
     <row r="328" spans="1:29">
@@ -29623,6 +29638,15 @@
       <c r="G328" t="s">
         <v>29</v>
       </c>
+      <c r="H328">
+        <v>2</v>
+      </c>
+      <c r="I328">
+        <v>1</v>
+      </c>
+      <c r="J328" t="s">
+        <v>43</v>
+      </c>
       <c r="K328">
         <v>1.25</v>
       </c>
@@ -29654,25 +29678,31 @@
         <v>3</v>
       </c>
       <c r="U328">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V328">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W328">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X328">
+        <v>-1</v>
+      </c>
+      <c r="Y328">
+        <v>-1</v>
+      </c>
+      <c r="Z328">
+        <v>-1</v>
+      </c>
+      <c r="AA328">
+        <v>0.95</v>
+      </c>
+      <c r="AB328">
         <v>0</v>
       </c>
-      <c r="X328">
-        <v>0</v>
-      </c>
-      <c r="Y328">
-        <v>0</v>
-      </c>
-      <c r="Z328">
-        <v>0</v>
-      </c>
-      <c r="AA328">
-        <v>0</v>
+      <c r="AC328">
+        <v>-0</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Sporting San Jose</t>
   </si>
   <si>
-    <t>AD Guanacasteca</t>
+    <t>Puntarenas</t>
   </si>
   <si>
-    <t>Puntarenas</t>
+    <t>AD Guanacasteca</t>
   </si>
   <si>
     <t>Alajuelense</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC328"/>
+  <dimension ref="A1:AC334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5965123</v>
+        <v>5963906</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,37 +1156,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M8">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="N8">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P8">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R8">
         <v>1.8</v>
@@ -1198,31 +1198,31 @@
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V8">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB8">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC8">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5963906</v>
+        <v>5965123</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,37 +1245,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L9">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M9">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="N9">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="O9">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P9">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q9">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
         <v>1.8</v>
@@ -1287,31 +1287,31 @@
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V9">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB9">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC9">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>44950.75</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1957,7 +1957,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2224,7 +2224,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>44955.75</v>
       </c>
       <c r="F22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>44965.75</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5965141</v>
+        <v>5965138</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,58 +3556,58 @@
         <v>44965.95833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="s">
         <v>43</v>
       </c>
       <c r="K35">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="L35">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M35">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N35">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O35">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q35">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S35">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T35">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U35">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V35">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W35">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3616,16 +3616,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5965138</v>
+        <v>5965141</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>44965.95833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="s">
         <v>43</v>
       </c>
       <c r="K36">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L36">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M36">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N36">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O36">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P36">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q36">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R36">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S36">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T36">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U36">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V36">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W36">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3705,16 +3705,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA36">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC36">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4093,7 +4093,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4446,10 +4446,10 @@
         <v>44975.75</v>
       </c>
       <c r="F45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
         <v>35</v>
-      </c>
-      <c r="G45" t="s">
-        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>44980.91666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5425,7 +5425,7 @@
         <v>44982.75</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5781,7 +5781,7 @@
         <v>44983.84375</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -6140,7 +6140,7 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -6760,7 +6760,7 @@
         <v>44997.75</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7119,7 +7119,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7653,7 +7653,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7739,7 +7739,7 @@
         <v>45009.95833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -8095,7 +8095,7 @@
         <v>45013.75</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86" t="s">
         <v>30</v>
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>45017.75</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>39</v>
@@ -9074,7 +9074,7 @@
         <v>45019.9375</v>
       </c>
       <c r="F97" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G97" t="s">
         <v>38</v>
@@ -9166,7 +9166,7 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9685,7 +9685,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>5965190</v>
+        <v>5963936</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9697,10 +9697,10 @@
         <v>45030.91666666666</v>
       </c>
       <c r="F104" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G104" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>1</v>
@@ -9712,46 +9712,46 @@
         <v>44</v>
       </c>
       <c r="K104">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L104">
         <v>3.25</v>
       </c>
       <c r="M104">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="N104">
         <v>2.15</v>
       </c>
       <c r="O104">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P104">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q104">
         <v>-0.25</v>
       </c>
       <c r="R104">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S104">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T104">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U104">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V104">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W104">
         <v>-1</v>
       </c>
       <c r="X104">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y104">
         <v>-1</v>
@@ -9760,13 +9760,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA104">
-        <v>0.4375</v>
+        <v>0.475</v>
       </c>
       <c r="AB104">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC104">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="105" spans="1:29">
@@ -9774,7 +9774,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>5963936</v>
+        <v>5965190</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9786,10 +9786,10 @@
         <v>45030.91666666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H105">
         <v>1</v>
@@ -9801,46 +9801,46 @@
         <v>44</v>
       </c>
       <c r="K105">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="L105">
         <v>3.25</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="N105">
         <v>2.15</v>
       </c>
       <c r="O105">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P105">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q105">
         <v>-0.25</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U105">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V105">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W105">
         <v>-1</v>
       </c>
       <c r="X105">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="Y105">
         <v>-1</v>
@@ -9849,13 +9849,13 @@
         <v>-0.5</v>
       </c>
       <c r="AA105">
-        <v>0.475</v>
+        <v>0.4375</v>
       </c>
       <c r="AB105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9964,7 +9964,7 @@
         <v>45031.91666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -10053,7 +10053,7 @@
         <v>45032.75</v>
       </c>
       <c r="F108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10498,10 +10498,10 @@
         <v>45035.9375</v>
       </c>
       <c r="F113" t="s">
+        <v>35</v>
+      </c>
+      <c r="G113" t="s">
         <v>36</v>
-      </c>
-      <c r="G113" t="s">
-        <v>35</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10765,7 +10765,7 @@
         <v>45038.75</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -10857,7 +10857,7 @@
         <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11302,7 +11302,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11465,7 +11465,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>5963942</v>
+        <v>5965201</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11477,76 +11477,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G124" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K124">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="L124">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="M124">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="N124">
-        <v>3.75</v>
+        <v>1.285</v>
       </c>
       <c r="O124">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P124">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q124">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R124">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S124">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T124">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U124">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W124">
-        <v>-1</v>
+        <v>0.2849999999999999</v>
       </c>
       <c r="X124">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y124">
         <v>-1</v>
       </c>
       <c r="Z124">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA124">
         <v>-1</v>
       </c>
       <c r="AB124">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC124">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11554,7 +11554,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>5965201</v>
+        <v>5963942</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11566,76 +11566,76 @@
         <v>45045.95833333334</v>
       </c>
       <c r="F125" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G125" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H125">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K125">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="L125">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N125">
-        <v>1.285</v>
+        <v>3.75</v>
       </c>
       <c r="O125">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P125">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q125">
-        <v>-1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R125">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S125">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T125">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U125">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
-        <v>0.2849999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X125">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y125">
         <v>-1</v>
       </c>
       <c r="Z125">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA125">
         <v>-1</v>
       </c>
       <c r="AB125">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC125">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11747,7 +11747,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>5965205</v>
+        <v>6601572</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12014,73 +12014,73 @@
         <v>36</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K130">
+        <v>1.8</v>
+      </c>
+      <c r="L130">
         <v>3.5</v>
       </c>
-      <c r="L130">
-        <v>3.3</v>
-      </c>
       <c r="M130">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="N130">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O130">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="Q130">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S130">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T130">
         <v>2.5</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y130">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
         <v>-0.5</v>
       </c>
       <c r="AA130">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6601572</v>
+        <v>5965205</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12192,73 +12192,73 @@
         <v>35</v>
       </c>
       <c r="G132" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>3.75</v>
+        <v>1.909</v>
       </c>
       <c r="N132">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="O132">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
         <v>-1</v>
       </c>
       <c r="X132">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z132">
         <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>0.45</v>
+        <v>0.4375</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -13880,7 +13880,7 @@
         <v>45137.75</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -14147,7 +14147,7 @@
         <v>45143.75</v>
       </c>
       <c r="F154" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14506,7 +14506,7 @@
         <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>45151.875</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G165" t="s">
         <v>33</v>
@@ -15482,7 +15482,7 @@
         <v>45158.75</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15660,7 +15660,7 @@
         <v>45159.75</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -16105,10 +16105,10 @@
         <v>45165.75</v>
       </c>
       <c r="F176" t="s">
+        <v>36</v>
+      </c>
+      <c r="G176" t="s">
         <v>35</v>
-      </c>
-      <c r="G176" t="s">
-        <v>36</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16271,7 +16271,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16283,49 +16283,49 @@
         <v>45171.75</v>
       </c>
       <c r="F178" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G178" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H178">
         <v>1</v>
       </c>
       <c r="I178">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K178">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L178">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M178">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N178">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O178">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P178">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q178">
         <v>-0.25</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S178">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T178">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U178">
         <v>1.9</v>
@@ -16334,25 +16334,25 @@
         <v>1.9</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA178">
+        <v>-1</v>
+      </c>
+      <c r="AB178">
+        <v>-1</v>
+      </c>
+      <c r="AC178">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB178">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC178">
-        <v>-1</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16360,7 +16360,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16372,49 +16372,49 @@
         <v>45171.75</v>
       </c>
       <c r="F179" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H179">
         <v>1</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K179">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L179">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M179">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N179">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O179">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P179">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q179">
         <v>-0.25</v>
       </c>
       <c r="R179">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T179">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U179">
         <v>1.9</v>
@@ -16423,25 +16423,25 @@
         <v>1.9</v>
       </c>
       <c r="W179">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z179">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB179">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16553,7 +16553,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16817,7 +16817,7 @@
         <v>45178.75</v>
       </c>
       <c r="F184" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G184" t="s">
         <v>39</v>
@@ -16909,7 +16909,7 @@
         <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17532,7 +17532,7 @@
         <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17707,7 +17707,7 @@
         <v>45182.91666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G194" t="s">
         <v>41</v>
@@ -17977,7 +17977,7 @@
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18244,7 +18244,7 @@
         <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18419,7 +18419,7 @@
         <v>45188.75</v>
       </c>
       <c r="F202" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G202" t="s">
         <v>37</v>
@@ -18867,7 +18867,7 @@
         <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>45192.75</v>
       </c>
       <c r="F208" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G208" t="s">
         <v>31</v>
@@ -19220,7 +19220,7 @@
         <v>45193.75</v>
       </c>
       <c r="F211" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G211" t="s">
         <v>39</v>
@@ -19490,7 +19490,7 @@
         <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19935,7 +19935,7 @@
         <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H219">
         <v>4</v>
@@ -20288,7 +20288,7 @@
         <v>45207.75</v>
       </c>
       <c r="F223" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G223" t="s">
         <v>31</v>
@@ -20469,7 +20469,7 @@
         <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20736,7 +20736,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H228">
         <v>4</v>
@@ -21092,7 +21092,7 @@
         <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H232">
         <v>1</v>
@@ -21270,7 +21270,7 @@
         <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,76 +21356,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G235" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H235">
         <v>2</v>
       </c>
       <c r="I235">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J235" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K235">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L235">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M235">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N235">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O235">
         <v>3.5</v>
       </c>
       <c r="P235">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q235">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R235">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S235">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
+        <v>2</v>
+      </c>
+      <c r="V235">
         <v>1.8</v>
       </c>
-      <c r="V235">
-        <v>2</v>
-      </c>
       <c r="W235">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z235">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA235">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
         <v>0.8</v>
-      </c>
-      <c r="AC235">
-        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21445,76 +21445,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G236" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H236">
         <v>2</v>
       </c>
       <c r="I236">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J236" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K236">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L236">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M236">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N236">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O236">
         <v>3.5</v>
       </c>
       <c r="P236">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q236">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R236">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S236">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T236">
         <v>2.75</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W236">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z236">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB236">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC236">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21712,10 +21712,10 @@
         <v>45227.75</v>
       </c>
       <c r="F239" t="s">
+        <v>35</v>
+      </c>
+      <c r="G239" t="s">
         <v>36</v>
-      </c>
-      <c r="G239" t="s">
-        <v>35</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -22071,7 +22071,7 @@
         <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22157,7 +22157,7 @@
         <v>45234.75</v>
       </c>
       <c r="F244" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G244" t="s">
         <v>29</v>
@@ -22605,7 +22605,7 @@
         <v>39</v>
       </c>
       <c r="G249" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22869,7 +22869,7 @@
         <v>45238.96875</v>
       </c>
       <c r="F252" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G252" t="s">
         <v>34</v>
@@ -23136,7 +23136,7 @@
         <v>45241.75</v>
       </c>
       <c r="F255" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G255" t="s">
         <v>40</v>
@@ -23317,7 +23317,7 @@
         <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>45245.75</v>
       </c>
       <c r="F261" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G261" t="s">
         <v>30</v>
@@ -23848,7 +23848,7 @@
         <v>45252.75</v>
       </c>
       <c r="F263" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G263" t="s">
         <v>41</v>
@@ -23937,7 +23937,7 @@
         <v>45252.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G264" t="s">
         <v>37</v>
@@ -24293,7 +24293,7 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G268" t="s">
         <v>40</v>
@@ -24370,7 +24370,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24382,76 +24382,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G269" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H269">
         <v>3</v>
       </c>
       <c r="I269">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J269" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K269">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L269">
         <v>4.75</v>
       </c>
       <c r="M269">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N269">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O269">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P269">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q269">
         <v>-1.25</v>
       </c>
       <c r="R269">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S269">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T269">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U269">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V269">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W269">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X269">
         <v>-1</v>
       </c>
       <c r="Y269">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z269">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA269">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC269">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24459,7 +24459,7 @@
         <v>268</v>
       </c>
       <c r="B270">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C270" t="s">
         <v>28</v>
@@ -24471,76 +24471,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F270" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G270" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I270">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J270" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K270">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L270">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M270">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N270">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O270">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P270">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q270">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R270">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S270">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T270">
         <v>2.75</v>
       </c>
       <c r="U270">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V270">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W270">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X270">
         <v>-1</v>
       </c>
       <c r="Y270">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z270">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA270">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB270">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC270">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="271" spans="1:29">
@@ -24548,7 +24548,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24560,13 +24560,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G271" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -24575,25 +24575,25 @@
         <v>43</v>
       </c>
       <c r="K271">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L271">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M271">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N271">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O271">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P271">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q271">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
         <v>1.8</v>
@@ -24602,16 +24602,16 @@
         <v>2</v>
       </c>
       <c r="T271">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U271">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24626,10 +24626,10 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -25450,7 +25450,7 @@
         <v>45304.75</v>
       </c>
       <c r="F281" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G281" t="s">
         <v>40</v>
@@ -25720,7 +25720,7 @@
         <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -25987,7 +25987,7 @@
         <v>31</v>
       </c>
       <c r="G287" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26162,7 +26162,7 @@
         <v>45308.91666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G289" t="s">
         <v>37</v>
@@ -26429,7 +26429,7 @@
         <v>45311.75</v>
       </c>
       <c r="F292" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G292" t="s">
         <v>29</v>
@@ -26607,7 +26607,7 @@
         <v>45311.95833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G294" t="s">
         <v>40</v>
@@ -27052,7 +27052,7 @@
         <v>45315.75</v>
       </c>
       <c r="F299" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G299" t="s">
         <v>34</v>
@@ -27411,7 +27411,7 @@
         <v>41</v>
       </c>
       <c r="G303" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H303">
         <v>2</v>
@@ -27764,10 +27764,10 @@
         <v>45319.75</v>
       </c>
       <c r="F307" t="s">
+        <v>35</v>
+      </c>
+      <c r="G307" t="s">
         <v>36</v>
-      </c>
-      <c r="G307" t="s">
-        <v>35</v>
       </c>
       <c r="H307">
         <v>3</v>
@@ -28123,7 +28123,7 @@
         <v>37</v>
       </c>
       <c r="G311" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28301,7 +28301,7 @@
         <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28390,7 +28390,7 @@
         <v>39</v>
       </c>
       <c r="G314" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -29010,7 +29010,7 @@
         <v>45339.92708333334</v>
       </c>
       <c r="F321" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G321" t="s">
         <v>29</v>
@@ -29191,7 +29191,7 @@
         <v>30</v>
       </c>
       <c r="G323" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H323">
         <v>2</v>
@@ -29280,7 +29280,7 @@
         <v>34</v>
       </c>
       <c r="G324" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H324">
         <v>1</v>
@@ -29455,7 +29455,7 @@
         <v>45343.75</v>
       </c>
       <c r="F326" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G326" t="s">
         <v>41</v>
@@ -29703,6 +29703,450 @@
       </c>
       <c r="AC328">
         <v>-0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:29">
+      <c r="A329" s="1">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>7623917</v>
+      </c>
+      <c r="C329" t="s">
+        <v>28</v>
+      </c>
+      <c r="D329" t="s">
+        <v>28</v>
+      </c>
+      <c r="E329" s="2">
+        <v>45346.75</v>
+      </c>
+      <c r="F329" t="s">
+        <v>36</v>
+      </c>
+      <c r="G329" t="s">
+        <v>33</v>
+      </c>
+      <c r="K329">
+        <v>5</v>
+      </c>
+      <c r="L329">
+        <v>3.75</v>
+      </c>
+      <c r="M329">
+        <v>1.571</v>
+      </c>
+      <c r="N329">
+        <v>4.75</v>
+      </c>
+      <c r="O329">
+        <v>3.4</v>
+      </c>
+      <c r="P329">
+        <v>1.666</v>
+      </c>
+      <c r="Q329">
+        <v>0.75</v>
+      </c>
+      <c r="R329">
+        <v>1.875</v>
+      </c>
+      <c r="S329">
+        <v>1.925</v>
+      </c>
+      <c r="T329">
+        <v>2.25</v>
+      </c>
+      <c r="U329">
+        <v>1.775</v>
+      </c>
+      <c r="V329">
+        <v>2.025</v>
+      </c>
+      <c r="W329">
+        <v>0</v>
+      </c>
+      <c r="X329">
+        <v>0</v>
+      </c>
+      <c r="Y329">
+        <v>0</v>
+      </c>
+      <c r="Z329">
+        <v>0</v>
+      </c>
+      <c r="AA329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:29">
+      <c r="A330" s="1">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>7623918</v>
+      </c>
+      <c r="C330" t="s">
+        <v>28</v>
+      </c>
+      <c r="D330" t="s">
+        <v>28</v>
+      </c>
+      <c r="E330" s="2">
+        <v>45346.875</v>
+      </c>
+      <c r="F330" t="s">
+        <v>37</v>
+      </c>
+      <c r="G330" t="s">
+        <v>30</v>
+      </c>
+      <c r="K330">
+        <v>1.909</v>
+      </c>
+      <c r="L330">
+        <v>3.5</v>
+      </c>
+      <c r="M330">
+        <v>3.4</v>
+      </c>
+      <c r="N330">
+        <v>1.85</v>
+      </c>
+      <c r="O330">
+        <v>3.5</v>
+      </c>
+      <c r="P330">
+        <v>3.6</v>
+      </c>
+      <c r="Q330">
+        <v>-0.5</v>
+      </c>
+      <c r="R330">
+        <v>1.9</v>
+      </c>
+      <c r="S330">
+        <v>1.9</v>
+      </c>
+      <c r="T330">
+        <v>2.5</v>
+      </c>
+      <c r="U330">
+        <v>1.8</v>
+      </c>
+      <c r="V330">
+        <v>2</v>
+      </c>
+      <c r="W330">
+        <v>0</v>
+      </c>
+      <c r="X330">
+        <v>0</v>
+      </c>
+      <c r="Y330">
+        <v>0</v>
+      </c>
+      <c r="Z330">
+        <v>0</v>
+      </c>
+      <c r="AA330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:29">
+      <c r="A331" s="1">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>7623985</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331" t="s">
+        <v>28</v>
+      </c>
+      <c r="E331" s="2">
+        <v>45346.875</v>
+      </c>
+      <c r="F331" t="s">
+        <v>32</v>
+      </c>
+      <c r="G331" t="s">
+        <v>35</v>
+      </c>
+      <c r="K331">
+        <v>1.571</v>
+      </c>
+      <c r="L331">
+        <v>3.75</v>
+      </c>
+      <c r="M331">
+        <v>5</v>
+      </c>
+      <c r="N331">
+        <v>1.571</v>
+      </c>
+      <c r="O331">
+        <v>3.75</v>
+      </c>
+      <c r="P331">
+        <v>5</v>
+      </c>
+      <c r="Q331">
+        <v>-1</v>
+      </c>
+      <c r="R331">
+        <v>2.025</v>
+      </c>
+      <c r="S331">
+        <v>1.775</v>
+      </c>
+      <c r="T331">
+        <v>2.5</v>
+      </c>
+      <c r="U331">
+        <v>1.8</v>
+      </c>
+      <c r="V331">
+        <v>2</v>
+      </c>
+      <c r="W331">
+        <v>0</v>
+      </c>
+      <c r="X331">
+        <v>0</v>
+      </c>
+      <c r="Y331">
+        <v>0</v>
+      </c>
+      <c r="Z331">
+        <v>0</v>
+      </c>
+      <c r="AA331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:29">
+      <c r="A332" s="1">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>7623919</v>
+      </c>
+      <c r="C332" t="s">
+        <v>28</v>
+      </c>
+      <c r="D332" t="s">
+        <v>28</v>
+      </c>
+      <c r="E332" s="2">
+        <v>45347.75</v>
+      </c>
+      <c r="F332" t="s">
+        <v>41</v>
+      </c>
+      <c r="G332" t="s">
+        <v>34</v>
+      </c>
+      <c r="K332">
+        <v>1.75</v>
+      </c>
+      <c r="L332">
+        <v>3.6</v>
+      </c>
+      <c r="M332">
+        <v>3.8</v>
+      </c>
+      <c r="N332">
+        <v>1.75</v>
+      </c>
+      <c r="O332">
+        <v>3.6</v>
+      </c>
+      <c r="P332">
+        <v>3.75</v>
+      </c>
+      <c r="Q332">
+        <v>-0.75</v>
+      </c>
+      <c r="R332">
+        <v>2.025</v>
+      </c>
+      <c r="S332">
+        <v>1.775</v>
+      </c>
+      <c r="T332">
+        <v>2.75</v>
+      </c>
+      <c r="U332">
+        <v>1.975</v>
+      </c>
+      <c r="V332">
+        <v>1.825</v>
+      </c>
+      <c r="W332">
+        <v>0</v>
+      </c>
+      <c r="X332">
+        <v>0</v>
+      </c>
+      <c r="Y332">
+        <v>0</v>
+      </c>
+      <c r="Z332">
+        <v>0</v>
+      </c>
+      <c r="AA332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:29">
+      <c r="A333" s="1">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>7623916</v>
+      </c>
+      <c r="C333" t="s">
+        <v>28</v>
+      </c>
+      <c r="D333" t="s">
+        <v>28</v>
+      </c>
+      <c r="E333" s="2">
+        <v>45347.75</v>
+      </c>
+      <c r="F333" t="s">
+        <v>29</v>
+      </c>
+      <c r="G333" t="s">
+        <v>40</v>
+      </c>
+      <c r="K333">
+        <v>2.05</v>
+      </c>
+      <c r="L333">
+        <v>3.3</v>
+      </c>
+      <c r="M333">
+        <v>3.2</v>
+      </c>
+      <c r="N333">
+        <v>2</v>
+      </c>
+      <c r="O333">
+        <v>3.3</v>
+      </c>
+      <c r="P333">
+        <v>3.4</v>
+      </c>
+      <c r="Q333">
+        <v>-0.5</v>
+      </c>
+      <c r="R333">
+        <v>2.025</v>
+      </c>
+      <c r="S333">
+        <v>1.775</v>
+      </c>
+      <c r="T333">
+        <v>2.5</v>
+      </c>
+      <c r="U333">
+        <v>1.825</v>
+      </c>
+      <c r="V333">
+        <v>1.975</v>
+      </c>
+      <c r="W333">
+        <v>0</v>
+      </c>
+      <c r="X333">
+        <v>0</v>
+      </c>
+      <c r="Y333">
+        <v>0</v>
+      </c>
+      <c r="Z333">
+        <v>0</v>
+      </c>
+      <c r="AA333">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:29">
+      <c r="A334" s="1">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>7623986</v>
+      </c>
+      <c r="C334" t="s">
+        <v>28</v>
+      </c>
+      <c r="D334" t="s">
+        <v>28</v>
+      </c>
+      <c r="E334" s="2">
+        <v>45347.875</v>
+      </c>
+      <c r="F334" t="s">
+        <v>39</v>
+      </c>
+      <c r="G334" t="s">
+        <v>31</v>
+      </c>
+      <c r="K334">
+        <v>2.625</v>
+      </c>
+      <c r="L334">
+        <v>3.3</v>
+      </c>
+      <c r="M334">
+        <v>2.375</v>
+      </c>
+      <c r="N334">
+        <v>2.625</v>
+      </c>
+      <c r="O334">
+        <v>3.3</v>
+      </c>
+      <c r="P334">
+        <v>2.375</v>
+      </c>
+      <c r="Q334">
+        <v>0</v>
+      </c>
+      <c r="R334">
+        <v>2.025</v>
+      </c>
+      <c r="S334">
+        <v>1.775</v>
+      </c>
+      <c r="T334">
+        <v>2.75</v>
+      </c>
+      <c r="U334">
+        <v>2</v>
+      </c>
+      <c r="V334">
+        <v>1.8</v>
+      </c>
+      <c r="W334">
+        <v>0</v>
+      </c>
+      <c r="X334">
+        <v>0</v>
+      </c>
+      <c r="Y334">
+        <v>0</v>
+      </c>
+      <c r="Z334">
+        <v>0</v>
+      </c>
+      <c r="AA334">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5965131</v>
+        <v>5965129</v>
       </c>
       <c r="C23" t="s">
         <v>28</v>
@@ -2488,13 +2488,13 @@
         <v>44955.875</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -2503,34 +2503,34 @@
         <v>43</v>
       </c>
       <c r="K23">
-        <v>2.375</v>
+        <v>1.727</v>
       </c>
       <c r="L23">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M23">
-        <v>2.6</v>
+        <v>3.8</v>
       </c>
       <c r="N23">
-        <v>2.7</v>
+        <v>1.615</v>
       </c>
       <c r="O23">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P23">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R23">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S23">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T23">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U23">
         <v>1.85</v>
@@ -2539,7 +2539,7 @@
         <v>1.95</v>
       </c>
       <c r="W23">
-        <v>1.7</v>
+        <v>0.615</v>
       </c>
       <c r="X23">
         <v>-1</v>
@@ -2548,7 +2548,7 @@
         <v>-1</v>
       </c>
       <c r="Z23">
-        <v>1.05</v>
+        <v>0.875</v>
       </c>
       <c r="AA23">
         <v>-1</v>
@@ -2565,7 +2565,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5965129</v>
+        <v>5965131</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2577,13 +2577,13 @@
         <v>44955.875</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2592,34 +2592,34 @@
         <v>43</v>
       </c>
       <c r="K24">
-        <v>1.727</v>
+        <v>2.375</v>
       </c>
       <c r="L24">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="N24">
-        <v>1.615</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P24">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="Q24">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>1.75</v>
       </c>
       <c r="T24">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U24">
         <v>1.85</v>
@@ -2628,7 +2628,7 @@
         <v>1.95</v>
       </c>
       <c r="W24">
-        <v>0.615</v>
+        <v>1.7</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2637,7 +2637,7 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.875</v>
+        <v>1.05</v>
       </c>
       <c r="AA24">
         <v>-1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5965174</v>
+        <v>5965176</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,16 +8451,16 @@
         <v>45015.95833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>43</v>
@@ -8472,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="M90">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N90">
         <v>1.363</v>
@@ -8481,19 +8481,19 @@
         <v>5</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q90">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U90">
         <v>1.925</v>
@@ -8511,16 +8511,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA90">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5965176</v>
+        <v>5965174</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,16 +8540,16 @@
         <v>45015.95833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
@@ -8561,7 +8561,7 @@
         <v>4</v>
       </c>
       <c r="M91">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N91">
         <v>1.363</v>
@@ -8570,19 +8570,19 @@
         <v>5</v>
       </c>
       <c r="P91">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R91">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S91">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
         <v>1.925</v>
@@ -8600,16 +8600,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB91">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC91">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5965205</v>
+        <v>5965203</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,73 +12189,73 @@
         <v>45053.75</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K132">
+        <v>1.85</v>
+      </c>
+      <c r="L132">
         <v>3.5</v>
       </c>
-      <c r="L132">
-        <v>3.3</v>
-      </c>
       <c r="M132">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N132">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="O132">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P132">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="Q132">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R132">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V132">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W132">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z132">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA132">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AB132">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5965203</v>
+        <v>5965205</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12278,73 +12278,73 @@
         <v>45053.75</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I133">
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K133">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L133">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M133">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N133">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O133">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P133">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="Q133">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R133">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S133">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W133">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X133">
         <v>-1</v>
       </c>
       <c r="Y133">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z133">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB133">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC133">
         <v>-1</v>
@@ -20988,7 +20988,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -21000,76 +21000,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F231" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G231" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I231">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K231">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N231">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O231">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q231">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T231">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U231">
+        <v>1.825</v>
+      </c>
+      <c r="V231">
         <v>1.975</v>
       </c>
-      <c r="V231">
-        <v>1.825</v>
-      </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y231">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
         <v>-1</v>
       </c>
       <c r="AA231">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC231">
-        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21077,7 +21077,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21089,76 +21089,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G232" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J232" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="K232">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L232">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M232">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N232">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O232">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P232">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q232">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R232">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S232">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U232">
+        <v>1.975</v>
+      </c>
+      <c r="V232">
         <v>1.825</v>
       </c>
-      <c r="V232">
-        <v>1.975</v>
-      </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z232">
         <v>-1</v>
       </c>
       <c r="AA232">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC232">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -22679,7 +22679,7 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C250" t="s">
         <v>28</v>
@@ -22691,76 +22691,76 @@
         <v>45238.875</v>
       </c>
       <c r="F250" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G250" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="H250">
+        <v>2</v>
+      </c>
+      <c r="I250">
         <v>0</v>
       </c>
-      <c r="I250">
-        <v>2</v>
-      </c>
       <c r="J250" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K250">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L250">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M250">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N250">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O250">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P250">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q250">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R250">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S250">
+        <v>1.825</v>
+      </c>
+      <c r="T250">
+        <v>3.25</v>
+      </c>
+      <c r="U250">
+        <v>2</v>
+      </c>
+      <c r="V250">
         <v>1.8</v>
       </c>
-      <c r="T250">
-        <v>2.5</v>
-      </c>
-      <c r="U250">
-        <v>1.875</v>
-      </c>
-      <c r="V250">
-        <v>1.925</v>
-      </c>
       <c r="W250">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X250">
         <v>-1</v>
       </c>
       <c r="Y250">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z250">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA250">
+        <v>-0.5</v>
+      </c>
+      <c r="AB250">
+        <v>-1</v>
+      </c>
+      <c r="AC250">
         <v>0.8</v>
-      </c>
-      <c r="AB250">
-        <v>-1</v>
-      </c>
-      <c r="AC250">
-        <v>0.925</v>
       </c>
     </row>
     <row r="251" spans="1:29">
@@ -22768,7 +22768,7 @@
         <v>249</v>
       </c>
       <c r="B251">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C251" t="s">
         <v>28</v>
@@ -22780,76 +22780,76 @@
         <v>45238.875</v>
       </c>
       <c r="F251" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G251" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K251">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L251">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M251">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N251">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O251">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P251">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q251">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R251">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S251">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T251">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U251">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V251">
+        <v>1.925</v>
+      </c>
+      <c r="W251">
+        <v>-1</v>
+      </c>
+      <c r="X251">
+        <v>-1</v>
+      </c>
+      <c r="Y251">
         <v>1.8</v>
       </c>
-      <c r="W251">
-        <v>0.25</v>
-      </c>
-      <c r="X251">
-        <v>-1</v>
-      </c>
-      <c r="Y251">
-        <v>-1</v>
-      </c>
       <c r="Z251">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA251">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB251">
         <v>-1</v>
       </c>
       <c r="AC251">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="252" spans="1:29">
@@ -24370,7 +24370,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24382,13 +24382,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G269" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H269">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -24397,25 +24397,25 @@
         <v>43</v>
       </c>
       <c r="K269">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L269">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M269">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N269">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O269">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P269">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q269">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R269">
         <v>1.8</v>
@@ -24424,16 +24424,16 @@
         <v>2</v>
       </c>
       <c r="T269">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U269">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V269">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W269">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X269">
         <v>-1</v>
@@ -24448,10 +24448,10 @@
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC269">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24548,7 +24548,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24560,13 +24560,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F271" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G271" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -24575,25 +24575,25 @@
         <v>43</v>
       </c>
       <c r="K271">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L271">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M271">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N271">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O271">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P271">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q271">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R271">
         <v>1.8</v>
@@ -24602,16 +24602,16 @@
         <v>2</v>
       </c>
       <c r="T271">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U271">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V271">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W271">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24626,10 +24626,10 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC271">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -29737,31 +29737,31 @@
         <v>1.571</v>
       </c>
       <c r="N329">
-        <v>4.75</v>
+        <v>4.333</v>
       </c>
       <c r="O329">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P329">
-        <v>1.666</v>
+        <v>1.75</v>
       </c>
       <c r="Q329">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R329">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S329">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T329">
         <v>2.25</v>
       </c>
       <c r="U329">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="V329">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W329">
         <v>0</v>
@@ -29811,31 +29811,31 @@
         <v>3.4</v>
       </c>
       <c r="N330">
-        <v>1.85</v>
+        <v>1.833</v>
       </c>
       <c r="O330">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P330">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q330">
         <v>-0.5</v>
       </c>
       <c r="R330">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S330">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T330">
         <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V330">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W330">
         <v>0</v>
@@ -29867,7 +29867,7 @@
         <v>28</v>
       </c>
       <c r="E331" s="2">
-        <v>45346.875</v>
+        <v>45346.9375</v>
       </c>
       <c r="F331" t="s">
         <v>32</v>
@@ -29885,31 +29885,31 @@
         <v>5</v>
       </c>
       <c r="N331">
-        <v>1.571</v>
+        <v>1.615</v>
       </c>
       <c r="O331">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P331">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q331">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R331">
+        <v>1.775</v>
+      </c>
+      <c r="S331">
         <v>2.025</v>
-      </c>
-      <c r="S331">
-        <v>1.775</v>
       </c>
       <c r="T331">
         <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V331">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29932,7 +29932,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29944,31 +29944,31 @@
         <v>45347.75</v>
       </c>
       <c r="F332" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G332" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K332">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L332">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M332">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N332">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="O332">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P332">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q332">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R332">
         <v>2.025</v>
@@ -29977,13 +29977,13 @@
         <v>1.775</v>
       </c>
       <c r="T332">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U332">
+        <v>1.825</v>
+      </c>
+      <c r="V332">
         <v>1.975</v>
-      </c>
-      <c r="V332">
-        <v>1.825</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30006,7 +30006,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30018,31 +30018,31 @@
         <v>45347.75</v>
       </c>
       <c r="F333" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="G333" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="K333">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L333">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M333">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N333">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="O333">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P333">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q333">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R333">
         <v>2.025</v>
@@ -30051,13 +30051,13 @@
         <v>1.775</v>
       </c>
       <c r="T333">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U333">
+        <v>1.975</v>
+      </c>
+      <c r="V333">
         <v>1.825</v>
-      </c>
-      <c r="V333">
-        <v>1.975</v>
       </c>
       <c r="W333">
         <v>0</v>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1687" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Sporting San Jose</t>
   </si>
   <si>
-    <t>Puntarenas</t>
+    <t>AD Guanacasteca</t>
   </si>
   <si>
-    <t>AD Guanacasteca</t>
+    <t>Puntarenas</t>
   </si>
   <si>
     <t>Alajuelense</t>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC334"/>
+  <dimension ref="A1:AC333"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -889,7 +889,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>3</v>
@@ -1141,7 +1141,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5963906</v>
+        <v>5965123</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,37 +1156,37 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>44</v>
       </c>
       <c r="K8">
-        <v>1.533</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>5.75</v>
+        <v>2.15</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="O8">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P8">
-        <v>4.2</v>
+        <v>1.95</v>
       </c>
       <c r="Q8">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
         <v>1.8</v>
@@ -1198,31 +1198,31 @@
         <v>2.5</v>
       </c>
       <c r="U8">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="V8">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="W8">
         <v>-1</v>
       </c>
       <c r="X8">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y8">
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC8">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1230,7 +1230,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5965123</v>
+        <v>5963906</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
@@ -1245,37 +1245,37 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" t="s">
         <v>44</v>
       </c>
       <c r="K9">
-        <v>3.3</v>
+        <v>1.533</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="M9">
-        <v>2.15</v>
+        <v>5.75</v>
       </c>
       <c r="N9">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P9">
-        <v>1.95</v>
+        <v>4.2</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R9">
         <v>1.8</v>
@@ -1287,31 +1287,31 @@
         <v>2.5</v>
       </c>
       <c r="U9">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V9">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W9">
         <v>-1</v>
       </c>
       <c r="X9">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y9">
         <v>-1</v>
       </c>
       <c r="Z9">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA9">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC9">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="10" spans="1:29">
@@ -1598,7 +1598,7 @@
         <v>44950.75</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G13" t="s">
         <v>37</v>
@@ -1957,7 +1957,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2224,7 +2224,7 @@
         <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>44955.75</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G22" t="s">
         <v>39</v>
@@ -2936,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="G28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>38</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -3467,7 +3467,7 @@
         <v>44965.75</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G34" t="s">
         <v>34</v>
@@ -3544,7 +3544,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5965138</v>
+        <v>5965141</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3556,58 +3556,58 @@
         <v>44965.95833333334</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>2</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>43</v>
       </c>
       <c r="K35">
-        <v>1.615</v>
+        <v>2.05</v>
       </c>
       <c r="L35">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M35">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="N35">
-        <v>1.333</v>
+        <v>2.2</v>
       </c>
       <c r="O35">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="P35">
-        <v>7.5</v>
+        <v>2.9</v>
       </c>
       <c r="Q35">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R35">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T35">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U35">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V35">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W35">
-        <v>0.333</v>
+        <v>1.2</v>
       </c>
       <c r="X35">
         <v>-1</v>
@@ -3616,16 +3616,16 @@
         <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA35">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3633,7 +3633,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5965141</v>
+        <v>5965138</v>
       </c>
       <c r="C36" t="s">
         <v>28</v>
@@ -3645,58 +3645,58 @@
         <v>44965.95833333334</v>
       </c>
       <c r="F36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="H36">
         <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="s">
         <v>43</v>
       </c>
       <c r="K36">
-        <v>2.05</v>
+        <v>1.615</v>
       </c>
       <c r="L36">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M36">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="N36">
-        <v>2.2</v>
+        <v>1.333</v>
       </c>
       <c r="O36">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="P36">
-        <v>2.9</v>
+        <v>7.5</v>
       </c>
       <c r="Q36">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R36">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S36">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T36">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U36">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V36">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W36">
-        <v>1.2</v>
+        <v>0.333</v>
       </c>
       <c r="X36">
         <v>-1</v>
@@ -3705,16 +3705,16 @@
         <v>-1</v>
       </c>
       <c r="Z36">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA36">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0.8500000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="37" spans="1:29">
@@ -4004,7 +4004,7 @@
         <v>40</v>
       </c>
       <c r="G40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4093,7 +4093,7 @@
         <v>38</v>
       </c>
       <c r="G41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -4446,10 +4446,10 @@
         <v>44975.75</v>
       </c>
       <c r="F45" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" t="s">
         <v>36</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4983,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="G51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -5336,7 +5336,7 @@
         <v>44980.91666666666</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G55" t="s">
         <v>34</v>
@@ -5425,7 +5425,7 @@
         <v>44982.75</v>
       </c>
       <c r="F56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
         <v>32</v>
@@ -5781,7 +5781,7 @@
         <v>44983.84375</v>
       </c>
       <c r="F60" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
         <v>37</v>
@@ -6140,7 +6140,7 @@
         <v>30</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6318,7 +6318,7 @@
         <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -6671,7 +6671,7 @@
         <v>44996.95833333334</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -6760,7 +6760,7 @@
         <v>44997.75</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G71" t="s">
         <v>33</v>
@@ -7119,7 +7119,7 @@
         <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7297,7 +7297,7 @@
         <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H77">
         <v>4</v>
@@ -7653,7 +7653,7 @@
         <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>2</v>
@@ -7739,7 +7739,7 @@
         <v>45009.95833333334</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -8095,7 +8095,7 @@
         <v>45013.75</v>
       </c>
       <c r="F86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G86" t="s">
         <v>30</v>
@@ -8187,7 +8187,7 @@
         <v>39</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>1</v>
@@ -8439,7 +8439,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>5965176</v>
+        <v>5965174</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,16 +8451,16 @@
         <v>45015.95833333334</v>
       </c>
       <c r="F90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H90">
         <v>3</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>43</v>
@@ -8472,7 +8472,7 @@
         <v>4</v>
       </c>
       <c r="M90">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="N90">
         <v>1.363</v>
@@ -8481,19 +8481,19 @@
         <v>5</v>
       </c>
       <c r="P90">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R90">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
         <v>1.925</v>
@@ -8511,16 +8511,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB90">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8528,7 +8528,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>5965174</v>
+        <v>5965176</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,16 +8540,16 @@
         <v>45015.95833333334</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H91">
         <v>3</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>43</v>
@@ -8561,7 +8561,7 @@
         <v>4</v>
       </c>
       <c r="M91">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="N91">
         <v>1.363</v>
@@ -8570,19 +8570,19 @@
         <v>5</v>
       </c>
       <c r="P91">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q91">
-        <v>-1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="S91">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U91">
         <v>1.925</v>
@@ -8600,16 +8600,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA91">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>45017.75</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
         <v>39</v>
@@ -9074,7 +9074,7 @@
         <v>45019.9375</v>
       </c>
       <c r="F97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G97" t="s">
         <v>38</v>
@@ -9166,7 +9166,7 @@
         <v>34</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>2</v>
@@ -9344,7 +9344,7 @@
         <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9964,7 +9964,7 @@
         <v>45031.91666666666</v>
       </c>
       <c r="F107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
         <v>40</v>
@@ -10053,7 +10053,7 @@
         <v>45032.75</v>
       </c>
       <c r="F108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G108" t="s">
         <v>38</v>
@@ -10498,10 +10498,10 @@
         <v>45035.9375</v>
       </c>
       <c r="F113" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" t="s">
         <v>35</v>
-      </c>
-      <c r="G113" t="s">
-        <v>36</v>
       </c>
       <c r="H113">
         <v>1</v>
@@ -10765,7 +10765,7 @@
         <v>45038.75</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G116" t="s">
         <v>40</v>
@@ -10857,7 +10857,7 @@
         <v>34</v>
       </c>
       <c r="G117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H117">
         <v>2</v>
@@ -11302,7 +11302,7 @@
         <v>32</v>
       </c>
       <c r="G122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H122">
         <v>2</v>
@@ -11747,7 +11747,7 @@
         <v>37</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -11999,7 +11999,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6601572</v>
+        <v>5965203</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12011,46 +12011,46 @@
         <v>45053.75</v>
       </c>
       <c r="F130" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G130" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K130">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L130">
         <v>3.5</v>
       </c>
       <c r="M130">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="N130">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P130">
-        <v>3</v>
+        <v>2.875</v>
       </c>
       <c r="Q130">
         <v>-0.25</v>
       </c>
       <c r="R130">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.5</v>
@@ -12062,25 +12062,25 @@
         <v>1.875</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
         <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA130">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC130">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12177,7 +12177,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>5965203</v>
+        <v>5965205</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12189,73 +12189,73 @@
         <v>45053.75</v>
       </c>
       <c r="F132" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G132" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I132">
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K132">
-        <v>1.85</v>
+        <v>3.5</v>
       </c>
       <c r="L132">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M132">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="N132">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="O132">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P132">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="Q132">
-        <v>-0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R132">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="S132">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T132">
         <v>2.5</v>
       </c>
       <c r="U132">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W132">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X132">
         <v>-1</v>
       </c>
       <c r="Y132">
-        <v>-1</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="Z132">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AA132">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AB132">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC132">
         <v>-1</v>
@@ -12266,7 +12266,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>5965205</v>
+        <v>6601572</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12281,73 +12281,73 @@
         <v>35</v>
       </c>
       <c r="G133" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K133">
+        <v>1.8</v>
+      </c>
+      <c r="L133">
         <v>3.5</v>
       </c>
-      <c r="L133">
-        <v>3.3</v>
-      </c>
       <c r="M133">
-        <v>1.909</v>
+        <v>3.75</v>
       </c>
       <c r="N133">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="O133">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P133">
-        <v>1.65</v>
+        <v>3</v>
       </c>
       <c r="Q133">
-        <v>0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R133">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S133">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T133">
         <v>2.5</v>
       </c>
       <c r="U133">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V133">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W133">
         <v>-1</v>
       </c>
       <c r="X133">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y133">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z133">
         <v>-0.5</v>
       </c>
       <c r="AA133">
-        <v>0.4375</v>
+        <v>0.45</v>
       </c>
       <c r="AB133">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -13171,7 +13171,7 @@
         <v>39</v>
       </c>
       <c r="G143" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H143">
         <v>1</v>
@@ -13527,7 +13527,7 @@
         <v>31</v>
       </c>
       <c r="G147" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H147">
         <v>1</v>
@@ -13702,7 +13702,7 @@
         <v>45136.91666666666</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G149" t="s">
         <v>29</v>
@@ -13880,7 +13880,7 @@
         <v>45137.75</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G151" t="s">
         <v>33</v>
@@ -14147,7 +14147,7 @@
         <v>45143.75</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14506,7 +14506,7 @@
         <v>31</v>
       </c>
       <c r="G158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>1</v>
@@ -14951,7 +14951,7 @@
         <v>30</v>
       </c>
       <c r="G163" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -15126,7 +15126,7 @@
         <v>45151.875</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G165" t="s">
         <v>33</v>
@@ -15482,7 +15482,7 @@
         <v>45158.75</v>
       </c>
       <c r="F169" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G169" t="s">
         <v>34</v>
@@ -15660,7 +15660,7 @@
         <v>45159.75</v>
       </c>
       <c r="F171" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G171" t="s">
         <v>30</v>
@@ -16105,10 +16105,10 @@
         <v>45165.75</v>
       </c>
       <c r="F176" t="s">
+        <v>35</v>
+      </c>
+      <c r="G176" t="s">
         <v>36</v>
-      </c>
-      <c r="G176" t="s">
-        <v>35</v>
       </c>
       <c r="H176">
         <v>3</v>
@@ -16283,7 +16283,7 @@
         <v>45171.75</v>
       </c>
       <c r="F178" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G178" t="s">
         <v>32</v>
@@ -16553,7 +16553,7 @@
         <v>29</v>
       </c>
       <c r="G181" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H181">
         <v>1</v>
@@ -16817,7 +16817,7 @@
         <v>45178.75</v>
       </c>
       <c r="F184" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G184" t="s">
         <v>39</v>
@@ -16909,7 +16909,7 @@
         <v>34</v>
       </c>
       <c r="G185" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -17532,7 +17532,7 @@
         <v>40</v>
       </c>
       <c r="G192" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>1</v>
@@ -17707,7 +17707,7 @@
         <v>45182.91666666666</v>
       </c>
       <c r="F194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G194" t="s">
         <v>41</v>
@@ -17977,7 +17977,7 @@
         <v>41</v>
       </c>
       <c r="G197" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -18244,7 +18244,7 @@
         <v>37</v>
       </c>
       <c r="G200" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H200">
         <v>2</v>
@@ -18419,7 +18419,7 @@
         <v>45188.75</v>
       </c>
       <c r="F202" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G202" t="s">
         <v>37</v>
@@ -18867,7 +18867,7 @@
         <v>40</v>
       </c>
       <c r="G207" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H207">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>45192.75</v>
       </c>
       <c r="F208" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G208" t="s">
         <v>31</v>
@@ -19220,7 +19220,7 @@
         <v>45193.75</v>
       </c>
       <c r="F211" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G211" t="s">
         <v>39</v>
@@ -19490,7 +19490,7 @@
         <v>29</v>
       </c>
       <c r="G214" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H214">
         <v>2</v>
@@ -19935,7 +19935,7 @@
         <v>33</v>
       </c>
       <c r="G219" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H219">
         <v>4</v>
@@ -20288,7 +20288,7 @@
         <v>45207.75</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G223" t="s">
         <v>31</v>
@@ -20469,7 +20469,7 @@
         <v>32</v>
       </c>
       <c r="G225" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -20736,7 +20736,7 @@
         <v>33</v>
       </c>
       <c r="G228" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H228">
         <v>4</v>
@@ -21003,7 +21003,7 @@
         <v>34</v>
       </c>
       <c r="G231" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H231">
         <v>1</v>
@@ -21270,7 +21270,7 @@
         <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H234">
         <v>2</v>
@@ -21344,7 +21344,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21356,76 +21356,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F235" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H235">
         <v>2</v>
       </c>
       <c r="I235">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J235" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K235">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L235">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M235">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N235">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O235">
         <v>3.5</v>
       </c>
       <c r="P235">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q235">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R235">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S235">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V235">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W235">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X235">
         <v>-1</v>
       </c>
       <c r="Y235">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z235">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA235">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB235">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC235">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21433,7 +21433,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21445,76 +21445,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G236" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H236">
         <v>2</v>
       </c>
       <c r="I236">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J236" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K236">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L236">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M236">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N236">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O236">
         <v>3.5</v>
       </c>
       <c r="P236">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q236">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T236">
         <v>2.75</v>
       </c>
       <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
         <v>1.8</v>
       </c>
-      <c r="V236">
-        <v>2</v>
-      </c>
       <c r="W236">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X236">
         <v>-1</v>
       </c>
       <c r="Y236">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA236">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB236">
+        <v>-1</v>
+      </c>
+      <c r="AC236">
         <v>0.8</v>
-      </c>
-      <c r="AC236">
-        <v>-1</v>
       </c>
     </row>
     <row r="237" spans="1:29">
@@ -21712,10 +21712,10 @@
         <v>45227.75</v>
       </c>
       <c r="F239" t="s">
+        <v>36</v>
+      </c>
+      <c r="G239" t="s">
         <v>35</v>
-      </c>
-      <c r="G239" t="s">
-        <v>36</v>
       </c>
       <c r="H239">
         <v>1</v>
@@ -22071,7 +22071,7 @@
         <v>32</v>
       </c>
       <c r="G243" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H243">
         <v>2</v>
@@ -22157,7 +22157,7 @@
         <v>45234.75</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G244" t="s">
         <v>29</v>
@@ -22605,7 +22605,7 @@
         <v>39</v>
       </c>
       <c r="G249" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -22869,7 +22869,7 @@
         <v>45238.96875</v>
       </c>
       <c r="F252" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G252" t="s">
         <v>34</v>
@@ -23136,7 +23136,7 @@
         <v>45241.75</v>
       </c>
       <c r="F255" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G255" t="s">
         <v>40</v>
@@ -23317,7 +23317,7 @@
         <v>41</v>
       </c>
       <c r="G257" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -23670,7 +23670,7 @@
         <v>45245.75</v>
       </c>
       <c r="F261" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G261" t="s">
         <v>30</v>
@@ -23848,7 +23848,7 @@
         <v>45252.75</v>
       </c>
       <c r="F263" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G263" t="s">
         <v>41</v>
@@ -23937,7 +23937,7 @@
         <v>45252.91666666666</v>
       </c>
       <c r="F264" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G264" t="s">
         <v>37</v>
@@ -24293,7 +24293,7 @@
         <v>45255.83333333334</v>
       </c>
       <c r="F268" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G268" t="s">
         <v>40</v>
@@ -24370,7 +24370,7 @@
         <v>267</v>
       </c>
       <c r="B269">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C269" t="s">
         <v>28</v>
@@ -24382,13 +24382,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F269" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G269" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I269">
         <v>0</v>
@@ -24397,25 +24397,25 @@
         <v>43</v>
       </c>
       <c r="K269">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L269">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M269">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N269">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O269">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P269">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q269">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R269">
         <v>1.8</v>
@@ -24424,16 +24424,16 @@
         <v>2</v>
       </c>
       <c r="T269">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U269">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V269">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W269">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X269">
         <v>-1</v>
@@ -24448,10 +24448,10 @@
         <v>-1</v>
       </c>
       <c r="AB269">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC269">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="270" spans="1:29">
@@ -24474,7 +24474,7 @@
         <v>37</v>
       </c>
       <c r="G270" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H270">
         <v>3</v>
@@ -24548,7 +24548,7 @@
         <v>269</v>
       </c>
       <c r="B271">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C271" t="s">
         <v>28</v>
@@ -24560,13 +24560,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F271" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G271" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H271">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I271">
         <v>0</v>
@@ -24575,25 +24575,25 @@
         <v>43</v>
       </c>
       <c r="K271">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L271">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M271">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N271">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O271">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P271">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q271">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R271">
         <v>1.8</v>
@@ -24602,16 +24602,16 @@
         <v>2</v>
       </c>
       <c r="T271">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U271">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V271">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W271">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X271">
         <v>-1</v>
@@ -24626,10 +24626,10 @@
         <v>-1</v>
       </c>
       <c r="AB271">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC271">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="272" spans="1:29">
@@ -25450,7 +25450,7 @@
         <v>45304.75</v>
       </c>
       <c r="F281" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G281" t="s">
         <v>40</v>
@@ -25720,7 +25720,7 @@
         <v>33</v>
       </c>
       <c r="G284" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H284">
         <v>3</v>
@@ -25987,7 +25987,7 @@
         <v>31</v>
       </c>
       <c r="G287" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H287">
         <v>1</v>
@@ -26162,7 +26162,7 @@
         <v>45308.91666666666</v>
       </c>
       <c r="F289" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G289" t="s">
         <v>37</v>
@@ -26429,7 +26429,7 @@
         <v>45311.75</v>
       </c>
       <c r="F292" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G292" t="s">
         <v>29</v>
@@ -26607,7 +26607,7 @@
         <v>45311.95833333334</v>
       </c>
       <c r="F294" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G294" t="s">
         <v>40</v>
@@ -27052,7 +27052,7 @@
         <v>45315.75</v>
       </c>
       <c r="F299" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G299" t="s">
         <v>34</v>
@@ -27411,7 +27411,7 @@
         <v>41</v>
       </c>
       <c r="G303" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H303">
         <v>2</v>
@@ -27764,10 +27764,10 @@
         <v>45319.75</v>
       </c>
       <c r="F307" t="s">
+        <v>36</v>
+      </c>
+      <c r="G307" t="s">
         <v>35</v>
-      </c>
-      <c r="G307" t="s">
-        <v>36</v>
       </c>
       <c r="H307">
         <v>3</v>
@@ -28123,7 +28123,7 @@
         <v>37</v>
       </c>
       <c r="G311" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H311">
         <v>3</v>
@@ -28301,7 +28301,7 @@
         <v>32</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H313">
         <v>1</v>
@@ -28390,7 +28390,7 @@
         <v>39</v>
       </c>
       <c r="G314" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H314">
         <v>1</v>
@@ -29010,7 +29010,7 @@
         <v>45339.92708333334</v>
       </c>
       <c r="F321" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G321" t="s">
         <v>29</v>
@@ -29191,7 +29191,7 @@
         <v>30</v>
       </c>
       <c r="G323" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H323">
         <v>2</v>
@@ -29280,7 +29280,7 @@
         <v>34</v>
       </c>
       <c r="G324" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H324">
         <v>1</v>
@@ -29455,7 +29455,7 @@
         <v>45343.75</v>
       </c>
       <c r="F326" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G326" t="s">
         <v>41</v>
@@ -29722,11 +29722,20 @@
         <v>45346.75</v>
       </c>
       <c r="F329" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G329" t="s">
         <v>33</v>
       </c>
+      <c r="H329">
+        <v>0</v>
+      </c>
+      <c r="I329">
+        <v>0</v>
+      </c>
+      <c r="J329" t="s">
+        <v>44</v>
+      </c>
       <c r="K329">
         <v>5</v>
       </c>
@@ -29746,13 +29755,13 @@
         <v>1.75</v>
       </c>
       <c r="Q329">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R329">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S329">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T329">
         <v>2.25</v>
@@ -29764,19 +29773,25 @@
         <v>2</v>
       </c>
       <c r="W329">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X329">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y329">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA329">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB329">
+        <v>-1</v>
+      </c>
+      <c r="AC329">
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:29">
@@ -29784,7 +29799,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7623918</v>
+        <v>7623985</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29793,49 +29808,49 @@
         <v>28</v>
       </c>
       <c r="E330" s="2">
-        <v>45346.875</v>
+        <v>45346.9375</v>
       </c>
       <c r="F330" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G330" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="K330">
-        <v>1.909</v>
+        <v>1.571</v>
       </c>
       <c r="L330">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M330">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N330">
-        <v>1.833</v>
+        <v>1.6</v>
       </c>
       <c r="O330">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P330">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q330">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R330">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S330">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T330">
         <v>2.5</v>
       </c>
       <c r="U330">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V330">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W330">
         <v>0</v>
@@ -29858,7 +29873,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7623985</v>
+        <v>7623919</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29867,49 +29882,49 @@
         <v>28</v>
       </c>
       <c r="E331" s="2">
-        <v>45346.9375</v>
+        <v>45347.75</v>
       </c>
       <c r="F331" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G331" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K331">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L331">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M331">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N331">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O331">
         <v>3.6</v>
       </c>
       <c r="P331">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="Q331">
         <v>-0.75</v>
       </c>
       <c r="R331">
+        <v>2.025</v>
+      </c>
+      <c r="S331">
         <v>1.775</v>
       </c>
-      <c r="S331">
-        <v>2.025</v>
-      </c>
       <c r="T331">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U331">
+        <v>1.975</v>
+      </c>
+      <c r="V331">
         <v>1.825</v>
-      </c>
-      <c r="V331">
-        <v>1.975</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29980,10 +29995,10 @@
         <v>2.5</v>
       </c>
       <c r="U332">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V332">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30006,7 +30021,7 @@
         <v>331</v>
       </c>
       <c r="B333">
-        <v>7623919</v>
+        <v>7623986</v>
       </c>
       <c r="C333" t="s">
         <v>28</v>
@@ -30015,34 +30030,34 @@
         <v>28</v>
       </c>
       <c r="E333" s="2">
-        <v>45347.75</v>
+        <v>45347.875</v>
       </c>
       <c r="F333" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G333" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K333">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="L333">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M333">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="N333">
-        <v>1.75</v>
+        <v>2.625</v>
       </c>
       <c r="O333">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P333">
-        <v>3.75</v>
+        <v>2.375</v>
       </c>
       <c r="Q333">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R333">
         <v>2.025</v>
@@ -30051,13 +30066,13 @@
         <v>1.775</v>
       </c>
       <c r="T333">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U333">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V333">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W333">
         <v>0</v>
@@ -30072,80 +30087,6 @@
         <v>0</v>
       </c>
       <c r="AA333">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="334" spans="1:29">
-      <c r="A334" s="1">
-        <v>332</v>
-      </c>
-      <c r="B334">
-        <v>7623986</v>
-      </c>
-      <c r="C334" t="s">
-        <v>28</v>
-      </c>
-      <c r="D334" t="s">
-        <v>28</v>
-      </c>
-      <c r="E334" s="2">
-        <v>45347.875</v>
-      </c>
-      <c r="F334" t="s">
-        <v>39</v>
-      </c>
-      <c r="G334" t="s">
-        <v>31</v>
-      </c>
-      <c r="K334">
-        <v>2.625</v>
-      </c>
-      <c r="L334">
-        <v>3.3</v>
-      </c>
-      <c r="M334">
-        <v>2.375</v>
-      </c>
-      <c r="N334">
-        <v>2.625</v>
-      </c>
-      <c r="O334">
-        <v>3.3</v>
-      </c>
-      <c r="P334">
-        <v>2.375</v>
-      </c>
-      <c r="Q334">
-        <v>0</v>
-      </c>
-      <c r="R334">
-        <v>2.025</v>
-      </c>
-      <c r="S334">
-        <v>1.775</v>
-      </c>
-      <c r="T334">
-        <v>2.75</v>
-      </c>
-      <c r="U334">
-        <v>2</v>
-      </c>
-      <c r="V334">
-        <v>1.8</v>
-      </c>
-      <c r="W334">
-        <v>0</v>
-      </c>
-      <c r="X334">
-        <v>0</v>
-      </c>
-      <c r="Y334">
-        <v>0</v>
-      </c>
-      <c r="Z334">
-        <v>0</v>
-      </c>
-      <c r="AA334">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1680" uniqueCount="45">
   <si>
     <t>id</t>
   </si>
@@ -510,7 +510,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC333"/>
+  <dimension ref="A1:AC332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -29799,7 +29799,7 @@
         <v>328</v>
       </c>
       <c r="B330">
-        <v>7623985</v>
+        <v>7623919</v>
       </c>
       <c r="C330" t="s">
         <v>28</v>
@@ -29808,49 +29808,49 @@
         <v>28</v>
       </c>
       <c r="E330" s="2">
-        <v>45346.9375</v>
+        <v>45347.75</v>
       </c>
       <c r="F330" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G330" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="K330">
-        <v>1.571</v>
+        <v>1.75</v>
       </c>
       <c r="L330">
+        <v>3.6</v>
+      </c>
+      <c r="M330">
+        <v>3.8</v>
+      </c>
+      <c r="N330">
+        <v>1.75</v>
+      </c>
+      <c r="O330">
+        <v>3.6</v>
+      </c>
+      <c r="P330">
         <v>3.75</v>
-      </c>
-      <c r="M330">
-        <v>5</v>
-      </c>
-      <c r="N330">
-        <v>1.6</v>
-      </c>
-      <c r="O330">
-        <v>3.75</v>
-      </c>
-      <c r="P330">
-        <v>5</v>
       </c>
       <c r="Q330">
         <v>-0.75</v>
       </c>
       <c r="R330">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S330">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T330">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U330">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V330">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W330">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>329</v>
       </c>
       <c r="B331">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C331" t="s">
         <v>28</v>
@@ -29885,46 +29885,46 @@
         <v>45347.75</v>
       </c>
       <c r="F331" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="G331" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="K331">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L331">
+        <v>3.3</v>
+      </c>
+      <c r="M331">
+        <v>3.2</v>
+      </c>
+      <c r="N331">
+        <v>1.909</v>
+      </c>
+      <c r="O331">
+        <v>3.4</v>
+      </c>
+      <c r="P331">
         <v>3.6</v>
       </c>
-      <c r="M331">
-        <v>3.8</v>
-      </c>
-      <c r="N331">
-        <v>1.75</v>
-      </c>
-      <c r="O331">
-        <v>3.6</v>
-      </c>
-      <c r="P331">
-        <v>3.75</v>
-      </c>
       <c r="Q331">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R331">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S331">
-        <v>1.775</v>
+        <v>1.875</v>
       </c>
       <c r="T331">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U331">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V331">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W331">
         <v>0</v>
@@ -29947,7 +29947,7 @@
         <v>330</v>
       </c>
       <c r="B332">
-        <v>7623916</v>
+        <v>7623986</v>
       </c>
       <c r="C332" t="s">
         <v>28</v>
@@ -29956,34 +29956,34 @@
         <v>28</v>
       </c>
       <c r="E332" s="2">
-        <v>45347.75</v>
+        <v>45347.875</v>
       </c>
       <c r="F332" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G332" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K332">
-        <v>2.05</v>
+        <v>2.625</v>
       </c>
       <c r="L332">
         <v>3.3</v>
       </c>
       <c r="M332">
-        <v>3.2</v>
+        <v>2.375</v>
       </c>
       <c r="N332">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O332">
         <v>3.3</v>
       </c>
       <c r="P332">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q332">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R332">
         <v>2.025</v>
@@ -29995,10 +29995,10 @@
         <v>2.5</v>
       </c>
       <c r="U332">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="V332">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W332">
         <v>0</v>
@@ -30013,80 +30013,6 @@
         <v>0</v>
       </c>
       <c r="AA332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:29">
-      <c r="A333" s="1">
-        <v>331</v>
-      </c>
-      <c r="B333">
-        <v>7623986</v>
-      </c>
-      <c r="C333" t="s">
-        <v>28</v>
-      </c>
-      <c r="D333" t="s">
-        <v>28</v>
-      </c>
-      <c r="E333" s="2">
-        <v>45347.875</v>
-      </c>
-      <c r="F333" t="s">
-        <v>39</v>
-      </c>
-      <c r="G333" t="s">
-        <v>31</v>
-      </c>
-      <c r="K333">
-        <v>2.625</v>
-      </c>
-      <c r="L333">
-        <v>3.3</v>
-      </c>
-      <c r="M333">
-        <v>2.375</v>
-      </c>
-      <c r="N333">
-        <v>2.625</v>
-      </c>
-      <c r="O333">
-        <v>3.3</v>
-      </c>
-      <c r="P333">
-        <v>2.375</v>
-      </c>
-      <c r="Q333">
-        <v>0</v>
-      </c>
-      <c r="R333">
-        <v>2.025</v>
-      </c>
-      <c r="S333">
-        <v>1.775</v>
-      </c>
-      <c r="T333">
-        <v>2.5</v>
-      </c>
-      <c r="U333">
-        <v>1.8</v>
-      </c>
-      <c r="V333">
-        <v>2</v>
-      </c>
-      <c r="W333">
-        <v>0</v>
-      </c>
-      <c r="X333">
-        <v>0</v>
-      </c>
-      <c r="Y333">
-        <v>0</v>
-      </c>
-      <c r="Z333">
-        <v>0</v>
-      </c>
-      <c r="AA333">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC193"/>
+  <dimension ref="A1:AC194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N92">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
+        <v>1.825</v>
+      </c>
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
+        <v>1.925</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>1.8</v>
       </c>
-      <c r="W110">
-        <v>0.25</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
       <c r="Z110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>0</v>
       </c>
-      <c r="I111">
-        <v>2</v>
-      </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N111">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P111">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
+        <v>1.825</v>
+      </c>
+      <c r="T111">
+        <v>3.25</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.8</v>
       </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.875</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA111">
+        <v>-0.5</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.8</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L131">
         <v>4.75</v>
       </c>
       <c r="M131">
+        <v>8</v>
+      </c>
+      <c r="N131">
+        <v>1.444</v>
+      </c>
+      <c r="O131">
+        <v>4.333</v>
+      </c>
+      <c r="P131">
         <v>7</v>
-      </c>
-      <c r="N131">
-        <v>1.363</v>
-      </c>
-      <c r="O131">
-        <v>4.75</v>
-      </c>
-      <c r="P131">
-        <v>8.5</v>
       </c>
       <c r="Q131">
         <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17685,6 +17685,95 @@
       </c>
       <c r="AC193">
         <v>0.8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:29">
+      <c r="A194" s="1">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>7623986</v>
+      </c>
+      <c r="C194" t="s">
+        <v>28</v>
+      </c>
+      <c r="D194" t="s">
+        <v>28</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45347.875</v>
+      </c>
+      <c r="F194" t="s">
+        <v>30</v>
+      </c>
+      <c r="G194" t="s">
+        <v>34</v>
+      </c>
+      <c r="H194">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>2</v>
+      </c>
+      <c r="J194" t="s">
+        <v>43</v>
+      </c>
+      <c r="K194">
+        <v>2.625</v>
+      </c>
+      <c r="L194">
+        <v>3.3</v>
+      </c>
+      <c r="M194">
+        <v>2.375</v>
+      </c>
+      <c r="N194">
+        <v>3</v>
+      </c>
+      <c r="O194">
+        <v>3.3</v>
+      </c>
+      <c r="P194">
+        <v>2.15</v>
+      </c>
+      <c r="Q194">
+        <v>0.25</v>
+      </c>
+      <c r="R194">
+        <v>1.85</v>
+      </c>
+      <c r="S194">
+        <v>1.95</v>
+      </c>
+      <c r="T194">
+        <v>2.5</v>
+      </c>
+      <c r="U194">
+        <v>1.85</v>
+      </c>
+      <c r="V194">
+        <v>1.95</v>
+      </c>
+      <c r="W194">
+        <v>-1</v>
+      </c>
+      <c r="X194">
+        <v>2.3</v>
+      </c>
+      <c r="Y194">
+        <v>-1</v>
+      </c>
+      <c r="Z194">
+        <v>0.425</v>
+      </c>
+      <c r="AA194">
+        <v>-0.5</v>
+      </c>
+      <c r="AB194">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC194">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC194"/>
+  <dimension ref="A1:AC198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.8</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>1.925</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA110">
+        <v>-0.5</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L111">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q111">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
+        <v>1.925</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
         <v>1.8</v>
       </c>
-      <c r="W111">
-        <v>0.25</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
       <c r="Z111">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,34 +17526,34 @@
         <v>45347.75</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
         <v>0</v>
       </c>
-      <c r="I192">
-        <v>2</v>
-      </c>
       <c r="J192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K192">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N192">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
         <v>3.6</v>
@@ -17562,40 +17562,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,34 +17615,34 @@
         <v>45347.75</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K193">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N193">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
         <v>3.6</v>
@@ -17651,40 +17651,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -17773,6 +17773,362 @@
         <v>0.8500000000000001</v>
       </c>
       <c r="AC194">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:29">
+      <c r="A195" s="1">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>7623931</v>
+      </c>
+      <c r="C195" t="s">
+        <v>28</v>
+      </c>
+      <c r="D195" t="s">
+        <v>28</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45349.91666666666</v>
+      </c>
+      <c r="F195" t="s">
+        <v>33</v>
+      </c>
+      <c r="G195" t="s">
+        <v>31</v>
+      </c>
+      <c r="H195">
+        <v>4</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195" t="s">
+        <v>42</v>
+      </c>
+      <c r="K195">
+        <v>1.333</v>
+      </c>
+      <c r="L195">
+        <v>4.5</v>
+      </c>
+      <c r="M195">
+        <v>7</v>
+      </c>
+      <c r="N195">
+        <v>1.363</v>
+      </c>
+      <c r="O195">
+        <v>4.5</v>
+      </c>
+      <c r="P195">
+        <v>6.5</v>
+      </c>
+      <c r="Q195">
+        <v>-1.25</v>
+      </c>
+      <c r="R195">
+        <v>1.875</v>
+      </c>
+      <c r="S195">
+        <v>1.925</v>
+      </c>
+      <c r="T195">
+        <v>2.75</v>
+      </c>
+      <c r="U195">
+        <v>1.9</v>
+      </c>
+      <c r="V195">
+        <v>1.9</v>
+      </c>
+      <c r="W195">
+        <v>0.363</v>
+      </c>
+      <c r="X195">
+        <v>-1</v>
+      </c>
+      <c r="Y195">
+        <v>-1</v>
+      </c>
+      <c r="Z195">
+        <v>0.875</v>
+      </c>
+      <c r="AA195">
+        <v>-1</v>
+      </c>
+      <c r="AB195">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC195">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:29">
+      <c r="A196" s="1">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>7623932</v>
+      </c>
+      <c r="C196" t="s">
+        <v>28</v>
+      </c>
+      <c r="D196" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45350.75</v>
+      </c>
+      <c r="F196" t="s">
+        <v>38</v>
+      </c>
+      <c r="G196" t="s">
+        <v>34</v>
+      </c>
+      <c r="H196">
+        <v>1</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>42</v>
+      </c>
+      <c r="K196">
+        <v>2.5</v>
+      </c>
+      <c r="L196">
+        <v>3.2</v>
+      </c>
+      <c r="M196">
+        <v>2.5</v>
+      </c>
+      <c r="N196">
+        <v>2.7</v>
+      </c>
+      <c r="O196">
+        <v>3.1</v>
+      </c>
+      <c r="P196">
+        <v>2.375</v>
+      </c>
+      <c r="Q196">
+        <v>0</v>
+      </c>
+      <c r="R196">
+        <v>2.025</v>
+      </c>
+      <c r="S196">
+        <v>1.775</v>
+      </c>
+      <c r="T196">
+        <v>2.25</v>
+      </c>
+      <c r="U196">
+        <v>1.8</v>
+      </c>
+      <c r="V196">
+        <v>2</v>
+      </c>
+      <c r="W196">
+        <v>1.7</v>
+      </c>
+      <c r="X196">
+        <v>-1</v>
+      </c>
+      <c r="Y196">
+        <v>-1</v>
+      </c>
+      <c r="Z196">
+        <v>1.025</v>
+      </c>
+      <c r="AA196">
+        <v>-1</v>
+      </c>
+      <c r="AB196">
+        <v>-1</v>
+      </c>
+      <c r="AC196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:29">
+      <c r="A197" s="1">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>7623935</v>
+      </c>
+      <c r="C197" t="s">
+        <v>28</v>
+      </c>
+      <c r="D197" t="s">
+        <v>28</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45350.89583333334</v>
+      </c>
+      <c r="F197" t="s">
+        <v>39</v>
+      </c>
+      <c r="G197" t="s">
+        <v>40</v>
+      </c>
+      <c r="H197">
+        <v>4</v>
+      </c>
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>42</v>
+      </c>
+      <c r="K197">
+        <v>2.2</v>
+      </c>
+      <c r="L197">
+        <v>3</v>
+      </c>
+      <c r="M197">
+        <v>3.2</v>
+      </c>
+      <c r="N197">
+        <v>1.85</v>
+      </c>
+      <c r="O197">
+        <v>3.3</v>
+      </c>
+      <c r="P197">
+        <v>3.75</v>
+      </c>
+      <c r="Q197">
+        <v>-0.5</v>
+      </c>
+      <c r="R197">
+        <v>1.925</v>
+      </c>
+      <c r="S197">
+        <v>1.875</v>
+      </c>
+      <c r="T197">
+        <v>2.25</v>
+      </c>
+      <c r="U197">
+        <v>2</v>
+      </c>
+      <c r="V197">
+        <v>1.8</v>
+      </c>
+      <c r="W197">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="X197">
+        <v>-1</v>
+      </c>
+      <c r="Y197">
+        <v>-1</v>
+      </c>
+      <c r="Z197">
+        <v>0.925</v>
+      </c>
+      <c r="AA197">
+        <v>-1</v>
+      </c>
+      <c r="AB197">
+        <v>1</v>
+      </c>
+      <c r="AC197">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:29">
+      <c r="A198" s="1">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>7623933</v>
+      </c>
+      <c r="C198" t="s">
+        <v>28</v>
+      </c>
+      <c r="D198" t="s">
+        <v>28</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45350.95833333334</v>
+      </c>
+      <c r="F198" t="s">
+        <v>37</v>
+      </c>
+      <c r="G198" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198">
+        <v>4</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+      <c r="J198" t="s">
+        <v>42</v>
+      </c>
+      <c r="K198">
+        <v>1.533</v>
+      </c>
+      <c r="L198">
+        <v>4</v>
+      </c>
+      <c r="M198">
+        <v>5</v>
+      </c>
+      <c r="N198">
+        <v>1.5</v>
+      </c>
+      <c r="O198">
+        <v>4.2</v>
+      </c>
+      <c r="P198">
+        <v>5</v>
+      </c>
+      <c r="Q198">
+        <v>-1</v>
+      </c>
+      <c r="R198">
+        <v>1.95</v>
+      </c>
+      <c r="S198">
+        <v>1.85</v>
+      </c>
+      <c r="T198">
+        <v>2.5</v>
+      </c>
+      <c r="U198">
+        <v>1.875</v>
+      </c>
+      <c r="V198">
+        <v>1.925</v>
+      </c>
+      <c r="W198">
+        <v>0.5</v>
+      </c>
+      <c r="X198">
+        <v>-1</v>
+      </c>
+      <c r="Y198">
+        <v>-1</v>
+      </c>
+      <c r="Z198">
+        <v>0.95</v>
+      </c>
+      <c r="AA198">
+        <v>-1</v>
+      </c>
+      <c r="AB198">
+        <v>0.875</v>
+      </c>
+      <c r="AC198">
         <v>-1</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC198"/>
+  <dimension ref="A1:AC204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N91">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.8</v>
       </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
+        <v>1.925</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>1.8</v>
       </c>
-      <c r="W110">
-        <v>0.25</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
       <c r="Z110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N111">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P111">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
+        <v>1.825</v>
+      </c>
+      <c r="T111">
+        <v>3.25</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.8</v>
       </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.875</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA111">
+        <v>-0.5</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.8</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,34 +17526,34 @@
         <v>45347.75</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K192">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M192">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N192">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
         <v>3.6</v>
@@ -17562,40 +17562,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,34 +17615,34 @@
         <v>45347.75</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K193">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N193">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
         <v>3.6</v>
@@ -17651,40 +17651,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18130,6 +18130,465 @@
       </c>
       <c r="AC198">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:29">
+      <c r="A199" s="1">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>7623920</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>28</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45352.95833333334</v>
+      </c>
+      <c r="F199" t="s">
+        <v>35</v>
+      </c>
+      <c r="G199" t="s">
+        <v>31</v>
+      </c>
+      <c r="H199">
+        <v>4</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199" t="s">
+        <v>42</v>
+      </c>
+      <c r="K199">
+        <v>1.25</v>
+      </c>
+      <c r="L199">
+        <v>5.25</v>
+      </c>
+      <c r="M199">
+        <v>11</v>
+      </c>
+      <c r="N199">
+        <v>1.166</v>
+      </c>
+      <c r="O199">
+        <v>7</v>
+      </c>
+      <c r="P199">
+        <v>17</v>
+      </c>
+      <c r="Q199">
+        <v>-2</v>
+      </c>
+      <c r="R199">
+        <v>1.8</v>
+      </c>
+      <c r="S199">
+        <v>2</v>
+      </c>
+      <c r="T199">
+        <v>3.25</v>
+      </c>
+      <c r="U199">
+        <v>1.95</v>
+      </c>
+      <c r="V199">
+        <v>1.85</v>
+      </c>
+      <c r="W199">
+        <v>0.1659999999999999</v>
+      </c>
+      <c r="X199">
+        <v>-1</v>
+      </c>
+      <c r="Y199">
+        <v>-1</v>
+      </c>
+      <c r="Z199">
+        <v>0.8</v>
+      </c>
+      <c r="AA199">
+        <v>-1</v>
+      </c>
+      <c r="AB199">
+        <v>0.95</v>
+      </c>
+      <c r="AC199">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:29">
+      <c r="A200" s="1">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>7624967</v>
+      </c>
+      <c r="C200" t="s">
+        <v>28</v>
+      </c>
+      <c r="D200" t="s">
+        <v>28</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45353.75</v>
+      </c>
+      <c r="F200" t="s">
+        <v>36</v>
+      </c>
+      <c r="G200" t="s">
+        <v>37</v>
+      </c>
+      <c r="K200">
+        <v>3.75</v>
+      </c>
+      <c r="L200">
+        <v>3.4</v>
+      </c>
+      <c r="M200">
+        <v>1.8</v>
+      </c>
+      <c r="N200">
+        <v>3.8</v>
+      </c>
+      <c r="O200">
+        <v>3.4</v>
+      </c>
+      <c r="P200">
+        <v>1.8</v>
+      </c>
+      <c r="Q200">
+        <v>0.5</v>
+      </c>
+      <c r="R200">
+        <v>1.9</v>
+      </c>
+      <c r="S200">
+        <v>1.9</v>
+      </c>
+      <c r="T200">
+        <v>2.5</v>
+      </c>
+      <c r="U200">
+        <v>1.95</v>
+      </c>
+      <c r="V200">
+        <v>1.85</v>
+      </c>
+      <c r="W200">
+        <v>0</v>
+      </c>
+      <c r="X200">
+        <v>0</v>
+      </c>
+      <c r="Y200">
+        <v>0</v>
+      </c>
+      <c r="Z200">
+        <v>0</v>
+      </c>
+      <c r="AA200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:29">
+      <c r="A201" s="1">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>7623921</v>
+      </c>
+      <c r="C201" t="s">
+        <v>28</v>
+      </c>
+      <c r="D201" t="s">
+        <v>28</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45353.75</v>
+      </c>
+      <c r="F201" t="s">
+        <v>40</v>
+      </c>
+      <c r="G201" t="s">
+        <v>29</v>
+      </c>
+      <c r="K201">
+        <v>2.75</v>
+      </c>
+      <c r="L201">
+        <v>3.25</v>
+      </c>
+      <c r="M201">
+        <v>2.3</v>
+      </c>
+      <c r="N201">
+        <v>2.875</v>
+      </c>
+      <c r="O201">
+        <v>3.25</v>
+      </c>
+      <c r="P201">
+        <v>2.25</v>
+      </c>
+      <c r="Q201">
+        <v>0.25</v>
+      </c>
+      <c r="R201">
+        <v>1.775</v>
+      </c>
+      <c r="S201">
+        <v>2.025</v>
+      </c>
+      <c r="T201">
+        <v>2.5</v>
+      </c>
+      <c r="U201">
+        <v>1.825</v>
+      </c>
+      <c r="V201">
+        <v>1.975</v>
+      </c>
+      <c r="W201">
+        <v>0</v>
+      </c>
+      <c r="X201">
+        <v>0</v>
+      </c>
+      <c r="Y201">
+        <v>0</v>
+      </c>
+      <c r="Z201">
+        <v>0</v>
+      </c>
+      <c r="AA201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:29">
+      <c r="A202" s="1">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>7623922</v>
+      </c>
+      <c r="C202" t="s">
+        <v>28</v>
+      </c>
+      <c r="D202" t="s">
+        <v>28</v>
+      </c>
+      <c r="E202" s="2">
+        <v>45353.95833333334</v>
+      </c>
+      <c r="F202" t="s">
+        <v>30</v>
+      </c>
+      <c r="G202" t="s">
+        <v>38</v>
+      </c>
+      <c r="K202">
+        <v>2.375</v>
+      </c>
+      <c r="L202">
+        <v>3.4</v>
+      </c>
+      <c r="M202">
+        <v>2.6</v>
+      </c>
+      <c r="N202">
+        <v>2.25</v>
+      </c>
+      <c r="O202">
+        <v>3.3</v>
+      </c>
+      <c r="P202">
+        <v>2.8</v>
+      </c>
+      <c r="Q202">
+        <v>-0.25</v>
+      </c>
+      <c r="R202">
+        <v>2</v>
+      </c>
+      <c r="S202">
+        <v>1.8</v>
+      </c>
+      <c r="T202">
+        <v>2.5</v>
+      </c>
+      <c r="U202">
+        <v>1.85</v>
+      </c>
+      <c r="V202">
+        <v>1.95</v>
+      </c>
+      <c r="W202">
+        <v>0</v>
+      </c>
+      <c r="X202">
+        <v>0</v>
+      </c>
+      <c r="Y202">
+        <v>0</v>
+      </c>
+      <c r="Z202">
+        <v>0</v>
+      </c>
+      <c r="AA202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:29">
+      <c r="A203" s="1">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>7623987</v>
+      </c>
+      <c r="C203" t="s">
+        <v>28</v>
+      </c>
+      <c r="D203" t="s">
+        <v>28</v>
+      </c>
+      <c r="E203" s="2">
+        <v>45354.79166666666</v>
+      </c>
+      <c r="F203" t="s">
+        <v>32</v>
+      </c>
+      <c r="G203" t="s">
+        <v>33</v>
+      </c>
+      <c r="K203">
+        <v>1.571</v>
+      </c>
+      <c r="L203">
+        <v>3.75</v>
+      </c>
+      <c r="M203">
+        <v>5</v>
+      </c>
+      <c r="N203">
+        <v>1.533</v>
+      </c>
+      <c r="O203">
+        <v>3.8</v>
+      </c>
+      <c r="P203">
+        <v>5.25</v>
+      </c>
+      <c r="Q203">
+        <v>-1</v>
+      </c>
+      <c r="R203">
+        <v>1.975</v>
+      </c>
+      <c r="S203">
+        <v>1.825</v>
+      </c>
+      <c r="T203">
+        <v>2.5</v>
+      </c>
+      <c r="U203">
+        <v>1.825</v>
+      </c>
+      <c r="V203">
+        <v>1.975</v>
+      </c>
+      <c r="W203">
+        <v>0</v>
+      </c>
+      <c r="X203">
+        <v>0</v>
+      </c>
+      <c r="Y203">
+        <v>0</v>
+      </c>
+      <c r="Z203">
+        <v>0</v>
+      </c>
+      <c r="AA203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7623988</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45354.875</v>
+      </c>
+      <c r="F204" t="s">
+        <v>39</v>
+      </c>
+      <c r="G204" t="s">
+        <v>34</v>
+      </c>
+      <c r="K204">
+        <v>2.45</v>
+      </c>
+      <c r="L204">
+        <v>3.25</v>
+      </c>
+      <c r="M204">
+        <v>2.6</v>
+      </c>
+      <c r="N204">
+        <v>2.45</v>
+      </c>
+      <c r="O204">
+        <v>3.25</v>
+      </c>
+      <c r="P204">
+        <v>2.6</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1.825</v>
+      </c>
+      <c r="S204">
+        <v>1.975</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
+        <v>1.875</v>
+      </c>
+      <c r="V204">
+        <v>1.925</v>
+      </c>
+      <c r="W204">
+        <v>0</v>
+      </c>
+      <c r="X204">
+        <v>0</v>
+      </c>
+      <c r="Y204">
+        <v>0</v>
+      </c>
+      <c r="Z204">
+        <v>0</v>
+      </c>
+      <c r="AA204">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC204"/>
+  <dimension ref="A1:AC203"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
+        <v>8</v>
+      </c>
+      <c r="N129">
+        <v>1.444</v>
+      </c>
+      <c r="O129">
+        <v>4.333</v>
+      </c>
+      <c r="P129">
         <v>7</v>
-      </c>
-      <c r="N129">
-        <v>1.363</v>
-      </c>
-      <c r="O129">
-        <v>4.75</v>
-      </c>
-      <c r="P129">
-        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12112,25 +12112,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
         <v>1.8</v>
@@ -12139,16 +12139,16 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12163,10 +12163,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -18243,6 +18243,15 @@
       <c r="G200" t="s">
         <v>37</v>
       </c>
+      <c r="H200">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+      <c r="J200" t="s">
+        <v>43</v>
+      </c>
       <c r="K200">
         <v>3.75</v>
       </c>
@@ -18253,46 +18262,52 @@
         <v>1.8</v>
       </c>
       <c r="N200">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="O200">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P200">
+        <v>2.25</v>
+      </c>
+      <c r="Q200">
+        <v>0.25</v>
+      </c>
+      <c r="R200">
         <v>1.8</v>
       </c>
-      <c r="Q200">
-        <v>0.5</v>
-      </c>
-      <c r="R200">
-        <v>1.9</v>
-      </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V200">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB200">
+        <v>-1</v>
+      </c>
+      <c r="AC200">
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18317,6 +18332,15 @@
       <c r="G201" t="s">
         <v>29</v>
       </c>
+      <c r="H201">
+        <v>1</v>
+      </c>
+      <c r="I201">
+        <v>2</v>
+      </c>
+      <c r="J201" t="s">
+        <v>41</v>
+      </c>
       <c r="K201">
         <v>2.75</v>
       </c>
@@ -18327,46 +18351,52 @@
         <v>2.3</v>
       </c>
       <c r="N201">
-        <v>2.875</v>
+        <v>3.1</v>
       </c>
       <c r="O201">
         <v>3.25</v>
       </c>
       <c r="P201">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
         <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Z201">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>0</v>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB201">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC201">
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18374,7 +18404,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7623922</v>
+        <v>7623987</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18383,40 +18413,40 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45353.95833333334</v>
+        <v>45354.79166666666</v>
       </c>
       <c r="F202" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G202" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K202">
-        <v>2.375</v>
+        <v>1.571</v>
       </c>
       <c r="L202">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M202">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N202">
-        <v>2.25</v>
+        <v>1.6</v>
       </c>
       <c r="O202">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="P202">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="Q202">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R202">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S202">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="T202">
         <v>2.5</v>
@@ -18448,7 +18478,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7623987</v>
+        <v>7623988</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18457,49 +18487,49 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45354.79166666666</v>
+        <v>45354.875</v>
       </c>
       <c r="F203" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G203" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K203">
-        <v>1.571</v>
+        <v>2.45</v>
       </c>
       <c r="L203">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M203">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N203">
-        <v>1.533</v>
+        <v>2.45</v>
       </c>
       <c r="O203">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P203">
-        <v>5.25</v>
+        <v>2.6</v>
       </c>
       <c r="Q203">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R203">
+        <v>1.825</v>
+      </c>
+      <c r="S203">
         <v>1.975</v>
-      </c>
-      <c r="S203">
-        <v>1.825</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V203">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W203">
         <v>0</v>
@@ -18514,80 +18544,6 @@
         <v>0</v>
       </c>
       <c r="AA203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:29">
-      <c r="A204" s="1">
-        <v>202</v>
-      </c>
-      <c r="B204">
-        <v>7623988</v>
-      </c>
-      <c r="C204" t="s">
-        <v>28</v>
-      </c>
-      <c r="D204" t="s">
-        <v>28</v>
-      </c>
-      <c r="E204" s="2">
-        <v>45354.875</v>
-      </c>
-      <c r="F204" t="s">
-        <v>39</v>
-      </c>
-      <c r="G204" t="s">
-        <v>34</v>
-      </c>
-      <c r="K204">
-        <v>2.45</v>
-      </c>
-      <c r="L204">
-        <v>3.25</v>
-      </c>
-      <c r="M204">
-        <v>2.6</v>
-      </c>
-      <c r="N204">
-        <v>2.45</v>
-      </c>
-      <c r="O204">
-        <v>3.25</v>
-      </c>
-      <c r="P204">
-        <v>2.6</v>
-      </c>
-      <c r="Q204">
-        <v>0</v>
-      </c>
-      <c r="R204">
-        <v>1.825</v>
-      </c>
-      <c r="S204">
-        <v>1.975</v>
-      </c>
-      <c r="T204">
-        <v>2.5</v>
-      </c>
-      <c r="U204">
-        <v>1.875</v>
-      </c>
-      <c r="V204">
-        <v>1.925</v>
-      </c>
-      <c r="W204">
-        <v>0</v>
-      </c>
-      <c r="X204">
-        <v>0</v>
-      </c>
-      <c r="Y204">
-        <v>0</v>
-      </c>
-      <c r="Z204">
-        <v>0</v>
-      </c>
-      <c r="AA204">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC203"/>
+  <dimension ref="A1:AC210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N92">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
+        <v>1.825</v>
+      </c>
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.8</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,13 +12008,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12023,25 +12023,25 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
         <v>1.8</v>
@@ -12050,16 +12050,16 @@
         <v>2</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12074,10 +12074,10 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12112,25 +12112,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N131">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
         <v>1.8</v>
@@ -12139,16 +12139,16 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12163,10 +12163,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -18404,7 +18404,7 @@
         <v>200</v>
       </c>
       <c r="B202">
-        <v>7623987</v>
+        <v>7623922</v>
       </c>
       <c r="C202" t="s">
         <v>28</v>
@@ -18413,64 +18413,79 @@
         <v>28</v>
       </c>
       <c r="E202" s="2">
-        <v>45354.79166666666</v>
+        <v>45353.95833333334</v>
       </c>
       <c r="F202" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G202" t="s">
-        <v>33</v>
+        <v>38</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="J202" t="s">
+        <v>43</v>
       </c>
       <c r="K202">
-        <v>1.571</v>
+        <v>2.375</v>
       </c>
       <c r="L202">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M202">
-        <v>5</v>
+        <v>2.6</v>
       </c>
       <c r="N202">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="O202">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="P202">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="Q202">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R202">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S202">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="T202">
         <v>2.5</v>
       </c>
       <c r="U202">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V202">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X202">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y202">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z202">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA202">
-        <v>0</v>
+        <v>0.4625</v>
+      </c>
+      <c r="AB202">
+        <v>-1</v>
+      </c>
+      <c r="AC202">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="203" spans="1:29">
@@ -18478,7 +18493,7 @@
         <v>201</v>
       </c>
       <c r="B203">
-        <v>7623988</v>
+        <v>7623987</v>
       </c>
       <c r="C203" t="s">
         <v>28</v>
@@ -18487,63 +18502,611 @@
         <v>28</v>
       </c>
       <c r="E203" s="2">
-        <v>45354.875</v>
+        <v>45354.79166666666</v>
       </c>
       <c r="F203" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G203" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>2</v>
+      </c>
+      <c r="J203" t="s">
+        <v>43</v>
       </c>
       <c r="K203">
-        <v>2.45</v>
+        <v>1.571</v>
       </c>
       <c r="L203">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M203">
-        <v>2.6</v>
+        <v>5</v>
       </c>
       <c r="N203">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="O203">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="P203">
-        <v>2.6</v>
+        <v>4.333</v>
       </c>
       <c r="Q203">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R203">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S203">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T203">
         <v>2.5</v>
       </c>
       <c r="U203">
+        <v>1.85</v>
+      </c>
+      <c r="V203">
+        <v>1.95</v>
+      </c>
+      <c r="W203">
+        <v>-1</v>
+      </c>
+      <c r="X203">
+        <v>2.5</v>
+      </c>
+      <c r="Y203">
+        <v>-1</v>
+      </c>
+      <c r="Z203">
+        <v>-1</v>
+      </c>
+      <c r="AA203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB203">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC203">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:29">
+      <c r="A204" s="1">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>7623988</v>
+      </c>
+      <c r="C204" t="s">
+        <v>28</v>
+      </c>
+      <c r="D204" t="s">
+        <v>28</v>
+      </c>
+      <c r="E204" s="2">
+        <v>45354.875</v>
+      </c>
+      <c r="F204" t="s">
+        <v>39</v>
+      </c>
+      <c r="G204" t="s">
+        <v>34</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+      <c r="J204" t="s">
+        <v>42</v>
+      </c>
+      <c r="K204">
+        <v>2.45</v>
+      </c>
+      <c r="L204">
+        <v>3.25</v>
+      </c>
+      <c r="M204">
+        <v>2.6</v>
+      </c>
+      <c r="N204">
+        <v>2.55</v>
+      </c>
+      <c r="O204">
+        <v>3.25</v>
+      </c>
+      <c r="P204">
+        <v>2.5</v>
+      </c>
+      <c r="Q204">
+        <v>0</v>
+      </c>
+      <c r="R204">
+        <v>1.925</v>
+      </c>
+      <c r="S204">
+        <v>1.875</v>
+      </c>
+      <c r="T204">
+        <v>2.5</v>
+      </c>
+      <c r="U204">
         <v>1.9</v>
       </c>
-      <c r="V203">
+      <c r="V204">
         <v>1.9</v>
       </c>
-      <c r="W203">
-        <v>0</v>
-      </c>
-      <c r="X203">
-        <v>0</v>
-      </c>
-      <c r="Y203">
-        <v>0</v>
-      </c>
-      <c r="Z203">
-        <v>0</v>
-      </c>
-      <c r="AA203">
+      <c r="W204">
+        <v>1.55</v>
+      </c>
+      <c r="X204">
+        <v>-1</v>
+      </c>
+      <c r="Y204">
+        <v>-1</v>
+      </c>
+      <c r="Z204">
+        <v>0.925</v>
+      </c>
+      <c r="AA204">
+        <v>-1</v>
+      </c>
+      <c r="AB204">
+        <v>-1</v>
+      </c>
+      <c r="AC204">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:29">
+      <c r="A205" s="1">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>7623926</v>
+      </c>
+      <c r="C205" t="s">
+        <v>28</v>
+      </c>
+      <c r="D205" t="s">
+        <v>28</v>
+      </c>
+      <c r="E205" s="2">
+        <v>45359.95833333334</v>
+      </c>
+      <c r="F205" t="s">
+        <v>29</v>
+      </c>
+      <c r="G205" t="s">
+        <v>30</v>
+      </c>
+      <c r="K205">
+        <v>1.666</v>
+      </c>
+      <c r="L205">
+        <v>3.8</v>
+      </c>
+      <c r="M205">
+        <v>4.5</v>
+      </c>
+      <c r="N205">
+        <v>1.666</v>
+      </c>
+      <c r="O205">
+        <v>3.8</v>
+      </c>
+      <c r="P205">
+        <v>4.75</v>
+      </c>
+      <c r="Q205">
+        <v>-0.75</v>
+      </c>
+      <c r="R205">
+        <v>1.825</v>
+      </c>
+      <c r="S205">
+        <v>1.975</v>
+      </c>
+      <c r="T205">
+        <v>2.75</v>
+      </c>
+      <c r="U205">
+        <v>1.9</v>
+      </c>
+      <c r="V205">
+        <v>1.9</v>
+      </c>
+      <c r="W205">
+        <v>0</v>
+      </c>
+      <c r="X205">
+        <v>0</v>
+      </c>
+      <c r="Y205">
+        <v>0</v>
+      </c>
+      <c r="Z205">
+        <v>0</v>
+      </c>
+      <c r="AA205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:29">
+      <c r="A206" s="1">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>7920639</v>
+      </c>
+      <c r="C206" t="s">
+        <v>28</v>
+      </c>
+      <c r="D206" t="s">
+        <v>28</v>
+      </c>
+      <c r="E206" s="2">
+        <v>45360.83333333334</v>
+      </c>
+      <c r="F206" t="s">
+        <v>34</v>
+      </c>
+      <c r="G206" t="s">
+        <v>36</v>
+      </c>
+      <c r="K206">
+        <v>1.666</v>
+      </c>
+      <c r="L206">
+        <v>3.75</v>
+      </c>
+      <c r="M206">
+        <v>5</v>
+      </c>
+      <c r="N206">
+        <v>1.666</v>
+      </c>
+      <c r="O206">
+        <v>3.75</v>
+      </c>
+      <c r="P206">
+        <v>5</v>
+      </c>
+      <c r="Q206">
+        <v>-0.75</v>
+      </c>
+      <c r="R206">
+        <v>1.85</v>
+      </c>
+      <c r="S206">
+        <v>1.95</v>
+      </c>
+      <c r="T206">
+        <v>2.75</v>
+      </c>
+      <c r="U206">
+        <v>1.95</v>
+      </c>
+      <c r="V206">
+        <v>1.85</v>
+      </c>
+      <c r="W206">
+        <v>0</v>
+      </c>
+      <c r="X206">
+        <v>0</v>
+      </c>
+      <c r="Y206">
+        <v>0</v>
+      </c>
+      <c r="Z206">
+        <v>0</v>
+      </c>
+      <c r="AA206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:29">
+      <c r="A207" s="1">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>7623923</v>
+      </c>
+      <c r="C207" t="s">
+        <v>28</v>
+      </c>
+      <c r="D207" t="s">
+        <v>28</v>
+      </c>
+      <c r="E207" s="2">
+        <v>45360.91666666666</v>
+      </c>
+      <c r="F207" t="s">
+        <v>33</v>
+      </c>
+      <c r="G207" t="s">
+        <v>40</v>
+      </c>
+      <c r="K207">
+        <v>1.363</v>
+      </c>
+      <c r="L207">
+        <v>4.5</v>
+      </c>
+      <c r="M207">
+        <v>10</v>
+      </c>
+      <c r="N207">
+        <v>1.333</v>
+      </c>
+      <c r="O207">
+        <v>4.5</v>
+      </c>
+      <c r="P207">
+        <v>10</v>
+      </c>
+      <c r="Q207">
+        <v>-1.25</v>
+      </c>
+      <c r="R207">
+        <v>1.775</v>
+      </c>
+      <c r="S207">
+        <v>2.025</v>
+      </c>
+      <c r="T207">
+        <v>2.5</v>
+      </c>
+      <c r="U207">
+        <v>1.8</v>
+      </c>
+      <c r="V207">
+        <v>2</v>
+      </c>
+      <c r="W207">
+        <v>0</v>
+      </c>
+      <c r="X207">
+        <v>0</v>
+      </c>
+      <c r="Y207">
+        <v>0</v>
+      </c>
+      <c r="Z207">
+        <v>0</v>
+      </c>
+      <c r="AA207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:29">
+      <c r="A208" s="1">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>7623990</v>
+      </c>
+      <c r="C208" t="s">
+        <v>28</v>
+      </c>
+      <c r="D208" t="s">
+        <v>28</v>
+      </c>
+      <c r="E208" s="2">
+        <v>45360.95833333334</v>
+      </c>
+      <c r="F208" t="s">
+        <v>37</v>
+      </c>
+      <c r="G208" t="s">
+        <v>39</v>
+      </c>
+      <c r="K208">
+        <v>1.444</v>
+      </c>
+      <c r="L208">
+        <v>4.333</v>
+      </c>
+      <c r="M208">
+        <v>7.5</v>
+      </c>
+      <c r="N208">
+        <v>1.444</v>
+      </c>
+      <c r="O208">
+        <v>4.333</v>
+      </c>
+      <c r="P208">
+        <v>7.5</v>
+      </c>
+      <c r="Q208">
+        <v>-1.25</v>
+      </c>
+      <c r="R208">
+        <v>1.975</v>
+      </c>
+      <c r="S208">
+        <v>1.825</v>
+      </c>
+      <c r="T208">
+        <v>2.5</v>
+      </c>
+      <c r="U208">
+        <v>1.825</v>
+      </c>
+      <c r="V208">
+        <v>1.975</v>
+      </c>
+      <c r="W208">
+        <v>0</v>
+      </c>
+      <c r="X208">
+        <v>0</v>
+      </c>
+      <c r="Y208">
+        <v>0</v>
+      </c>
+      <c r="Z208">
+        <v>0</v>
+      </c>
+      <c r="AA208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
+      <c r="A209" s="1">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>7623925</v>
+      </c>
+      <c r="C209" t="s">
+        <v>28</v>
+      </c>
+      <c r="D209" t="s">
+        <v>28</v>
+      </c>
+      <c r="E209" s="2">
+        <v>45361.75</v>
+      </c>
+      <c r="F209" t="s">
+        <v>38</v>
+      </c>
+      <c r="G209" t="s">
+        <v>35</v>
+      </c>
+      <c r="K209">
+        <v>5</v>
+      </c>
+      <c r="L209">
+        <v>3.5</v>
+      </c>
+      <c r="M209">
+        <v>1.727</v>
+      </c>
+      <c r="N209">
+        <v>5</v>
+      </c>
+      <c r="O209">
+        <v>3.5</v>
+      </c>
+      <c r="P209">
+        <v>1.727</v>
+      </c>
+      <c r="Q209">
+        <v>0.75</v>
+      </c>
+      <c r="R209">
+        <v>1.85</v>
+      </c>
+      <c r="S209">
+        <v>1.95</v>
+      </c>
+      <c r="T209">
+        <v>2.5</v>
+      </c>
+      <c r="U209">
+        <v>2.025</v>
+      </c>
+      <c r="V209">
+        <v>1.775</v>
+      </c>
+      <c r="W209">
+        <v>0</v>
+      </c>
+      <c r="X209">
+        <v>0</v>
+      </c>
+      <c r="Y209">
+        <v>0</v>
+      </c>
+      <c r="Z209">
+        <v>0</v>
+      </c>
+      <c r="AA209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
+      <c r="A210" s="1">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>7916002</v>
+      </c>
+      <c r="C210" t="s">
+        <v>28</v>
+      </c>
+      <c r="D210" t="s">
+        <v>28</v>
+      </c>
+      <c r="E210" s="2">
+        <v>45361.79166666666</v>
+      </c>
+      <c r="F210" t="s">
+        <v>31</v>
+      </c>
+      <c r="G210" t="s">
+        <v>32</v>
+      </c>
+      <c r="K210">
+        <v>6.5</v>
+      </c>
+      <c r="L210">
+        <v>4.75</v>
+      </c>
+      <c r="M210">
+        <v>1.4</v>
+      </c>
+      <c r="N210">
+        <v>6</v>
+      </c>
+      <c r="O210">
+        <v>4.333</v>
+      </c>
+      <c r="P210">
+        <v>1.45</v>
+      </c>
+      <c r="Q210">
+        <v>1</v>
+      </c>
+      <c r="R210">
+        <v>1.975</v>
+      </c>
+      <c r="S210">
+        <v>1.825</v>
+      </c>
+      <c r="T210">
+        <v>2.5</v>
+      </c>
+      <c r="U210">
+        <v>1.8</v>
+      </c>
+      <c r="V210">
+        <v>2</v>
+      </c>
+      <c r="W210">
+        <v>0</v>
+      </c>
+      <c r="X210">
+        <v>0</v>
+      </c>
+      <c r="Y210">
+        <v>0</v>
+      </c>
+      <c r="Z210">
+        <v>0</v>
+      </c>
+      <c r="AA210">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1067" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N91">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,13 +12008,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12023,25 +12023,25 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N130">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
         <v>1.8</v>
@@ -12050,16 +12050,16 @@
         <v>2</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12074,10 +12074,10 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,34 +17526,34 @@
         <v>45347.75</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K192">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N192">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
         <v>3.6</v>
@@ -17562,40 +17562,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,34 +17615,34 @@
         <v>45347.75</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K193">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N193">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
         <v>3.6</v>
@@ -17651,40 +17651,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18688,6 +18688,15 @@
       <c r="G205" t="s">
         <v>30</v>
       </c>
+      <c r="H205">
+        <v>3</v>
+      </c>
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>42</v>
+      </c>
       <c r="K205">
         <v>1.666</v>
       </c>
@@ -18698,46 +18707,52 @@
         <v>4.5</v>
       </c>
       <c r="N205">
-        <v>1.666</v>
+        <v>1.5</v>
       </c>
       <c r="O205">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P205">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q205">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R205">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S205">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T205">
         <v>2.75</v>
       </c>
       <c r="U205">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V205">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W205">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y205">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z205">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA205">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB205">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC205">
+        <v>-1</v>
       </c>
     </row>
     <row r="206" spans="1:29">
@@ -18772,25 +18787,25 @@
         <v>5</v>
       </c>
       <c r="N206">
-        <v>1.666</v>
+        <v>1.8</v>
       </c>
       <c r="O206">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P206">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q206">
         <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S206">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T206">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U206">
         <v>1.95</v>
@@ -18846,31 +18861,31 @@
         <v>10</v>
       </c>
       <c r="N207">
-        <v>1.333</v>
+        <v>1.285</v>
       </c>
       <c r="O207">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="P207">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Q207">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R207">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S207">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T207">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U207">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="V207">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W207">
         <v>0</v>
@@ -18920,31 +18935,31 @@
         <v>7.5</v>
       </c>
       <c r="N208">
-        <v>1.444</v>
+        <v>1.5</v>
       </c>
       <c r="O208">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="P208">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Q208">
-        <v>-1.25</v>
+        <v>-1</v>
       </c>
       <c r="R208">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S208">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V208">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W208">
         <v>0</v>
@@ -19015,10 +19030,10 @@
         <v>2.5</v>
       </c>
       <c r="U209">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V209">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W209">
         <v>0</v>
@@ -19068,31 +19083,31 @@
         <v>1.4</v>
       </c>
       <c r="N210">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="O210">
-        <v>4.333</v>
+        <v>4.5</v>
       </c>
       <c r="P210">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="Q210">
         <v>1</v>
       </c>
       <c r="R210">
+        <v>2.025</v>
+      </c>
+      <c r="S210">
+        <v>1.775</v>
+      </c>
+      <c r="T210">
+        <v>2.75</v>
+      </c>
+      <c r="U210">
+        <v>1.825</v>
+      </c>
+      <c r="V210">
         <v>1.975</v>
-      </c>
-      <c r="S210">
-        <v>1.825</v>
-      </c>
-      <c r="T210">
-        <v>2.5</v>
-      </c>
-      <c r="U210">
-        <v>1.8</v>
-      </c>
-      <c r="V210">
-        <v>2</v>
       </c>
       <c r="W210">
         <v>0</v>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC210"/>
+  <dimension ref="A1:AC216"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
+        <v>8</v>
+      </c>
+      <c r="N129">
+        <v>1.444</v>
+      </c>
+      <c r="O129">
+        <v>4.333</v>
+      </c>
+      <c r="P129">
         <v>7</v>
-      </c>
-      <c r="N129">
-        <v>1.363</v>
-      </c>
-      <c r="O129">
-        <v>4.75</v>
-      </c>
-      <c r="P129">
-        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,13 +12008,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12023,25 +12023,25 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
         <v>1.8</v>
@@ -12050,16 +12050,16 @@
         <v>2</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12074,10 +12074,10 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,34 +17526,34 @@
         <v>45347.75</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K192">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M192">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N192">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
         <v>3.6</v>
@@ -17562,40 +17562,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,34 +17615,34 @@
         <v>45347.75</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K193">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N193">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
         <v>3.6</v>
@@ -17651,40 +17651,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M200">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N200">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P200">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z200">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K201">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N201">
+        <v>2.8</v>
+      </c>
+      <c r="O201">
         <v>3.1</v>
       </c>
-      <c r="O201">
-        <v>3.25</v>
-      </c>
       <c r="P201">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y201">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -18777,6 +18777,15 @@
       <c r="G206" t="s">
         <v>36</v>
       </c>
+      <c r="H206">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+      <c r="J206" t="s">
+        <v>43</v>
+      </c>
       <c r="K206">
         <v>1.666</v>
       </c>
@@ -18787,7 +18796,7 @@
         <v>5</v>
       </c>
       <c r="N206">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="O206">
         <v>3.5</v>
@@ -18799,34 +18808,40 @@
         <v>-0.75</v>
       </c>
       <c r="R206">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S206">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T206">
         <v>2.5</v>
       </c>
       <c r="U206">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V206">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X206">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z206">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA206">
-        <v>0</v>
+        <v>0.825</v>
+      </c>
+      <c r="AB206">
+        <v>-1</v>
+      </c>
+      <c r="AC206">
+        <v>0.875</v>
       </c>
     </row>
     <row r="207" spans="1:29">
@@ -18851,6 +18866,15 @@
       <c r="G207" t="s">
         <v>40</v>
       </c>
+      <c r="H207">
+        <v>2</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="J207" t="s">
+        <v>42</v>
+      </c>
       <c r="K207">
         <v>1.363</v>
       </c>
@@ -18861,46 +18885,52 @@
         <v>10</v>
       </c>
       <c r="N207">
-        <v>1.285</v>
+        <v>1.2</v>
       </c>
       <c r="O207">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P207">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Q207">
-        <v>-1.5</v>
+        <v>-1.75</v>
       </c>
       <c r="R207">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S207">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T207">
         <v>2.75</v>
       </c>
       <c r="U207">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V207">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="W207">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="X207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y207">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z207">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA207">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB207">
+        <v>-1</v>
+      </c>
+      <c r="AC207">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:29">
@@ -18925,6 +18955,15 @@
       <c r="G208" t="s">
         <v>39</v>
       </c>
+      <c r="H208">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+      <c r="J208" t="s">
+        <v>42</v>
+      </c>
       <c r="K208">
         <v>1.444</v>
       </c>
@@ -18935,49 +18974,55 @@
         <v>7.5</v>
       </c>
       <c r="N208">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="O208">
         <v>4</v>
       </c>
       <c r="P208">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q208">
         <v>-1</v>
       </c>
       <c r="R208">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S208">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T208">
         <v>2.5</v>
       </c>
       <c r="U208">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V208">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W208">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="X208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y208">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z208">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB208">
+        <v>-1</v>
+      </c>
+      <c r="AC208">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="209" spans="1:29">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -18999,6 +19044,15 @@
       <c r="G209" t="s">
         <v>35</v>
       </c>
+      <c r="H209">
+        <v>3</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+      <c r="J209" t="s">
+        <v>42</v>
+      </c>
       <c r="K209">
         <v>5</v>
       </c>
@@ -19009,49 +19063,55 @@
         <v>1.727</v>
       </c>
       <c r="N209">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O209">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P209">
-        <v>1.727</v>
+        <v>1.8</v>
       </c>
       <c r="Q209">
         <v>0.75</v>
       </c>
       <c r="R209">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="S209">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T209">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U209">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V209">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W209">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="X209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y209">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z209">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB209">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AC209">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:29">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -19073,6 +19133,15 @@
       <c r="G210" t="s">
         <v>32</v>
       </c>
+      <c r="H210">
+        <v>1</v>
+      </c>
+      <c r="I210">
+        <v>3</v>
+      </c>
+      <c r="J210" t="s">
+        <v>41</v>
+      </c>
       <c r="K210">
         <v>6.5</v>
       </c>
@@ -19083,45 +19152,495 @@
         <v>1.4</v>
       </c>
       <c r="N210">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="O210">
         <v>4.5</v>
       </c>
       <c r="P210">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="Q210">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="R210">
+        <v>1.775</v>
+      </c>
+      <c r="S210">
         <v>2.025</v>
-      </c>
-      <c r="S210">
-        <v>1.775</v>
       </c>
       <c r="T210">
         <v>2.75</v>
       </c>
       <c r="U210">
+        <v>1.95</v>
+      </c>
+      <c r="V210">
+        <v>1.85</v>
+      </c>
+      <c r="W210">
+        <v>-1</v>
+      </c>
+      <c r="X210">
+        <v>-1</v>
+      </c>
+      <c r="Y210">
+        <v>0.45</v>
+      </c>
+      <c r="Z210">
+        <v>-1</v>
+      </c>
+      <c r="AA210">
+        <v>1.025</v>
+      </c>
+      <c r="AB210">
+        <v>0.95</v>
+      </c>
+      <c r="AC210">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7623929</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45367.75</v>
+      </c>
+      <c r="F211" t="s">
+        <v>40</v>
+      </c>
+      <c r="G211" t="s">
+        <v>38</v>
+      </c>
+      <c r="K211">
+        <v>2.7</v>
+      </c>
+      <c r="L211">
+        <v>3.1</v>
+      </c>
+      <c r="M211">
+        <v>2.5</v>
+      </c>
+      <c r="N211">
+        <v>2.75</v>
+      </c>
+      <c r="O211">
+        <v>3.1</v>
+      </c>
+      <c r="P211">
+        <v>2.5</v>
+      </c>
+      <c r="Q211">
+        <v>0</v>
+      </c>
+      <c r="R211">
+        <v>2</v>
+      </c>
+      <c r="S211">
+        <v>1.8</v>
+      </c>
+      <c r="T211">
+        <v>2.25</v>
+      </c>
+      <c r="U211">
+        <v>1.85</v>
+      </c>
+      <c r="V211">
+        <v>1.95</v>
+      </c>
+      <c r="W211">
+        <v>0</v>
+      </c>
+      <c r="X211">
+        <v>0</v>
+      </c>
+      <c r="Y211">
+        <v>0</v>
+      </c>
+      <c r="Z211">
+        <v>0</v>
+      </c>
+      <c r="AA211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7948502</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45367.83333333334</v>
+      </c>
+      <c r="F212" t="s">
+        <v>39</v>
+      </c>
+      <c r="G212" t="s">
+        <v>35</v>
+      </c>
+      <c r="K212">
+        <v>4</v>
+      </c>
+      <c r="L212">
+        <v>3.5</v>
+      </c>
+      <c r="M212">
+        <v>1.8</v>
+      </c>
+      <c r="N212">
+        <v>4</v>
+      </c>
+      <c r="O212">
+        <v>3.5</v>
+      </c>
+      <c r="P212">
+        <v>1.8</v>
+      </c>
+      <c r="Q212">
+        <v>0.5</v>
+      </c>
+      <c r="R212">
+        <v>1.975</v>
+      </c>
+      <c r="S212">
         <v>1.825</v>
       </c>
-      <c r="V210">
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>1.9</v>
+      </c>
+      <c r="V212">
+        <v>1.9</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7948501</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45367.83333333334</v>
+      </c>
+      <c r="F213" t="s">
+        <v>36</v>
+      </c>
+      <c r="G213" t="s">
+        <v>32</v>
+      </c>
+      <c r="K213">
+        <v>3.6</v>
+      </c>
+      <c r="L213">
+        <v>3.4</v>
+      </c>
+      <c r="M213">
+        <v>1.909</v>
+      </c>
+      <c r="N213">
+        <v>3.6</v>
+      </c>
+      <c r="O213">
+        <v>3.4</v>
+      </c>
+      <c r="P213">
+        <v>1.909</v>
+      </c>
+      <c r="Q213">
+        <v>0.5</v>
+      </c>
+      <c r="R213">
+        <v>1.85</v>
+      </c>
+      <c r="S213">
+        <v>1.95</v>
+      </c>
+      <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>2</v>
+      </c>
+      <c r="V213">
+        <v>1.8</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7623991</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45367.86458333334</v>
+      </c>
+      <c r="F214" t="s">
+        <v>30</v>
+      </c>
+      <c r="G214" t="s">
+        <v>37</v>
+      </c>
+      <c r="K214">
+        <v>4.2</v>
+      </c>
+      <c r="L214">
+        <v>3.6</v>
+      </c>
+      <c r="M214">
+        <v>1.727</v>
+      </c>
+      <c r="N214">
+        <v>4.2</v>
+      </c>
+      <c r="O214">
+        <v>3.6</v>
+      </c>
+      <c r="P214">
+        <v>1.727</v>
+      </c>
+      <c r="Q214">
+        <v>0.75</v>
+      </c>
+      <c r="R214">
+        <v>1.825</v>
+      </c>
+      <c r="S214">
         <v>1.975</v>
       </c>
-      <c r="W210">
-        <v>0</v>
-      </c>
-      <c r="X210">
-        <v>0</v>
-      </c>
-      <c r="Y210">
-        <v>0</v>
-      </c>
-      <c r="Z210">
-        <v>0</v>
-      </c>
-      <c r="AA210">
+      <c r="T214">
+        <v>2.5</v>
+      </c>
+      <c r="U214">
+        <v>1.85</v>
+      </c>
+      <c r="V214">
+        <v>1.95</v>
+      </c>
+      <c r="W214">
+        <v>0</v>
+      </c>
+      <c r="X214">
+        <v>0</v>
+      </c>
+      <c r="Y214">
+        <v>0</v>
+      </c>
+      <c r="Z214">
+        <v>0</v>
+      </c>
+      <c r="AA214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7623928</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45367.97916666666</v>
+      </c>
+      <c r="F215" t="s">
+        <v>29</v>
+      </c>
+      <c r="G215" t="s">
+        <v>33</v>
+      </c>
+      <c r="K215">
+        <v>2.375</v>
+      </c>
+      <c r="L215">
+        <v>3.3</v>
+      </c>
+      <c r="M215">
+        <v>2.7</v>
+      </c>
+      <c r="N215">
+        <v>2.3</v>
+      </c>
+      <c r="O215">
+        <v>3.3</v>
+      </c>
+      <c r="P215">
+        <v>2.75</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
+        <v>2.05</v>
+      </c>
+      <c r="S215">
+        <v>1.75</v>
+      </c>
+      <c r="T215">
+        <v>2.75</v>
+      </c>
+      <c r="U215">
+        <v>1.975</v>
+      </c>
+      <c r="V215">
+        <v>1.825</v>
+      </c>
+      <c r="W215">
+        <v>0</v>
+      </c>
+      <c r="X215">
+        <v>0</v>
+      </c>
+      <c r="Y215">
+        <v>0</v>
+      </c>
+      <c r="Z215">
+        <v>0</v>
+      </c>
+      <c r="AA215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7623927</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45368.58333333334</v>
+      </c>
+      <c r="F216" t="s">
+        <v>34</v>
+      </c>
+      <c r="G216" t="s">
+        <v>31</v>
+      </c>
+      <c r="K216">
+        <v>1.45</v>
+      </c>
+      <c r="L216">
+        <v>4.333</v>
+      </c>
+      <c r="M216">
+        <v>5.75</v>
+      </c>
+      <c r="N216">
+        <v>1.45</v>
+      </c>
+      <c r="O216">
+        <v>4.2</v>
+      </c>
+      <c r="P216">
+        <v>5.75</v>
+      </c>
+      <c r="Q216">
+        <v>-1</v>
+      </c>
+      <c r="R216">
+        <v>1.8</v>
+      </c>
+      <c r="S216">
+        <v>2</v>
+      </c>
+      <c r="T216">
+        <v>2.75</v>
+      </c>
+      <c r="U216">
+        <v>1.9</v>
+      </c>
+      <c r="V216">
+        <v>1.9</v>
+      </c>
+      <c r="W216">
+        <v>0</v>
+      </c>
+      <c r="X216">
+        <v>0</v>
+      </c>
+      <c r="Y216">
+        <v>0</v>
+      </c>
+      <c r="Z216">
+        <v>0</v>
+      </c>
+      <c r="AA216">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC216"/>
+  <dimension ref="A1:AC210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.8</v>
       </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>1.925</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA110">
+        <v>-0.5</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L111">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q111">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
+        <v>1.925</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
         <v>1.8</v>
       </c>
-      <c r="W111">
-        <v>0.25</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
       <c r="Z111">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,13 +12008,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12023,25 +12023,25 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N130">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
         <v>1.8</v>
@@ -12050,16 +12050,16 @@
         <v>2</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12074,10 +12074,10 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -19198,450 +19198,6 @@
       </c>
       <c r="AC210">
         <v>-1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:29">
-      <c r="A211" s="1">
-        <v>209</v>
-      </c>
-      <c r="B211">
-        <v>7623929</v>
-      </c>
-      <c r="C211" t="s">
-        <v>28</v>
-      </c>
-      <c r="D211" t="s">
-        <v>28</v>
-      </c>
-      <c r="E211" s="2">
-        <v>45367.75</v>
-      </c>
-      <c r="F211" t="s">
-        <v>40</v>
-      </c>
-      <c r="G211" t="s">
-        <v>38</v>
-      </c>
-      <c r="K211">
-        <v>2.7</v>
-      </c>
-      <c r="L211">
-        <v>3.1</v>
-      </c>
-      <c r="M211">
-        <v>2.5</v>
-      </c>
-      <c r="N211">
-        <v>2.75</v>
-      </c>
-      <c r="O211">
-        <v>3.1</v>
-      </c>
-      <c r="P211">
-        <v>2.5</v>
-      </c>
-      <c r="Q211">
-        <v>0</v>
-      </c>
-      <c r="R211">
-        <v>2</v>
-      </c>
-      <c r="S211">
-        <v>1.8</v>
-      </c>
-      <c r="T211">
-        <v>2.25</v>
-      </c>
-      <c r="U211">
-        <v>1.85</v>
-      </c>
-      <c r="V211">
-        <v>1.95</v>
-      </c>
-      <c r="W211">
-        <v>0</v>
-      </c>
-      <c r="X211">
-        <v>0</v>
-      </c>
-      <c r="Y211">
-        <v>0</v>
-      </c>
-      <c r="Z211">
-        <v>0</v>
-      </c>
-      <c r="AA211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:29">
-      <c r="A212" s="1">
-        <v>210</v>
-      </c>
-      <c r="B212">
-        <v>7948502</v>
-      </c>
-      <c r="C212" t="s">
-        <v>28</v>
-      </c>
-      <c r="D212" t="s">
-        <v>28</v>
-      </c>
-      <c r="E212" s="2">
-        <v>45367.83333333334</v>
-      </c>
-      <c r="F212" t="s">
-        <v>39</v>
-      </c>
-      <c r="G212" t="s">
-        <v>35</v>
-      </c>
-      <c r="K212">
-        <v>4</v>
-      </c>
-      <c r="L212">
-        <v>3.5</v>
-      </c>
-      <c r="M212">
-        <v>1.8</v>
-      </c>
-      <c r="N212">
-        <v>4</v>
-      </c>
-      <c r="O212">
-        <v>3.5</v>
-      </c>
-      <c r="P212">
-        <v>1.8</v>
-      </c>
-      <c r="Q212">
-        <v>0.5</v>
-      </c>
-      <c r="R212">
-        <v>1.975</v>
-      </c>
-      <c r="S212">
-        <v>1.825</v>
-      </c>
-      <c r="T212">
-        <v>2.5</v>
-      </c>
-      <c r="U212">
-        <v>1.9</v>
-      </c>
-      <c r="V212">
-        <v>1.9</v>
-      </c>
-      <c r="W212">
-        <v>0</v>
-      </c>
-      <c r="X212">
-        <v>0</v>
-      </c>
-      <c r="Y212">
-        <v>0</v>
-      </c>
-      <c r="Z212">
-        <v>0</v>
-      </c>
-      <c r="AA212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:29">
-      <c r="A213" s="1">
-        <v>211</v>
-      </c>
-      <c r="B213">
-        <v>7948501</v>
-      </c>
-      <c r="C213" t="s">
-        <v>28</v>
-      </c>
-      <c r="D213" t="s">
-        <v>28</v>
-      </c>
-      <c r="E213" s="2">
-        <v>45367.83333333334</v>
-      </c>
-      <c r="F213" t="s">
-        <v>36</v>
-      </c>
-      <c r="G213" t="s">
-        <v>32</v>
-      </c>
-      <c r="K213">
-        <v>3.6</v>
-      </c>
-      <c r="L213">
-        <v>3.4</v>
-      </c>
-      <c r="M213">
-        <v>1.909</v>
-      </c>
-      <c r="N213">
-        <v>3.6</v>
-      </c>
-      <c r="O213">
-        <v>3.4</v>
-      </c>
-      <c r="P213">
-        <v>1.909</v>
-      </c>
-      <c r="Q213">
-        <v>0.5</v>
-      </c>
-      <c r="R213">
-        <v>1.85</v>
-      </c>
-      <c r="S213">
-        <v>1.95</v>
-      </c>
-      <c r="T213">
-        <v>2.5</v>
-      </c>
-      <c r="U213">
-        <v>2</v>
-      </c>
-      <c r="V213">
-        <v>1.8</v>
-      </c>
-      <c r="W213">
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <v>0</v>
-      </c>
-      <c r="Y213">
-        <v>0</v>
-      </c>
-      <c r="Z213">
-        <v>0</v>
-      </c>
-      <c r="AA213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:29">
-      <c r="A214" s="1">
-        <v>212</v>
-      </c>
-      <c r="B214">
-        <v>7623991</v>
-      </c>
-      <c r="C214" t="s">
-        <v>28</v>
-      </c>
-      <c r="D214" t="s">
-        <v>28</v>
-      </c>
-      <c r="E214" s="2">
-        <v>45367.86458333334</v>
-      </c>
-      <c r="F214" t="s">
-        <v>30</v>
-      </c>
-      <c r="G214" t="s">
-        <v>37</v>
-      </c>
-      <c r="K214">
-        <v>4.2</v>
-      </c>
-      <c r="L214">
-        <v>3.6</v>
-      </c>
-      <c r="M214">
-        <v>1.727</v>
-      </c>
-      <c r="N214">
-        <v>4.2</v>
-      </c>
-      <c r="O214">
-        <v>3.6</v>
-      </c>
-      <c r="P214">
-        <v>1.727</v>
-      </c>
-      <c r="Q214">
-        <v>0.75</v>
-      </c>
-      <c r="R214">
-        <v>1.825</v>
-      </c>
-      <c r="S214">
-        <v>1.975</v>
-      </c>
-      <c r="T214">
-        <v>2.5</v>
-      </c>
-      <c r="U214">
-        <v>1.85</v>
-      </c>
-      <c r="V214">
-        <v>1.95</v>
-      </c>
-      <c r="W214">
-        <v>0</v>
-      </c>
-      <c r="X214">
-        <v>0</v>
-      </c>
-      <c r="Y214">
-        <v>0</v>
-      </c>
-      <c r="Z214">
-        <v>0</v>
-      </c>
-      <c r="AA214">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:29">
-      <c r="A215" s="1">
-        <v>213</v>
-      </c>
-      <c r="B215">
-        <v>7623928</v>
-      </c>
-      <c r="C215" t="s">
-        <v>28</v>
-      </c>
-      <c r="D215" t="s">
-        <v>28</v>
-      </c>
-      <c r="E215" s="2">
-        <v>45367.97916666666</v>
-      </c>
-      <c r="F215" t="s">
-        <v>29</v>
-      </c>
-      <c r="G215" t="s">
-        <v>33</v>
-      </c>
-      <c r="K215">
-        <v>2.375</v>
-      </c>
-      <c r="L215">
-        <v>3.3</v>
-      </c>
-      <c r="M215">
-        <v>2.7</v>
-      </c>
-      <c r="N215">
-        <v>2.3</v>
-      </c>
-      <c r="O215">
-        <v>3.3</v>
-      </c>
-      <c r="P215">
-        <v>2.75</v>
-      </c>
-      <c r="Q215">
-        <v>-0.25</v>
-      </c>
-      <c r="R215">
-        <v>2.05</v>
-      </c>
-      <c r="S215">
-        <v>1.75</v>
-      </c>
-      <c r="T215">
-        <v>2.75</v>
-      </c>
-      <c r="U215">
-        <v>1.975</v>
-      </c>
-      <c r="V215">
-        <v>1.825</v>
-      </c>
-      <c r="W215">
-        <v>0</v>
-      </c>
-      <c r="X215">
-        <v>0</v>
-      </c>
-      <c r="Y215">
-        <v>0</v>
-      </c>
-      <c r="Z215">
-        <v>0</v>
-      </c>
-      <c r="AA215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:29">
-      <c r="A216" s="1">
-        <v>214</v>
-      </c>
-      <c r="B216">
-        <v>7623927</v>
-      </c>
-      <c r="C216" t="s">
-        <v>28</v>
-      </c>
-      <c r="D216" t="s">
-        <v>28</v>
-      </c>
-      <c r="E216" s="2">
-        <v>45368.58333333334</v>
-      </c>
-      <c r="F216" t="s">
-        <v>34</v>
-      </c>
-      <c r="G216" t="s">
-        <v>31</v>
-      </c>
-      <c r="K216">
-        <v>1.45</v>
-      </c>
-      <c r="L216">
-        <v>4.333</v>
-      </c>
-      <c r="M216">
-        <v>5.75</v>
-      </c>
-      <c r="N216">
-        <v>1.45</v>
-      </c>
-      <c r="O216">
-        <v>4.2</v>
-      </c>
-      <c r="P216">
-        <v>5.75</v>
-      </c>
-      <c r="Q216">
-        <v>-1</v>
-      </c>
-      <c r="R216">
-        <v>1.8</v>
-      </c>
-      <c r="S216">
-        <v>2</v>
-      </c>
-      <c r="T216">
-        <v>2.75</v>
-      </c>
-      <c r="U216">
-        <v>1.9</v>
-      </c>
-      <c r="V216">
-        <v>1.9</v>
-      </c>
-      <c r="W216">
-        <v>0</v>
-      </c>
-      <c r="X216">
-        <v>0</v>
-      </c>
-      <c r="Y216">
-        <v>0</v>
-      </c>
-      <c r="Z216">
-        <v>0</v>
-      </c>
-      <c r="AA216">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC210"/>
+  <dimension ref="A1:AC213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
+        <v>1.925</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>1.8</v>
       </c>
-      <c r="W110">
-        <v>0.25</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
       <c r="Z110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>0</v>
       </c>
-      <c r="I111">
-        <v>2</v>
-      </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N111">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P111">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
+        <v>1.825</v>
+      </c>
+      <c r="T111">
+        <v>3.25</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.8</v>
       </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.875</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA111">
+        <v>-0.5</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.8</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
+        <v>8</v>
+      </c>
+      <c r="N129">
+        <v>1.444</v>
+      </c>
+      <c r="O129">
+        <v>4.333</v>
+      </c>
+      <c r="P129">
         <v>7</v>
-      </c>
-      <c r="N129">
-        <v>1.363</v>
-      </c>
-      <c r="O129">
-        <v>4.75</v>
-      </c>
-      <c r="P129">
-        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,13 +12008,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12023,25 +12023,25 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
         <v>1.8</v>
@@ -12050,16 +12050,16 @@
         <v>2</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12074,10 +12074,10 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K200">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N200">
+        <v>2.8</v>
+      </c>
+      <c r="O200">
         <v>3.1</v>
       </c>
-      <c r="O200">
-        <v>3.25</v>
-      </c>
       <c r="P200">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K201">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M201">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N201">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P201">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -19198,6 +19198,243 @@
       </c>
       <c r="AC210">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:29">
+      <c r="A211" s="1">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>7623995</v>
+      </c>
+      <c r="C211" t="s">
+        <v>28</v>
+      </c>
+      <c r="D211" t="s">
+        <v>28</v>
+      </c>
+      <c r="E211" s="2">
+        <v>45377.83333333334</v>
+      </c>
+      <c r="F211" t="s">
+        <v>30</v>
+      </c>
+      <c r="G211" t="s">
+        <v>39</v>
+      </c>
+      <c r="H211">
+        <v>1</v>
+      </c>
+      <c r="I211">
+        <v>2</v>
+      </c>
+      <c r="J211" t="s">
+        <v>41</v>
+      </c>
+      <c r="K211">
+        <v>2.3</v>
+      </c>
+      <c r="L211">
+        <v>3.2</v>
+      </c>
+      <c r="M211">
+        <v>3</v>
+      </c>
+      <c r="N211">
+        <v>3</v>
+      </c>
+      <c r="O211">
+        <v>3.2</v>
+      </c>
+      <c r="P211">
+        <v>2.4</v>
+      </c>
+      <c r="Q211">
+        <v>0.25</v>
+      </c>
+      <c r="R211">
+        <v>1.775</v>
+      </c>
+      <c r="S211">
+        <v>2.025</v>
+      </c>
+      <c r="T211">
+        <v>2.5</v>
+      </c>
+      <c r="U211">
+        <v>1.95</v>
+      </c>
+      <c r="V211">
+        <v>1.85</v>
+      </c>
+      <c r="W211">
+        <v>-1</v>
+      </c>
+      <c r="X211">
+        <v>-1</v>
+      </c>
+      <c r="Y211">
+        <v>1.4</v>
+      </c>
+      <c r="Z211">
+        <v>-1</v>
+      </c>
+      <c r="AA211">
+        <v>1.025</v>
+      </c>
+      <c r="AB211">
+        <v>0.95</v>
+      </c>
+      <c r="AC211">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:29">
+      <c r="A212" s="1">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>7623993</v>
+      </c>
+      <c r="C212" t="s">
+        <v>28</v>
+      </c>
+      <c r="D212" t="s">
+        <v>28</v>
+      </c>
+      <c r="E212" s="2">
+        <v>45378.91666666666</v>
+      </c>
+      <c r="F212" t="s">
+        <v>33</v>
+      </c>
+      <c r="G212" t="s">
+        <v>37</v>
+      </c>
+      <c r="K212">
+        <v>2.5</v>
+      </c>
+      <c r="L212">
+        <v>3.2</v>
+      </c>
+      <c r="M212">
+        <v>2.8</v>
+      </c>
+      <c r="N212">
+        <v>2.05</v>
+      </c>
+      <c r="O212">
+        <v>3.25</v>
+      </c>
+      <c r="P212">
+        <v>3.3</v>
+      </c>
+      <c r="Q212">
+        <v>-0.25</v>
+      </c>
+      <c r="R212">
+        <v>1.825</v>
+      </c>
+      <c r="S212">
+        <v>1.975</v>
+      </c>
+      <c r="T212">
+        <v>2.5</v>
+      </c>
+      <c r="U212">
+        <v>1.95</v>
+      </c>
+      <c r="V212">
+        <v>1.85</v>
+      </c>
+      <c r="W212">
+        <v>0</v>
+      </c>
+      <c r="X212">
+        <v>0</v>
+      </c>
+      <c r="Y212">
+        <v>0</v>
+      </c>
+      <c r="Z212">
+        <v>0</v>
+      </c>
+      <c r="AA212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:29">
+      <c r="A213" s="1">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>7623994</v>
+      </c>
+      <c r="C213" t="s">
+        <v>28</v>
+      </c>
+      <c r="D213" t="s">
+        <v>28</v>
+      </c>
+      <c r="E213" s="2">
+        <v>45378.95833333334</v>
+      </c>
+      <c r="F213" t="s">
+        <v>34</v>
+      </c>
+      <c r="G213" t="s">
+        <v>32</v>
+      </c>
+      <c r="K213">
+        <v>3.25</v>
+      </c>
+      <c r="L213">
+        <v>3.5</v>
+      </c>
+      <c r="M213">
+        <v>2.1</v>
+      </c>
+      <c r="N213">
+        <v>3.4</v>
+      </c>
+      <c r="O213">
+        <v>3.2</v>
+      </c>
+      <c r="P213">
+        <v>2.15</v>
+      </c>
+      <c r="Q213">
+        <v>0.25</v>
+      </c>
+      <c r="R213">
+        <v>1.975</v>
+      </c>
+      <c r="S213">
+        <v>1.825</v>
+      </c>
+      <c r="T213">
+        <v>2.25</v>
+      </c>
+      <c r="U213">
+        <v>1.95</v>
+      </c>
+      <c r="V213">
+        <v>1.85</v>
+      </c>
+      <c r="W213">
+        <v>0</v>
+      </c>
+      <c r="X213">
+        <v>0</v>
+      </c>
+      <c r="Y213">
+        <v>0</v>
+      </c>
+      <c r="Z213">
+        <v>0</v>
+      </c>
+      <c r="AA213">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC213"/>
+  <dimension ref="A1:AC222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,13 +12008,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12023,25 +12023,25 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N130">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
         <v>1.8</v>
@@ -12050,16 +12050,16 @@
         <v>2</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12074,10 +12074,10 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12112,25 +12112,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
         <v>1.8</v>
@@ -12139,16 +12139,16 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12163,10 +12163,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M200">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N200">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P200">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z200">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K201">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N201">
+        <v>2.8</v>
+      </c>
+      <c r="O201">
         <v>3.1</v>
       </c>
-      <c r="O201">
-        <v>3.25</v>
-      </c>
       <c r="P201">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y201">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -19294,7 +19294,7 @@
         <v>210</v>
       </c>
       <c r="B212">
-        <v>7623993</v>
+        <v>7623936</v>
       </c>
       <c r="C212" t="s">
         <v>28</v>
@@ -19303,64 +19303,79 @@
         <v>28</v>
       </c>
       <c r="E212" s="2">
-        <v>45378.91666666666</v>
+        <v>45377.875</v>
       </c>
       <c r="F212" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G212" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="H212">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+      <c r="J212" t="s">
+        <v>43</v>
       </c>
       <c r="K212">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="L212">
         <v>3.2</v>
       </c>
       <c r="M212">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="N212">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="O212">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P212">
-        <v>3.3</v>
+        <v>2.625</v>
       </c>
       <c r="Q212">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R212">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S212">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T212">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U212">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V212">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X212">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y212">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z212">
         <v>0</v>
       </c>
       <c r="AA212">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB212">
+        <v>-1</v>
+      </c>
+      <c r="AC212">
+        <v>0.7749999999999999</v>
       </c>
     </row>
     <row r="213" spans="1:29">
@@ -19368,7 +19383,7 @@
         <v>211</v>
       </c>
       <c r="B213">
-        <v>7623994</v>
+        <v>7623937</v>
       </c>
       <c r="C213" t="s">
         <v>28</v>
@@ -19377,31 +19392,40 @@
         <v>28</v>
       </c>
       <c r="E213" s="2">
-        <v>45378.95833333334</v>
+        <v>45377.9375</v>
       </c>
       <c r="F213" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G213" t="s">
-        <v>32</v>
+        <v>35</v>
+      </c>
+      <c r="H213">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <v>4</v>
+      </c>
+      <c r="J213" t="s">
+        <v>41</v>
       </c>
       <c r="K213">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="L213">
+        <v>3.75</v>
+      </c>
+      <c r="M213">
+        <v>1.85</v>
+      </c>
+      <c r="N213">
+        <v>3.3</v>
+      </c>
+      <c r="O213">
         <v>3.5</v>
       </c>
-      <c r="M213">
-        <v>2.1</v>
-      </c>
-      <c r="N213">
-        <v>3.4</v>
-      </c>
-      <c r="O213">
-        <v>3.2</v>
-      </c>
       <c r="P213">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="Q213">
         <v>0.25</v>
@@ -19413,27 +19437,744 @@
         <v>1.825</v>
       </c>
       <c r="T213">
+        <v>2.5</v>
+      </c>
+      <c r="U213">
+        <v>1.8</v>
+      </c>
+      <c r="V213">
+        <v>2</v>
+      </c>
+      <c r="W213">
+        <v>-1</v>
+      </c>
+      <c r="X213">
+        <v>-1</v>
+      </c>
+      <c r="Y213">
+        <v>1.05</v>
+      </c>
+      <c r="Z213">
+        <v>-1</v>
+      </c>
+      <c r="AA213">
+        <v>0.825</v>
+      </c>
+      <c r="AB213">
+        <v>0.8</v>
+      </c>
+      <c r="AC213">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:29">
+      <c r="A214" s="1">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>7623938</v>
+      </c>
+      <c r="C214" t="s">
+        <v>28</v>
+      </c>
+      <c r="D214" t="s">
+        <v>28</v>
+      </c>
+      <c r="E214" s="2">
+        <v>45378.75</v>
+      </c>
+      <c r="F214" t="s">
+        <v>40</v>
+      </c>
+      <c r="G214" t="s">
+        <v>36</v>
+      </c>
+      <c r="H214">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>41</v>
+      </c>
+      <c r="K214">
+        <v>3</v>
+      </c>
+      <c r="L214">
+        <v>3</v>
+      </c>
+      <c r="M214">
+        <v>2.45</v>
+      </c>
+      <c r="N214">
+        <v>2.8</v>
+      </c>
+      <c r="O214">
+        <v>2.875</v>
+      </c>
+      <c r="P214">
+        <v>2.8</v>
+      </c>
+      <c r="Q214">
+        <v>0</v>
+      </c>
+      <c r="R214">
+        <v>1.85</v>
+      </c>
+      <c r="S214">
+        <v>1.95</v>
+      </c>
+      <c r="T214">
         <v>2.25</v>
       </c>
-      <c r="U213">
+      <c r="U214">
+        <v>2.025</v>
+      </c>
+      <c r="V214">
+        <v>1.775</v>
+      </c>
+      <c r="W214">
+        <v>-1</v>
+      </c>
+      <c r="X214">
+        <v>-1</v>
+      </c>
+      <c r="Y214">
+        <v>1.8</v>
+      </c>
+      <c r="Z214">
+        <v>-1</v>
+      </c>
+      <c r="AA214">
+        <v>0.95</v>
+      </c>
+      <c r="AB214">
+        <v>-1</v>
+      </c>
+      <c r="AC214">
+        <v>0.7749999999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:29">
+      <c r="A215" s="1">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>7623993</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215" t="s">
+        <v>28</v>
+      </c>
+      <c r="E215" s="2">
+        <v>45378.91666666666</v>
+      </c>
+      <c r="F215" t="s">
+        <v>33</v>
+      </c>
+      <c r="G215" t="s">
+        <v>37</v>
+      </c>
+      <c r="H215">
+        <v>2</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+      <c r="J215" t="s">
+        <v>42</v>
+      </c>
+      <c r="K215">
+        <v>2.5</v>
+      </c>
+      <c r="L215">
+        <v>3.2</v>
+      </c>
+      <c r="M215">
+        <v>2.8</v>
+      </c>
+      <c r="N215">
+        <v>2.15</v>
+      </c>
+      <c r="O215">
+        <v>3.25</v>
+      </c>
+      <c r="P215">
+        <v>3.2</v>
+      </c>
+      <c r="Q215">
+        <v>-0.25</v>
+      </c>
+      <c r="R215">
+        <v>1.85</v>
+      </c>
+      <c r="S215">
         <v>1.95</v>
       </c>
-      <c r="V213">
+      <c r="T215">
+        <v>2.5</v>
+      </c>
+      <c r="U215">
+        <v>1.9</v>
+      </c>
+      <c r="V215">
+        <v>1.9</v>
+      </c>
+      <c r="W215">
+        <v>1.15</v>
+      </c>
+      <c r="X215">
+        <v>-1</v>
+      </c>
+      <c r="Y215">
+        <v>-1</v>
+      </c>
+      <c r="Z215">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AA215">
+        <v>-1</v>
+      </c>
+      <c r="AB215">
+        <v>-1</v>
+      </c>
+      <c r="AC215">
+        <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:29">
+      <c r="A216" s="1">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>7623994</v>
+      </c>
+      <c r="C216" t="s">
+        <v>28</v>
+      </c>
+      <c r="D216" t="s">
+        <v>28</v>
+      </c>
+      <c r="E216" s="2">
+        <v>45378.95833333334</v>
+      </c>
+      <c r="F216" t="s">
+        <v>34</v>
+      </c>
+      <c r="G216" t="s">
+        <v>32</v>
+      </c>
+      <c r="H216">
+        <v>3</v>
+      </c>
+      <c r="I216">
+        <v>4</v>
+      </c>
+      <c r="J216" t="s">
+        <v>41</v>
+      </c>
+      <c r="K216">
+        <v>3.25</v>
+      </c>
+      <c r="L216">
+        <v>3.5</v>
+      </c>
+      <c r="M216">
+        <v>2.1</v>
+      </c>
+      <c r="N216">
+        <v>3.6</v>
+      </c>
+      <c r="O216">
+        <v>3.2</v>
+      </c>
+      <c r="P216">
+        <v>2.05</v>
+      </c>
+      <c r="Q216">
+        <v>0.25</v>
+      </c>
+      <c r="R216">
+        <v>2</v>
+      </c>
+      <c r="S216">
+        <v>1.8</v>
+      </c>
+      <c r="T216">
+        <v>2.25</v>
+      </c>
+      <c r="U216">
+        <v>1.975</v>
+      </c>
+      <c r="V216">
+        <v>1.825</v>
+      </c>
+      <c r="W216">
+        <v>-1</v>
+      </c>
+      <c r="X216">
+        <v>-1</v>
+      </c>
+      <c r="Y216">
+        <v>1.05</v>
+      </c>
+      <c r="Z216">
+        <v>-1</v>
+      </c>
+      <c r="AA216">
+        <v>0.8</v>
+      </c>
+      <c r="AB216">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC216">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:29">
+      <c r="A217" s="1">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>7623941</v>
+      </c>
+      <c r="C217" t="s">
+        <v>28</v>
+      </c>
+      <c r="D217" t="s">
+        <v>28</v>
+      </c>
+      <c r="E217" s="2">
+        <v>45380.91666666666</v>
+      </c>
+      <c r="F217" t="s">
+        <v>30</v>
+      </c>
+      <c r="G217" t="s">
+        <v>31</v>
+      </c>
+      <c r="K217">
+        <v>1.75</v>
+      </c>
+      <c r="L217">
+        <v>3.6</v>
+      </c>
+      <c r="M217">
+        <v>4</v>
+      </c>
+      <c r="N217">
+        <v>1.95</v>
+      </c>
+      <c r="O217">
+        <v>3.4</v>
+      </c>
+      <c r="P217">
+        <v>3.5</v>
+      </c>
+      <c r="Q217">
+        <v>-0.5</v>
+      </c>
+      <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
+        <v>1.8</v>
+      </c>
+      <c r="T217">
+        <v>2.25</v>
+      </c>
+      <c r="U217">
+        <v>1.875</v>
+      </c>
+      <c r="V217">
+        <v>1.925</v>
+      </c>
+      <c r="W217">
+        <v>0</v>
+      </c>
+      <c r="X217">
+        <v>0</v>
+      </c>
+      <c r="Y217">
+        <v>0</v>
+      </c>
+      <c r="Z217">
+        <v>0</v>
+      </c>
+      <c r="AA217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:29">
+      <c r="A218" s="1">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>7624969</v>
+      </c>
+      <c r="C218" t="s">
+        <v>28</v>
+      </c>
+      <c r="D218" t="s">
+        <v>28</v>
+      </c>
+      <c r="E218" s="2">
+        <v>45382.79166666666</v>
+      </c>
+      <c r="F218" t="s">
+        <v>32</v>
+      </c>
+      <c r="G218" t="s">
+        <v>37</v>
+      </c>
+      <c r="K218">
+        <v>1.833</v>
+      </c>
+      <c r="L218">
+        <v>3.5</v>
+      </c>
+      <c r="M218">
+        <v>3.6</v>
+      </c>
+      <c r="N218">
         <v>1.85</v>
       </c>
-      <c r="W213">
-        <v>0</v>
-      </c>
-      <c r="X213">
-        <v>0</v>
-      </c>
-      <c r="Y213">
-        <v>0</v>
-      </c>
-      <c r="Z213">
-        <v>0</v>
-      </c>
-      <c r="AA213">
+      <c r="O218">
+        <v>3.5</v>
+      </c>
+      <c r="P218">
+        <v>3.5</v>
+      </c>
+      <c r="Q218">
+        <v>-0.5</v>
+      </c>
+      <c r="R218">
+        <v>1.925</v>
+      </c>
+      <c r="S218">
+        <v>1.875</v>
+      </c>
+      <c r="T218">
+        <v>2.5</v>
+      </c>
+      <c r="U218">
+        <v>1.975</v>
+      </c>
+      <c r="V218">
+        <v>1.825</v>
+      </c>
+      <c r="W218">
+        <v>0</v>
+      </c>
+      <c r="X218">
+        <v>0</v>
+      </c>
+      <c r="Y218">
+        <v>0</v>
+      </c>
+      <c r="Z218">
+        <v>0</v>
+      </c>
+      <c r="AA218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:29">
+      <c r="A219" s="1">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>8022822</v>
+      </c>
+      <c r="C219" t="s">
+        <v>28</v>
+      </c>
+      <c r="D219" t="s">
+        <v>28</v>
+      </c>
+      <c r="E219" s="2">
+        <v>45382.83333333334</v>
+      </c>
+      <c r="F219" t="s">
+        <v>36</v>
+      </c>
+      <c r="G219" t="s">
+        <v>29</v>
+      </c>
+      <c r="K219">
+        <v>2.2</v>
+      </c>
+      <c r="L219">
+        <v>3.3</v>
+      </c>
+      <c r="M219">
+        <v>2.875</v>
+      </c>
+      <c r="N219">
+        <v>2.1</v>
+      </c>
+      <c r="O219">
+        <v>3.3</v>
+      </c>
+      <c r="P219">
+        <v>3</v>
+      </c>
+      <c r="Q219">
+        <v>-0.25</v>
+      </c>
+      <c r="R219">
+        <v>1.875</v>
+      </c>
+      <c r="S219">
+        <v>1.925</v>
+      </c>
+      <c r="T219">
+        <v>2.5</v>
+      </c>
+      <c r="U219">
+        <v>1.8</v>
+      </c>
+      <c r="V219">
+        <v>2</v>
+      </c>
+      <c r="W219">
+        <v>0</v>
+      </c>
+      <c r="X219">
+        <v>0</v>
+      </c>
+      <c r="Y219">
+        <v>0</v>
+      </c>
+      <c r="Z219">
+        <v>0</v>
+      </c>
+      <c r="AA219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:29">
+      <c r="A220" s="1">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>7623943</v>
+      </c>
+      <c r="C220" t="s">
+        <v>28</v>
+      </c>
+      <c r="D220" t="s">
+        <v>28</v>
+      </c>
+      <c r="E220" s="2">
+        <v>45382.88541666666</v>
+      </c>
+      <c r="F220" t="s">
+        <v>39</v>
+      </c>
+      <c r="G220" t="s">
+        <v>38</v>
+      </c>
+      <c r="K220">
+        <v>2.1</v>
+      </c>
+      <c r="L220">
+        <v>3.2</v>
+      </c>
+      <c r="M220">
+        <v>3.2</v>
+      </c>
+      <c r="N220">
+        <v>2</v>
+      </c>
+      <c r="O220">
+        <v>3.2</v>
+      </c>
+      <c r="P220">
+        <v>3.4</v>
+      </c>
+      <c r="Q220">
+        <v>-0.25</v>
+      </c>
+      <c r="R220">
+        <v>1.775</v>
+      </c>
+      <c r="S220">
+        <v>2.025</v>
+      </c>
+      <c r="T220">
+        <v>2.25</v>
+      </c>
+      <c r="U220">
+        <v>1.85</v>
+      </c>
+      <c r="V220">
+        <v>1.95</v>
+      </c>
+      <c r="W220">
+        <v>0</v>
+      </c>
+      <c r="X220">
+        <v>0</v>
+      </c>
+      <c r="Y220">
+        <v>0</v>
+      </c>
+      <c r="Z220">
+        <v>0</v>
+      </c>
+      <c r="AA220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7623939</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45382.91666666666</v>
+      </c>
+      <c r="F221" t="s">
+        <v>35</v>
+      </c>
+      <c r="G221" t="s">
+        <v>33</v>
+      </c>
+      <c r="K221">
+        <v>1.615</v>
+      </c>
+      <c r="L221">
+        <v>3.75</v>
+      </c>
+      <c r="M221">
+        <v>4.5</v>
+      </c>
+      <c r="N221">
+        <v>1.571</v>
+      </c>
+      <c r="O221">
+        <v>3.8</v>
+      </c>
+      <c r="P221">
+        <v>5</v>
+      </c>
+      <c r="Q221">
+        <v>-1</v>
+      </c>
+      <c r="R221">
+        <v>2</v>
+      </c>
+      <c r="S221">
+        <v>1.8</v>
+      </c>
+      <c r="T221">
+        <v>2.75</v>
+      </c>
+      <c r="U221">
+        <v>1.95</v>
+      </c>
+      <c r="V221">
+        <v>1.85</v>
+      </c>
+      <c r="W221">
+        <v>0</v>
+      </c>
+      <c r="X221">
+        <v>0</v>
+      </c>
+      <c r="Y221">
+        <v>0</v>
+      </c>
+      <c r="Z221">
+        <v>0</v>
+      </c>
+      <c r="AA221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>7623940</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45383.75</v>
+      </c>
+      <c r="F222" t="s">
+        <v>40</v>
+      </c>
+      <c r="G222" t="s">
+        <v>34</v>
+      </c>
+      <c r="K222">
+        <v>3</v>
+      </c>
+      <c r="L222">
+        <v>3.4</v>
+      </c>
+      <c r="M222">
+        <v>2.1</v>
+      </c>
+      <c r="N222">
+        <v>3</v>
+      </c>
+      <c r="O222">
+        <v>3.4</v>
+      </c>
+      <c r="P222">
+        <v>2.1</v>
+      </c>
+      <c r="Q222">
+        <v>0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.95</v>
+      </c>
+      <c r="S222">
+        <v>1.85</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.8</v>
+      </c>
+      <c r="V222">
+        <v>2</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N92">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
+        <v>1.825</v>
+      </c>
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -19766,31 +19766,31 @@
         <v>4</v>
       </c>
       <c r="N217">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O217">
+        <v>3.25</v>
+      </c>
+      <c r="P217">
         <v>3.4</v>
       </c>
-      <c r="P217">
-        <v>3.5</v>
-      </c>
       <c r="Q217">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="S217">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T217">
         <v>2.25</v>
       </c>
       <c r="U217">
+        <v>1.925</v>
+      </c>
+      <c r="V217">
         <v>1.875</v>
-      </c>
-      <c r="V217">
-        <v>1.925</v>
       </c>
       <c r="W217">
         <v>0</v>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC222"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N91">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -19739,7 +19739,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>7623941</v>
+        <v>8022822</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19748,49 +19748,49 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45380.91666666666</v>
+        <v>45382.75</v>
       </c>
       <c r="F217" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G217" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K217">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="L217">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M217">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="N217">
-        <v>2</v>
+        <v>2.625</v>
       </c>
       <c r="O217">
         <v>3.25</v>
       </c>
       <c r="P217">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q217">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R217">
+        <v>2</v>
+      </c>
+      <c r="S217">
         <v>1.8</v>
       </c>
-      <c r="S217">
-        <v>2</v>
-      </c>
       <c r="T217">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U217">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V217">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W217">
         <v>0</v>
@@ -19840,31 +19840,31 @@
         <v>3.6</v>
       </c>
       <c r="N218">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="O218">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P218">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q218">
         <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="S218">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="T218">
         <v>2.5</v>
       </c>
       <c r="U218">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V218">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19887,7 +19887,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>8022822</v>
+        <v>7623943</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19896,49 +19896,49 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45382.83333333334</v>
+        <v>45382.85416666666</v>
       </c>
       <c r="F219" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G219" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="K219">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L219">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M219">
-        <v>2.875</v>
+        <v>3.2</v>
       </c>
       <c r="N219">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O219">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P219">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q219">
         <v>-0.25</v>
       </c>
       <c r="R219">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="S219">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T219">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U219">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V219">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19961,7 +19961,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7623943</v>
+        <v>7623939</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -19970,49 +19970,49 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45382.88541666666</v>
+        <v>45382.91666666666</v>
       </c>
       <c r="F220" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G220" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K220">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L220">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M220">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N220">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="O220">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P220">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="Q220">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R220">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="S220">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="T220">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U220">
+        <v>1.95</v>
+      </c>
+      <c r="V220">
         <v>1.85</v>
-      </c>
-      <c r="V220">
-        <v>1.95</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20035,7 +20035,7 @@
         <v>219</v>
       </c>
       <c r="B221">
-        <v>7623939</v>
+        <v>7623940</v>
       </c>
       <c r="C221" t="s">
         <v>28</v>
@@ -20044,50 +20044,50 @@
         <v>28</v>
       </c>
       <c r="E221" s="2">
-        <v>45382.91666666666</v>
+        <v>45383.75</v>
       </c>
       <c r="F221" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G221" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K221">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="L221">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M221">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N221">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O221">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P221">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q221">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R221">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S221">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T221">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U221">
+        <v>1.85</v>
+      </c>
+      <c r="V221">
         <v>1.95</v>
       </c>
-      <c r="V221">
-        <v>1.85</v>
-      </c>
       <c r="W221">
         <v>0</v>
       </c>
@@ -20101,80 +20101,6 @@
         <v>0</v>
       </c>
       <c r="AA221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:29">
-      <c r="A222" s="1">
-        <v>220</v>
-      </c>
-      <c r="B222">
-        <v>7623940</v>
-      </c>
-      <c r="C222" t="s">
-        <v>28</v>
-      </c>
-      <c r="D222" t="s">
-        <v>28</v>
-      </c>
-      <c r="E222" s="2">
-        <v>45383.75</v>
-      </c>
-      <c r="F222" t="s">
-        <v>40</v>
-      </c>
-      <c r="G222" t="s">
-        <v>34</v>
-      </c>
-      <c r="K222">
-        <v>3</v>
-      </c>
-      <c r="L222">
-        <v>3.4</v>
-      </c>
-      <c r="M222">
-        <v>2.1</v>
-      </c>
-      <c r="N222">
-        <v>3</v>
-      </c>
-      <c r="O222">
-        <v>3.4</v>
-      </c>
-      <c r="P222">
-        <v>2.1</v>
-      </c>
-      <c r="Q222">
-        <v>0.25</v>
-      </c>
-      <c r="R222">
-        <v>1.95</v>
-      </c>
-      <c r="S222">
-        <v>1.85</v>
-      </c>
-      <c r="T222">
-        <v>2.5</v>
-      </c>
-      <c r="U222">
-        <v>1.8</v>
-      </c>
-      <c r="V222">
-        <v>2</v>
-      </c>
-      <c r="W222">
-        <v>0</v>
-      </c>
-      <c r="X222">
-        <v>0</v>
-      </c>
-      <c r="Y222">
-        <v>0</v>
-      </c>
-      <c r="Z222">
-        <v>0</v>
-      </c>
-      <c r="AA222">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12112,25 +12112,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N131">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
         <v>1.8</v>
@@ -12139,16 +12139,16 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12163,10 +12163,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,34 +17526,34 @@
         <v>45347.75</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
         <v>0</v>
       </c>
-      <c r="I192">
-        <v>2</v>
-      </c>
       <c r="J192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K192">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N192">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
         <v>3.6</v>
@@ -17562,40 +17562,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,34 +17615,34 @@
         <v>45347.75</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K193">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N193">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
         <v>3.6</v>
@@ -17651,40 +17651,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K200">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N200">
+        <v>2.8</v>
+      </c>
+      <c r="O200">
         <v>3.1</v>
       </c>
-      <c r="O200">
-        <v>3.25</v>
-      </c>
       <c r="P200">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K201">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M201">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N201">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P201">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -19739,7 +19739,7 @@
         <v>215</v>
       </c>
       <c r="B217">
-        <v>8022822</v>
+        <v>7623941</v>
       </c>
       <c r="C217" t="s">
         <v>28</v>
@@ -19748,64 +19748,79 @@
         <v>28</v>
       </c>
       <c r="E217" s="2">
-        <v>45382.75</v>
+        <v>45380.91666666666</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G217" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="H217">
+        <v>2</v>
+      </c>
+      <c r="I217">
+        <v>1</v>
+      </c>
+      <c r="J217" t="s">
+        <v>42</v>
       </c>
       <c r="K217">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="L217">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M217">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N217">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="O217">
+        <v>3.2</v>
+      </c>
+      <c r="P217">
         <v>3.25</v>
       </c>
-      <c r="P217">
-        <v>2.4</v>
-      </c>
       <c r="Q217">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R217">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S217">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T217">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U217">
+        <v>1.95</v>
+      </c>
+      <c r="V217">
         <v>1.85</v>
       </c>
-      <c r="V217">
-        <v>1.95</v>
-      </c>
       <c r="W217">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y217">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z217">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA217">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB217">
+        <v>0.95</v>
+      </c>
+      <c r="AC217">
+        <v>-1</v>
       </c>
     </row>
     <row r="218" spans="1:29">
@@ -19813,7 +19828,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7624969</v>
+        <v>7623943</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19822,49 +19837,49 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45382.79166666666</v>
+        <v>45382.85416666666</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K218">
+        <v>2.1</v>
+      </c>
+      <c r="L218">
+        <v>3.2</v>
+      </c>
+      <c r="M218">
+        <v>3.2</v>
+      </c>
+      <c r="N218">
         <v>1.833</v>
       </c>
-      <c r="L218">
-        <v>3.5</v>
-      </c>
-      <c r="M218">
-        <v>3.6</v>
-      </c>
-      <c r="N218">
-        <v>1.75</v>
-      </c>
       <c r="O218">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P218">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q218">
         <v>-0.5</v>
       </c>
       <c r="R218">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S218">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="T218">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V218">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W218">
         <v>0</v>
@@ -19887,7 +19902,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7623943</v>
+        <v>7623939</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19896,49 +19911,49 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45382.85416666666</v>
+        <v>45382.91666666666</v>
       </c>
       <c r="F219" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G219" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K219">
-        <v>2.1</v>
+        <v>1.615</v>
       </c>
       <c r="L219">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="M219">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N219">
-        <v>2</v>
+        <v>1.533</v>
       </c>
       <c r="O219">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="P219">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="Q219">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R219">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="S219">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="T219">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U219">
+        <v>1.95</v>
+      </c>
+      <c r="V219">
         <v>1.85</v>
-      </c>
-      <c r="V219">
-        <v>1.95</v>
       </c>
       <c r="W219">
         <v>0</v>
@@ -19961,7 +19976,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7623939</v>
+        <v>7623940</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -19970,49 +19985,49 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45382.91666666666</v>
+        <v>45383.75</v>
       </c>
       <c r="F220" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G220" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K220">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="L220">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M220">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N220">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="O220">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P220">
-        <v>5</v>
+        <v>1.95</v>
       </c>
       <c r="Q220">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="R220">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S220">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T220">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U220">
+        <v>1.85</v>
+      </c>
+      <c r="V220">
         <v>1.95</v>
-      </c>
-      <c r="V220">
-        <v>1.85</v>
       </c>
       <c r="W220">
         <v>0</v>
@@ -20027,80 +20042,6 @@
         <v>0</v>
       </c>
       <c r="AA220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:29">
-      <c r="A221" s="1">
-        <v>219</v>
-      </c>
-      <c r="B221">
-        <v>7623940</v>
-      </c>
-      <c r="C221" t="s">
-        <v>28</v>
-      </c>
-      <c r="D221" t="s">
-        <v>28</v>
-      </c>
-      <c r="E221" s="2">
-        <v>45383.75</v>
-      </c>
-      <c r="F221" t="s">
-        <v>40</v>
-      </c>
-      <c r="G221" t="s">
-        <v>34</v>
-      </c>
-      <c r="K221">
-        <v>3</v>
-      </c>
-      <c r="L221">
-        <v>3.4</v>
-      </c>
-      <c r="M221">
-        <v>2.1</v>
-      </c>
-      <c r="N221">
-        <v>3.2</v>
-      </c>
-      <c r="O221">
-        <v>3.4</v>
-      </c>
-      <c r="P221">
-        <v>2</v>
-      </c>
-      <c r="Q221">
-        <v>0.25</v>
-      </c>
-      <c r="R221">
-        <v>2.025</v>
-      </c>
-      <c r="S221">
-        <v>1.775</v>
-      </c>
-      <c r="T221">
-        <v>2.5</v>
-      </c>
-      <c r="U221">
-        <v>1.85</v>
-      </c>
-      <c r="V221">
-        <v>1.95</v>
-      </c>
-      <c r="W221">
-        <v>0</v>
-      </c>
-      <c r="X221">
-        <v>0</v>
-      </c>
-      <c r="Y221">
-        <v>0</v>
-      </c>
-      <c r="Z221">
-        <v>0</v>
-      </c>
-      <c r="AA221">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC220"/>
+  <dimension ref="A1:AC221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.8</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
+        <v>8</v>
+      </c>
+      <c r="N129">
+        <v>1.444</v>
+      </c>
+      <c r="O129">
+        <v>4.333</v>
+      </c>
+      <c r="P129">
         <v>7</v>
-      </c>
-      <c r="N129">
-        <v>1.363</v>
-      </c>
-      <c r="O129">
-        <v>4.75</v>
-      </c>
-      <c r="P129">
-        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12112,25 +12112,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
         <v>1.8</v>
@@ -12139,16 +12139,16 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12163,10 +12163,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M200">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N200">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P200">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z200">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K201">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N201">
+        <v>2.8</v>
+      </c>
+      <c r="O201">
         <v>3.1</v>
       </c>
-      <c r="O201">
-        <v>3.25</v>
-      </c>
       <c r="P201">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y201">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -19828,7 +19828,7 @@
         <v>216</v>
       </c>
       <c r="B218">
-        <v>7623943</v>
+        <v>8022822</v>
       </c>
       <c r="C218" t="s">
         <v>28</v>
@@ -19837,64 +19837,79 @@
         <v>28</v>
       </c>
       <c r="E218" s="2">
-        <v>45382.85416666666</v>
+        <v>45382.75</v>
       </c>
       <c r="F218" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G218" t="s">
-        <v>38</v>
+        <v>29</v>
+      </c>
+      <c r="H218">
+        <v>1</v>
+      </c>
+      <c r="I218">
+        <v>2</v>
+      </c>
+      <c r="J218" t="s">
+        <v>41</v>
       </c>
       <c r="K218">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L218">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M218">
-        <v>3.2</v>
+        <v>2.875</v>
       </c>
       <c r="N218">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O218">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P218">
-        <v>3.8</v>
+        <v>2.875</v>
       </c>
       <c r="Q218">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R218">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S218">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="T218">
         <v>2.25</v>
       </c>
       <c r="U218">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V218">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="W218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y218">
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="Z218">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA218">
-        <v>0</v>
+        <v>0.75</v>
+      </c>
+      <c r="AB218">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC218">
+        <v>-1</v>
       </c>
     </row>
     <row r="219" spans="1:29">
@@ -19902,7 +19917,7 @@
         <v>217</v>
       </c>
       <c r="B219">
-        <v>7623939</v>
+        <v>7624969</v>
       </c>
       <c r="C219" t="s">
         <v>28</v>
@@ -19911,34 +19926,43 @@
         <v>28</v>
       </c>
       <c r="E219" s="2">
-        <v>45382.91666666666</v>
+        <v>45382.79166666666</v>
       </c>
       <c r="F219" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G219" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H219">
+        <v>2</v>
+      </c>
+      <c r="I219">
+        <v>0</v>
+      </c>
+      <c r="J219" t="s">
+        <v>42</v>
       </c>
       <c r="K219">
-        <v>1.615</v>
+        <v>1.833</v>
       </c>
       <c r="L219">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M219">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="N219">
-        <v>1.533</v>
+        <v>1.7</v>
       </c>
       <c r="O219">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="P219">
-        <v>5.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q219">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R219">
         <v>1.95</v>
@@ -19947,7 +19971,7 @@
         <v>1.85</v>
       </c>
       <c r="T219">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U219">
         <v>1.95</v>
@@ -19956,19 +19980,25 @@
         <v>1.85</v>
       </c>
       <c r="W219">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="X219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y219">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z219">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA219">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB219">
+        <v>-1</v>
+      </c>
+      <c r="AC219">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="220" spans="1:29">
@@ -19976,7 +20006,7 @@
         <v>218</v>
       </c>
       <c r="B220">
-        <v>7623940</v>
+        <v>7623943</v>
       </c>
       <c r="C220" t="s">
         <v>28</v>
@@ -19985,43 +20015,52 @@
         <v>28</v>
       </c>
       <c r="E220" s="2">
-        <v>45383.75</v>
+        <v>45382.85416666666</v>
       </c>
       <c r="F220" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G220" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="H220">
+        <v>3</v>
+      </c>
+      <c r="I220">
+        <v>2</v>
+      </c>
+      <c r="J220" t="s">
+        <v>42</v>
       </c>
       <c r="K220">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="L220">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M220">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="N220">
+        <v>1.909</v>
+      </c>
+      <c r="O220">
         <v>3.3</v>
       </c>
-      <c r="O220">
-        <v>3.4</v>
-      </c>
       <c r="P220">
+        <v>3.75</v>
+      </c>
+      <c r="Q220">
+        <v>-0.5</v>
+      </c>
+      <c r="R220">
         <v>1.95</v>
       </c>
-      <c r="Q220">
-        <v>0.5</v>
-      </c>
-      <c r="R220">
-        <v>1.825</v>
-      </c>
       <c r="S220">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T220">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U220">
         <v>1.85</v>
@@ -20030,19 +20069,114 @@
         <v>1.95</v>
       </c>
       <c r="W220">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y220">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z220">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA220">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB220">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC220">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:29">
+      <c r="A221" s="1">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>7623939</v>
+      </c>
+      <c r="C221" t="s">
+        <v>28</v>
+      </c>
+      <c r="D221" t="s">
+        <v>28</v>
+      </c>
+      <c r="E221" s="2">
+        <v>45382.91666666666</v>
+      </c>
+      <c r="F221" t="s">
+        <v>35</v>
+      </c>
+      <c r="G221" t="s">
+        <v>33</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221">
+        <v>1</v>
+      </c>
+      <c r="J221" t="s">
+        <v>43</v>
+      </c>
+      <c r="K221">
+        <v>1.615</v>
+      </c>
+      <c r="L221">
+        <v>3.75</v>
+      </c>
+      <c r="M221">
+        <v>4.5</v>
+      </c>
+      <c r="N221">
+        <v>1.5</v>
+      </c>
+      <c r="O221">
+        <v>4</v>
+      </c>
+      <c r="P221">
+        <v>5.25</v>
+      </c>
+      <c r="Q221">
+        <v>-1</v>
+      </c>
+      <c r="R221">
+        <v>1.85</v>
+      </c>
+      <c r="S221">
+        <v>1.95</v>
+      </c>
+      <c r="T221">
+        <v>2.75</v>
+      </c>
+      <c r="U221">
+        <v>1.9</v>
+      </c>
+      <c r="V221">
+        <v>1.9</v>
+      </c>
+      <c r="W221">
+        <v>-1</v>
+      </c>
+      <c r="X221">
+        <v>3</v>
+      </c>
+      <c r="Y221">
+        <v>-1</v>
+      </c>
+      <c r="Z221">
+        <v>-1</v>
+      </c>
+      <c r="AA221">
+        <v>0.95</v>
+      </c>
+      <c r="AB221">
+        <v>-1</v>
+      </c>
+      <c r="AC221">
+        <v>0.8999999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC221"/>
+  <dimension ref="A1:AC223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>1.925</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA110">
+        <v>-0.5</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L111">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q111">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
+        <v>1.925</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
         <v>1.8</v>
       </c>
-      <c r="W111">
-        <v>0.25</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
       <c r="Z111">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K200">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N200">
+        <v>2.8</v>
+      </c>
+      <c r="O200">
         <v>3.1</v>
       </c>
-      <c r="O200">
-        <v>3.25</v>
-      </c>
       <c r="P200">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K201">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M201">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N201">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P201">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20177,6 +20177,169 @@
       </c>
       <c r="AC221">
         <v>0.8999999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:29">
+      <c r="A222" s="1">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>7623940</v>
+      </c>
+      <c r="C222" t="s">
+        <v>28</v>
+      </c>
+      <c r="D222" t="s">
+        <v>28</v>
+      </c>
+      <c r="E222" s="2">
+        <v>45383.75</v>
+      </c>
+      <c r="F222" t="s">
+        <v>40</v>
+      </c>
+      <c r="G222" t="s">
+        <v>34</v>
+      </c>
+      <c r="H222">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222" t="s">
+        <v>42</v>
+      </c>
+      <c r="K222">
+        <v>3</v>
+      </c>
+      <c r="L222">
+        <v>3.4</v>
+      </c>
+      <c r="M222">
+        <v>2.1</v>
+      </c>
+      <c r="N222">
+        <v>3.1</v>
+      </c>
+      <c r="O222">
+        <v>3.3</v>
+      </c>
+      <c r="P222">
+        <v>2.1</v>
+      </c>
+      <c r="Q222">
+        <v>0.25</v>
+      </c>
+      <c r="R222">
+        <v>1.95</v>
+      </c>
+      <c r="S222">
+        <v>1.85</v>
+      </c>
+      <c r="T222">
+        <v>2.5</v>
+      </c>
+      <c r="U222">
+        <v>1.925</v>
+      </c>
+      <c r="V222">
+        <v>1.875</v>
+      </c>
+      <c r="W222">
+        <v>2.1</v>
+      </c>
+      <c r="X222">
+        <v>-1</v>
+      </c>
+      <c r="Y222">
+        <v>-1</v>
+      </c>
+      <c r="Z222">
+        <v>0.95</v>
+      </c>
+      <c r="AA222">
+        <v>-1</v>
+      </c>
+      <c r="AB222">
+        <v>-1</v>
+      </c>
+      <c r="AC222">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="223" spans="1:29">
+      <c r="A223" s="1">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>7980420</v>
+      </c>
+      <c r="C223" t="s">
+        <v>28</v>
+      </c>
+      <c r="D223" t="s">
+        <v>28</v>
+      </c>
+      <c r="E223" s="2">
+        <v>45385.95833333334</v>
+      </c>
+      <c r="F223" t="s">
+        <v>32</v>
+      </c>
+      <c r="G223" t="s">
+        <v>30</v>
+      </c>
+      <c r="K223">
+        <v>1.222</v>
+      </c>
+      <c r="L223">
+        <v>6</v>
+      </c>
+      <c r="M223">
+        <v>12</v>
+      </c>
+      <c r="N223">
+        <v>1.222</v>
+      </c>
+      <c r="O223">
+        <v>6</v>
+      </c>
+      <c r="P223">
+        <v>12</v>
+      </c>
+      <c r="Q223">
+        <v>-1.75</v>
+      </c>
+      <c r="R223">
+        <v>1.825</v>
+      </c>
+      <c r="S223">
+        <v>1.975</v>
+      </c>
+      <c r="T223">
+        <v>3</v>
+      </c>
+      <c r="U223">
+        <v>1.9</v>
+      </c>
+      <c r="V223">
+        <v>1.9</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1137" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC223"/>
+  <dimension ref="A1:AC225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M200">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N200">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P200">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z200">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K201">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N201">
+        <v>2.8</v>
+      </c>
+      <c r="O201">
         <v>3.1</v>
       </c>
-      <c r="O201">
-        <v>3.25</v>
-      </c>
       <c r="P201">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y201">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20300,25 +20300,25 @@
         <v>12</v>
       </c>
       <c r="N223">
-        <v>1.222</v>
+        <v>1.166</v>
       </c>
       <c r="O223">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P223">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Q223">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R223">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S223">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T223">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U223">
         <v>1.9</v>
@@ -20339,6 +20339,154 @@
         <v>0</v>
       </c>
       <c r="AA223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:29">
+      <c r="A224" s="1">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>8048492</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45387.95833333334</v>
+      </c>
+      <c r="F224" t="s">
+        <v>38</v>
+      </c>
+      <c r="G224" t="s">
+        <v>36</v>
+      </c>
+      <c r="K224">
+        <v>2.2</v>
+      </c>
+      <c r="L224">
+        <v>3.2</v>
+      </c>
+      <c r="M224">
+        <v>3.3</v>
+      </c>
+      <c r="N224">
+        <v>2.2</v>
+      </c>
+      <c r="O224">
+        <v>3.2</v>
+      </c>
+      <c r="P224">
+        <v>3.3</v>
+      </c>
+      <c r="Q224">
+        <v>-0.25</v>
+      </c>
+      <c r="R224">
+        <v>1.85</v>
+      </c>
+      <c r="S224">
+        <v>1.95</v>
+      </c>
+      <c r="T224">
+        <v>2.25</v>
+      </c>
+      <c r="U224">
+        <v>2</v>
+      </c>
+      <c r="V224">
+        <v>1.8</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7623944</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45388.79166666666</v>
+      </c>
+      <c r="F225" t="s">
+        <v>31</v>
+      </c>
+      <c r="G225" t="s">
+        <v>29</v>
+      </c>
+      <c r="K225">
+        <v>2.9</v>
+      </c>
+      <c r="L225">
+        <v>3.25</v>
+      </c>
+      <c r="M225">
+        <v>2.375</v>
+      </c>
+      <c r="N225">
+        <v>3.1</v>
+      </c>
+      <c r="O225">
+        <v>3.3</v>
+      </c>
+      <c r="P225">
+        <v>2.25</v>
+      </c>
+      <c r="Q225">
+        <v>0.25</v>
+      </c>
+      <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
+        <v>1.95</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>1.85</v>
+      </c>
+      <c r="V225">
+        <v>1.95</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC225"/>
+  <dimension ref="A1:AC224"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K200">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N200">
+        <v>2.8</v>
+      </c>
+      <c r="O200">
         <v>3.1</v>
       </c>
-      <c r="O200">
-        <v>3.25</v>
-      </c>
       <c r="P200">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K201">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M201">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N201">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P201">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7980420</v>
+        <v>7623944</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20282,49 +20282,49 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45385.95833333334</v>
+        <v>45388.83333333334</v>
       </c>
       <c r="F223" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G223" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K223">
-        <v>1.222</v>
+        <v>2.9</v>
       </c>
       <c r="L223">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M223">
-        <v>12</v>
+        <v>2.375</v>
       </c>
       <c r="N223">
-        <v>1.166</v>
+        <v>2.875</v>
       </c>
       <c r="O223">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="P223">
-        <v>15</v>
+        <v>2.375</v>
       </c>
       <c r="Q223">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R223">
+        <v>1.75</v>
+      </c>
+      <c r="S223">
+        <v>2.05</v>
+      </c>
+      <c r="T223">
+        <v>2.75</v>
+      </c>
+      <c r="U223">
+        <v>2</v>
+      </c>
+      <c r="V223">
         <v>1.8</v>
-      </c>
-      <c r="S223">
-        <v>2</v>
-      </c>
-      <c r="T223">
-        <v>3.25</v>
-      </c>
-      <c r="U223">
-        <v>1.9</v>
-      </c>
-      <c r="V223">
-        <v>1.9</v>
       </c>
       <c r="W223">
         <v>0</v>
@@ -20356,7 +20356,7 @@
         <v>28</v>
       </c>
       <c r="E224" s="2">
-        <v>45387.95833333334</v>
+        <v>45389.75</v>
       </c>
       <c r="F224" t="s">
         <v>38</v>
@@ -20413,80 +20413,6 @@
         <v>0</v>
       </c>
       <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
-      <c r="A225" s="1">
-        <v>223</v>
-      </c>
-      <c r="B225">
-        <v>7623944</v>
-      </c>
-      <c r="C225" t="s">
-        <v>28</v>
-      </c>
-      <c r="D225" t="s">
-        <v>28</v>
-      </c>
-      <c r="E225" s="2">
-        <v>45388.79166666666</v>
-      </c>
-      <c r="F225" t="s">
-        <v>31</v>
-      </c>
-      <c r="G225" t="s">
-        <v>29</v>
-      </c>
-      <c r="K225">
-        <v>2.9</v>
-      </c>
-      <c r="L225">
-        <v>3.25</v>
-      </c>
-      <c r="M225">
-        <v>2.375</v>
-      </c>
-      <c r="N225">
-        <v>3.1</v>
-      </c>
-      <c r="O225">
-        <v>3.3</v>
-      </c>
-      <c r="P225">
-        <v>2.25</v>
-      </c>
-      <c r="Q225">
-        <v>0.25</v>
-      </c>
-      <c r="R225">
-        <v>1.85</v>
-      </c>
-      <c r="S225">
-        <v>1.95</v>
-      </c>
-      <c r="T225">
-        <v>2.5</v>
-      </c>
-      <c r="U225">
-        <v>1.85</v>
-      </c>
-      <c r="V225">
-        <v>1.95</v>
-      </c>
-      <c r="W225">
-        <v>0</v>
-      </c>
-      <c r="X225">
-        <v>0</v>
-      </c>
-      <c r="Y225">
-        <v>0</v>
-      </c>
-      <c r="Z225">
-        <v>0</v>
-      </c>
-      <c r="AA225">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC224"/>
+  <dimension ref="A1:AC229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N92">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
+        <v>1.825</v>
+      </c>
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
+        <v>1.925</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>1.8</v>
       </c>
-      <c r="W110">
-        <v>0.25</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
       <c r="Z110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N111">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P111">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
+        <v>1.825</v>
+      </c>
+      <c r="T111">
+        <v>3.25</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.8</v>
       </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.875</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA111">
+        <v>-0.5</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.8</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,13 +11919,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11934,25 +11934,25 @@
         <v>42</v>
       </c>
       <c r="K129">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
         <v>1.8</v>
@@ -11961,16 +11961,16 @@
         <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11985,10 +11985,10 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12112,25 +12112,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N131">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
         <v>1.8</v>
@@ -12139,16 +12139,16 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12163,10 +12163,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -20273,7 +20273,7 @@
         <v>221</v>
       </c>
       <c r="B223">
-        <v>7623944</v>
+        <v>7980420</v>
       </c>
       <c r="C223" t="s">
         <v>28</v>
@@ -20282,64 +20282,79 @@
         <v>28</v>
       </c>
       <c r="E223" s="2">
-        <v>45388.83333333334</v>
+        <v>45385.95833333334</v>
       </c>
       <c r="F223" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="H223">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223" t="s">
+        <v>42</v>
       </c>
       <c r="K223">
-        <v>2.9</v>
+        <v>1.222</v>
       </c>
       <c r="L223">
+        <v>6</v>
+      </c>
+      <c r="M223">
+        <v>12</v>
+      </c>
+      <c r="N223">
+        <v>1.166</v>
+      </c>
+      <c r="O223">
+        <v>7</v>
+      </c>
+      <c r="P223">
+        <v>15</v>
+      </c>
+      <c r="Q223">
+        <v>-2</v>
+      </c>
+      <c r="R223">
+        <v>1.775</v>
+      </c>
+      <c r="S223">
+        <v>2.025</v>
+      </c>
+      <c r="T223">
         <v>3.25</v>
       </c>
-      <c r="M223">
-        <v>2.375</v>
-      </c>
-      <c r="N223">
-        <v>2.875</v>
-      </c>
-      <c r="O223">
-        <v>3.3</v>
-      </c>
-      <c r="P223">
-        <v>2.375</v>
-      </c>
-      <c r="Q223">
-        <v>0.25</v>
-      </c>
-      <c r="R223">
-        <v>1.75</v>
-      </c>
-      <c r="S223">
-        <v>2.05</v>
-      </c>
-      <c r="T223">
-        <v>2.75</v>
-      </c>
       <c r="U223">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V223">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W223">
-        <v>0</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z223">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA223">
-        <v>0</v>
+        <v>1.025</v>
+      </c>
+      <c r="AB223">
+        <v>-1</v>
+      </c>
+      <c r="AC223">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="224" spans="1:29">
@@ -20347,72 +20362,442 @@
         <v>222</v>
       </c>
       <c r="B224">
+        <v>7623944</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224" t="s">
+        <v>28</v>
+      </c>
+      <c r="E224" s="2">
+        <v>45388.83333333334</v>
+      </c>
+      <c r="F224" t="s">
+        <v>31</v>
+      </c>
+      <c r="G224" t="s">
+        <v>29</v>
+      </c>
+      <c r="K224">
+        <v>2.9</v>
+      </c>
+      <c r="L224">
+        <v>3.25</v>
+      </c>
+      <c r="M224">
+        <v>2.375</v>
+      </c>
+      <c r="N224">
+        <v>3</v>
+      </c>
+      <c r="O224">
+        <v>3.3</v>
+      </c>
+      <c r="P224">
+        <v>2.3</v>
+      </c>
+      <c r="Q224">
+        <v>0.25</v>
+      </c>
+      <c r="R224">
+        <v>1.8</v>
+      </c>
+      <c r="S224">
+        <v>2</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>1.85</v>
+      </c>
+      <c r="V224">
+        <v>1.95</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
+      <c r="A225" s="1">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>7623946</v>
+      </c>
+      <c r="C225" t="s">
+        <v>28</v>
+      </c>
+      <c r="D225" t="s">
+        <v>28</v>
+      </c>
+      <c r="E225" s="2">
+        <v>45388.83333333334</v>
+      </c>
+      <c r="F225" t="s">
+        <v>34</v>
+      </c>
+      <c r="G225" t="s">
+        <v>35</v>
+      </c>
+      <c r="K225">
+        <v>3.4</v>
+      </c>
+      <c r="L225">
+        <v>3.4</v>
+      </c>
+      <c r="M225">
+        <v>1.95</v>
+      </c>
+      <c r="N225">
+        <v>3.2</v>
+      </c>
+      <c r="O225">
+        <v>3.4</v>
+      </c>
+      <c r="P225">
+        <v>2.05</v>
+      </c>
+      <c r="Q225">
+        <v>0.25</v>
+      </c>
+      <c r="R225">
+        <v>2</v>
+      </c>
+      <c r="S225">
+        <v>1.8</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>1.825</v>
+      </c>
+      <c r="V225">
+        <v>1.975</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
+      <c r="A226" s="1">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>7623996</v>
+      </c>
+      <c r="C226" t="s">
+        <v>28</v>
+      </c>
+      <c r="D226" t="s">
+        <v>28</v>
+      </c>
+      <c r="E226" s="2">
+        <v>45388.92708333334</v>
+      </c>
+      <c r="F226" t="s">
+        <v>33</v>
+      </c>
+      <c r="G226" t="s">
+        <v>30</v>
+      </c>
+      <c r="K226">
+        <v>1.363</v>
+      </c>
+      <c r="L226">
+        <v>4.5</v>
+      </c>
+      <c r="M226">
+        <v>6.75</v>
+      </c>
+      <c r="N226">
+        <v>1.363</v>
+      </c>
+      <c r="O226">
+        <v>4.75</v>
+      </c>
+      <c r="P226">
+        <v>6.5</v>
+      </c>
+      <c r="Q226">
+        <v>-1.25</v>
+      </c>
+      <c r="R226">
+        <v>1.8</v>
+      </c>
+      <c r="S226">
+        <v>2</v>
+      </c>
+      <c r="T226">
+        <v>3</v>
+      </c>
+      <c r="U226">
+        <v>1.975</v>
+      </c>
+      <c r="V226">
+        <v>1.825</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
+      <c r="A227" s="1">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>7623947</v>
+      </c>
+      <c r="C227" t="s">
+        <v>28</v>
+      </c>
+      <c r="D227" t="s">
+        <v>28</v>
+      </c>
+      <c r="E227" s="2">
+        <v>45388.95833333334</v>
+      </c>
+      <c r="F227" t="s">
+        <v>37</v>
+      </c>
+      <c r="G227" t="s">
+        <v>40</v>
+      </c>
+      <c r="K227">
+        <v>1.3</v>
+      </c>
+      <c r="L227">
+        <v>4.75</v>
+      </c>
+      <c r="M227">
+        <v>8</v>
+      </c>
+      <c r="N227">
+        <v>1.333</v>
+      </c>
+      <c r="O227">
+        <v>4.75</v>
+      </c>
+      <c r="P227">
+        <v>7.5</v>
+      </c>
+      <c r="Q227">
+        <v>-1.5</v>
+      </c>
+      <c r="R227">
+        <v>2</v>
+      </c>
+      <c r="S227">
+        <v>1.8</v>
+      </c>
+      <c r="T227">
+        <v>2.75</v>
+      </c>
+      <c r="U227">
+        <v>1.85</v>
+      </c>
+      <c r="V227">
+        <v>1.95</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
         <v>8048492</v>
       </c>
-      <c r="C224" t="s">
-        <v>28</v>
-      </c>
-      <c r="D224" t="s">
-        <v>28</v>
-      </c>
-      <c r="E224" s="2">
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
         <v>45389.75</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F228" t="s">
         <v>38</v>
       </c>
-      <c r="G224" t="s">
+      <c r="G228" t="s">
         <v>36</v>
       </c>
-      <c r="K224">
+      <c r="K228">
         <v>2.2</v>
       </c>
-      <c r="L224">
+      <c r="L228">
         <v>3.2</v>
       </c>
-      <c r="M224">
+      <c r="M228">
         <v>3.3</v>
       </c>
-      <c r="N224">
-        <v>2.2</v>
-      </c>
-      <c r="O224">
+      <c r="N228">
+        <v>2.15</v>
+      </c>
+      <c r="O228">
         <v>3.2</v>
       </c>
-      <c r="P224">
-        <v>3.3</v>
-      </c>
-      <c r="Q224">
+      <c r="P228">
+        <v>3.5</v>
+      </c>
+      <c r="Q228">
         <v>-0.25</v>
       </c>
-      <c r="R224">
-        <v>1.85</v>
-      </c>
-      <c r="S224">
-        <v>1.95</v>
-      </c>
-      <c r="T224">
+      <c r="R228">
+        <v>1.825</v>
+      </c>
+      <c r="S228">
+        <v>1.975</v>
+      </c>
+      <c r="T228">
         <v>2.25</v>
       </c>
-      <c r="U224">
-        <v>2</v>
-      </c>
-      <c r="V224">
-        <v>1.8</v>
-      </c>
-      <c r="W224">
-        <v>0</v>
-      </c>
-      <c r="X224">
-        <v>0</v>
-      </c>
-      <c r="Y224">
-        <v>0</v>
-      </c>
-      <c r="Z224">
-        <v>0</v>
-      </c>
-      <c r="AA224">
+      <c r="U228">
+        <v>1.975</v>
+      </c>
+      <c r="V228">
+        <v>1.825</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>7623997</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45389.83333333334</v>
+      </c>
+      <c r="F229" t="s">
+        <v>32</v>
+      </c>
+      <c r="G229" t="s">
+        <v>39</v>
+      </c>
+      <c r="K229">
+        <v>1.285</v>
+      </c>
+      <c r="L229">
+        <v>5</v>
+      </c>
+      <c r="M229">
+        <v>8</v>
+      </c>
+      <c r="N229">
+        <v>1.3</v>
+      </c>
+      <c r="O229">
+        <v>5</v>
+      </c>
+      <c r="P229">
+        <v>7.5</v>
+      </c>
+      <c r="Q229">
+        <v>-1.5</v>
+      </c>
+      <c r="R229">
+        <v>1.975</v>
+      </c>
+      <c r="S229">
+        <v>1.825</v>
+      </c>
+      <c r="T229">
+        <v>2.75</v>
+      </c>
+      <c r="U229">
+        <v>1.875</v>
+      </c>
+      <c r="V229">
+        <v>1.925</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7623944</v>
+        <v>7623946</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,46 +20374,46 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K224">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L224">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N224">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="O224">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="Q224">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R224">
+        <v>2</v>
+      </c>
+      <c r="S224">
         <v>1.8</v>
       </c>
-      <c r="S224">
-        <v>2</v>
-      </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V224">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="W224">
         <v>0</v>
@@ -20436,7 +20436,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7623946</v>
+        <v>7623944</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20448,46 +20448,46 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="K225">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="L225">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M225">
-        <v>1.95</v>
+        <v>2.375</v>
       </c>
       <c r="N225">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O225">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P225">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Q225">
         <v>0.25</v>
       </c>
       <c r="R225">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S225">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T225">
         <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V225">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W225">
         <v>0</v>
@@ -20549,19 +20549,19 @@
         <v>-1.25</v>
       </c>
       <c r="R226">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S226">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T226">
         <v>3</v>
       </c>
       <c r="U226">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V226">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W226">
         <v>0</v>
@@ -20632,10 +20632,10 @@
         <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V227">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="W227">
         <v>0</v>
@@ -20759,31 +20759,31 @@
         <v>8</v>
       </c>
       <c r="N229">
-        <v>1.3</v>
+        <v>1.285</v>
       </c>
       <c r="O229">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="P229">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q229">
         <v>-1.5</v>
       </c>
       <c r="R229">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="S229">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T229">
         <v>2.75</v>
       </c>
       <c r="U229">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V229">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W229">
         <v>0</v>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1162" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC229"/>
+  <dimension ref="A1:AC227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.8</v>
       </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,13 +11919,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11934,25 +11934,25 @@
         <v>42</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N129">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
         <v>1.8</v>
@@ -11961,16 +11961,16 @@
         <v>2</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11985,10 +11985,10 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>3</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
         <v>4.75</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q130">
         <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,34 +17526,34 @@
         <v>45347.75</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K192">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M192">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N192">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
         <v>3.6</v>
@@ -17562,40 +17562,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,34 +17615,34 @@
         <v>45347.75</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H193">
+        <v>2</v>
+      </c>
+      <c r="I193">
         <v>0</v>
       </c>
-      <c r="I193">
-        <v>2</v>
-      </c>
       <c r="J193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K193">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N193">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
         <v>3.6</v>
@@ -17651,40 +17651,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M200">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N200">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P200">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z200">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K201">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N201">
+        <v>2.8</v>
+      </c>
+      <c r="O201">
         <v>3.1</v>
       </c>
-      <c r="O201">
-        <v>3.25</v>
-      </c>
       <c r="P201">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y201">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20379,6 +20379,15 @@
       <c r="G224" t="s">
         <v>35</v>
       </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224" t="s">
+        <v>43</v>
+      </c>
       <c r="K224">
         <v>3.4</v>
       </c>
@@ -20395,43 +20404,49 @@
         <v>3.6</v>
       </c>
       <c r="P224">
+        <v>1.75</v>
+      </c>
+      <c r="Q224">
+        <v>0.75</v>
+      </c>
+      <c r="R224">
         <v>1.8</v>
       </c>
-      <c r="Q224">
-        <v>0.5</v>
-      </c>
-      <c r="R224">
-        <v>2</v>
-      </c>
       <c r="S224">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T224">
         <v>2.75</v>
       </c>
       <c r="U224">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB224">
+        <v>-1</v>
+      </c>
+      <c r="AC224">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="225" spans="1:29">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -20453,6 +20468,15 @@
       <c r="G225" t="s">
         <v>29</v>
       </c>
+      <c r="H225">
+        <v>3</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225" t="s">
+        <v>42</v>
+      </c>
       <c r="K225">
         <v>2.9</v>
       </c>
@@ -20463,13 +20487,13 @@
         <v>2.375</v>
       </c>
       <c r="N225">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="O225">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P225">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q225">
         <v>0.25</v>
@@ -20484,28 +20508,34 @@
         <v>2.5</v>
       </c>
       <c r="U225">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V225">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W225">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB225">
+        <v>1</v>
+      </c>
+      <c r="AC225">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:29">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -20527,6 +20557,15 @@
       <c r="G226" t="s">
         <v>30</v>
       </c>
+      <c r="H226">
+        <v>3</v>
+      </c>
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>42</v>
+      </c>
       <c r="K226">
         <v>1.363</v>
       </c>
@@ -20537,49 +20576,55 @@
         <v>6.75</v>
       </c>
       <c r="N226">
-        <v>1.363</v>
+        <v>1.3</v>
       </c>
       <c r="O226">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="P226">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q226">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R226">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S226">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T226">
         <v>3</v>
       </c>
       <c r="U226">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V226">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W226">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="X226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y226">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB226">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC226">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:29">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -20601,6 +20646,15 @@
       <c r="G227" t="s">
         <v>40</v>
       </c>
+      <c r="H227">
+        <v>3</v>
+      </c>
+      <c r="I227">
+        <v>3</v>
+      </c>
+      <c r="J227" t="s">
+        <v>43</v>
+      </c>
       <c r="K227">
         <v>1.3</v>
       </c>
@@ -20614,10 +20668,10 @@
         <v>1.333</v>
       </c>
       <c r="O227">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="P227">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Q227">
         <v>-1.5</v>
@@ -20632,173 +20686,31 @@
         <v>2.75</v>
       </c>
       <c r="U227">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V227">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="W227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X227">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="Y227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z227">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:27">
-      <c r="A228" s="1">
-        <v>226</v>
-      </c>
-      <c r="B228">
-        <v>8048492</v>
-      </c>
-      <c r="C228" t="s">
-        <v>28</v>
-      </c>
-      <c r="D228" t="s">
-        <v>28</v>
-      </c>
-      <c r="E228" s="2">
-        <v>45389.75</v>
-      </c>
-      <c r="F228" t="s">
-        <v>38</v>
-      </c>
-      <c r="G228" t="s">
-        <v>36</v>
-      </c>
-      <c r="K228">
-        <v>2.2</v>
-      </c>
-      <c r="L228">
-        <v>3.2</v>
-      </c>
-      <c r="M228">
-        <v>3.3</v>
-      </c>
-      <c r="N228">
-        <v>2.15</v>
-      </c>
-      <c r="O228">
-        <v>3.2</v>
-      </c>
-      <c r="P228">
-        <v>3.5</v>
-      </c>
-      <c r="Q228">
-        <v>-0.25</v>
-      </c>
-      <c r="R228">
-        <v>1.825</v>
-      </c>
-      <c r="S228">
-        <v>1.975</v>
-      </c>
-      <c r="T228">
-        <v>2.25</v>
-      </c>
-      <c r="U228">
-        <v>1.975</v>
-      </c>
-      <c r="V228">
-        <v>1.825</v>
-      </c>
-      <c r="W228">
-        <v>0</v>
-      </c>
-      <c r="X228">
-        <v>0</v>
-      </c>
-      <c r="Y228">
-        <v>0</v>
-      </c>
-      <c r="Z228">
-        <v>0</v>
-      </c>
-      <c r="AA228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:27">
-      <c r="A229" s="1">
-        <v>227</v>
-      </c>
-      <c r="B229">
-        <v>7623997</v>
-      </c>
-      <c r="C229" t="s">
-        <v>28</v>
-      </c>
-      <c r="D229" t="s">
-        <v>28</v>
-      </c>
-      <c r="E229" s="2">
-        <v>45389.83333333334</v>
-      </c>
-      <c r="F229" t="s">
-        <v>32</v>
-      </c>
-      <c r="G229" t="s">
-        <v>39</v>
-      </c>
-      <c r="K229">
-        <v>1.285</v>
-      </c>
-      <c r="L229">
-        <v>5</v>
-      </c>
-      <c r="M229">
-        <v>8</v>
-      </c>
-      <c r="N229">
-        <v>1.285</v>
-      </c>
-      <c r="O229">
-        <v>5.25</v>
-      </c>
-      <c r="P229">
-        <v>8</v>
-      </c>
-      <c r="Q229">
-        <v>-1.5</v>
-      </c>
-      <c r="R229">
-        <v>1.875</v>
-      </c>
-      <c r="S229">
-        <v>1.925</v>
-      </c>
-      <c r="T229">
-        <v>2.75</v>
-      </c>
-      <c r="U229">
-        <v>1.825</v>
-      </c>
-      <c r="V229">
-        <v>1.975</v>
-      </c>
-      <c r="W229">
-        <v>0</v>
-      </c>
-      <c r="X229">
-        <v>0</v>
-      </c>
-      <c r="Y229">
-        <v>0</v>
-      </c>
-      <c r="Z229">
-        <v>0</v>
-      </c>
-      <c r="AA229">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB227">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC227">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1158" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC227"/>
+  <dimension ref="A1:AC231"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>1.925</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA110">
+        <v>-0.5</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L111">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q111">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
+        <v>1.925</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
         <v>1.8</v>
       </c>
-      <c r="W111">
-        <v>0.25</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
       <c r="Z111">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
         <v>4.75</v>
       </c>
       <c r="M130">
+        <v>8</v>
+      </c>
+      <c r="N130">
+        <v>1.444</v>
+      </c>
+      <c r="O130">
+        <v>4.333</v>
+      </c>
+      <c r="P130">
         <v>7</v>
-      </c>
-      <c r="N130">
-        <v>1.363</v>
-      </c>
-      <c r="O130">
-        <v>4.75</v>
-      </c>
-      <c r="P130">
-        <v>8.5</v>
       </c>
       <c r="Q130">
         <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
         <v>4.75</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
         <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -20711,6 +20711,332 @@
       </c>
       <c r="AC227">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:29">
+      <c r="A228" s="1">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>8048492</v>
+      </c>
+      <c r="C228" t="s">
+        <v>28</v>
+      </c>
+      <c r="D228" t="s">
+        <v>28</v>
+      </c>
+      <c r="E228" s="2">
+        <v>45389.75</v>
+      </c>
+      <c r="F228" t="s">
+        <v>38</v>
+      </c>
+      <c r="G228" t="s">
+        <v>36</v>
+      </c>
+      <c r="H228">
+        <v>3</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228" t="s">
+        <v>42</v>
+      </c>
+      <c r="K228">
+        <v>2.2</v>
+      </c>
+      <c r="L228">
+        <v>3.2</v>
+      </c>
+      <c r="M228">
+        <v>3.3</v>
+      </c>
+      <c r="N228">
+        <v>2.2</v>
+      </c>
+      <c r="O228">
+        <v>3.2</v>
+      </c>
+      <c r="P228">
+        <v>3.3</v>
+      </c>
+      <c r="Q228">
+        <v>-0.25</v>
+      </c>
+      <c r="R228">
+        <v>1.875</v>
+      </c>
+      <c r="S228">
+        <v>1.925</v>
+      </c>
+      <c r="T228">
+        <v>2.25</v>
+      </c>
+      <c r="U228">
+        <v>2</v>
+      </c>
+      <c r="V228">
+        <v>1.8</v>
+      </c>
+      <c r="W228">
+        <v>1.2</v>
+      </c>
+      <c r="X228">
+        <v>-1</v>
+      </c>
+      <c r="Y228">
+        <v>-1</v>
+      </c>
+      <c r="Z228">
+        <v>0.875</v>
+      </c>
+      <c r="AA228">
+        <v>-1</v>
+      </c>
+      <c r="AB228">
+        <v>1</v>
+      </c>
+      <c r="AC228">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:29">
+      <c r="A229" s="1">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>7623997</v>
+      </c>
+      <c r="C229" t="s">
+        <v>28</v>
+      </c>
+      <c r="D229" t="s">
+        <v>28</v>
+      </c>
+      <c r="E229" s="2">
+        <v>45389.83333333334</v>
+      </c>
+      <c r="F229" t="s">
+        <v>32</v>
+      </c>
+      <c r="G229" t="s">
+        <v>39</v>
+      </c>
+      <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229">
+        <v>1</v>
+      </c>
+      <c r="J229" t="s">
+        <v>42</v>
+      </c>
+      <c r="K229">
+        <v>1.285</v>
+      </c>
+      <c r="L229">
+        <v>5</v>
+      </c>
+      <c r="M229">
+        <v>8</v>
+      </c>
+      <c r="N229">
+        <v>1.285</v>
+      </c>
+      <c r="O229">
+        <v>5.25</v>
+      </c>
+      <c r="P229">
+        <v>7.5</v>
+      </c>
+      <c r="Q229">
+        <v>-1.5</v>
+      </c>
+      <c r="R229">
+        <v>1.9</v>
+      </c>
+      <c r="S229">
+        <v>1.9</v>
+      </c>
+      <c r="T229">
+        <v>2.75</v>
+      </c>
+      <c r="U229">
+        <v>1.8</v>
+      </c>
+      <c r="V229">
+        <v>2</v>
+      </c>
+      <c r="W229">
+        <v>0.2849999999999999</v>
+      </c>
+      <c r="X229">
+        <v>-1</v>
+      </c>
+      <c r="Y229">
+        <v>-1</v>
+      </c>
+      <c r="Z229">
+        <v>-1</v>
+      </c>
+      <c r="AA229">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AB229">
+        <v>0.4</v>
+      </c>
+      <c r="AC229">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:29">
+      <c r="A230" s="1">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>8070744</v>
+      </c>
+      <c r="C230" t="s">
+        <v>28</v>
+      </c>
+      <c r="D230" t="s">
+        <v>28</v>
+      </c>
+      <c r="E230" s="2">
+        <v>45394.95833333334</v>
+      </c>
+      <c r="F230" t="s">
+        <v>29</v>
+      </c>
+      <c r="G230" t="s">
+        <v>38</v>
+      </c>
+      <c r="K230">
+        <v>1.833</v>
+      </c>
+      <c r="L230">
+        <v>3.5</v>
+      </c>
+      <c r="M230">
+        <v>4</v>
+      </c>
+      <c r="N230">
+        <v>1.833</v>
+      </c>
+      <c r="O230">
+        <v>3.5</v>
+      </c>
+      <c r="P230">
+        <v>4</v>
+      </c>
+      <c r="Q230">
+        <v>-0.5</v>
+      </c>
+      <c r="R230">
+        <v>1.825</v>
+      </c>
+      <c r="S230">
+        <v>1.975</v>
+      </c>
+      <c r="T230">
+        <v>2.5</v>
+      </c>
+      <c r="U230">
+        <v>1.9</v>
+      </c>
+      <c r="V230">
+        <v>1.9</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:29">
+      <c r="A231" s="1">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>7623999</v>
+      </c>
+      <c r="C231" t="s">
+        <v>28</v>
+      </c>
+      <c r="D231" t="s">
+        <v>28</v>
+      </c>
+      <c r="E231" s="2">
+        <v>45395.79166666666</v>
+      </c>
+      <c r="F231" t="s">
+        <v>36</v>
+      </c>
+      <c r="G231" t="s">
+        <v>39</v>
+      </c>
+      <c r="K231">
+        <v>2.15</v>
+      </c>
+      <c r="L231">
+        <v>3.4</v>
+      </c>
+      <c r="M231">
+        <v>3.1</v>
+      </c>
+      <c r="N231">
+        <v>2.15</v>
+      </c>
+      <c r="O231">
+        <v>3.4</v>
+      </c>
+      <c r="P231">
+        <v>3.1</v>
+      </c>
+      <c r="Q231">
+        <v>-0.25</v>
+      </c>
+      <c r="R231">
+        <v>1.875</v>
+      </c>
+      <c r="S231">
+        <v>1.925</v>
+      </c>
+      <c r="T231">
+        <v>2.5</v>
+      </c>
+      <c r="U231">
+        <v>2.025</v>
+      </c>
+      <c r="V231">
+        <v>1.775</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,13 +11919,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11934,25 +11934,25 @@
         <v>42</v>
       </c>
       <c r="K129">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
         <v>1.8</v>
@@ -11961,16 +11961,16 @@
         <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11985,10 +11985,10 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12112,25 +12112,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N131">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
         <v>1.8</v>
@@ -12139,16 +12139,16 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12163,10 +12163,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,34 +17526,34 @@
         <v>45347.75</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192">
         <v>0</v>
       </c>
-      <c r="I192">
-        <v>2</v>
-      </c>
       <c r="J192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K192">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N192">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
         <v>3.6</v>
@@ -17562,40 +17562,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,34 +17615,34 @@
         <v>45347.75</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K193">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N193">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
         <v>3.6</v>
@@ -17651,40 +17651,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -21009,10 +21009,10 @@
         <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T231">
         <v>2.5</v>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC231"/>
+  <dimension ref="A1:AC232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20923,31 +20923,31 @@
         <v>4</v>
       </c>
       <c r="N230">
-        <v>1.833</v>
+        <v>1.909</v>
       </c>
       <c r="O230">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P230">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q230">
         <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S230">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V230">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -21009,19 +21009,19 @@
         <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21036,6 +21036,80 @@
         <v>0</v>
       </c>
       <c r="AA231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:29">
+      <c r="A232" s="1">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>8070745</v>
+      </c>
+      <c r="C232" t="s">
+        <v>28</v>
+      </c>
+      <c r="D232" t="s">
+        <v>28</v>
+      </c>
+      <c r="E232" s="2">
+        <v>45395.875</v>
+      </c>
+      <c r="F232" t="s">
+        <v>31</v>
+      </c>
+      <c r="G232" t="s">
+        <v>37</v>
+      </c>
+      <c r="K232">
+        <v>4.2</v>
+      </c>
+      <c r="L232">
+        <v>3.4</v>
+      </c>
+      <c r="M232">
+        <v>1.8</v>
+      </c>
+      <c r="N232">
+        <v>4.2</v>
+      </c>
+      <c r="O232">
+        <v>3.4</v>
+      </c>
+      <c r="P232">
+        <v>1.8</v>
+      </c>
+      <c r="Q232">
+        <v>0.5</v>
+      </c>
+      <c r="R232">
+        <v>1.975</v>
+      </c>
+      <c r="S232">
+        <v>1.825</v>
+      </c>
+      <c r="T232">
+        <v>2.25</v>
+      </c>
+      <c r="U232">
+        <v>1.85</v>
+      </c>
+      <c r="V232">
+        <v>1.95</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC232"/>
+  <dimension ref="A1:AC235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N91">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,13 +11919,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11934,25 +11934,25 @@
         <v>42</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N129">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
         <v>1.8</v>
@@ -11961,16 +11961,16 @@
         <v>2</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11985,10 +11985,10 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H130">
         <v>3</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
         <v>4.75</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q130">
         <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G200" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K200">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L200">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M200">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N200">
+        <v>2.8</v>
+      </c>
+      <c r="O200">
         <v>3.1</v>
       </c>
-      <c r="O200">
-        <v>3.25</v>
-      </c>
       <c r="P200">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S200">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T200">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U200">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V200">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y200">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA200">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB200">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC200">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G201" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I201">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K201">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L201">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M201">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N201">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O201">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P201">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S201">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T201">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U201">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V201">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z201">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA201">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC201">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7623946</v>
+        <v>7623944</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,76 +20374,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I224">
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K224">
+        <v>2.9</v>
+      </c>
+      <c r="L224">
+        <v>3.25</v>
+      </c>
+      <c r="M224">
+        <v>2.375</v>
+      </c>
+      <c r="N224">
         <v>3.4</v>
       </c>
-      <c r="L224">
-        <v>3.4</v>
-      </c>
-      <c r="M224">
+      <c r="O224">
+        <v>3.2</v>
+      </c>
+      <c r="P224">
+        <v>2.15</v>
+      </c>
+      <c r="Q224">
+        <v>0.25</v>
+      </c>
+      <c r="R224">
         <v>1.95</v>
       </c>
-      <c r="N224">
-        <v>3.8</v>
-      </c>
-      <c r="O224">
-        <v>3.6</v>
-      </c>
-      <c r="P224">
-        <v>1.75</v>
-      </c>
-      <c r="Q224">
-        <v>0.75</v>
-      </c>
-      <c r="R224">
+      <c r="S224">
+        <v>1.85</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>2</v>
+      </c>
+      <c r="V224">
         <v>1.8</v>
       </c>
-      <c r="S224">
-        <v>2</v>
-      </c>
-      <c r="T224">
-        <v>2.75</v>
-      </c>
-      <c r="U224">
-        <v>1.925</v>
-      </c>
-      <c r="V224">
-        <v>1.875</v>
-      </c>
       <c r="W224">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7623944</v>
+        <v>7623946</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,76 +20463,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225">
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K225">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L225">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M225">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N225">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O225">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R225">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W225">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20929,7 +20929,7 @@
         <v>3.4</v>
       </c>
       <c r="P230">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q230">
         <v>-0.5</v>
@@ -20970,7 +20970,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7623999</v>
+        <v>7623950</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20979,49 +20979,49 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45395.79166666666</v>
+        <v>45395.75</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K231">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M231">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="N231">
-        <v>2.15</v>
+        <v>6.5</v>
       </c>
       <c r="O231">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P231">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V231">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21044,7 +21044,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>8070745</v>
+        <v>7623999</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21053,63 +21053,285 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45395.875</v>
+        <v>45395.79166666666</v>
       </c>
       <c r="F232" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K232">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="L232">
         <v>3.4</v>
       </c>
       <c r="M232">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="N232">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="O232">
         <v>3.4</v>
       </c>
       <c r="P232">
+        <v>3.2</v>
+      </c>
+      <c r="Q232">
+        <v>-0.25</v>
+      </c>
+      <c r="R232">
+        <v>1.875</v>
+      </c>
+      <c r="S232">
+        <v>1.925</v>
+      </c>
+      <c r="T232">
+        <v>2.5</v>
+      </c>
+      <c r="U232">
+        <v>2</v>
+      </c>
+      <c r="V232">
         <v>1.8</v>
       </c>
-      <c r="Q232">
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:29">
+      <c r="A233" s="1">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>7623998</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233" t="s">
+        <v>28</v>
+      </c>
+      <c r="E233" s="2">
+        <v>45395.86458333334</v>
+      </c>
+      <c r="F233" t="s">
+        <v>34</v>
+      </c>
+      <c r="G233" t="s">
+        <v>33</v>
+      </c>
+      <c r="K233">
+        <v>2.625</v>
+      </c>
+      <c r="L233">
+        <v>3.25</v>
+      </c>
+      <c r="M233">
+        <v>2.6</v>
+      </c>
+      <c r="N233">
+        <v>2.625</v>
+      </c>
+      <c r="O233">
+        <v>3.25</v>
+      </c>
+      <c r="P233">
+        <v>2.6</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>1.925</v>
+      </c>
+      <c r="S233">
+        <v>1.875</v>
+      </c>
+      <c r="T233">
+        <v>2.5</v>
+      </c>
+      <c r="U233">
+        <v>1.8</v>
+      </c>
+      <c r="V233">
+        <v>2</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:29">
+      <c r="A234" s="1">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>8070745</v>
+      </c>
+      <c r="C234" t="s">
+        <v>28</v>
+      </c>
+      <c r="D234" t="s">
+        <v>28</v>
+      </c>
+      <c r="E234" s="2">
+        <v>45395.875</v>
+      </c>
+      <c r="F234" t="s">
+        <v>31</v>
+      </c>
+      <c r="G234" t="s">
+        <v>37</v>
+      </c>
+      <c r="K234">
+        <v>4.2</v>
+      </c>
+      <c r="L234">
+        <v>3.4</v>
+      </c>
+      <c r="M234">
+        <v>1.8</v>
+      </c>
+      <c r="N234">
+        <v>4.5</v>
+      </c>
+      <c r="O234">
+        <v>3.4</v>
+      </c>
+      <c r="P234">
+        <v>1.8</v>
+      </c>
+      <c r="Q234">
         <v>0.5</v>
       </c>
-      <c r="R232">
+      <c r="R234">
+        <v>2</v>
+      </c>
+      <c r="S234">
+        <v>1.8</v>
+      </c>
+      <c r="T234">
+        <v>2.25</v>
+      </c>
+      <c r="U234">
+        <v>1.825</v>
+      </c>
+      <c r="V234">
         <v>1.975</v>
       </c>
-      <c r="S232">
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>7623951</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45395.97916666666</v>
+      </c>
+      <c r="F235" t="s">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
+        <v>35</v>
+      </c>
+      <c r="K235">
+        <v>6</v>
+      </c>
+      <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>1.444</v>
+      </c>
+      <c r="N235">
+        <v>5.75</v>
+      </c>
+      <c r="O235">
+        <v>4</v>
+      </c>
+      <c r="P235">
+        <v>1.45</v>
+      </c>
+      <c r="Q235">
+        <v>1</v>
+      </c>
+      <c r="R235">
+        <v>2</v>
+      </c>
+      <c r="S235">
+        <v>1.8</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
         <v>1.825</v>
       </c>
-      <c r="T232">
-        <v>2.25</v>
-      </c>
-      <c r="U232">
-        <v>1.85</v>
-      </c>
-      <c r="V232">
-        <v>1.95</v>
-      </c>
-      <c r="W232">
-        <v>0</v>
-      </c>
-      <c r="X232">
-        <v>0</v>
-      </c>
-      <c r="Y232">
-        <v>0</v>
-      </c>
-      <c r="Z232">
-        <v>0</v>
-      </c>
-      <c r="AA232">
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.8</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,13 +11919,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11934,25 +11934,25 @@
         <v>42</v>
       </c>
       <c r="K129">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
         <v>1.8</v>
@@ -11961,16 +11961,16 @@
         <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11985,10 +11985,10 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
         <v>4.75</v>
       </c>
       <c r="M130">
+        <v>8</v>
+      </c>
+      <c r="N130">
+        <v>1.444</v>
+      </c>
+      <c r="O130">
+        <v>4.333</v>
+      </c>
+      <c r="P130">
         <v>7</v>
-      </c>
-      <c r="N130">
-        <v>1.363</v>
-      </c>
-      <c r="O130">
-        <v>4.75</v>
-      </c>
-      <c r="P130">
-        <v>8.5</v>
       </c>
       <c r="Q130">
         <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7623944</v>
+        <v>7623946</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,76 +20374,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224">
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K224">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L224">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N224">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q224">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R224">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W224">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7623946</v>
+        <v>7623944</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,76 +20463,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I225">
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K225">
+        <v>2.9</v>
+      </c>
+      <c r="L225">
+        <v>3.25</v>
+      </c>
+      <c r="M225">
+        <v>2.375</v>
+      </c>
+      <c r="N225">
         <v>3.4</v>
       </c>
-      <c r="L225">
-        <v>3.4</v>
-      </c>
-      <c r="M225">
+      <c r="O225">
+        <v>3.2</v>
+      </c>
+      <c r="P225">
+        <v>2.15</v>
+      </c>
+      <c r="Q225">
+        <v>0.25</v>
+      </c>
+      <c r="R225">
         <v>1.95</v>
       </c>
-      <c r="N225">
-        <v>3.8</v>
-      </c>
-      <c r="O225">
-        <v>3.6</v>
-      </c>
-      <c r="P225">
-        <v>1.75</v>
-      </c>
-      <c r="Q225">
-        <v>0.75</v>
-      </c>
-      <c r="R225">
+      <c r="S225">
+        <v>1.85</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
         <v>1.8</v>
       </c>
-      <c r="S225">
-        <v>2</v>
-      </c>
-      <c r="T225">
-        <v>2.75</v>
-      </c>
-      <c r="U225">
-        <v>1.925</v>
-      </c>
-      <c r="V225">
-        <v>1.875</v>
-      </c>
       <c r="W225">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC225">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20923,31 +20923,31 @@
         <v>4</v>
       </c>
       <c r="N230">
-        <v>1.909</v>
+        <v>1.666</v>
       </c>
       <c r="O230">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P230">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="Q230">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R230">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S230">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V230">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -21145,22 +21145,22 @@
         <v>2.6</v>
       </c>
       <c r="N233">
-        <v>2.625</v>
+        <v>2.55</v>
       </c>
       <c r="O233">
         <v>3.25</v>
       </c>
       <c r="P233">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="Q233">
         <v>0</v>
       </c>
       <c r="R233">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S233">
-        <v>1.875</v>
+        <v>1.975</v>
       </c>
       <c r="T233">
         <v>2.5</v>
@@ -21305,19 +21305,19 @@
         <v>1</v>
       </c>
       <c r="R235">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="S235">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T235">
         <v>2.75</v>
       </c>
       <c r="U235">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V235">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W235">
         <v>0</v>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC235"/>
+  <dimension ref="A1:AC234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N92">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
+        <v>1.825</v>
+      </c>
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.8</v>
       </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
+        <v>8</v>
+      </c>
+      <c r="N129">
+        <v>1.444</v>
+      </c>
+      <c r="O129">
+        <v>4.333</v>
+      </c>
+      <c r="P129">
         <v>7</v>
-      </c>
-      <c r="N129">
-        <v>1.363</v>
-      </c>
-      <c r="O129">
-        <v>4.75</v>
-      </c>
-      <c r="P129">
-        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12112,25 +12112,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
         <v>1.8</v>
@@ -12139,16 +12139,16 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12163,10 +12163,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -20896,7 +20896,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>8070744</v>
+        <v>7623999</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20905,49 +20905,49 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45394.95833333334</v>
+        <v>45395.75</v>
       </c>
       <c r="F230" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G230" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K230">
-        <v>1.833</v>
+        <v>2.15</v>
       </c>
       <c r="L230">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M230">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="N230">
-        <v>1.666</v>
+        <v>2.15</v>
       </c>
       <c r="O230">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P230">
-        <v>5.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q230">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R230">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S230">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V230">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W230">
         <v>0</v>
@@ -21009,19 +21009,19 @@
         <v>1</v>
       </c>
       <c r="R231">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="S231">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V231">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21044,7 +21044,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7623999</v>
+        <v>7623998</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21053,49 +21053,49 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45395.79166666666</v>
+        <v>45395.86458333334</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K232">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L232">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M232">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="N232">
-        <v>2.15</v>
+        <v>2.7</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P232">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R232">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S232">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21118,7 +21118,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7623998</v>
+        <v>8070745</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21127,49 +21127,49 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45395.86458333334</v>
+        <v>45395.875</v>
       </c>
       <c r="F233" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G233" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="K233">
-        <v>2.625</v>
+        <v>4.2</v>
       </c>
       <c r="L233">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M233">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="N233">
-        <v>2.55</v>
+        <v>4.75</v>
       </c>
       <c r="O233">
         <v>3.25</v>
       </c>
       <c r="P233">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q233">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R233">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="S233">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U233">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V233">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21192,7 +21192,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>8070745</v>
+        <v>7623951</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21201,49 +21201,49 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45395.875</v>
+        <v>45395.97916666666</v>
       </c>
       <c r="F234" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G234" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K234">
+        <v>6</v>
+      </c>
+      <c r="L234">
+        <v>4</v>
+      </c>
+      <c r="M234">
+        <v>1.444</v>
+      </c>
+      <c r="N234">
+        <v>6.5</v>
+      </c>
+      <c r="O234">
         <v>4.2</v>
       </c>
-      <c r="L234">
-        <v>3.4</v>
-      </c>
-      <c r="M234">
-        <v>1.8</v>
-      </c>
-      <c r="N234">
-        <v>4.5</v>
-      </c>
-      <c r="O234">
-        <v>3.4</v>
-      </c>
       <c r="P234">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q234">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="R234">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S234">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T234">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U234">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V234">
-        <v>1.975</v>
+        <v>1.875</v>
       </c>
       <c r="W234">
         <v>0</v>
@@ -21258,80 +21258,6 @@
         <v>0</v>
       </c>
       <c r="AA234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:29">
-      <c r="A235" s="1">
-        <v>233</v>
-      </c>
-      <c r="B235">
-        <v>7623951</v>
-      </c>
-      <c r="C235" t="s">
-        <v>28</v>
-      </c>
-      <c r="D235" t="s">
-        <v>28</v>
-      </c>
-      <c r="E235" s="2">
-        <v>45395.97916666666</v>
-      </c>
-      <c r="F235" t="s">
-        <v>30</v>
-      </c>
-      <c r="G235" t="s">
-        <v>35</v>
-      </c>
-      <c r="K235">
-        <v>6</v>
-      </c>
-      <c r="L235">
-        <v>4</v>
-      </c>
-      <c r="M235">
-        <v>1.444</v>
-      </c>
-      <c r="N235">
-        <v>5.75</v>
-      </c>
-      <c r="O235">
-        <v>4</v>
-      </c>
-      <c r="P235">
-        <v>1.45</v>
-      </c>
-      <c r="Q235">
-        <v>1</v>
-      </c>
-      <c r="R235">
-        <v>2.025</v>
-      </c>
-      <c r="S235">
-        <v>1.775</v>
-      </c>
-      <c r="T235">
-        <v>2.75</v>
-      </c>
-      <c r="U235">
-        <v>1.95</v>
-      </c>
-      <c r="V235">
-        <v>1.85</v>
-      </c>
-      <c r="W235">
-        <v>0</v>
-      </c>
-      <c r="X235">
-        <v>0</v>
-      </c>
-      <c r="Y235">
-        <v>0</v>
-      </c>
-      <c r="Z235">
-        <v>0</v>
-      </c>
-      <c r="AA235">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC234"/>
+  <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.8</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,13 +12097,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -12112,25 +12112,25 @@
         <v>42</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L131">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M131">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N131">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O131">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P131">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q131">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R131">
         <v>1.8</v>
@@ -12139,16 +12139,16 @@
         <v>2</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W131">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X131">
         <v>-1</v>
@@ -12163,10 +12163,10 @@
         <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -20896,7 +20896,7 @@
         <v>228</v>
       </c>
       <c r="B230">
-        <v>7623999</v>
+        <v>8070744</v>
       </c>
       <c r="C230" t="s">
         <v>28</v>
@@ -20905,64 +20905,79 @@
         <v>28</v>
       </c>
       <c r="E230" s="2">
-        <v>45395.75</v>
+        <v>45394.95833333334</v>
       </c>
       <c r="F230" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G230" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="H230">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230" t="s">
+        <v>42</v>
       </c>
       <c r="K230">
-        <v>2.15</v>
+        <v>1.833</v>
       </c>
       <c r="L230">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M230">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="N230">
-        <v>2.15</v>
+        <v>1.8</v>
       </c>
       <c r="O230">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P230">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="Q230">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R230">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S230">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T230">
         <v>2.5</v>
       </c>
       <c r="U230">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V230">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W230">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y230">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z230">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA230">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB230">
+        <v>-1</v>
+      </c>
+      <c r="AC230">
+        <v>0.925</v>
       </c>
     </row>
     <row r="231" spans="1:29">
@@ -20970,7 +20985,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7623950</v>
+        <v>8096857</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20979,49 +20994,49 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45395.75</v>
+        <v>45398.79166666666</v>
       </c>
       <c r="F231" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K231">
-        <v>6</v>
+        <v>1.666</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="M231">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="N231">
-        <v>6.5</v>
+        <v>1.666</v>
       </c>
       <c r="O231">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P231">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q231">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R231">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S231">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
+        <v>1.975</v>
+      </c>
+      <c r="V231">
         <v>1.825</v>
-      </c>
-      <c r="V231">
-        <v>1.975</v>
       </c>
       <c r="W231">
         <v>0</v>
@@ -21044,7 +21059,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7623998</v>
+        <v>8096858</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21053,34 +21068,34 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45395.86458333334</v>
+        <v>45398.79166666666</v>
       </c>
       <c r="F232" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G232" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K232">
-        <v>2.625</v>
+        <v>1.571</v>
       </c>
       <c r="L232">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M232">
-        <v>2.6</v>
+        <v>5.25</v>
       </c>
       <c r="N232">
-        <v>2.7</v>
+        <v>1.533</v>
       </c>
       <c r="O232">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P232">
-        <v>2.55</v>
+        <v>5.5</v>
       </c>
       <c r="Q232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R232">
         <v>1.95</v>
@@ -21089,13 +21104,13 @@
         <v>1.85</v>
       </c>
       <c r="T232">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U232">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V232">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W232">
         <v>0</v>
@@ -21118,7 +21133,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>8070745</v>
+        <v>7623953</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21127,49 +21142,49 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45395.875</v>
+        <v>45398.95833333334</v>
       </c>
       <c r="F233" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G233" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="K233">
-        <v>4.2</v>
+        <v>1.363</v>
       </c>
       <c r="L233">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M233">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="N233">
-        <v>4.75</v>
+        <v>1.363</v>
       </c>
       <c r="O233">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="P233">
-        <v>1.8</v>
+        <v>7</v>
       </c>
       <c r="Q233">
-        <v>0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R233">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S233">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="T233">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U233">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V233">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="W233">
         <v>0</v>
@@ -21192,7 +21207,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>7623951</v>
+        <v>8096859</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21201,63 +21216,211 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45395.97916666666</v>
+        <v>45399.83333333334</v>
       </c>
       <c r="F234" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G234" t="s">
+        <v>33</v>
+      </c>
+      <c r="K234">
+        <v>2.8</v>
+      </c>
+      <c r="L234">
+        <v>3.2</v>
+      </c>
+      <c r="M234">
+        <v>2.4</v>
+      </c>
+      <c r="N234">
+        <v>2.8</v>
+      </c>
+      <c r="O234">
+        <v>3.2</v>
+      </c>
+      <c r="P234">
+        <v>2.4</v>
+      </c>
+      <c r="Q234">
+        <v>0</v>
+      </c>
+      <c r="R234">
+        <v>2.05</v>
+      </c>
+      <c r="S234">
+        <v>1.75</v>
+      </c>
+      <c r="T234">
+        <v>2.5</v>
+      </c>
+      <c r="U234">
+        <v>1.975</v>
+      </c>
+      <c r="V234">
+        <v>1.825</v>
+      </c>
+      <c r="W234">
+        <v>0</v>
+      </c>
+      <c r="X234">
+        <v>0</v>
+      </c>
+      <c r="Y234">
+        <v>0</v>
+      </c>
+      <c r="Z234">
+        <v>0</v>
+      </c>
+      <c r="AA234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:29">
+      <c r="A235" s="1">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>7623954</v>
+      </c>
+      <c r="C235" t="s">
+        <v>28</v>
+      </c>
+      <c r="D235" t="s">
+        <v>28</v>
+      </c>
+      <c r="E235" s="2">
+        <v>45399.95833333334</v>
+      </c>
+      <c r="F235" t="s">
         <v>35</v>
       </c>
-      <c r="K234">
-        <v>6</v>
-      </c>
-      <c r="L234">
-        <v>4</v>
-      </c>
-      <c r="M234">
-        <v>1.444</v>
-      </c>
-      <c r="N234">
-        <v>6.5</v>
-      </c>
-      <c r="O234">
-        <v>4.2</v>
-      </c>
-      <c r="P234">
-        <v>1.4</v>
-      </c>
-      <c r="Q234">
-        <v>1.25</v>
-      </c>
-      <c r="R234">
-        <v>1.875</v>
-      </c>
-      <c r="S234">
-        <v>1.925</v>
-      </c>
-      <c r="T234">
+      <c r="G235" t="s">
+        <v>40</v>
+      </c>
+      <c r="K235">
+        <v>1.166</v>
+      </c>
+      <c r="L235">
+        <v>7</v>
+      </c>
+      <c r="M235">
+        <v>13</v>
+      </c>
+      <c r="N235">
+        <v>1.166</v>
+      </c>
+      <c r="O235">
+        <v>7</v>
+      </c>
+      <c r="P235">
+        <v>13</v>
+      </c>
+      <c r="Q235">
+        <v>-2</v>
+      </c>
+      <c r="R235">
+        <v>1.825</v>
+      </c>
+      <c r="S235">
+        <v>1.975</v>
+      </c>
+      <c r="T235">
+        <v>3.25</v>
+      </c>
+      <c r="U235">
+        <v>1.975</v>
+      </c>
+      <c r="V235">
+        <v>1.825</v>
+      </c>
+      <c r="W235">
+        <v>0</v>
+      </c>
+      <c r="X235">
+        <v>0</v>
+      </c>
+      <c r="Y235">
+        <v>0</v>
+      </c>
+      <c r="Z235">
+        <v>0</v>
+      </c>
+      <c r="AA235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:29">
+      <c r="A236" s="1">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>7624000</v>
+      </c>
+      <c r="C236" t="s">
+        <v>28</v>
+      </c>
+      <c r="D236" t="s">
+        <v>28</v>
+      </c>
+      <c r="E236" s="2">
+        <v>45400.95833333334</v>
+      </c>
+      <c r="F236" t="s">
+        <v>37</v>
+      </c>
+      <c r="G236" t="s">
+        <v>34</v>
+      </c>
+      <c r="K236">
+        <v>1.666</v>
+      </c>
+      <c r="L236">
+        <v>3.8</v>
+      </c>
+      <c r="M236">
+        <v>4.5</v>
+      </c>
+      <c r="N236">
+        <v>1.666</v>
+      </c>
+      <c r="O236">
+        <v>3.8</v>
+      </c>
+      <c r="P236">
+        <v>4.5</v>
+      </c>
+      <c r="Q236">
+        <v>-0.75</v>
+      </c>
+      <c r="R236">
+        <v>1.8</v>
+      </c>
+      <c r="S236">
+        <v>2</v>
+      </c>
+      <c r="T236">
         <v>2.75</v>
       </c>
-      <c r="U234">
-        <v>1.925</v>
-      </c>
-      <c r="V234">
-        <v>1.875</v>
-      </c>
-      <c r="W234">
-        <v>0</v>
-      </c>
-      <c r="X234">
-        <v>0</v>
-      </c>
-      <c r="Y234">
-        <v>0</v>
-      </c>
-      <c r="Z234">
-        <v>0</v>
-      </c>
-      <c r="AA234">
+      <c r="U236">
+        <v>1.9</v>
+      </c>
+      <c r="V236">
+        <v>1.9</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC236"/>
+  <dimension ref="A1:AC241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G91" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N91">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P91">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U91">
+        <v>1.825</v>
+      </c>
+      <c r="V91">
         <v>1.975</v>
       </c>
-      <c r="V91">
-        <v>1.825</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB91">
+        <v>-1</v>
+      </c>
+      <c r="AC91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K92">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L92">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M92">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P92">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q92">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U92">
+        <v>1.975</v>
+      </c>
+      <c r="V92">
         <v>1.825</v>
       </c>
-      <c r="V92">
-        <v>1.975</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
+        <v>1.925</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>1.8</v>
       </c>
-      <c r="W110">
-        <v>0.25</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
       <c r="Z110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N111">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P111">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
+        <v>1.825</v>
+      </c>
+      <c r="T111">
+        <v>3.25</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.8</v>
       </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.875</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA111">
+        <v>-0.5</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.8</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L131">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M131">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N131">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O131">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P131">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q131">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
         <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC131">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,34 +17526,34 @@
         <v>45347.75</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K192">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M192">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N192">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
         <v>3.6</v>
@@ -17562,40 +17562,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,34 +17615,34 @@
         <v>45347.75</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K193">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N193">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
         <v>3.6</v>
@@ -17651,40 +17651,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7623946</v>
+        <v>7623944</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,76 +20374,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I224">
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K224">
+        <v>2.9</v>
+      </c>
+      <c r="L224">
+        <v>3.25</v>
+      </c>
+      <c r="M224">
+        <v>2.375</v>
+      </c>
+      <c r="N224">
         <v>3.4</v>
       </c>
-      <c r="L224">
-        <v>3.4</v>
-      </c>
-      <c r="M224">
+      <c r="O224">
+        <v>3.2</v>
+      </c>
+      <c r="P224">
+        <v>2.15</v>
+      </c>
+      <c r="Q224">
+        <v>0.25</v>
+      </c>
+      <c r="R224">
         <v>1.95</v>
       </c>
-      <c r="N224">
-        <v>3.8</v>
-      </c>
-      <c r="O224">
-        <v>3.6</v>
-      </c>
-      <c r="P224">
-        <v>1.75</v>
-      </c>
-      <c r="Q224">
-        <v>0.75</v>
-      </c>
-      <c r="R224">
+      <c r="S224">
+        <v>1.85</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>2</v>
+      </c>
+      <c r="V224">
         <v>1.8</v>
       </c>
-      <c r="S224">
-        <v>2</v>
-      </c>
-      <c r="T224">
-        <v>2.75</v>
-      </c>
-      <c r="U224">
-        <v>1.925</v>
-      </c>
-      <c r="V224">
-        <v>1.875</v>
-      </c>
       <c r="W224">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7623944</v>
+        <v>7623946</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,76 +20463,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225">
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K225">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L225">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M225">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N225">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O225">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R225">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W225">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20985,7 +20985,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>8096857</v>
+        <v>7623950</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20994,64 +20994,79 @@
         <v>28</v>
       </c>
       <c r="E231" s="2">
-        <v>45398.79166666666</v>
+        <v>45395.75</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G231" t="s">
-        <v>30</v>
+        <v>32</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>41</v>
       </c>
       <c r="K231">
-        <v>1.666</v>
+        <v>6</v>
       </c>
       <c r="L231">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M231">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="N231">
-        <v>1.666</v>
+        <v>9</v>
       </c>
       <c r="O231">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="P231">
-        <v>4.75</v>
+        <v>1.4</v>
       </c>
       <c r="Q231">
-        <v>-0.75</v>
+        <v>1</v>
       </c>
       <c r="R231">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S231">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X231">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z231">
         <v>0</v>
       </c>
       <c r="AA231">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21059,7 +21074,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>8096858</v>
+        <v>7623999</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21068,43 +21083,52 @@
         <v>28</v>
       </c>
       <c r="E232" s="2">
-        <v>45398.79166666666</v>
+        <v>45395.75</v>
       </c>
       <c r="F232" t="s">
+        <v>36</v>
+      </c>
+      <c r="G232" t="s">
         <v>39</v>
       </c>
-      <c r="G232" t="s">
-        <v>31</v>
+      <c r="H232">
+        <v>2</v>
+      </c>
+      <c r="I232">
+        <v>1</v>
+      </c>
+      <c r="J232" t="s">
+        <v>42</v>
       </c>
       <c r="K232">
-        <v>1.571</v>
+        <v>2.15</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M232">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="N232">
-        <v>1.533</v>
+        <v>2.15</v>
       </c>
       <c r="O232">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>5.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q232">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S232">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T232">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U232">
         <v>2</v>
@@ -21113,19 +21137,25 @@
         <v>1.8</v>
       </c>
       <c r="W232">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA232">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB232">
+        <v>1</v>
+      </c>
+      <c r="AC232">
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21133,7 +21163,7 @@
         <v>231</v>
       </c>
       <c r="B233">
-        <v>7623953</v>
+        <v>7623998</v>
       </c>
       <c r="C233" t="s">
         <v>28</v>
@@ -21142,64 +21172,79 @@
         <v>28</v>
       </c>
       <c r="E233" s="2">
-        <v>45398.95833333334</v>
+        <v>45395.86458333334</v>
       </c>
       <c r="F233" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G233" t="s">
-        <v>29</v>
+        <v>33</v>
+      </c>
+      <c r="H233">
+        <v>3</v>
+      </c>
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" t="s">
+        <v>42</v>
       </c>
       <c r="K233">
-        <v>1.363</v>
+        <v>2.625</v>
       </c>
       <c r="L233">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="M233">
-        <v>7</v>
+        <v>2.6</v>
       </c>
       <c r="N233">
-        <v>1.363</v>
+        <v>2.7</v>
       </c>
       <c r="O233">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="P233">
-        <v>7</v>
+        <v>2.55</v>
       </c>
       <c r="Q233">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R233">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S233">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="T233">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U233">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V233">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W233">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y233">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z233">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AA233">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB233">
+        <v>0.8</v>
+      </c>
+      <c r="AC233">
+        <v>-1</v>
       </c>
     </row>
     <row r="234" spans="1:29">
@@ -21207,7 +21252,7 @@
         <v>232</v>
       </c>
       <c r="B234">
-        <v>8096859</v>
+        <v>8070745</v>
       </c>
       <c r="C234" t="s">
         <v>28</v>
@@ -21216,64 +21261,79 @@
         <v>28</v>
       </c>
       <c r="E234" s="2">
-        <v>45399.83333333334</v>
+        <v>45395.875</v>
       </c>
       <c r="F234" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G234" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="H234">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <v>4</v>
+      </c>
+      <c r="J234" t="s">
+        <v>41</v>
       </c>
       <c r="K234">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="L234">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M234">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="N234">
-        <v>2.8</v>
+        <v>5</v>
       </c>
       <c r="O234">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P234">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q234">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R234">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S234">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="T234">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U234">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V234">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="W234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y234">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="Z234">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA234">
-        <v>0</v>
+        <v>0.8</v>
+      </c>
+      <c r="AB234">
+        <v>1.025</v>
+      </c>
+      <c r="AC234">
+        <v>-1</v>
       </c>
     </row>
     <row r="235" spans="1:29">
@@ -21281,7 +21341,7 @@
         <v>233</v>
       </c>
       <c r="B235">
-        <v>7623954</v>
+        <v>7623951</v>
       </c>
       <c r="C235" t="s">
         <v>28</v>
@@ -21290,64 +21350,79 @@
         <v>28</v>
       </c>
       <c r="E235" s="2">
-        <v>45399.95833333334</v>
+        <v>45395.97916666666</v>
       </c>
       <c r="F235" t="s">
+        <v>30</v>
+      </c>
+      <c r="G235" t="s">
         <v>35</v>
       </c>
-      <c r="G235" t="s">
-        <v>40</v>
+      <c r="H235">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <v>1</v>
+      </c>
+      <c r="J235" t="s">
+        <v>41</v>
       </c>
       <c r="K235">
-        <v>1.166</v>
+        <v>6</v>
       </c>
       <c r="L235">
+        <v>4</v>
+      </c>
+      <c r="M235">
+        <v>1.444</v>
+      </c>
+      <c r="N235">
         <v>7</v>
       </c>
-      <c r="M235">
-        <v>13</v>
-      </c>
-      <c r="N235">
-        <v>1.166</v>
-      </c>
       <c r="O235">
-        <v>7</v>
+        <v>4.333</v>
       </c>
       <c r="P235">
-        <v>13</v>
+        <v>1.363</v>
       </c>
       <c r="Q235">
-        <v>-2</v>
+        <v>1.25</v>
       </c>
       <c r="R235">
+        <v>1.95</v>
+      </c>
+      <c r="S235">
+        <v>1.85</v>
+      </c>
+      <c r="T235">
+        <v>2.75</v>
+      </c>
+      <c r="U235">
         <v>1.825</v>
       </c>
-      <c r="S235">
+      <c r="V235">
         <v>1.975</v>
       </c>
-      <c r="T235">
-        <v>3.25</v>
-      </c>
-      <c r="U235">
-        <v>1.975</v>
-      </c>
-      <c r="V235">
-        <v>1.825</v>
-      </c>
       <c r="W235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X235">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y235">
-        <v>0</v>
+        <v>0.363</v>
       </c>
       <c r="Z235">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA235">
-        <v>0</v>
+        <v>-0.5</v>
+      </c>
+      <c r="AB235">
+        <v>-1</v>
+      </c>
+      <c r="AC235">
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="236" spans="1:29">
@@ -21355,7 +21430,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7624000</v>
+        <v>8096858</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21364,63 +21439,433 @@
         <v>28</v>
       </c>
       <c r="E236" s="2">
-        <v>45400.95833333334</v>
+        <v>45398.79166666666</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K236">
-        <v>1.666</v>
+        <v>1.571</v>
       </c>
       <c r="L236">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="M236">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="N236">
-        <v>1.666</v>
+        <v>1.533</v>
       </c>
       <c r="O236">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="P236">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q236">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R236">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S236">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T236">
         <v>2.75</v>
       </c>
       <c r="U236">
+        <v>2</v>
+      </c>
+      <c r="V236">
+        <v>1.8</v>
+      </c>
+      <c r="W236">
+        <v>0</v>
+      </c>
+      <c r="X236">
+        <v>0</v>
+      </c>
+      <c r="Y236">
+        <v>0</v>
+      </c>
+      <c r="Z236">
+        <v>0</v>
+      </c>
+      <c r="AA236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>7623953</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45398.95833333334</v>
+      </c>
+      <c r="F237" t="s">
+        <v>32</v>
+      </c>
+      <c r="G237" t="s">
+        <v>29</v>
+      </c>
+      <c r="K237">
+        <v>1.363</v>
+      </c>
+      <c r="L237">
+        <v>5</v>
+      </c>
+      <c r="M237">
+        <v>7</v>
+      </c>
+      <c r="N237">
+        <v>1.363</v>
+      </c>
+      <c r="O237">
+        <v>5</v>
+      </c>
+      <c r="P237">
+        <v>7</v>
+      </c>
+      <c r="Q237">
+        <v>-1.5</v>
+      </c>
+      <c r="R237">
+        <v>1.95</v>
+      </c>
+      <c r="S237">
+        <v>1.85</v>
+      </c>
+      <c r="T237">
+        <v>3</v>
+      </c>
+      <c r="U237">
+        <v>1.875</v>
+      </c>
+      <c r="V237">
+        <v>1.925</v>
+      </c>
+      <c r="W237">
+        <v>0</v>
+      </c>
+      <c r="X237">
+        <v>0</v>
+      </c>
+      <c r="Y237">
+        <v>0</v>
+      </c>
+      <c r="Z237">
+        <v>0</v>
+      </c>
+      <c r="AA237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>8096859</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45399.83333333334</v>
+      </c>
+      <c r="F238" t="s">
+        <v>38</v>
+      </c>
+      <c r="G238" t="s">
+        <v>33</v>
+      </c>
+      <c r="K238">
+        <v>2.8</v>
+      </c>
+      <c r="L238">
+        <v>3.2</v>
+      </c>
+      <c r="M238">
+        <v>2.4</v>
+      </c>
+      <c r="N238">
+        <v>2.875</v>
+      </c>
+      <c r="O238">
+        <v>3.2</v>
+      </c>
+      <c r="P238">
+        <v>2.375</v>
+      </c>
+      <c r="Q238">
+        <v>0.25</v>
+      </c>
+      <c r="R238">
+        <v>1.75</v>
+      </c>
+      <c r="S238">
+        <v>2.05</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>1.975</v>
+      </c>
+      <c r="V238">
+        <v>1.825</v>
+      </c>
+      <c r="W238">
+        <v>0</v>
+      </c>
+      <c r="X238">
+        <v>0</v>
+      </c>
+      <c r="Y238">
+        <v>0</v>
+      </c>
+      <c r="Z238">
+        <v>0</v>
+      </c>
+      <c r="AA238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>8096857</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45399.83333333334</v>
+      </c>
+      <c r="F239" t="s">
+        <v>36</v>
+      </c>
+      <c r="G239" t="s">
+        <v>30</v>
+      </c>
+      <c r="K239">
+        <v>1.666</v>
+      </c>
+      <c r="L239">
+        <v>3.6</v>
+      </c>
+      <c r="M239">
+        <v>4.75</v>
+      </c>
+      <c r="N239">
+        <v>1.666</v>
+      </c>
+      <c r="O239">
+        <v>3.6</v>
+      </c>
+      <c r="P239">
+        <v>4.75</v>
+      </c>
+      <c r="Q239">
+        <v>-0.75</v>
+      </c>
+      <c r="R239">
+        <v>1.85</v>
+      </c>
+      <c r="S239">
+        <v>1.95</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>1.975</v>
+      </c>
+      <c r="V239">
+        <v>1.825</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>7623954</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45399.95833333334</v>
+      </c>
+      <c r="F240" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240" t="s">
+        <v>40</v>
+      </c>
+      <c r="K240">
+        <v>1.166</v>
+      </c>
+      <c r="L240">
+        <v>7</v>
+      </c>
+      <c r="M240">
+        <v>13</v>
+      </c>
+      <c r="N240">
+        <v>1.166</v>
+      </c>
+      <c r="O240">
+        <v>7</v>
+      </c>
+      <c r="P240">
+        <v>13</v>
+      </c>
+      <c r="Q240">
+        <v>-2</v>
+      </c>
+      <c r="R240">
+        <v>1.825</v>
+      </c>
+      <c r="S240">
+        <v>1.975</v>
+      </c>
+      <c r="T240">
+        <v>3.25</v>
+      </c>
+      <c r="U240">
+        <v>1.975</v>
+      </c>
+      <c r="V240">
+        <v>1.825</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>7624000</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45400.95833333334</v>
+      </c>
+      <c r="F241" t="s">
+        <v>37</v>
+      </c>
+      <c r="G241" t="s">
+        <v>34</v>
+      </c>
+      <c r="K241">
+        <v>1.666</v>
+      </c>
+      <c r="L241">
+        <v>3.8</v>
+      </c>
+      <c r="M241">
+        <v>4.5</v>
+      </c>
+      <c r="N241">
+        <v>1.6</v>
+      </c>
+      <c r="O241">
+        <v>4</v>
+      </c>
+      <c r="P241">
+        <v>5</v>
+      </c>
+      <c r="Q241">
+        <v>-1</v>
+      </c>
+      <c r="R241">
+        <v>1.975</v>
+      </c>
+      <c r="S241">
+        <v>1.825</v>
+      </c>
+      <c r="T241">
+        <v>2.75</v>
+      </c>
+      <c r="U241">
         <v>1.9</v>
       </c>
-      <c r="V236">
+      <c r="V241">
         <v>1.9</v>
       </c>
-      <c r="W236">
-        <v>0</v>
-      </c>
-      <c r="X236">
-        <v>0</v>
-      </c>
-      <c r="Y236">
-        <v>0</v>
-      </c>
-      <c r="Z236">
-        <v>0</v>
-      </c>
-      <c r="AA236">
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC241"/>
+  <dimension ref="A1:AC236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,76 +8537,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F91" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J91" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K91">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="L91">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="O91">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="P91">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q91">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R91">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S91">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U91">
+        <v>1.975</v>
+      </c>
+      <c r="V91">
         <v>1.825</v>
       </c>
-      <c r="V91">
-        <v>1.975</v>
-      </c>
       <c r="W91">
         <v>-1</v>
       </c>
       <c r="X91">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z91">
         <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC91">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,76 +8626,76 @@
         <v>45220.83333333334</v>
       </c>
       <c r="F92" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="G92" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K92">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="N92">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="O92">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P92">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q92">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R92">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
+        <v>1.825</v>
+      </c>
+      <c r="V92">
         <v>1.975</v>
       </c>
-      <c r="V92">
-        <v>1.825</v>
-      </c>
       <c r="W92">
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y92">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
+        <v>-1</v>
+      </c>
+      <c r="AC92">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.8</v>
       </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>1.925</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA110">
+        <v>-0.5</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L111">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q111">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
+        <v>1.925</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
         <v>1.8</v>
       </c>
-      <c r="W111">
-        <v>0.25</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
       <c r="Z111">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,13 +11919,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -11934,25 +11934,25 @@
         <v>42</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="N129">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="O129">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
         <v>1.8</v>
@@ -11961,16 +11961,16 @@
         <v>2</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="X129">
         <v>-1</v>
@@ -11985,10 +11985,10 @@
         <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,13 +12008,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -12023,25 +12023,25 @@
         <v>42</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
         <v>1.8</v>
@@ -12050,16 +12050,16 @@
         <v>2</v>
       </c>
       <c r="T130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="W130">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="X130">
         <v>-1</v>
@@ -12074,10 +12074,10 @@
         <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7623944</v>
+        <v>7623946</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,76 +20374,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224">
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K224">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L224">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N224">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q224">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R224">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W224">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7623946</v>
+        <v>7623944</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,76 +20463,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I225">
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K225">
+        <v>2.9</v>
+      </c>
+      <c r="L225">
+        <v>3.25</v>
+      </c>
+      <c r="M225">
+        <v>2.375</v>
+      </c>
+      <c r="N225">
         <v>3.4</v>
       </c>
-      <c r="L225">
-        <v>3.4</v>
-      </c>
-      <c r="M225">
+      <c r="O225">
+        <v>3.2</v>
+      </c>
+      <c r="P225">
+        <v>2.15</v>
+      </c>
+      <c r="Q225">
+        <v>0.25</v>
+      </c>
+      <c r="R225">
         <v>1.95</v>
       </c>
-      <c r="N225">
-        <v>3.8</v>
-      </c>
-      <c r="O225">
-        <v>3.6</v>
-      </c>
-      <c r="P225">
-        <v>1.75</v>
-      </c>
-      <c r="Q225">
-        <v>0.75</v>
-      </c>
-      <c r="R225">
+      <c r="S225">
+        <v>1.85</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
         <v>1.8</v>
       </c>
-      <c r="S225">
-        <v>2</v>
-      </c>
-      <c r="T225">
-        <v>2.75</v>
-      </c>
-      <c r="U225">
-        <v>1.925</v>
-      </c>
-      <c r="V225">
-        <v>1.875</v>
-      </c>
       <c r="W225">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC225">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20985,7 +20985,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7623950</v>
+        <v>7623999</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20997,76 +20997,76 @@
         <v>45395.75</v>
       </c>
       <c r="F231" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K231">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N231">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="O231">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P231">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q231">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S231">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
+        <v>2</v>
+      </c>
+      <c r="V231">
         <v>1.8</v>
       </c>
-      <c r="V231">
-        <v>2</v>
-      </c>
       <c r="W231">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC231">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21074,7 +21074,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7623999</v>
+        <v>7623950</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21086,76 +21086,76 @@
         <v>45395.75</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K232">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="L232">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M232">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="N232">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P232">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R232">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W232">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z232">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>1</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21430,7 +21430,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>8096858</v>
+        <v>7624000</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21439,49 +21439,49 @@
         <v>28</v>
       </c>
       <c r="E236" s="2">
-        <v>45398.79166666666</v>
+        <v>45400.95833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G236" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="K236">
-        <v>1.571</v>
+        <v>1.666</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="M236">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="N236">
-        <v>1.533</v>
+        <v>1.6</v>
       </c>
       <c r="O236">
         <v>4</v>
       </c>
       <c r="P236">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q236">
         <v>-1</v>
       </c>
       <c r="R236">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S236">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T236">
         <v>2.75</v>
       </c>
       <c r="U236">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V236">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="W236">
         <v>0</v>
@@ -21496,376 +21496,6 @@
         <v>0</v>
       </c>
       <c r="AA236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:29">
-      <c r="A237" s="1">
-        <v>235</v>
-      </c>
-      <c r="B237">
-        <v>7623953</v>
-      </c>
-      <c r="C237" t="s">
-        <v>28</v>
-      </c>
-      <c r="D237" t="s">
-        <v>28</v>
-      </c>
-      <c r="E237" s="2">
-        <v>45398.95833333334</v>
-      </c>
-      <c r="F237" t="s">
-        <v>32</v>
-      </c>
-      <c r="G237" t="s">
-        <v>29</v>
-      </c>
-      <c r="K237">
-        <v>1.363</v>
-      </c>
-      <c r="L237">
-        <v>5</v>
-      </c>
-      <c r="M237">
-        <v>7</v>
-      </c>
-      <c r="N237">
-        <v>1.363</v>
-      </c>
-      <c r="O237">
-        <v>5</v>
-      </c>
-      <c r="P237">
-        <v>7</v>
-      </c>
-      <c r="Q237">
-        <v>-1.5</v>
-      </c>
-      <c r="R237">
-        <v>1.95</v>
-      </c>
-      <c r="S237">
-        <v>1.85</v>
-      </c>
-      <c r="T237">
-        <v>3</v>
-      </c>
-      <c r="U237">
-        <v>1.875</v>
-      </c>
-      <c r="V237">
-        <v>1.925</v>
-      </c>
-      <c r="W237">
-        <v>0</v>
-      </c>
-      <c r="X237">
-        <v>0</v>
-      </c>
-      <c r="Y237">
-        <v>0</v>
-      </c>
-      <c r="Z237">
-        <v>0</v>
-      </c>
-      <c r="AA237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:29">
-      <c r="A238" s="1">
-        <v>236</v>
-      </c>
-      <c r="B238">
-        <v>8096859</v>
-      </c>
-      <c r="C238" t="s">
-        <v>28</v>
-      </c>
-      <c r="D238" t="s">
-        <v>28</v>
-      </c>
-      <c r="E238" s="2">
-        <v>45399.83333333334</v>
-      </c>
-      <c r="F238" t="s">
-        <v>38</v>
-      </c>
-      <c r="G238" t="s">
-        <v>33</v>
-      </c>
-      <c r="K238">
-        <v>2.8</v>
-      </c>
-      <c r="L238">
-        <v>3.2</v>
-      </c>
-      <c r="M238">
-        <v>2.4</v>
-      </c>
-      <c r="N238">
-        <v>2.875</v>
-      </c>
-      <c r="O238">
-        <v>3.2</v>
-      </c>
-      <c r="P238">
-        <v>2.375</v>
-      </c>
-      <c r="Q238">
-        <v>0.25</v>
-      </c>
-      <c r="R238">
-        <v>1.75</v>
-      </c>
-      <c r="S238">
-        <v>2.05</v>
-      </c>
-      <c r="T238">
-        <v>2.5</v>
-      </c>
-      <c r="U238">
-        <v>1.975</v>
-      </c>
-      <c r="V238">
-        <v>1.825</v>
-      </c>
-      <c r="W238">
-        <v>0</v>
-      </c>
-      <c r="X238">
-        <v>0</v>
-      </c>
-      <c r="Y238">
-        <v>0</v>
-      </c>
-      <c r="Z238">
-        <v>0</v>
-      </c>
-      <c r="AA238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:29">
-      <c r="A239" s="1">
-        <v>237</v>
-      </c>
-      <c r="B239">
-        <v>8096857</v>
-      </c>
-      <c r="C239" t="s">
-        <v>28</v>
-      </c>
-      <c r="D239" t="s">
-        <v>28</v>
-      </c>
-      <c r="E239" s="2">
-        <v>45399.83333333334</v>
-      </c>
-      <c r="F239" t="s">
-        <v>36</v>
-      </c>
-      <c r="G239" t="s">
-        <v>30</v>
-      </c>
-      <c r="K239">
-        <v>1.666</v>
-      </c>
-      <c r="L239">
-        <v>3.6</v>
-      </c>
-      <c r="M239">
-        <v>4.75</v>
-      </c>
-      <c r="N239">
-        <v>1.666</v>
-      </c>
-      <c r="O239">
-        <v>3.6</v>
-      </c>
-      <c r="P239">
-        <v>4.75</v>
-      </c>
-      <c r="Q239">
-        <v>-0.75</v>
-      </c>
-      <c r="R239">
-        <v>1.85</v>
-      </c>
-      <c r="S239">
-        <v>1.95</v>
-      </c>
-      <c r="T239">
-        <v>2.5</v>
-      </c>
-      <c r="U239">
-        <v>1.975</v>
-      </c>
-      <c r="V239">
-        <v>1.825</v>
-      </c>
-      <c r="W239">
-        <v>0</v>
-      </c>
-      <c r="X239">
-        <v>0</v>
-      </c>
-      <c r="Y239">
-        <v>0</v>
-      </c>
-      <c r="Z239">
-        <v>0</v>
-      </c>
-      <c r="AA239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:29">
-      <c r="A240" s="1">
-        <v>238</v>
-      </c>
-      <c r="B240">
-        <v>7623954</v>
-      </c>
-      <c r="C240" t="s">
-        <v>28</v>
-      </c>
-      <c r="D240" t="s">
-        <v>28</v>
-      </c>
-      <c r="E240" s="2">
-        <v>45399.95833333334</v>
-      </c>
-      <c r="F240" t="s">
-        <v>35</v>
-      </c>
-      <c r="G240" t="s">
-        <v>40</v>
-      </c>
-      <c r="K240">
-        <v>1.166</v>
-      </c>
-      <c r="L240">
-        <v>7</v>
-      </c>
-      <c r="M240">
-        <v>13</v>
-      </c>
-      <c r="N240">
-        <v>1.166</v>
-      </c>
-      <c r="O240">
-        <v>7</v>
-      </c>
-      <c r="P240">
-        <v>13</v>
-      </c>
-      <c r="Q240">
-        <v>-2</v>
-      </c>
-      <c r="R240">
-        <v>1.825</v>
-      </c>
-      <c r="S240">
-        <v>1.975</v>
-      </c>
-      <c r="T240">
-        <v>3.25</v>
-      </c>
-      <c r="U240">
-        <v>1.975</v>
-      </c>
-      <c r="V240">
-        <v>1.825</v>
-      </c>
-      <c r="W240">
-        <v>0</v>
-      </c>
-      <c r="X240">
-        <v>0</v>
-      </c>
-      <c r="Y240">
-        <v>0</v>
-      </c>
-      <c r="Z240">
-        <v>0</v>
-      </c>
-      <c r="AA240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:27">
-      <c r="A241" s="1">
-        <v>239</v>
-      </c>
-      <c r="B241">
-        <v>7624000</v>
-      </c>
-      <c r="C241" t="s">
-        <v>28</v>
-      </c>
-      <c r="D241" t="s">
-        <v>28</v>
-      </c>
-      <c r="E241" s="2">
-        <v>45400.95833333334</v>
-      </c>
-      <c r="F241" t="s">
-        <v>37</v>
-      </c>
-      <c r="G241" t="s">
-        <v>34</v>
-      </c>
-      <c r="K241">
-        <v>1.666</v>
-      </c>
-      <c r="L241">
-        <v>3.8</v>
-      </c>
-      <c r="M241">
-        <v>4.5</v>
-      </c>
-      <c r="N241">
-        <v>1.6</v>
-      </c>
-      <c r="O241">
-        <v>4</v>
-      </c>
-      <c r="P241">
-        <v>5</v>
-      </c>
-      <c r="Q241">
-        <v>-1</v>
-      </c>
-      <c r="R241">
-        <v>1.975</v>
-      </c>
-      <c r="S241">
-        <v>1.825</v>
-      </c>
-      <c r="T241">
-        <v>2.75</v>
-      </c>
-      <c r="U241">
-        <v>1.9</v>
-      </c>
-      <c r="V241">
-        <v>1.9</v>
-      </c>
-      <c r="W241">
-        <v>0</v>
-      </c>
-      <c r="X241">
-        <v>0</v>
-      </c>
-      <c r="Y241">
-        <v>0</v>
-      </c>
-      <c r="Z241">
-        <v>0</v>
-      </c>
-      <c r="AA241">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC236"/>
+  <dimension ref="A1:AC242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.8</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
+        <v>1.925</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>1.8</v>
       </c>
-      <c r="W110">
-        <v>0.25</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
       <c r="Z110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N111">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P111">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
+        <v>1.825</v>
+      </c>
+      <c r="T111">
+        <v>3.25</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.8</v>
       </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.875</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA111">
+        <v>-0.5</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.8</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H130">
         <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
         <v>4.75</v>
       </c>
       <c r="M130">
+        <v>8</v>
+      </c>
+      <c r="N130">
+        <v>1.444</v>
+      </c>
+      <c r="O130">
+        <v>4.333</v>
+      </c>
+      <c r="P130">
         <v>7</v>
-      </c>
-      <c r="N130">
-        <v>1.363</v>
-      </c>
-      <c r="O130">
-        <v>4.75</v>
-      </c>
-      <c r="P130">
-        <v>8.5</v>
       </c>
       <c r="Q130">
         <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
         <v>4.75</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
         <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,34 +17526,34 @@
         <v>45347.75</v>
       </c>
       <c r="F192" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G192" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K192">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L192">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M192">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N192">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O192">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P192">
         <v>3.6</v>
@@ -17562,40 +17562,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T192">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,34 +17615,34 @@
         <v>45347.75</v>
       </c>
       <c r="F193" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G193" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K193">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M193">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N193">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P193">
         <v>3.6</v>
@@ -17651,40 +17651,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -21430,7 +21430,7 @@
         <v>234</v>
       </c>
       <c r="B236">
-        <v>7624000</v>
+        <v>7623953</v>
       </c>
       <c r="C236" t="s">
         <v>28</v>
@@ -21439,43 +21439,52 @@
         <v>28</v>
       </c>
       <c r="E236" s="2">
-        <v>45400.95833333334</v>
+        <v>45398.95833333334</v>
       </c>
       <c r="F236" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G236" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="H236">
+        <v>2</v>
+      </c>
+      <c r="I236">
+        <v>2</v>
+      </c>
+      <c r="J236" t="s">
+        <v>43</v>
       </c>
       <c r="K236">
-        <v>1.666</v>
+        <v>1.363</v>
       </c>
       <c r="L236">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="M236">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="N236">
-        <v>1.6</v>
+        <v>1.333</v>
       </c>
       <c r="O236">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P236">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="Q236">
-        <v>-1</v>
+        <v>-1.5</v>
       </c>
       <c r="R236">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S236">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T236">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U236">
         <v>1.9</v>
@@ -21484,18 +21493,498 @@
         <v>1.9</v>
       </c>
       <c r="W236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X236">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="Y236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z236">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA236">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AB236">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC236">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:29">
+      <c r="A237" s="1">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>8096857</v>
+      </c>
+      <c r="C237" t="s">
+        <v>28</v>
+      </c>
+      <c r="D237" t="s">
+        <v>28</v>
+      </c>
+      <c r="E237" s="2">
+        <v>45399.75</v>
+      </c>
+      <c r="F237" t="s">
+        <v>36</v>
+      </c>
+      <c r="G237" t="s">
+        <v>30</v>
+      </c>
+      <c r="H237">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+      <c r="J237" t="s">
+        <v>43</v>
+      </c>
+      <c r="K237">
+        <v>1.666</v>
+      </c>
+      <c r="L237">
+        <v>3.6</v>
+      </c>
+      <c r="M237">
+        <v>4.75</v>
+      </c>
+      <c r="N237">
+        <v>1.7</v>
+      </c>
+      <c r="O237">
+        <v>3.6</v>
+      </c>
+      <c r="P237">
+        <v>4.5</v>
+      </c>
+      <c r="Q237">
+        <v>-0.75</v>
+      </c>
+      <c r="R237">
+        <v>1.975</v>
+      </c>
+      <c r="S237">
+        <v>1.825</v>
+      </c>
+      <c r="T237">
+        <v>2.5</v>
+      </c>
+      <c r="U237">
+        <v>2</v>
+      </c>
+      <c r="V237">
+        <v>1.8</v>
+      </c>
+      <c r="W237">
+        <v>-1</v>
+      </c>
+      <c r="X237">
+        <v>2.6</v>
+      </c>
+      <c r="Y237">
+        <v>-1</v>
+      </c>
+      <c r="Z237">
+        <v>-1</v>
+      </c>
+      <c r="AA237">
+        <v>0.825</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="238" spans="1:29">
+      <c r="A238" s="1">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>8096859</v>
+      </c>
+      <c r="C238" t="s">
+        <v>28</v>
+      </c>
+      <c r="D238" t="s">
+        <v>28</v>
+      </c>
+      <c r="E238" s="2">
+        <v>45399.75</v>
+      </c>
+      <c r="F238" t="s">
+        <v>38</v>
+      </c>
+      <c r="G238" t="s">
+        <v>33</v>
+      </c>
+      <c r="H238">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <v>1</v>
+      </c>
+      <c r="J238" t="s">
+        <v>41</v>
+      </c>
+      <c r="K238">
+        <v>2.8</v>
+      </c>
+      <c r="L238">
+        <v>3.2</v>
+      </c>
+      <c r="M238">
+        <v>2.4</v>
+      </c>
+      <c r="N238">
+        <v>3</v>
+      </c>
+      <c r="O238">
+        <v>3.2</v>
+      </c>
+      <c r="P238">
+        <v>2.3</v>
+      </c>
+      <c r="Q238">
+        <v>0.25</v>
+      </c>
+      <c r="R238">
+        <v>1.75</v>
+      </c>
+      <c r="S238">
+        <v>2.05</v>
+      </c>
+      <c r="T238">
+        <v>2.5</v>
+      </c>
+      <c r="U238">
+        <v>1.975</v>
+      </c>
+      <c r="V238">
+        <v>1.825</v>
+      </c>
+      <c r="W238">
+        <v>-1</v>
+      </c>
+      <c r="X238">
+        <v>-1</v>
+      </c>
+      <c r="Y238">
+        <v>1.3</v>
+      </c>
+      <c r="Z238">
+        <v>-1</v>
+      </c>
+      <c r="AA238">
+        <v>1.05</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="239" spans="1:29">
+      <c r="A239" s="1">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>7623960</v>
+      </c>
+      <c r="C239" t="s">
+        <v>28</v>
+      </c>
+      <c r="D239" t="s">
+        <v>28</v>
+      </c>
+      <c r="E239" s="2">
+        <v>45402.79166666666</v>
+      </c>
+      <c r="F239" t="s">
+        <v>30</v>
+      </c>
+      <c r="G239" t="s">
+        <v>40</v>
+      </c>
+      <c r="K239">
+        <v>2</v>
+      </c>
+      <c r="L239">
+        <v>3.3</v>
+      </c>
+      <c r="M239">
+        <v>3.3</v>
+      </c>
+      <c r="N239">
+        <v>1.95</v>
+      </c>
+      <c r="O239">
+        <v>3.3</v>
+      </c>
+      <c r="P239">
+        <v>3.4</v>
+      </c>
+      <c r="Q239">
+        <v>-0.5</v>
+      </c>
+      <c r="R239">
+        <v>2</v>
+      </c>
+      <c r="S239">
+        <v>1.8</v>
+      </c>
+      <c r="T239">
+        <v>2.5</v>
+      </c>
+      <c r="U239">
+        <v>1.9</v>
+      </c>
+      <c r="V239">
+        <v>1.9</v>
+      </c>
+      <c r="W239">
+        <v>0</v>
+      </c>
+      <c r="X239">
+        <v>0</v>
+      </c>
+      <c r="Y239">
+        <v>0</v>
+      </c>
+      <c r="Z239">
+        <v>0</v>
+      </c>
+      <c r="AA239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:29">
+      <c r="A240" s="1">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>7623958</v>
+      </c>
+      <c r="C240" t="s">
+        <v>28</v>
+      </c>
+      <c r="D240" t="s">
+        <v>28</v>
+      </c>
+      <c r="E240" s="2">
+        <v>45402.95833333334</v>
+      </c>
+      <c r="F240" t="s">
+        <v>35</v>
+      </c>
+      <c r="G240" t="s">
+        <v>32</v>
+      </c>
+      <c r="K240">
+        <v>2.05</v>
+      </c>
+      <c r="L240">
+        <v>3.3</v>
+      </c>
+      <c r="M240">
+        <v>3.2</v>
+      </c>
+      <c r="N240">
+        <v>1.95</v>
+      </c>
+      <c r="O240">
+        <v>3.4</v>
+      </c>
+      <c r="P240">
+        <v>3.4</v>
+      </c>
+      <c r="Q240">
+        <v>-0.5</v>
+      </c>
+      <c r="R240">
+        <v>2</v>
+      </c>
+      <c r="S240">
+        <v>1.8</v>
+      </c>
+      <c r="T240">
+        <v>2.5</v>
+      </c>
+      <c r="U240">
+        <v>1.875</v>
+      </c>
+      <c r="V240">
+        <v>1.925</v>
+      </c>
+      <c r="W240">
+        <v>0</v>
+      </c>
+      <c r="X240">
+        <v>0</v>
+      </c>
+      <c r="Y240">
+        <v>0</v>
+      </c>
+      <c r="Z240">
+        <v>0</v>
+      </c>
+      <c r="AA240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
+      <c r="A241" s="1">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>7623957</v>
+      </c>
+      <c r="C241" t="s">
+        <v>28</v>
+      </c>
+      <c r="D241" t="s">
+        <v>28</v>
+      </c>
+      <c r="E241" s="2">
+        <v>45403.75</v>
+      </c>
+      <c r="F241" t="s">
+        <v>38</v>
+      </c>
+      <c r="G241" t="s">
+        <v>37</v>
+      </c>
+      <c r="K241">
+        <v>3.3</v>
+      </c>
+      <c r="L241">
+        <v>3.2</v>
+      </c>
+      <c r="M241">
+        <v>2.05</v>
+      </c>
+      <c r="N241">
+        <v>3.1</v>
+      </c>
+      <c r="O241">
+        <v>3.2</v>
+      </c>
+      <c r="P241">
+        <v>2.15</v>
+      </c>
+      <c r="Q241">
+        <v>0.25</v>
+      </c>
+      <c r="R241">
+        <v>1.9</v>
+      </c>
+      <c r="S241">
+        <v>1.9</v>
+      </c>
+      <c r="T241">
+        <v>2.25</v>
+      </c>
+      <c r="U241">
+        <v>1.85</v>
+      </c>
+      <c r="V241">
+        <v>1.95</v>
+      </c>
+      <c r="W241">
+        <v>0</v>
+      </c>
+      <c r="X241">
+        <v>0</v>
+      </c>
+      <c r="Y241">
+        <v>0</v>
+      </c>
+      <c r="Z241">
+        <v>0</v>
+      </c>
+      <c r="AA241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
+      <c r="A242" s="1">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>7623959</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242" t="s">
+        <v>28</v>
+      </c>
+      <c r="E242" s="2">
+        <v>45403.875</v>
+      </c>
+      <c r="F242" t="s">
+        <v>29</v>
+      </c>
+      <c r="G242" t="s">
+        <v>34</v>
+      </c>
+      <c r="K242">
+        <v>2.2</v>
+      </c>
+      <c r="L242">
+        <v>3.4</v>
+      </c>
+      <c r="M242">
+        <v>2.8</v>
+      </c>
+      <c r="N242">
+        <v>2.15</v>
+      </c>
+      <c r="O242">
+        <v>3.4</v>
+      </c>
+      <c r="P242">
+        <v>2.9</v>
+      </c>
+      <c r="Q242">
+        <v>-0.25</v>
+      </c>
+      <c r="R242">
+        <v>1.925</v>
+      </c>
+      <c r="S242">
+        <v>1.875</v>
+      </c>
+      <c r="T242">
+        <v>2.75</v>
+      </c>
+      <c r="U242">
+        <v>1.95</v>
+      </c>
+      <c r="V242">
+        <v>1.85</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1229" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC242"/>
+  <dimension ref="A1:AC245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.8</v>
       </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M129">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O129">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P129">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q129">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K130">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L130">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M130">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N130">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P130">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -18226,7 +18226,7 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C200" t="s">
         <v>28</v>
@@ -18238,76 +18238,76 @@
         <v>45353.75</v>
       </c>
       <c r="F200" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G200" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K200">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M200">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="N200">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O200">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P200">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q200">
         <v>0.25</v>
       </c>
       <c r="R200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="T200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U200">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W200">
         <v>-1</v>
       </c>
       <c r="X200">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y200">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Z200">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="AA200">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:29">
@@ -18315,7 +18315,7 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C201" t="s">
         <v>28</v>
@@ -18327,76 +18327,76 @@
         <v>45353.75</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G201" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K201">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M201">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="N201">
+        <v>2.8</v>
+      </c>
+      <c r="O201">
         <v>3.1</v>
       </c>
-      <c r="O201">
-        <v>3.25</v>
-      </c>
       <c r="P201">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="Q201">
         <v>0.25</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V201">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W201">
         <v>-1</v>
       </c>
       <c r="X201">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y201">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Z201">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AB201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="202" spans="1:29">
@@ -20985,7 +20985,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7623999</v>
+        <v>7623950</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20997,76 +20997,76 @@
         <v>45395.75</v>
       </c>
       <c r="F231" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G231" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K231">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="L231">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M231">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="N231">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="O231">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P231">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q231">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R231">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S231">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V231">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W231">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z231">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA231">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB231">
+        <v>-1</v>
+      </c>
+      <c r="AC231">
         <v>1</v>
-      </c>
-      <c r="AC231">
-        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21074,7 +21074,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7623950</v>
+        <v>7623999</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21086,76 +21086,76 @@
         <v>45395.75</v>
       </c>
       <c r="F232" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G232" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K232">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M232">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N232">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="O232">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P232">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q232">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R232">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S232">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
+        <v>2</v>
+      </c>
+      <c r="V232">
         <v>1.8</v>
       </c>
-      <c r="V232">
-        <v>2</v>
-      </c>
       <c r="W232">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA232">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB232">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC232">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21697,7 +21697,7 @@
         <v>237</v>
       </c>
       <c r="B239">
-        <v>7623960</v>
+        <v>8096858</v>
       </c>
       <c r="C239" t="s">
         <v>28</v>
@@ -21706,40 +21706,49 @@
         <v>28</v>
       </c>
       <c r="E239" s="2">
-        <v>45402.79166666666</v>
+        <v>45399.875</v>
       </c>
       <c r="F239" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G239" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="H239">
+        <v>2</v>
+      </c>
+      <c r="I239">
+        <v>1</v>
+      </c>
+      <c r="J239" t="s">
+        <v>42</v>
       </c>
       <c r="K239">
-        <v>2</v>
+        <v>1.571</v>
       </c>
       <c r="L239">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="M239">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="N239">
-        <v>1.95</v>
+        <v>1.909</v>
       </c>
       <c r="O239">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="P239">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Q239">
         <v>-0.5</v>
       </c>
       <c r="R239">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S239">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T239">
         <v>2.5</v>
@@ -21751,19 +21760,25 @@
         <v>1.9</v>
       </c>
       <c r="W239">
-        <v>0</v>
+        <v>0.909</v>
       </c>
       <c r="X239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y239">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z239">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA239">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB239">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC239">
+        <v>-1</v>
       </c>
     </row>
     <row r="240" spans="1:29">
@@ -21771,7 +21786,7 @@
         <v>238</v>
       </c>
       <c r="B240">
-        <v>7623958</v>
+        <v>7623954</v>
       </c>
       <c r="C240" t="s">
         <v>28</v>
@@ -21780,64 +21795,79 @@
         <v>28</v>
       </c>
       <c r="E240" s="2">
-        <v>45402.95833333334</v>
+        <v>45399.95833333334</v>
       </c>
       <c r="F240" t="s">
         <v>35</v>
       </c>
       <c r="G240" t="s">
-        <v>32</v>
+        <v>40</v>
+      </c>
+      <c r="H240">
+        <v>3</v>
+      </c>
+      <c r="I240">
+        <v>1</v>
+      </c>
+      <c r="J240" t="s">
+        <v>42</v>
       </c>
       <c r="K240">
-        <v>2.05</v>
+        <v>1.166</v>
       </c>
       <c r="L240">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="M240">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="N240">
-        <v>1.95</v>
+        <v>1.166</v>
       </c>
       <c r="O240">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="P240">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="Q240">
-        <v>-0.5</v>
+        <v>-2</v>
       </c>
       <c r="R240">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S240">
+        <v>1.9</v>
+      </c>
+      <c r="T240">
+        <v>3.25</v>
+      </c>
+      <c r="U240">
+        <v>2</v>
+      </c>
+      <c r="V240">
         <v>1.8</v>
       </c>
-      <c r="T240">
-        <v>2.5</v>
-      </c>
-      <c r="U240">
-        <v>1.875</v>
-      </c>
-      <c r="V240">
-        <v>1.925</v>
-      </c>
       <c r="W240">
-        <v>0</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y240">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z240">
         <v>0</v>
       </c>
       <c r="AA240">
-        <v>0</v>
+        <v>-0</v>
+      </c>
+      <c r="AB240">
+        <v>1</v>
+      </c>
+      <c r="AC240">
+        <v>-1</v>
       </c>
     </row>
     <row r="241" spans="1:27">
@@ -21845,7 +21875,7 @@
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7623957</v>
+        <v>7623960</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21854,34 +21884,34 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45403.75</v>
+        <v>45402.79166666666</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G241" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K241">
+        <v>2</v>
+      </c>
+      <c r="L241">
         <v>3.3</v>
       </c>
-      <c r="L241">
-        <v>3.2</v>
-      </c>
       <c r="M241">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="N241">
-        <v>3.1</v>
+        <v>1.85</v>
       </c>
       <c r="O241">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P241">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="Q241">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R241">
         <v>1.9</v>
@@ -21890,13 +21920,13 @@
         <v>1.9</v>
       </c>
       <c r="T241">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U241">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V241">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W241">
         <v>0</v>
@@ -21919,7 +21949,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7623959</v>
+        <v>7623958</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21928,63 +21958,285 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45403.875</v>
+        <v>45402.95833333334</v>
       </c>
       <c r="F242" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G242" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K242">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L242">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M242">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="N242">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="O242">
         <v>3.4</v>
       </c>
       <c r="P242">
+        <v>3.4</v>
+      </c>
+      <c r="Q242">
+        <v>-0.5</v>
+      </c>
+      <c r="R242">
+        <v>2</v>
+      </c>
+      <c r="S242">
+        <v>1.8</v>
+      </c>
+      <c r="T242">
+        <v>2.5</v>
+      </c>
+      <c r="U242">
+        <v>1.9</v>
+      </c>
+      <c r="V242">
+        <v>1.9</v>
+      </c>
+      <c r="W242">
+        <v>0</v>
+      </c>
+      <c r="X242">
+        <v>0</v>
+      </c>
+      <c r="Y242">
+        <v>0</v>
+      </c>
+      <c r="Z242">
+        <v>0</v>
+      </c>
+      <c r="AA242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
+      <c r="A243" s="1">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>7623957</v>
+      </c>
+      <c r="C243" t="s">
+        <v>28</v>
+      </c>
+      <c r="D243" t="s">
+        <v>28</v>
+      </c>
+      <c r="E243" s="2">
+        <v>45403.75</v>
+      </c>
+      <c r="F243" t="s">
+        <v>38</v>
+      </c>
+      <c r="G243" t="s">
+        <v>37</v>
+      </c>
+      <c r="K243">
+        <v>3.3</v>
+      </c>
+      <c r="L243">
+        <v>3.2</v>
+      </c>
+      <c r="M243">
+        <v>2.05</v>
+      </c>
+      <c r="N243">
+        <v>3.1</v>
+      </c>
+      <c r="O243">
+        <v>3.2</v>
+      </c>
+      <c r="P243">
+        <v>2.15</v>
+      </c>
+      <c r="Q243">
+        <v>0.25</v>
+      </c>
+      <c r="R243">
+        <v>1.9</v>
+      </c>
+      <c r="S243">
+        <v>1.9</v>
+      </c>
+      <c r="T243">
+        <v>2.25</v>
+      </c>
+      <c r="U243">
+        <v>1.85</v>
+      </c>
+      <c r="V243">
+        <v>1.95</v>
+      </c>
+      <c r="W243">
+        <v>0</v>
+      </c>
+      <c r="X243">
+        <v>0</v>
+      </c>
+      <c r="Y243">
+        <v>0</v>
+      </c>
+      <c r="Z243">
+        <v>0</v>
+      </c>
+      <c r="AA243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
+      <c r="A244" s="1">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>7623956</v>
+      </c>
+      <c r="C244" t="s">
+        <v>28</v>
+      </c>
+      <c r="D244" t="s">
+        <v>28</v>
+      </c>
+      <c r="E244" s="2">
+        <v>45403.83333333334</v>
+      </c>
+      <c r="F244" t="s">
+        <v>31</v>
+      </c>
+      <c r="G244" t="s">
+        <v>36</v>
+      </c>
+      <c r="K244">
+        <v>2.75</v>
+      </c>
+      <c r="L244">
+        <v>3.3</v>
+      </c>
+      <c r="M244">
+        <v>2.3</v>
+      </c>
+      <c r="N244">
+        <v>2.5</v>
+      </c>
+      <c r="O244">
+        <v>3.3</v>
+      </c>
+      <c r="P244">
+        <v>2.55</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>1.75</v>
+      </c>
+      <c r="S244">
+        <v>2.05</v>
+      </c>
+      <c r="T244">
+        <v>2.5</v>
+      </c>
+      <c r="U244">
+        <v>2</v>
+      </c>
+      <c r="V244">
+        <v>1.8</v>
+      </c>
+      <c r="W244">
+        <v>0</v>
+      </c>
+      <c r="X244">
+        <v>0</v>
+      </c>
+      <c r="Y244">
+        <v>0</v>
+      </c>
+      <c r="Z244">
+        <v>0</v>
+      </c>
+      <c r="AA244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27">
+      <c r="A245" s="1">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>7623959</v>
+      </c>
+      <c r="C245" t="s">
+        <v>28</v>
+      </c>
+      <c r="D245" t="s">
+        <v>28</v>
+      </c>
+      <c r="E245" s="2">
+        <v>45403.875</v>
+      </c>
+      <c r="F245" t="s">
+        <v>29</v>
+      </c>
+      <c r="G245" t="s">
+        <v>34</v>
+      </c>
+      <c r="K245">
+        <v>2.2</v>
+      </c>
+      <c r="L245">
+        <v>3.4</v>
+      </c>
+      <c r="M245">
+        <v>2.8</v>
+      </c>
+      <c r="N245">
+        <v>2.1</v>
+      </c>
+      <c r="O245">
+        <v>3.4</v>
+      </c>
+      <c r="P245">
         <v>2.9</v>
       </c>
-      <c r="Q242">
+      <c r="Q245">
         <v>-0.25</v>
       </c>
-      <c r="R242">
+      <c r="R245">
+        <v>1.9</v>
+      </c>
+      <c r="S245">
+        <v>1.9</v>
+      </c>
+      <c r="T245">
+        <v>2.75</v>
+      </c>
+      <c r="U245">
         <v>1.925</v>
       </c>
-      <c r="S242">
+      <c r="V245">
         <v>1.875</v>
       </c>
-      <c r="T242">
-        <v>2.75</v>
-      </c>
-      <c r="U242">
-        <v>1.95</v>
-      </c>
-      <c r="V242">
-        <v>1.85</v>
-      </c>
-      <c r="W242">
-        <v>0</v>
-      </c>
-      <c r="X242">
-        <v>0</v>
-      </c>
-      <c r="Y242">
-        <v>0</v>
-      </c>
-      <c r="Z242">
-        <v>0</v>
-      </c>
-      <c r="AA242">
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC245"/>
+  <dimension ref="A1:AC247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N38">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
+        <v>-1</v>
+      </c>
+      <c r="AC39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M95">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N95">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
+        <v>2</v>
+      </c>
+      <c r="V95">
         <v>1.8</v>
       </c>
-      <c r="V95">
-        <v>2</v>
-      </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB95">
+        <v>-1</v>
+      </c>
+      <c r="AC95">
         <v>0.8</v>
-      </c>
-      <c r="AC95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M96">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N96">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W96">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G131" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
       <c r="I131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K131">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L131">
         <v>4.75</v>
       </c>
       <c r="M131">
+        <v>8</v>
+      </c>
+      <c r="N131">
+        <v>1.444</v>
+      </c>
+      <c r="O131">
+        <v>4.333</v>
+      </c>
+      <c r="P131">
         <v>7</v>
-      </c>
-      <c r="N131">
-        <v>1.363</v>
-      </c>
-      <c r="O131">
-        <v>4.75</v>
-      </c>
-      <c r="P131">
-        <v>8.5</v>
       </c>
       <c r="Q131">
         <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U131">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V131">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W131">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -17514,7 +17514,7 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C192" t="s">
         <v>28</v>
@@ -17526,34 +17526,34 @@
         <v>45347.75</v>
       </c>
       <c r="F192" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G192" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K192">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="L192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M192">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="N192">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="O192">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P192">
         <v>3.6</v>
@@ -17562,40 +17562,40 @@
         <v>-0.5</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="S192">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="T192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U192">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X192">
         <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB192">
         <v>-1</v>
       </c>
       <c r="AC192">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="193" spans="1:29">
@@ -17603,7 +17603,7 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C193" t="s">
         <v>28</v>
@@ -17615,34 +17615,34 @@
         <v>45347.75</v>
       </c>
       <c r="F193" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G193" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K193">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="L193">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M193">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N193">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="O193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P193">
         <v>3.6</v>
@@ -17651,40 +17651,40 @@
         <v>-0.5</v>
       </c>
       <c r="R193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X193">
         <v>-1</v>
       </c>
       <c r="Y193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB193">
         <v>-1</v>
       </c>
       <c r="AC193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="194" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7623946</v>
+        <v>7623944</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,76 +20374,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G224" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I224">
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K224">
+        <v>2.9</v>
+      </c>
+      <c r="L224">
+        <v>3.25</v>
+      </c>
+      <c r="M224">
+        <v>2.375</v>
+      </c>
+      <c r="N224">
         <v>3.4</v>
       </c>
-      <c r="L224">
-        <v>3.4</v>
-      </c>
-      <c r="M224">
+      <c r="O224">
+        <v>3.2</v>
+      </c>
+      <c r="P224">
+        <v>2.15</v>
+      </c>
+      <c r="Q224">
+        <v>0.25</v>
+      </c>
+      <c r="R224">
         <v>1.95</v>
       </c>
-      <c r="N224">
-        <v>3.8</v>
-      </c>
-      <c r="O224">
-        <v>3.6</v>
-      </c>
-      <c r="P224">
-        <v>1.75</v>
-      </c>
-      <c r="Q224">
-        <v>0.75</v>
-      </c>
-      <c r="R224">
+      <c r="S224">
+        <v>1.85</v>
+      </c>
+      <c r="T224">
+        <v>2.5</v>
+      </c>
+      <c r="U224">
+        <v>2</v>
+      </c>
+      <c r="V224">
         <v>1.8</v>
       </c>
-      <c r="S224">
-        <v>2</v>
-      </c>
-      <c r="T224">
-        <v>2.75</v>
-      </c>
-      <c r="U224">
-        <v>1.925</v>
-      </c>
-      <c r="V224">
-        <v>1.875</v>
-      </c>
       <c r="W224">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X224">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7623944</v>
+        <v>7623946</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,76 +20463,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G225" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I225">
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K225">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L225">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M225">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N225">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O225">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P225">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q225">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R225">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T225">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U225">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V225">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W225">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC225">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -20985,7 +20985,7 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7623950</v>
+        <v>7623999</v>
       </c>
       <c r="C231" t="s">
         <v>28</v>
@@ -20997,76 +20997,76 @@
         <v>45395.75</v>
       </c>
       <c r="F231" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G231" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231">
         <v>1</v>
       </c>
       <c r="J231" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K231">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M231">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="N231">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="O231">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="P231">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q231">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R231">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="S231">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T231">
         <v>2.5</v>
       </c>
       <c r="U231">
+        <v>2</v>
+      </c>
+      <c r="V231">
         <v>1.8</v>
       </c>
-      <c r="V231">
-        <v>2</v>
-      </c>
       <c r="W231">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="X231">
         <v>-1</v>
       </c>
       <c r="Y231">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z231">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA231">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB231">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC231">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:29">
@@ -21074,7 +21074,7 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7623999</v>
+        <v>7623950</v>
       </c>
       <c r="C232" t="s">
         <v>28</v>
@@ -21086,76 +21086,76 @@
         <v>45395.75</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232">
         <v>1</v>
       </c>
       <c r="J232" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K232">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="L232">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M232">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="N232">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="O232">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P232">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q232">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="R232">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="S232">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="T232">
         <v>2.5</v>
       </c>
       <c r="U232">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V232">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W232">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="X232">
         <v>-1</v>
       </c>
       <c r="Y232">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Z232">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB232">
+        <v>-1</v>
+      </c>
+      <c r="AC232">
         <v>1</v>
-      </c>
-      <c r="AC232">
-        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:29">
@@ -21870,12 +21870,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="241" spans="1:27">
+    <row r="241" spans="1:29">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>7623960</v>
+        <v>7624000</v>
       </c>
       <c r="C241" t="s">
         <v>28</v>
@@ -21884,72 +21884,87 @@
         <v>28</v>
       </c>
       <c r="E241" s="2">
-        <v>45402.79166666666</v>
+        <v>45400.95833333334</v>
       </c>
       <c r="F241" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G241" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="H241">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>1</v>
+      </c>
+      <c r="J241" t="s">
+        <v>43</v>
       </c>
       <c r="K241">
-        <v>2</v>
+        <v>1.666</v>
       </c>
       <c r="L241">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="M241">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="N241">
-        <v>1.85</v>
+        <v>1.533</v>
       </c>
       <c r="O241">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="P241">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="Q241">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R241">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S241">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T241">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U241">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="V241">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X241">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z241">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:27">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB241">
+        <v>-1</v>
+      </c>
+      <c r="AC241">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:29">
       <c r="A242" s="1">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7623958</v>
+        <v>7623960</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21958,49 +21973,49 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45402.95833333334</v>
+        <v>45402.79166666666</v>
       </c>
       <c r="F242" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G242" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K242">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L242">
         <v>3.3</v>
       </c>
       <c r="M242">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N242">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="O242">
         <v>3.4</v>
       </c>
       <c r="P242">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q242">
         <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S242">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T242">
         <v>2.5</v>
       </c>
       <c r="U242">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V242">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -22018,12 +22033,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:27">
+    <row r="243" spans="1:29">
       <c r="A243" s="1">
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7623957</v>
+        <v>7623958</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22032,50 +22047,50 @@
         <v>28</v>
       </c>
       <c r="E243" s="2">
-        <v>45403.75</v>
+        <v>45402.95833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K243">
+        <v>2.05</v>
+      </c>
+      <c r="L243">
         <v>3.3</v>
       </c>
-      <c r="L243">
+      <c r="M243">
         <v>3.2</v>
       </c>
-      <c r="M243">
-        <v>2.05</v>
-      </c>
       <c r="N243">
-        <v>3.1</v>
+        <v>1.95</v>
       </c>
       <c r="O243">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P243">
-        <v>2.15</v>
+        <v>3.4</v>
       </c>
       <c r="Q243">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R243">
+        <v>2</v>
+      </c>
+      <c r="S243">
+        <v>1.8</v>
+      </c>
+      <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
         <v>1.9</v>
       </c>
-      <c r="S243">
+      <c r="V243">
         <v>1.9</v>
       </c>
-      <c r="T243">
-        <v>2.25</v>
-      </c>
-      <c r="U243">
-        <v>1.85</v>
-      </c>
-      <c r="V243">
-        <v>1.95</v>
-      </c>
       <c r="W243">
         <v>0</v>
       </c>
@@ -22092,12 +22107,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:27">
+    <row r="244" spans="1:29">
       <c r="A244" s="1">
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7623956</v>
+        <v>7623957</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22106,49 +22121,49 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45403.83333333334</v>
+        <v>45403.75</v>
       </c>
       <c r="F244" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G244" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K244">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="L244">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="N244">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="O244">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="P244">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="Q244">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R244">
-        <v>1.75</v>
+        <v>1.925</v>
       </c>
       <c r="S244">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T244">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V244">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22166,12 +22181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:27">
+    <row r="245" spans="1:29">
       <c r="A245" s="1">
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7623959</v>
+        <v>7623956</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22180,63 +22195,211 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45403.875</v>
+        <v>45403.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K245">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L245">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M245">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="N245">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="O245">
         <v>3.4</v>
       </c>
       <c r="P245">
+        <v>2.625</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <v>1.75</v>
+      </c>
+      <c r="S245">
+        <v>2.05</v>
+      </c>
+      <c r="T245">
+        <v>2.5</v>
+      </c>
+      <c r="U245">
+        <v>2</v>
+      </c>
+      <c r="V245">
+        <v>1.8</v>
+      </c>
+      <c r="W245">
+        <v>0</v>
+      </c>
+      <c r="X245">
+        <v>0</v>
+      </c>
+      <c r="Y245">
+        <v>0</v>
+      </c>
+      <c r="Z245">
+        <v>0</v>
+      </c>
+      <c r="AA245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>7623959</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45403.875</v>
+      </c>
+      <c r="F246" t="s">
+        <v>29</v>
+      </c>
+      <c r="G246" t="s">
+        <v>34</v>
+      </c>
+      <c r="K246">
+        <v>2.2</v>
+      </c>
+      <c r="L246">
+        <v>3.4</v>
+      </c>
+      <c r="M246">
+        <v>2.8</v>
+      </c>
+      <c r="N246">
+        <v>2.1</v>
+      </c>
+      <c r="O246">
+        <v>3.4</v>
+      </c>
+      <c r="P246">
         <v>2.9</v>
       </c>
-      <c r="Q245">
+      <c r="Q246">
         <v>-0.25</v>
       </c>
-      <c r="R245">
+      <c r="R246">
         <v>1.9</v>
       </c>
-      <c r="S245">
+      <c r="S246">
         <v>1.9</v>
       </c>
-      <c r="T245">
+      <c r="T246">
         <v>2.75</v>
       </c>
-      <c r="U245">
+      <c r="U246">
         <v>1.925</v>
       </c>
-      <c r="V245">
+      <c r="V246">
         <v>1.875</v>
       </c>
-      <c r="W245">
-        <v>0</v>
-      </c>
-      <c r="X245">
-        <v>0</v>
-      </c>
-      <c r="Y245">
-        <v>0</v>
-      </c>
-      <c r="Z245">
-        <v>0</v>
-      </c>
-      <c r="AA245">
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>7624002</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45403.92708333334</v>
+      </c>
+      <c r="F247" t="s">
+        <v>33</v>
+      </c>
+      <c r="G247" t="s">
+        <v>39</v>
+      </c>
+      <c r="K247">
+        <v>1.615</v>
+      </c>
+      <c r="L247">
+        <v>3.8</v>
+      </c>
+      <c r="M247">
+        <v>4.5</v>
+      </c>
+      <c r="N247">
+        <v>1.5</v>
+      </c>
+      <c r="O247">
+        <v>3.8</v>
+      </c>
+      <c r="P247">
+        <v>5.5</v>
+      </c>
+      <c r="Q247">
+        <v>-1</v>
+      </c>
+      <c r="R247">
+        <v>1.85</v>
+      </c>
+      <c r="S247">
+        <v>1.95</v>
+      </c>
+      <c r="T247">
+        <v>2.75</v>
+      </c>
+      <c r="U247">
+        <v>1.85</v>
+      </c>
+      <c r="V247">
+        <v>1.95</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC247"/>
+  <dimension ref="A1:AC245"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="L95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M95">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="N95">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="O95">
         <v>3.5</v>
       </c>
       <c r="P95">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T95">
         <v>2.75</v>
       </c>
       <c r="U95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W95">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X95">
         <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Z95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AC95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="L96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="N96">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="O96">
         <v>3.5</v>
       </c>
       <c r="P96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T96">
         <v>2.75</v>
       </c>
       <c r="U96">
+        <v>2</v>
+      </c>
+      <c r="V96">
         <v>1.8</v>
       </c>
-      <c r="V96">
-        <v>2</v>
-      </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X96">
         <v>-1</v>
       </c>
       <c r="Y96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB96">
+        <v>-1</v>
+      </c>
+      <c r="AC96">
         <v>0.8</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H110">
+        <v>2</v>
+      </c>
+      <c r="I110">
         <v>0</v>
       </c>
-      <c r="I110">
-        <v>2</v>
-      </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L110">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M110">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N110">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O110">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P110">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
+        <v>3.25</v>
+      </c>
+      <c r="U110">
+        <v>2</v>
+      </c>
+      <c r="V110">
         <v>1.8</v>
       </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>1.925</v>
-      </c>
       <c r="W110">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA110">
+        <v>-0.5</v>
+      </c>
+      <c r="AB110">
+        <v>-1</v>
+      </c>
+      <c r="AC110">
         <v>0.8</v>
-      </c>
-      <c r="AB110">
-        <v>-1</v>
-      </c>
-      <c r="AC110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K111">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L111">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M111">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N111">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P111">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q111">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T111">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
+        <v>1.925</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
+        <v>-1</v>
+      </c>
+      <c r="Y111">
         <v>1.8</v>
       </c>
-      <c r="W111">
-        <v>0.25</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
-      <c r="Y111">
-        <v>-1</v>
-      </c>
       <c r="Z111">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA111">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB111">
         <v>-1</v>
       </c>
       <c r="AC111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H129">
         <v>3</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K129">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="L129">
         <v>4.75</v>
       </c>
       <c r="M129">
+        <v>8</v>
+      </c>
+      <c r="N129">
+        <v>1.444</v>
+      </c>
+      <c r="O129">
+        <v>4.333</v>
+      </c>
+      <c r="P129">
         <v>7</v>
-      </c>
-      <c r="N129">
-        <v>1.363</v>
-      </c>
-      <c r="O129">
-        <v>4.75</v>
-      </c>
-      <c r="P129">
-        <v>8.5</v>
       </c>
       <c r="Q129">
         <v>-1.25</v>
       </c>
       <c r="R129">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S129">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V129">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W129">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z129">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC129">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782596</v>
+        <v>6782595</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,76 +12097,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F131" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H131">
         <v>3</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K131">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L131">
         <v>4.75</v>
       </c>
       <c r="M131">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N131">
-        <v>1.444</v>
+        <v>1.363</v>
       </c>
       <c r="O131">
-        <v>4.333</v>
+        <v>4.75</v>
       </c>
       <c r="P131">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q131">
         <v>-1.25</v>
       </c>
       <c r="R131">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S131">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T131">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U131">
-        <v>1.775</v>
+        <v>1.95</v>
       </c>
       <c r="V131">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X131">
         <v>-1</v>
       </c>
       <c r="Y131">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA131">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB131">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC131">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -21519,7 +21519,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>8096857</v>
+        <v>8096859</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21531,76 +21531,76 @@
         <v>45399.75</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G237" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H237">
         <v>0</v>
       </c>
       <c r="I237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J237" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K237">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L237">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M237">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N237">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O237">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P237">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q237">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R237">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S237">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V237">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
+        <v>1.05</v>
+      </c>
+      <c r="AB237">
+        <v>-1</v>
+      </c>
+      <c r="AC237">
         <v>0.825</v>
-      </c>
-      <c r="AB237">
-        <v>-1</v>
-      </c>
-      <c r="AC237">
-        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21608,7 +21608,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>8096859</v>
+        <v>8096857</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21620,76 +21620,76 @@
         <v>45399.75</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G238" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H238">
         <v>0</v>
       </c>
       <c r="I238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J238" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K238">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L238">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M238">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N238">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O238">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P238">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q238">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R238">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S238">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V238">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB238">
         <v>-1</v>
       </c>
       <c r="AC238">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21964,7 +21964,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7623960</v>
+        <v>7623957</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21973,34 +21973,34 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45402.79166666666</v>
+        <v>45403.75</v>
       </c>
       <c r="F242" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G242" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K242">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="L242">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M242">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="N242">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O242">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P242">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q242">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R242">
         <v>1.9</v>
@@ -22009,13 +22009,13 @@
         <v>1.9</v>
       </c>
       <c r="T242">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U242">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V242">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W242">
         <v>0</v>
@@ -22038,7 +22038,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7623958</v>
+        <v>7623956</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22047,49 +22047,49 @@
         <v>28</v>
       </c>
       <c r="E243" s="2">
-        <v>45402.95833333334</v>
+        <v>45403.83333333334</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G243" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K243">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="L243">
         <v>3.3</v>
       </c>
       <c r="M243">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="N243">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="O243">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P243">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="Q243">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S243">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T243">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U243">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V243">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W243">
         <v>0</v>
@@ -22112,7 +22112,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7623957</v>
+        <v>7623959</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22121,49 +22121,49 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45403.75</v>
+        <v>45403.875</v>
       </c>
       <c r="F244" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G244" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K244">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="L244">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M244">
-        <v>2.05</v>
+        <v>2.8</v>
       </c>
       <c r="N244">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="O244">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P244">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q244">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R244">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S244">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T244">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U244">
+        <v>1.95</v>
+      </c>
+      <c r="V244">
         <v>1.85</v>
-      </c>
-      <c r="V244">
-        <v>1.95</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22186,7 +22186,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7623956</v>
+        <v>7624002</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22195,49 +22195,49 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45403.83333333334</v>
+        <v>45403.92708333334</v>
       </c>
       <c r="F245" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G245" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="K245">
+        <v>1.615</v>
+      </c>
+      <c r="L245">
+        <v>3.8</v>
+      </c>
+      <c r="M245">
+        <v>4.5</v>
+      </c>
+      <c r="N245">
+        <v>1.4</v>
+      </c>
+      <c r="O245">
+        <v>4</v>
+      </c>
+      <c r="P245">
+        <v>6</v>
+      </c>
+      <c r="Q245">
+        <v>-1.25</v>
+      </c>
+      <c r="R245">
+        <v>1.975</v>
+      </c>
+      <c r="S245">
+        <v>1.825</v>
+      </c>
+      <c r="T245">
         <v>2.75</v>
       </c>
-      <c r="L245">
-        <v>3.3</v>
-      </c>
-      <c r="M245">
-        <v>2.3</v>
-      </c>
-      <c r="N245">
-        <v>2.3</v>
-      </c>
-      <c r="O245">
-        <v>3.4</v>
-      </c>
-      <c r="P245">
-        <v>2.625</v>
-      </c>
-      <c r="Q245">
-        <v>0</v>
-      </c>
-      <c r="R245">
-        <v>1.75</v>
-      </c>
-      <c r="S245">
-        <v>2.05</v>
-      </c>
-      <c r="T245">
-        <v>2.5</v>
-      </c>
       <c r="U245">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="V245">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22252,154 +22252,6 @@
         <v>0</v>
       </c>
       <c r="AA245">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:29">
-      <c r="A246" s="1">
-        <v>244</v>
-      </c>
-      <c r="B246">
-        <v>7623959</v>
-      </c>
-      <c r="C246" t="s">
-        <v>28</v>
-      </c>
-      <c r="D246" t="s">
-        <v>28</v>
-      </c>
-      <c r="E246" s="2">
-        <v>45403.875</v>
-      </c>
-      <c r="F246" t="s">
-        <v>29</v>
-      </c>
-      <c r="G246" t="s">
-        <v>34</v>
-      </c>
-      <c r="K246">
-        <v>2.2</v>
-      </c>
-      <c r="L246">
-        <v>3.4</v>
-      </c>
-      <c r="M246">
-        <v>2.8</v>
-      </c>
-      <c r="N246">
-        <v>2.1</v>
-      </c>
-      <c r="O246">
-        <v>3.4</v>
-      </c>
-      <c r="P246">
-        <v>2.9</v>
-      </c>
-      <c r="Q246">
-        <v>-0.25</v>
-      </c>
-      <c r="R246">
-        <v>1.9</v>
-      </c>
-      <c r="S246">
-        <v>1.9</v>
-      </c>
-      <c r="T246">
-        <v>2.75</v>
-      </c>
-      <c r="U246">
-        <v>1.925</v>
-      </c>
-      <c r="V246">
-        <v>1.875</v>
-      </c>
-      <c r="W246">
-        <v>0</v>
-      </c>
-      <c r="X246">
-        <v>0</v>
-      </c>
-      <c r="Y246">
-        <v>0</v>
-      </c>
-      <c r="Z246">
-        <v>0</v>
-      </c>
-      <c r="AA246">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="247" spans="1:29">
-      <c r="A247" s="1">
-        <v>245</v>
-      </c>
-      <c r="B247">
-        <v>7624002</v>
-      </c>
-      <c r="C247" t="s">
-        <v>28</v>
-      </c>
-      <c r="D247" t="s">
-        <v>28</v>
-      </c>
-      <c r="E247" s="2">
-        <v>45403.92708333334</v>
-      </c>
-      <c r="F247" t="s">
-        <v>33</v>
-      </c>
-      <c r="G247" t="s">
-        <v>39</v>
-      </c>
-      <c r="K247">
-        <v>1.615</v>
-      </c>
-      <c r="L247">
-        <v>3.8</v>
-      </c>
-      <c r="M247">
-        <v>4.5</v>
-      </c>
-      <c r="N247">
-        <v>1.5</v>
-      </c>
-      <c r="O247">
-        <v>3.8</v>
-      </c>
-      <c r="P247">
-        <v>5.5</v>
-      </c>
-      <c r="Q247">
-        <v>-1</v>
-      </c>
-      <c r="R247">
-        <v>1.85</v>
-      </c>
-      <c r="S247">
-        <v>1.95</v>
-      </c>
-      <c r="T247">
-        <v>2.75</v>
-      </c>
-      <c r="U247">
-        <v>1.85</v>
-      </c>
-      <c r="V247">
-        <v>1.95</v>
-      </c>
-      <c r="W247">
-        <v>0</v>
-      </c>
-      <c r="X247">
-        <v>0</v>
-      </c>
-      <c r="Y247">
-        <v>0</v>
-      </c>
-      <c r="Z247">
-        <v>0</v>
-      </c>
-      <c r="AA247">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1244" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC245"/>
+  <dimension ref="A1:AC247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,49 +3820,49 @@
         <v>45171.75</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>1</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="N38">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="Q38">
         <v>-0.25</v>
       </c>
       <c r="R38">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S38">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T38">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
         <v>1.9</v>
@@ -3871,25 +3871,25 @@
         <v>1.9</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA38">
+        <v>-1</v>
+      </c>
+      <c r="AB38">
+        <v>-1</v>
+      </c>
+      <c r="AC38">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AB38">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,49 +3909,49 @@
         <v>45171.75</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H39">
         <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M39">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="N39">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="P39">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q39">
         <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S39">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U39">
         <v>1.9</v>
@@ -3960,25 +3960,25 @@
         <v>1.9</v>
       </c>
       <c r="W39">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,76 +10228,76 @@
         <v>45238.875</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="L110">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="M110">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="N110">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="O110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="P110">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q110">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T110">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
+        <v>1.925</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>1.8</v>
       </c>
-      <c r="W110">
-        <v>0.25</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
       <c r="Z110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB110">
         <v>-1</v>
       </c>
       <c r="AC110">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45238.875</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
         <v>0</v>
       </c>
-      <c r="I111">
-        <v>2</v>
-      </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K111">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="L111">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="M111">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="N111">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="P111">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="R111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S111">
+        <v>1.825</v>
+      </c>
+      <c r="T111">
+        <v>3.25</v>
+      </c>
+      <c r="U111">
+        <v>2</v>
+      </c>
+      <c r="V111">
         <v>1.8</v>
       </c>
-      <c r="T111">
-        <v>2.5</v>
-      </c>
-      <c r="U111">
-        <v>1.875</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X111">
         <v>-1</v>
       </c>
       <c r="Y111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA111">
+        <v>-0.5</v>
+      </c>
+      <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.8</v>
-      </c>
-      <c r="AB111">
-        <v>-1</v>
-      </c>
-      <c r="AC111">
-        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -11907,7 +11907,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C129" t="s">
         <v>28</v>
@@ -11919,76 +11919,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F129" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K129">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="L129">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M129">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="N129">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="O129">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="P129">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="Q129">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R129">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S129">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="T129">
         <v>2.75</v>
       </c>
       <c r="U129">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W129">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X129">
         <v>-1</v>
       </c>
       <c r="Y129">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Z129">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA129">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC129">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -11996,7 +11996,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782598</v>
+        <v>6782596</v>
       </c>
       <c r="C130" t="s">
         <v>28</v>
@@ -12008,76 +12008,76 @@
         <v>45255.95833333334</v>
       </c>
       <c r="F130" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G130" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I130">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K130">
-        <v>4.5</v>
+        <v>1.363</v>
       </c>
       <c r="L130">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="M130">
-        <v>1.615</v>
+        <v>8</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>1.444</v>
       </c>
       <c r="O130">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="P130">
-        <v>1.85</v>
+        <v>7</v>
       </c>
       <c r="Q130">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R130">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S130">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="T130">
         <v>2.75</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="V130">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W130">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X130">
         <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Z130">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC130">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -20362,7 +20362,7 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7623944</v>
+        <v>7623946</v>
       </c>
       <c r="C224" t="s">
         <v>28</v>
@@ -20374,76 +20374,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F224" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G224" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I224">
         <v>0</v>
       </c>
       <c r="J224" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K224">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="L224">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M224">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="N224">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O224">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P224">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="Q224">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="R224">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U224">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V224">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W224">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X224">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y224">
         <v>-1</v>
       </c>
       <c r="Z224">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA224">
         <v>-1</v>
       </c>
       <c r="AB224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC224">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="225" spans="1:29">
@@ -20451,7 +20451,7 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7623946</v>
+        <v>7623944</v>
       </c>
       <c r="C225" t="s">
         <v>28</v>
@@ -20463,76 +20463,76 @@
         <v>45388.83333333334</v>
       </c>
       <c r="F225" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G225" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I225">
         <v>0</v>
       </c>
       <c r="J225" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K225">
+        <v>2.9</v>
+      </c>
+      <c r="L225">
+        <v>3.25</v>
+      </c>
+      <c r="M225">
+        <v>2.375</v>
+      </c>
+      <c r="N225">
         <v>3.4</v>
       </c>
-      <c r="L225">
-        <v>3.4</v>
-      </c>
-      <c r="M225">
+      <c r="O225">
+        <v>3.2</v>
+      </c>
+      <c r="P225">
+        <v>2.15</v>
+      </c>
+      <c r="Q225">
+        <v>0.25</v>
+      </c>
+      <c r="R225">
         <v>1.95</v>
       </c>
-      <c r="N225">
-        <v>3.8</v>
-      </c>
-      <c r="O225">
-        <v>3.6</v>
-      </c>
-      <c r="P225">
-        <v>1.75</v>
-      </c>
-      <c r="Q225">
-        <v>0.75</v>
-      </c>
-      <c r="R225">
+      <c r="S225">
+        <v>1.85</v>
+      </c>
+      <c r="T225">
+        <v>2.5</v>
+      </c>
+      <c r="U225">
+        <v>2</v>
+      </c>
+      <c r="V225">
         <v>1.8</v>
       </c>
-      <c r="S225">
-        <v>2</v>
-      </c>
-      <c r="T225">
-        <v>2.75</v>
-      </c>
-      <c r="U225">
-        <v>1.925</v>
-      </c>
-      <c r="V225">
-        <v>1.875</v>
-      </c>
       <c r="W225">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y225">
         <v>-1</v>
       </c>
       <c r="Z225">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA225">
         <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC225">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:29">
@@ -21519,7 +21519,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>8096859</v>
+        <v>8096857</v>
       </c>
       <c r="C237" t="s">
         <v>28</v>
@@ -21531,76 +21531,76 @@
         <v>45399.75</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G237" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H237">
         <v>0</v>
       </c>
       <c r="I237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J237" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K237">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="L237">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M237">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="N237">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="O237">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P237">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="Q237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R237">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="S237">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T237">
         <v>2.5</v>
       </c>
       <c r="U237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V237">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W237">
         <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y237">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z237">
         <v>-1</v>
       </c>
       <c r="AA237">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AB237">
         <v>-1</v>
       </c>
       <c r="AC237">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:29">
@@ -21608,7 +21608,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>8096857</v>
+        <v>8096859</v>
       </c>
       <c r="C238" t="s">
         <v>28</v>
@@ -21620,76 +21620,76 @@
         <v>45399.75</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G238" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H238">
         <v>0</v>
       </c>
       <c r="I238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J238" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K238">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="L238">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M238">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="N238">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="O238">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="P238">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="Q238">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R238">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="S238">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T238">
         <v>2.5</v>
       </c>
       <c r="U238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W238">
         <v>-1</v>
       </c>
       <c r="X238">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z238">
         <v>-1</v>
       </c>
       <c r="AA238">
+        <v>1.05</v>
+      </c>
+      <c r="AB238">
+        <v>-1</v>
+      </c>
+      <c r="AC238">
         <v>0.825</v>
-      </c>
-      <c r="AB238">
-        <v>-1</v>
-      </c>
-      <c r="AC238">
-        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:29">
@@ -21964,7 +21964,7 @@
         <v>240</v>
       </c>
       <c r="B242">
-        <v>7623957</v>
+        <v>7623960</v>
       </c>
       <c r="C242" t="s">
         <v>28</v>
@@ -21973,64 +21973,79 @@
         <v>28</v>
       </c>
       <c r="E242" s="2">
-        <v>45403.75</v>
+        <v>45402.79166666666</v>
       </c>
       <c r="F242" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G242" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="H242">
+        <v>1</v>
+      </c>
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242" t="s">
+        <v>43</v>
       </c>
       <c r="K242">
+        <v>2</v>
+      </c>
+      <c r="L242">
         <v>3.3</v>
       </c>
-      <c r="L242">
-        <v>3.2</v>
-      </c>
       <c r="M242">
-        <v>2.05</v>
+        <v>3.3</v>
       </c>
       <c r="N242">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O242">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P242">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q242">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R242">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S242">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T242">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U242">
+        <v>1.95</v>
+      </c>
+      <c r="V242">
         <v>1.85</v>
       </c>
-      <c r="V242">
-        <v>1.95</v>
-      </c>
       <c r="W242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X242">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Y242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z242">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA242">
-        <v>0</v>
+        <v>0.875</v>
+      </c>
+      <c r="AB242">
+        <v>-1</v>
+      </c>
+      <c r="AC242">
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="243" spans="1:29">
@@ -22038,7 +22053,7 @@
         <v>241</v>
       </c>
       <c r="B243">
-        <v>7623956</v>
+        <v>7623958</v>
       </c>
       <c r="C243" t="s">
         <v>28</v>
@@ -22047,64 +22062,79 @@
         <v>28</v>
       </c>
       <c r="E243" s="2">
-        <v>45403.83333333334</v>
+        <v>45402.95833333334</v>
       </c>
       <c r="F243" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G243" t="s">
-        <v>36</v>
+        <v>32</v>
+      </c>
+      <c r="H243">
+        <v>2</v>
+      </c>
+      <c r="I243">
+        <v>2</v>
+      </c>
+      <c r="J243" t="s">
+        <v>43</v>
       </c>
       <c r="K243">
-        <v>2.75</v>
+        <v>2.05</v>
       </c>
       <c r="L243">
         <v>3.3</v>
       </c>
       <c r="M243">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="N243">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="O243">
         <v>3.25</v>
       </c>
       <c r="P243">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="Q243">
         <v>-0.25</v>
       </c>
       <c r="R243">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S243">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T243">
+        <v>2.5</v>
+      </c>
+      <c r="U243">
+        <v>1.975</v>
+      </c>
+      <c r="V243">
+        <v>1.825</v>
+      </c>
+      <c r="W243">
+        <v>-1</v>
+      </c>
+      <c r="X243">
         <v>2.25</v>
       </c>
-      <c r="U243">
-        <v>2.05</v>
-      </c>
-      <c r="V243">
-        <v>1.75</v>
-      </c>
-      <c r="W243">
-        <v>0</v>
-      </c>
-      <c r="X243">
-        <v>0</v>
-      </c>
       <c r="Y243">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z243">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA243">
-        <v>0</v>
+        <v>0.5125</v>
+      </c>
+      <c r="AB243">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC243">
+        <v>-1</v>
       </c>
     </row>
     <row r="244" spans="1:29">
@@ -22112,7 +22142,7 @@
         <v>242</v>
       </c>
       <c r="B244">
-        <v>7623959</v>
+        <v>7623957</v>
       </c>
       <c r="C244" t="s">
         <v>28</v>
@@ -22121,34 +22151,34 @@
         <v>28</v>
       </c>
       <c r="E244" s="2">
-        <v>45403.875</v>
+        <v>45403.75</v>
       </c>
       <c r="F244" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G244" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K244">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="L244">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M244">
-        <v>2.8</v>
+        <v>2.05</v>
       </c>
       <c r="N244">
+        <v>3.2</v>
+      </c>
+      <c r="O244">
+        <v>3.2</v>
+      </c>
+      <c r="P244">
         <v>2.1</v>
       </c>
-      <c r="O244">
-        <v>3.4</v>
-      </c>
-      <c r="P244">
-        <v>3</v>
-      </c>
       <c r="Q244">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R244">
         <v>1.9</v>
@@ -22157,13 +22187,13 @@
         <v>1.9</v>
       </c>
       <c r="T244">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U244">
+        <v>1.85</v>
+      </c>
+      <c r="V244">
         <v>1.95</v>
-      </c>
-      <c r="V244">
-        <v>1.85</v>
       </c>
       <c r="W244">
         <v>0</v>
@@ -22186,7 +22216,7 @@
         <v>243</v>
       </c>
       <c r="B245">
-        <v>7624002</v>
+        <v>7623956</v>
       </c>
       <c r="C245" t="s">
         <v>28</v>
@@ -22195,49 +22225,49 @@
         <v>28</v>
       </c>
       <c r="E245" s="2">
-        <v>45403.92708333334</v>
+        <v>45403.83333333334</v>
       </c>
       <c r="F245" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G245" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K245">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L245">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M245">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="N245">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="O245">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P245">
-        <v>6</v>
+        <v>3.1</v>
       </c>
       <c r="Q245">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R245">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S245">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="T245">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U245">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="V245">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W245">
         <v>0</v>
@@ -22252,6 +22282,154 @@
         <v>0</v>
       </c>
       <c r="AA245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:29">
+      <c r="A246" s="1">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>7623959</v>
+      </c>
+      <c r="C246" t="s">
+        <v>28</v>
+      </c>
+      <c r="D246" t="s">
+        <v>28</v>
+      </c>
+      <c r="E246" s="2">
+        <v>45403.875</v>
+      </c>
+      <c r="F246" t="s">
+        <v>29</v>
+      </c>
+      <c r="G246" t="s">
+        <v>34</v>
+      </c>
+      <c r="K246">
+        <v>2.2</v>
+      </c>
+      <c r="L246">
+        <v>3.4</v>
+      </c>
+      <c r="M246">
+        <v>2.8</v>
+      </c>
+      <c r="N246">
+        <v>2.1</v>
+      </c>
+      <c r="O246">
+        <v>3.4</v>
+      </c>
+      <c r="P246">
+        <v>3</v>
+      </c>
+      <c r="Q246">
+        <v>-0.25</v>
+      </c>
+      <c r="R246">
+        <v>1.9</v>
+      </c>
+      <c r="S246">
+        <v>1.9</v>
+      </c>
+      <c r="T246">
+        <v>2.75</v>
+      </c>
+      <c r="U246">
+        <v>1.95</v>
+      </c>
+      <c r="V246">
+        <v>1.85</v>
+      </c>
+      <c r="W246">
+        <v>0</v>
+      </c>
+      <c r="X246">
+        <v>0</v>
+      </c>
+      <c r="Y246">
+        <v>0</v>
+      </c>
+      <c r="Z246">
+        <v>0</v>
+      </c>
+      <c r="AA246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:29">
+      <c r="A247" s="1">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>7624002</v>
+      </c>
+      <c r="C247" t="s">
+        <v>28</v>
+      </c>
+      <c r="D247" t="s">
+        <v>28</v>
+      </c>
+      <c r="E247" s="2">
+        <v>45403.92708333334</v>
+      </c>
+      <c r="F247" t="s">
+        <v>33</v>
+      </c>
+      <c r="G247" t="s">
+        <v>39</v>
+      </c>
+      <c r="K247">
+        <v>1.615</v>
+      </c>
+      <c r="L247">
+        <v>3.8</v>
+      </c>
+      <c r="M247">
+        <v>4.5</v>
+      </c>
+      <c r="N247">
+        <v>1.4</v>
+      </c>
+      <c r="O247">
+        <v>4</v>
+      </c>
+      <c r="P247">
+        <v>6</v>
+      </c>
+      <c r="Q247">
+        <v>-1.25</v>
+      </c>
+      <c r="R247">
+        <v>1.975</v>
+      </c>
+      <c r="S247">
+        <v>1.825</v>
+      </c>
+      <c r="T247">
+        <v>2.75</v>
+      </c>
+      <c r="U247">
+        <v>1.775</v>
+      </c>
+      <c r="V247">
+        <v>2.025</v>
+      </c>
+      <c r="W247">
+        <v>0</v>
+      </c>
+      <c r="X247">
+        <v>0</v>
+      </c>
+      <c r="Y247">
+        <v>0</v>
+      </c>
+      <c r="Z247">
+        <v>0</v>
+      </c>
+      <c r="AA247">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8019072</t>
+    <t>7624003</t>
+  </si>
+  <si>
+    <t>7623963</t>
   </si>
   <si>
     <t>7624004</t>
@@ -519,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB251"/>
+  <dimension ref="A1:AB254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,16 +619,16 @@
         <v>6782492</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2">
         <v>45132.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -634,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J2">
         <v>3.8</v>
@@ -702,16 +705,16 @@
         <v>6781348</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2">
         <v>45132.96875</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -720,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -788,16 +791,16 @@
         <v>6782489</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
         <v>45133.91666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -806,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4">
         <v>4.5</v>
@@ -874,16 +877,16 @@
         <v>6782491</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2">
         <v>45133.95833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -892,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5">
         <v>1.4</v>
@@ -960,16 +963,16 @@
         <v>6782488</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="2">
         <v>45134.9375</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J6">
         <v>1.5</v>
@@ -1046,16 +1049,16 @@
         <v>6782490</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2">
         <v>45134.95833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1064,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1132,16 +1135,16 @@
         <v>6983271</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="2">
         <v>45136.875</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1150,7 +1153,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J8">
         <v>1.222</v>
@@ -1218,16 +1221,16 @@
         <v>6781349</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
         <v>45136.91666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1236,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1304,16 +1307,16 @@
         <v>6782494</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2">
         <v>45136.97916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1322,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>1.285</v>
@@ -1390,16 +1393,16 @@
         <v>6782493</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2">
         <v>45137.75</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1408,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J11">
         <v>4.2</v>
@@ -1476,16 +1479,16 @@
         <v>6782497</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="2">
         <v>45137.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1494,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J12">
         <v>1.909</v>
@@ -1562,16 +1565,16 @@
         <v>6782496</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2">
         <v>45137.875</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1580,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13">
         <v>3.75</v>
@@ -1648,16 +1651,16 @@
         <v>6782499</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2">
         <v>45143.75</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1666,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J14">
         <v>2.25</v>
@@ -1734,16 +1737,16 @@
         <v>6782498</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" s="2">
         <v>45143.875</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1752,7 +1755,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -1820,16 +1823,16 @@
         <v>6782501</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2">
         <v>45143.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1838,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J16">
         <v>2.5</v>
@@ -1906,16 +1909,16 @@
         <v>6782502</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2">
         <v>45143.96875</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1924,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J17">
         <v>3.25</v>
@@ -1992,16 +1995,16 @@
         <v>6781350</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2">
         <v>45144.58333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2010,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2078,16 +2081,16 @@
         <v>6782500</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2096,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J19">
         <v>1.666</v>
@@ -2164,16 +2167,16 @@
         <v>6782503</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2">
         <v>45149.9375</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2182,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2250,16 +2253,16 @@
         <v>6782506</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2">
         <v>45150.75</v>
       </c>
       <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
         <v>44</v>
-      </c>
-      <c r="F21" t="s">
-        <v>43</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2268,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2336,16 +2339,16 @@
         <v>6782504</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2">
         <v>45150.875</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2354,7 +2357,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J22">
         <v>2.5</v>
@@ -2422,16 +2425,16 @@
         <v>6782505</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2">
         <v>45150.95833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2440,7 +2443,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J23">
         <v>1.4</v>
@@ -2508,16 +2511,16 @@
         <v>6782507</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2">
         <v>45151.79166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2526,7 +2529,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24">
         <v>4.75</v>
@@ -2594,16 +2597,16 @@
         <v>6781351</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2">
         <v>45151.875</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2612,7 +2615,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J25">
         <v>3.75</v>
@@ -2680,16 +2683,16 @@
         <v>6782510</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2">
         <v>45156.95833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2698,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J26">
         <v>1.444</v>
@@ -2766,16 +2769,16 @@
         <v>6782512</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2784,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J27">
         <v>2.1</v>
@@ -2852,16 +2855,16 @@
         <v>6782509</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2">
         <v>45157.95833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2870,7 +2873,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J28">
         <v>1.571</v>
@@ -2938,16 +2941,16 @@
         <v>6782508</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2">
         <v>45158.75</v>
       </c>
       <c r="E29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2956,7 +2959,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J29">
         <v>2.55</v>
@@ -3024,16 +3027,16 @@
         <v>6782511</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>45158.875</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3042,7 +3045,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3110,16 +3113,16 @@
         <v>6781352</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2">
         <v>45159.75</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3128,7 +3131,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J31">
         <v>3.8</v>
@@ -3196,16 +3199,16 @@
         <v>6782514</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2">
         <v>45163.95833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3214,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J32">
         <v>1.571</v>
@@ -3282,16 +3285,16 @@
         <v>6782516</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2">
         <v>45164.75</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3300,7 +3303,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J33">
         <v>2.2</v>
@@ -3368,16 +3371,16 @@
         <v>7111690</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2">
         <v>45164.79166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3386,7 +3389,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J34">
         <v>1.833</v>
@@ -3454,16 +3457,16 @@
         <v>6782513</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D35" s="2">
         <v>45164.91666666666</v>
       </c>
       <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
         <v>37</v>
-      </c>
-      <c r="F35" t="s">
-        <v>36</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3472,7 +3475,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J35">
         <v>3.75</v>
@@ -3540,16 +3543,16 @@
         <v>6781353</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2">
         <v>45165.75</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3558,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3626,16 +3629,16 @@
         <v>6782515</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2">
         <v>45165.875</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3644,7 +3647,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3712,16 +3715,16 @@
         <v>6781354</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2">
         <v>45171.75</v>
       </c>
       <c r="E38" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3730,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J38">
         <v>2.4</v>
@@ -3798,16 +3801,16 @@
         <v>6782522</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2">
         <v>45171.75</v>
       </c>
       <c r="E39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3816,7 +3819,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3884,16 +3887,16 @@
         <v>6782521</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2">
         <v>45171.85416666666</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3902,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J40">
         <v>2.75</v>
@@ -3970,16 +3973,16 @@
         <v>6782518</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2">
         <v>45171.875</v>
       </c>
       <c r="E41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3988,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J41">
         <v>2.3</v>
@@ -4056,16 +4059,16 @@
         <v>6782519</v>
       </c>
       <c r="C42" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2">
         <v>45171.95833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4074,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J42">
         <v>1.363</v>
@@ -4142,16 +4145,16 @@
         <v>6782520</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4160,7 +4163,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4228,16 +4231,16 @@
         <v>6782524</v>
       </c>
       <c r="C44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2">
         <v>45178.75</v>
       </c>
       <c r="E44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4246,7 +4249,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J44">
         <v>1.85</v>
@@ -4314,16 +4317,16 @@
         <v>6781355</v>
       </c>
       <c r="C45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D45" s="2">
         <v>45178.79166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4332,7 +4335,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J45">
         <v>1.9</v>
@@ -4400,16 +4403,16 @@
         <v>6782523</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2">
         <v>45178.91666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4418,7 +4421,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4486,16 +4489,16 @@
         <v>6782526</v>
       </c>
       <c r="C47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D47" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F47" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4504,7 +4507,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J47">
         <v>1.3</v>
@@ -4572,16 +4575,16 @@
         <v>6782525</v>
       </c>
       <c r="C48" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2">
         <v>45179.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4590,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J48">
         <v>2.625</v>
@@ -4658,16 +4661,16 @@
         <v>6782527</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D49" s="2">
         <v>45179.79166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4676,7 +4679,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J49">
         <v>6</v>
@@ -4744,16 +4747,16 @@
         <v>6782528</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D50" s="2">
         <v>45181.875</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4762,7 +4765,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J50">
         <v>2.3</v>
@@ -4830,16 +4833,16 @@
         <v>6782532</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2">
         <v>45181.95833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F51" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4848,7 +4851,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J51">
         <v>4.5</v>
@@ -4916,16 +4919,16 @@
         <v>6782531</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D52" s="2">
         <v>45182.75</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4934,7 +4937,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -5002,16 +5005,16 @@
         <v>7196890</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2">
         <v>45182.875</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5020,7 +5023,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5088,16 +5091,16 @@
         <v>6781356</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2">
         <v>45182.91666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5106,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J54">
         <v>1.909</v>
@@ -5174,17 +5177,17 @@
         <v>6782530</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D55" s="2">
         <v>45182.97916666666</v>
       </c>
       <c r="E55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F55" t="s">
         <v>39</v>
       </c>
-      <c r="F55" t="s">
-        <v>38</v>
-      </c>
       <c r="G55">
         <v>2</v>
       </c>
@@ -5192,7 +5195,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5260,16 +5263,16 @@
         <v>6782538</v>
       </c>
       <c r="C56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D56" s="2">
         <v>45184.875</v>
       </c>
       <c r="E56" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G56">
         <v>7</v>
@@ -5278,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J56">
         <v>1.2</v>
@@ -5346,16 +5349,16 @@
         <v>6782533</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2">
         <v>45184.97916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5364,7 +5367,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5432,16 +5435,16 @@
         <v>6782535</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2">
         <v>45185.83333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F58" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5450,7 +5453,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J58">
         <v>2.1</v>
@@ -5518,16 +5521,16 @@
         <v>6782536</v>
       </c>
       <c r="C59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2">
         <v>45185.88194444445</v>
       </c>
       <c r="E59" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5536,7 +5539,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J59">
         <v>3.4</v>
@@ -5604,16 +5607,16 @@
         <v>6781357</v>
       </c>
       <c r="C60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2">
         <v>45185.95833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5622,7 +5625,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J60">
         <v>1.363</v>
@@ -5690,16 +5693,16 @@
         <v>6782537</v>
       </c>
       <c r="C61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2">
         <v>45186.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5708,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J61">
         <v>1.833</v>
@@ -5776,16 +5779,16 @@
         <v>6782540</v>
       </c>
       <c r="C62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2">
         <v>45188.75</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5794,7 +5797,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J62">
         <v>4</v>
@@ -5862,17 +5865,17 @@
         <v>7229962</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2">
         <v>45188.95833333334</v>
       </c>
       <c r="E63" t="s">
+        <v>37</v>
+      </c>
+      <c r="F63" t="s">
         <v>36</v>
       </c>
-      <c r="F63" t="s">
-        <v>35</v>
-      </c>
       <c r="G63">
         <v>2</v>
       </c>
@@ -5880,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J63">
         <v>1.3</v>
@@ -5948,16 +5951,16 @@
         <v>7233833</v>
       </c>
       <c r="C64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>45189.875</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5966,7 +5969,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J64">
         <v>3.6</v>
@@ -6034,16 +6037,16 @@
         <v>6782541</v>
       </c>
       <c r="C65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2">
         <v>45189.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6052,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J65">
         <v>1.5</v>
@@ -6120,16 +6123,16 @@
         <v>6782539</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2">
         <v>45189.96875</v>
       </c>
       <c r="E66" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6138,7 +6141,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J66">
         <v>1.95</v>
@@ -6206,16 +6209,16 @@
         <v>6781358</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2">
         <v>45190.95833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6224,7 +6227,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J67">
         <v>3.1</v>
@@ -6292,16 +6295,16 @@
         <v>6782544</v>
       </c>
       <c r="C68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2">
         <v>45192.75</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6310,7 +6313,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J68">
         <v>2.5</v>
@@ -6378,16 +6381,16 @@
         <v>6782545</v>
       </c>
       <c r="C69" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2">
         <v>45192.85416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6396,7 +6399,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J69">
         <v>1.4</v>
@@ -6464,16 +6467,16 @@
         <v>6782546</v>
       </c>
       <c r="C70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2">
         <v>45192.95833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6482,7 +6485,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J70">
         <v>1.285</v>
@@ -6550,16 +6553,16 @@
         <v>6781359</v>
       </c>
       <c r="C71" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D71" s="2">
         <v>45193.75</v>
       </c>
       <c r="E71" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6568,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J71">
         <v>1.85</v>
@@ -6636,16 +6639,16 @@
         <v>6782548</v>
       </c>
       <c r="C72" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6654,7 +6657,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J72">
         <v>4.2</v>
@@ -6722,16 +6725,16 @@
         <v>6782547</v>
       </c>
       <c r="C73" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D73" s="2">
         <v>45194.75</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6740,7 +6743,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J73">
         <v>3.1</v>
@@ -6808,16 +6811,16 @@
         <v>6781360</v>
       </c>
       <c r="C74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D74" s="2">
         <v>45199.875</v>
       </c>
       <c r="E74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6826,7 +6829,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J74">
         <v>2.5</v>
@@ -6894,16 +6897,16 @@
         <v>6782553</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2">
         <v>45199.95833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6912,7 +6915,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -6980,16 +6983,16 @@
         <v>6782549</v>
       </c>
       <c r="C76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D76" s="2">
         <v>45199.96527777778</v>
       </c>
       <c r="E76" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6998,7 +7001,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J76">
         <v>1.95</v>
@@ -7066,16 +7069,16 @@
         <v>6782550</v>
       </c>
       <c r="C77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D77" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7084,7 +7087,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7152,16 +7155,16 @@
         <v>6782552</v>
       </c>
       <c r="C78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D78" s="2">
         <v>45200.75</v>
       </c>
       <c r="E78" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7170,7 +7173,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J78">
         <v>4.5</v>
@@ -7238,16 +7241,16 @@
         <v>6782551</v>
       </c>
       <c r="C79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D79" s="2">
         <v>45200.88541666666</v>
       </c>
       <c r="E79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7256,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J79">
         <v>1.3</v>
@@ -7324,16 +7327,16 @@
         <v>6782557</v>
       </c>
       <c r="C80" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D80" s="2">
         <v>45205.91666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7342,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J80">
         <v>2.8</v>
@@ -7410,16 +7413,16 @@
         <v>7301749</v>
       </c>
       <c r="C81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D81" s="2">
         <v>45206.83333333334</v>
       </c>
       <c r="E81" t="s">
+        <v>35</v>
+      </c>
+      <c r="F81" t="s">
         <v>34</v>
-      </c>
-      <c r="F81" t="s">
-        <v>33</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7428,7 +7431,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J81">
         <v>2.05</v>
@@ -7496,16 +7499,16 @@
         <v>6782555</v>
       </c>
       <c r="C82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D82" s="2">
         <v>45206.95833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7514,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J82">
         <v>2.6</v>
@@ -7582,16 +7585,16 @@
         <v>6781361</v>
       </c>
       <c r="C83" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D83" s="2">
         <v>45207.75</v>
       </c>
       <c r="E83" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7600,7 +7603,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J83">
         <v>2.55</v>
@@ -7668,16 +7671,16 @@
         <v>6782556</v>
       </c>
       <c r="C84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D84" s="2">
         <v>45207.85416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7686,7 +7689,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J84">
         <v>1.4</v>
@@ -7754,16 +7757,16 @@
         <v>6782554</v>
       </c>
       <c r="C85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D85" s="2">
         <v>45207.875</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F85" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7772,7 +7775,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -7840,16 +7843,16 @@
         <v>6782562</v>
       </c>
       <c r="C86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D86" s="2">
         <v>45216.75</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7858,7 +7861,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J86">
         <v>1.85</v>
@@ -7926,16 +7929,16 @@
         <v>6782563</v>
       </c>
       <c r="C87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D87" s="2">
         <v>45216.875</v>
       </c>
       <c r="E87" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7944,7 +7947,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J87">
         <v>1.615</v>
@@ -8012,16 +8015,16 @@
         <v>6781362</v>
       </c>
       <c r="C88" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D88" s="2">
         <v>45216.95833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F88" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8030,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J88">
         <v>1.333</v>
@@ -8098,16 +8101,16 @@
         <v>6782560</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D89" s="2">
         <v>45217.875</v>
       </c>
       <c r="E89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89" t="s">
         <v>38</v>
-      </c>
-      <c r="F89" t="s">
-        <v>37</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -8116,7 +8119,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J89">
         <v>1.909</v>
@@ -8184,16 +8187,16 @@
         <v>6782561</v>
       </c>
       <c r="C90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D90" s="2">
         <v>45217.97916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8202,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J90">
         <v>1.285</v>
@@ -8270,16 +8273,16 @@
         <v>6782566</v>
       </c>
       <c r="C91" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D91" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G91">
         <v>0</v>
@@ -8288,7 +8291,7 @@
         <v>4</v>
       </c>
       <c r="I91" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J91">
         <v>3.2</v>
@@ -8356,16 +8359,16 @@
         <v>6782568</v>
       </c>
       <c r="C92" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D92" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
         <v>43</v>
-      </c>
-      <c r="F92" t="s">
-        <v>42</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -8374,7 +8377,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J92">
         <v>1.909</v>
@@ -8442,16 +8445,16 @@
         <v>6782564</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D93" s="2">
         <v>45220.9375</v>
       </c>
       <c r="E93" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8460,7 +8463,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8528,16 +8531,16 @@
         <v>6781363</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" s="2">
         <v>45220.95833333334</v>
       </c>
       <c r="E94" t="s">
+        <v>42</v>
+      </c>
+      <c r="F94" t="s">
         <v>41</v>
-      </c>
-      <c r="F94" t="s">
-        <v>40</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8546,7 +8549,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J94">
         <v>1.533</v>
@@ -8611,16 +8614,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D95" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
         <v>34</v>
@@ -8629,67 +8632,67 @@
         <v>2</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I95" t="s">
         <v>46</v>
       </c>
       <c r="J95">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="K95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="M95">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N95">
         <v>3.5</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="P95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S95">
         <v>2.75</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8697,85 +8700,85 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D96" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G96">
         <v>2</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J96">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="K96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L96">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N96">
         <v>3.5</v>
       </c>
       <c r="O96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
         <v>2.75</v>
       </c>
       <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
         <v>1.8</v>
       </c>
-      <c r="U96">
-        <v>2</v>
-      </c>
       <c r="V96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
+        <v>-1</v>
+      </c>
+      <c r="AB96">
         <v>0.8</v>
-      </c>
-      <c r="AB96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8786,16 +8789,16 @@
         <v>6782569</v>
       </c>
       <c r="C97" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D97" s="2">
         <v>45226.91666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8804,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8872,16 +8875,16 @@
         <v>6782572</v>
       </c>
       <c r="C98" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D98" s="2">
         <v>45226.95833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8890,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8958,16 +8961,16 @@
         <v>7392781</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D99" s="2">
         <v>45227.75</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8976,7 +8979,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J99">
         <v>2.15</v>
@@ -9044,16 +9047,16 @@
         <v>6782573</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D100" s="2">
         <v>45227.83333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9062,7 +9065,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J100">
         <v>2.05</v>
@@ -9130,16 +9133,16 @@
         <v>6782571</v>
       </c>
       <c r="C101" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D101" s="2">
         <v>45227.95833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9148,7 +9151,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J101">
         <v>1.909</v>
@@ -9216,16 +9219,16 @@
         <v>6782570</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D102" s="2">
         <v>45228.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9234,7 +9237,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9302,16 +9305,16 @@
         <v>6781365</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D103" s="2">
         <v>45233.9375</v>
       </c>
       <c r="E103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9320,7 +9323,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J103">
         <v>1.75</v>
@@ -9388,16 +9391,16 @@
         <v>6782574</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D104" s="2">
         <v>45234.75</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9406,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9474,16 +9477,16 @@
         <v>6782578</v>
       </c>
       <c r="C105" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D105" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -9492,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J105">
         <v>1.7</v>
@@ -9560,16 +9563,16 @@
         <v>6782576</v>
       </c>
       <c r="C106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D106" s="2">
         <v>45234.95833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F106" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9578,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J106">
         <v>1.833</v>
@@ -9646,16 +9649,16 @@
         <v>6782575</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D107" s="2">
         <v>45235.58333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9664,7 +9667,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9732,16 +9735,16 @@
         <v>6782577</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D108" s="2">
         <v>45235.75</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9750,7 +9753,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J108">
         <v>4.75</v>
@@ -9818,16 +9821,16 @@
         <v>6782583</v>
       </c>
       <c r="C109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D109" s="2">
         <v>45238.75</v>
       </c>
       <c r="E109" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9836,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9904,16 +9907,16 @@
         <v>6782579</v>
       </c>
       <c r="C110" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D110" s="2">
         <v>45238.875</v>
       </c>
       <c r="E110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G110">
         <v>0</v>
@@ -9922,7 +9925,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J110">
         <v>2.4</v>
@@ -9990,16 +9993,16 @@
         <v>6782581</v>
       </c>
       <c r="C111" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D111" s="2">
         <v>45238.875</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G111">
         <v>2</v>
@@ -10008,7 +10011,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J111">
         <v>1.181</v>
@@ -10076,16 +10079,16 @@
         <v>6781366</v>
       </c>
       <c r="C112" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D112" s="2">
         <v>45238.96875</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -10094,7 +10097,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J112">
         <v>2.05</v>
@@ -10162,16 +10165,16 @@
         <v>6782580</v>
       </c>
       <c r="C113" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D113" s="2">
         <v>45238.97916666666</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10180,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J113">
         <v>1.45</v>
@@ -10248,16 +10251,16 @@
         <v>6782582</v>
       </c>
       <c r="C114" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D114" s="2">
         <v>45239.95833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10266,7 +10269,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J114">
         <v>4.2</v>
@@ -10334,16 +10337,16 @@
         <v>6782585</v>
       </c>
       <c r="C115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D115" s="2">
         <v>45241.75</v>
       </c>
       <c r="E115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10352,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J115">
         <v>1.571</v>
@@ -10420,16 +10423,16 @@
         <v>6782584</v>
       </c>
       <c r="C116" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D116" s="2">
         <v>45241.91666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10438,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10506,16 +10509,16 @@
         <v>6781367</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D117" s="2">
         <v>45241.95833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10524,7 +10527,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J117">
         <v>2.05</v>
@@ -10592,16 +10595,16 @@
         <v>6782586</v>
       </c>
       <c r="C118" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D118" s="2">
         <v>45242.58333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10610,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J118">
         <v>3.1</v>
@@ -10678,16 +10681,16 @@
         <v>6782587</v>
       </c>
       <c r="C119" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D119" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F119" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -10696,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J119">
         <v>1.166</v>
@@ -10764,16 +10767,16 @@
         <v>6782588</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D120" s="2">
         <v>45242.875</v>
       </c>
       <c r="E120" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10782,7 +10785,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J120">
         <v>2.2</v>
@@ -10850,16 +10853,16 @@
         <v>7476547</v>
       </c>
       <c r="C121" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D121" s="2">
         <v>45245.75</v>
       </c>
       <c r="E121" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" t="s">
         <v>42</v>
-      </c>
-      <c r="F121" t="s">
-        <v>41</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10868,7 +10871,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -10936,16 +10939,16 @@
         <v>6782593</v>
       </c>
       <c r="C122" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2">
         <v>45251.95833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10954,7 +10957,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J122">
         <v>2.3</v>
@@ -11022,16 +11025,16 @@
         <v>6782590</v>
       </c>
       <c r="C123" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2">
         <v>45252.75</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F123" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G123">
         <v>4</v>
@@ -11040,7 +11043,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J123">
         <v>1.8</v>
@@ -11108,16 +11111,16 @@
         <v>6781368</v>
       </c>
       <c r="C124" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F124" t="s">
         <v>40</v>
-      </c>
-      <c r="F124" t="s">
-        <v>39</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11126,7 +11129,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J124">
         <v>4.2</v>
@@ -11194,16 +11197,16 @@
         <v>6782591</v>
       </c>
       <c r="C125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2">
         <v>45252.95833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11212,7 +11215,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J125">
         <v>1.333</v>
@@ -11280,16 +11283,16 @@
         <v>6782592</v>
       </c>
       <c r="C126" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2">
         <v>45253.75</v>
       </c>
       <c r="E126" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11298,7 +11301,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J126">
         <v>7.5</v>
@@ -11366,16 +11369,16 @@
         <v>6782589</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11384,7 +11387,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J127">
         <v>1.4</v>
@@ -11452,16 +11455,16 @@
         <v>6781369</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D128" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11470,7 +11473,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J128">
         <v>1.727</v>
@@ -11538,16 +11541,16 @@
         <v>6782598</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D129" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11556,7 +11559,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J129">
         <v>4.5</v>
@@ -11624,16 +11627,16 @@
         <v>6782596</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D130" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11642,7 +11645,7 @@
         <v>4</v>
       </c>
       <c r="I130" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J130">
         <v>1.363</v>
@@ -11710,16 +11713,16 @@
         <v>6782595</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D131" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11728,7 +11731,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J131">
         <v>1.4</v>
@@ -11796,16 +11799,16 @@
         <v>6782594</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D132" s="2">
         <v>45256.75</v>
       </c>
       <c r="E132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11814,7 +11817,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J132">
         <v>5.5</v>
@@ -11882,16 +11885,16 @@
         <v>6782597</v>
       </c>
       <c r="C133" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D133" s="2">
         <v>45256.875</v>
       </c>
       <c r="E133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11900,7 +11903,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J133">
         <v>2.4</v>
@@ -11968,16 +11971,16 @@
         <v>7532513</v>
       </c>
       <c r="C134" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D134" s="2">
         <v>45262.95833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11986,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12054,16 +12057,16 @@
         <v>7532514</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D135" s="2">
         <v>45263.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12072,7 +12075,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12140,16 +12143,16 @@
         <v>7532516</v>
       </c>
       <c r="C136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D136" s="2">
         <v>45269.95833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12158,7 +12161,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12226,16 +12229,16 @@
         <v>7532515</v>
       </c>
       <c r="C137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D137" s="2">
         <v>45270.83333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12244,7 +12247,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J137">
         <v>1.95</v>
@@ -12312,16 +12315,16 @@
         <v>7589150</v>
       </c>
       <c r="C138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D138" s="2">
         <v>45274.95833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12330,7 +12333,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12398,16 +12401,16 @@
         <v>7596073</v>
       </c>
       <c r="C139" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D139" s="2">
         <v>45277.83333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12416,7 +12419,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J139">
         <v>1.727</v>
@@ -12484,16 +12487,16 @@
         <v>7623885</v>
       </c>
       <c r="C140" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D140" s="2">
         <v>45303.95833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12502,7 +12505,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J140">
         <v>1.45</v>
@@ -12570,16 +12573,16 @@
         <v>7623884</v>
       </c>
       <c r="C141" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D141" s="2">
         <v>45304.75</v>
       </c>
       <c r="E141" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12588,7 +12591,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J141">
         <v>1.571</v>
@@ -12656,16 +12659,16 @@
         <v>7623883</v>
       </c>
       <c r="C142" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D142" s="2">
         <v>45304.79166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12674,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J142">
         <v>2.9</v>
@@ -12742,16 +12745,16 @@
         <v>7623882</v>
       </c>
       <c r="C143" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D143" s="2">
         <v>45304.91666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F143" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12760,7 +12763,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J143">
         <v>1.909</v>
@@ -12828,16 +12831,16 @@
         <v>7624965</v>
       </c>
       <c r="C144" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D144" s="2">
         <v>45304.95833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F144" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12846,7 +12849,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J144">
         <v>1.25</v>
@@ -12914,16 +12917,16 @@
         <v>7623973</v>
       </c>
       <c r="C145" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D145" s="2">
         <v>45305.79166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F145" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12932,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J145">
         <v>1.285</v>
@@ -13000,16 +13003,16 @@
         <v>7704994</v>
       </c>
       <c r="C146" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D146" s="2">
         <v>45307.91666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F146" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13018,7 +13021,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J146">
         <v>2.3</v>
@@ -13086,16 +13089,16 @@
         <v>7623887</v>
       </c>
       <c r="C147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D147" s="2">
         <v>45307.95833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13104,7 +13107,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13172,17 +13175,17 @@
         <v>7623889</v>
       </c>
       <c r="C148" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D148" s="2">
         <v>45308.75</v>
       </c>
       <c r="E148" t="s">
+        <v>45</v>
+      </c>
+      <c r="F148" t="s">
         <v>44</v>
       </c>
-      <c r="F148" t="s">
-        <v>43</v>
-      </c>
       <c r="G148">
         <v>2</v>
       </c>
@@ -13190,7 +13193,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J148">
         <v>3</v>
@@ -13258,16 +13261,16 @@
         <v>7623890</v>
       </c>
       <c r="C149" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D149" s="2">
         <v>45308.91666666666</v>
       </c>
       <c r="E149" t="s">
+        <v>41</v>
+      </c>
+      <c r="F149" t="s">
         <v>40</v>
-      </c>
-      <c r="F149" t="s">
-        <v>39</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13276,7 +13279,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J149">
         <v>4</v>
@@ -13344,16 +13347,16 @@
         <v>7623888</v>
       </c>
       <c r="C150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D150" s="2">
         <v>45308.95833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13362,7 +13365,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13430,16 +13433,16 @@
         <v>7623974</v>
       </c>
       <c r="C151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D151" s="2">
         <v>45309.95833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13448,7 +13451,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J151">
         <v>6</v>
@@ -13516,16 +13519,16 @@
         <v>7623891</v>
       </c>
       <c r="C152" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D152" s="2">
         <v>45311.75</v>
       </c>
       <c r="E152" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F152" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13534,7 +13537,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13602,16 +13605,16 @@
         <v>7623892</v>
       </c>
       <c r="C153" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D153" s="2">
         <v>45311.875</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F153" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13620,7 +13623,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J153">
         <v>1.363</v>
@@ -13688,16 +13691,16 @@
         <v>7623893</v>
       </c>
       <c r="C154" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D154" s="2">
         <v>45311.95833333334</v>
       </c>
       <c r="E154" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13706,7 +13709,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J154">
         <v>1.727</v>
@@ -13774,16 +13777,16 @@
         <v>7623975</v>
       </c>
       <c r="C155" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D155" s="2">
         <v>45311.97916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F155" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13792,7 +13795,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J155">
         <v>1.533</v>
@@ -13860,16 +13863,16 @@
         <v>7623976</v>
       </c>
       <c r="C156" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D156" s="2">
         <v>45312.79166666666</v>
       </c>
       <c r="E156" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F156" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13878,7 +13881,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J156">
         <v>1.444</v>
@@ -13946,16 +13949,16 @@
         <v>7623977</v>
       </c>
       <c r="C157" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D157" s="2">
         <v>45312.875</v>
       </c>
       <c r="E157" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F157" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13964,7 +13967,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J157">
         <v>1.727</v>
@@ -14032,16 +14035,16 @@
         <v>7623897</v>
       </c>
       <c r="C158" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D158" s="2">
         <v>45314.95833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F158" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14050,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J158">
         <v>1.4</v>
@@ -14118,16 +14121,16 @@
         <v>7623896</v>
       </c>
       <c r="C159" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D159" s="2">
         <v>45315.75</v>
       </c>
       <c r="E159" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F159" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -14136,7 +14139,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14204,16 +14207,16 @@
         <v>7623895</v>
       </c>
       <c r="C160" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D160" s="2">
         <v>45315.875</v>
       </c>
       <c r="E160" t="s">
+        <v>36</v>
+      </c>
+      <c r="F160" t="s">
         <v>35</v>
-      </c>
-      <c r="F160" t="s">
-        <v>34</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14222,7 +14225,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J160">
         <v>1.833</v>
@@ -14290,16 +14293,16 @@
         <v>7624966</v>
       </c>
       <c r="C161" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D161" s="2">
         <v>45315.95833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14308,7 +14311,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14376,16 +14379,16 @@
         <v>7623894</v>
       </c>
       <c r="C162" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D162" s="2">
         <v>45316.91666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14394,7 +14397,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J162">
         <v>2.3</v>
@@ -14462,16 +14465,16 @@
         <v>7623898</v>
       </c>
       <c r="C163" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D163" s="2">
         <v>45316.95833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F163" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14480,7 +14483,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J163">
         <v>1.909</v>
@@ -14548,16 +14551,16 @@
         <v>7623901</v>
       </c>
       <c r="C164" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D164" s="2">
         <v>45318.75</v>
       </c>
       <c r="E164" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F164" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14566,7 +14569,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14634,16 +14637,16 @@
         <v>7623979</v>
       </c>
       <c r="C165" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D165" s="2">
         <v>45318.875</v>
       </c>
       <c r="E165" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F165" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14652,7 +14655,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14720,16 +14723,16 @@
         <v>7623978</v>
       </c>
       <c r="C166" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D166" s="2">
         <v>45318.95833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F166" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14738,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J166">
         <v>3.8</v>
@@ -14806,16 +14809,16 @@
         <v>7623902</v>
       </c>
       <c r="C167" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D167" s="2">
         <v>45319.75</v>
       </c>
       <c r="E167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F167" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14824,7 +14827,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14892,16 +14895,16 @@
         <v>7623899</v>
       </c>
       <c r="C168" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D168" s="2">
         <v>45319.79166666666</v>
       </c>
       <c r="E168" t="s">
+        <v>40</v>
+      </c>
+      <c r="F168" t="s">
         <v>39</v>
-      </c>
-      <c r="F168" t="s">
-        <v>38</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14910,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J168">
         <v>1.615</v>
@@ -14978,16 +14981,16 @@
         <v>7623900</v>
       </c>
       <c r="C169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D169" s="2">
         <v>45319.91666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F169" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -14996,7 +14999,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15064,16 +15067,16 @@
         <v>7623905</v>
       </c>
       <c r="C170" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D170" s="2">
         <v>45323.95833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F170" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15082,7 +15085,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J170">
         <v>1.333</v>
@@ -15150,16 +15153,16 @@
         <v>7623934</v>
       </c>
       <c r="C171" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D171" s="2">
         <v>45330.95833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F171" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15168,7 +15171,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J171">
         <v>1.444</v>
@@ -15236,16 +15239,16 @@
         <v>7623909</v>
       </c>
       <c r="C172" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D172" s="2">
         <v>45332.875</v>
       </c>
       <c r="E172" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F172" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15254,7 +15257,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15322,16 +15325,16 @@
         <v>7623907</v>
       </c>
       <c r="C173" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D173" s="2">
         <v>45332.91666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F173" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15340,7 +15343,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15408,16 +15411,16 @@
         <v>7623983</v>
       </c>
       <c r="C174" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D174" s="2">
         <v>45333</v>
       </c>
       <c r="E174" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F174" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15426,7 +15429,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J174">
         <v>2.625</v>
@@ -15494,16 +15497,16 @@
         <v>7623982</v>
       </c>
       <c r="C175" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D175" s="2">
         <v>45333.58333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15512,7 +15515,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15580,16 +15583,16 @@
         <v>7623910</v>
       </c>
       <c r="C176" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D176" s="2">
         <v>45333.75</v>
       </c>
       <c r="E176" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15598,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J176">
         <v>5.5</v>
@@ -15666,16 +15669,16 @@
         <v>7623908</v>
       </c>
       <c r="C177" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D177" s="2">
         <v>45333.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F177" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15684,7 +15687,7 @@
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J177">
         <v>2.3</v>
@@ -15752,16 +15755,16 @@
         <v>7623984</v>
       </c>
       <c r="C178" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D178" s="2">
         <v>45338.875</v>
       </c>
       <c r="E178" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F178" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15770,7 +15773,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J178">
         <v>2.7</v>
@@ -15838,16 +15841,16 @@
         <v>7623913</v>
       </c>
       <c r="C179" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D179" s="2">
         <v>45339</v>
       </c>
       <c r="E179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F179" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15856,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J179">
         <v>2.25</v>
@@ -15924,16 +15927,16 @@
         <v>7623914</v>
       </c>
       <c r="C180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D180" s="2">
         <v>45339.75</v>
       </c>
       <c r="E180" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F180" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15942,7 +15945,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J180">
         <v>2</v>
@@ -16010,16 +16013,16 @@
         <v>7623915</v>
       </c>
       <c r="C181" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D181" s="2">
         <v>45339.92708333334</v>
       </c>
       <c r="E181" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F181" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -16028,7 +16031,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J181">
         <v>2</v>
@@ -16096,16 +16099,16 @@
         <v>7623911</v>
       </c>
       <c r="C182" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D182" s="2">
         <v>45340.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F182" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16114,7 +16117,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16182,16 +16185,16 @@
         <v>7623912</v>
       </c>
       <c r="C183" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D183" s="2">
         <v>45340.875</v>
       </c>
       <c r="E183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F183" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16200,7 +16203,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J183">
         <v>1.8</v>
@@ -16268,16 +16271,16 @@
         <v>7764338</v>
       </c>
       <c r="C184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D184" s="2">
         <v>45342.91666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16286,7 +16289,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J184">
         <v>2.1</v>
@@ -16354,16 +16357,16 @@
         <v>7764528</v>
       </c>
       <c r="C185" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D185" s="2">
         <v>45342.95833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F185" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G185">
         <v>3</v>
@@ -16372,7 +16375,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J185">
         <v>1.533</v>
@@ -16440,16 +16443,16 @@
         <v>7764930</v>
       </c>
       <c r="C186" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D186" s="2">
         <v>45343.75</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16458,7 +16461,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J186">
         <v>2</v>
@@ -16526,16 +16529,16 @@
         <v>7764929</v>
       </c>
       <c r="C187" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D187" s="2">
         <v>45343.91666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F187" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16544,7 +16547,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J187">
         <v>1.909</v>
@@ -16612,16 +16615,16 @@
         <v>7763915</v>
       </c>
       <c r="C188" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D188" s="2">
         <v>45343.95833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F188" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16630,7 +16633,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J188">
         <v>1.25</v>
@@ -16698,16 +16701,16 @@
         <v>7623917</v>
       </c>
       <c r="C189" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D189" s="2">
         <v>45346.75</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F189" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16716,7 +16719,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J189">
         <v>5</v>
@@ -16784,16 +16787,16 @@
         <v>7623918</v>
       </c>
       <c r="C190" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D190" s="2">
         <v>45346.875</v>
       </c>
       <c r="E190" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16802,7 +16805,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J190">
         <v>1.909</v>
@@ -16870,16 +16873,16 @@
         <v>7623985</v>
       </c>
       <c r="C191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D191" s="2">
         <v>45346.9375</v>
       </c>
       <c r="E191" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16888,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J191">
         <v>1.571</v>
@@ -16953,43 +16956,43 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C192" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D192" s="2">
         <v>45347.75</v>
       </c>
       <c r="E192" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F192" t="s">
         <v>44</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J192">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="K192">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L192">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M192">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N192">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O192">
         <v>3.6</v>
@@ -16998,40 +17001,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q192">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R192">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S192">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T192">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U192">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V192">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y192">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z192">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -17039,43 +17042,43 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C193" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D193" s="2">
         <v>45347.75</v>
       </c>
       <c r="E193" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F193" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G193">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="s">
         <v>46</v>
       </c>
       <c r="J193">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="K193">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L193">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M193">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N193">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O193">
         <v>3.6</v>
@@ -17084,40 +17087,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q193">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R193">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S193">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T193">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U193">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V193">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y193">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z193">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17128,16 +17131,16 @@
         <v>7623986</v>
       </c>
       <c r="C194" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D194" s="2">
         <v>45347.875</v>
       </c>
       <c r="E194" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F194" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17146,7 +17149,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J194">
         <v>2.625</v>
@@ -17214,16 +17217,16 @@
         <v>7623931</v>
       </c>
       <c r="C195" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D195" s="2">
         <v>45349.91666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F195" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17232,7 +17235,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J195">
         <v>1.333</v>
@@ -17300,16 +17303,16 @@
         <v>7623932</v>
       </c>
       <c r="C196" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D196" s="2">
         <v>45350.75</v>
       </c>
       <c r="E196" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F196" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17318,7 +17321,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17386,16 +17389,16 @@
         <v>7623935</v>
       </c>
       <c r="C197" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D197" s="2">
         <v>45350.89583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F197" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -17404,7 +17407,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J197">
         <v>2.2</v>
@@ -17472,16 +17475,16 @@
         <v>7623933</v>
       </c>
       <c r="C198" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D198" s="2">
         <v>45350.95833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G198">
         <v>4</v>
@@ -17490,7 +17493,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J198">
         <v>1.533</v>
@@ -17558,16 +17561,16 @@
         <v>7623920</v>
       </c>
       <c r="C199" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D199" s="2">
         <v>45352.95833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F199" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G199">
         <v>4</v>
@@ -17576,7 +17579,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J199">
         <v>1.25</v>
@@ -17644,16 +17647,16 @@
         <v>7624967</v>
       </c>
       <c r="C200" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D200" s="2">
         <v>45353.75</v>
       </c>
       <c r="E200" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F200" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17662,7 +17665,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J200">
         <v>3.75</v>
@@ -17730,16 +17733,16 @@
         <v>7623921</v>
       </c>
       <c r="C201" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D201" s="2">
         <v>45353.75</v>
       </c>
       <c r="E201" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F201" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17748,7 +17751,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J201">
         <v>2.75</v>
@@ -17816,16 +17819,16 @@
         <v>7623922</v>
       </c>
       <c r="C202" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D202" s="2">
         <v>45353.95833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F202" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17834,7 +17837,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J202">
         <v>2.375</v>
@@ -17902,16 +17905,16 @@
         <v>7623987</v>
       </c>
       <c r="C203" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D203" s="2">
         <v>45354.79166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F203" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17920,7 +17923,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J203">
         <v>1.571</v>
@@ -17988,16 +17991,16 @@
         <v>7623988</v>
       </c>
       <c r="C204" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D204" s="2">
         <v>45354.875</v>
       </c>
       <c r="E204" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F204" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18006,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J204">
         <v>2.45</v>
@@ -18074,16 +18077,16 @@
         <v>7623926</v>
       </c>
       <c r="C205" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D205" s="2">
         <v>45359.95833333334</v>
       </c>
       <c r="E205" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F205" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18092,7 +18095,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J205">
         <v>1.666</v>
@@ -18160,16 +18163,16 @@
         <v>7920639</v>
       </c>
       <c r="C206" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D206" s="2">
         <v>45360.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F206" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18178,7 +18181,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J206">
         <v>1.666</v>
@@ -18246,16 +18249,16 @@
         <v>7623923</v>
       </c>
       <c r="C207" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D207" s="2">
         <v>45360.91666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F207" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18264,7 +18267,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J207">
         <v>1.363</v>
@@ -18332,16 +18335,16 @@
         <v>7623990</v>
       </c>
       <c r="C208" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D208" s="2">
         <v>45360.95833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F208" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18350,7 +18353,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18418,16 +18421,16 @@
         <v>7623925</v>
       </c>
       <c r="C209" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D209" s="2">
         <v>45361.75</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F209" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18436,7 +18439,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J209">
         <v>5</v>
@@ -18504,16 +18507,16 @@
         <v>7916002</v>
       </c>
       <c r="C210" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D210" s="2">
         <v>45361.79166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F210" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18522,7 +18525,7 @@
         <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J210">
         <v>6.5</v>
@@ -18590,16 +18593,16 @@
         <v>7623995</v>
       </c>
       <c r="C211" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D211" s="2">
         <v>45377.83333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F211" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18608,7 +18611,7 @@
         <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J211">
         <v>2.3</v>
@@ -18676,16 +18679,16 @@
         <v>7623936</v>
       </c>
       <c r="C212" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D212" s="2">
         <v>45377.875</v>
       </c>
       <c r="E212" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F212" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -18694,7 +18697,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J212">
         <v>2.7</v>
@@ -18762,16 +18765,16 @@
         <v>7623937</v>
       </c>
       <c r="C213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D213" s="2">
         <v>45377.9375</v>
       </c>
       <c r="E213" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F213" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18780,7 +18783,7 @@
         <v>4</v>
       </c>
       <c r="I213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J213">
         <v>3.75</v>
@@ -18848,16 +18851,16 @@
         <v>7623938</v>
       </c>
       <c r="C214" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D214" s="2">
         <v>45378.75</v>
       </c>
       <c r="E214" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F214" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -18866,7 +18869,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J214">
         <v>3</v>
@@ -18934,16 +18937,16 @@
         <v>7623993</v>
       </c>
       <c r="C215" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D215" s="2">
         <v>45378.91666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F215" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18952,7 +18955,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J215">
         <v>2.5</v>
@@ -19020,16 +19023,16 @@
         <v>7623994</v>
       </c>
       <c r="C216" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D216" s="2">
         <v>45378.95833333334</v>
       </c>
       <c r="E216" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F216" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -19038,7 +19041,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J216">
         <v>3.25</v>
@@ -19106,16 +19109,16 @@
         <v>7623941</v>
       </c>
       <c r="C217" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D217" s="2">
         <v>45380.91666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F217" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -19124,7 +19127,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J217">
         <v>1.75</v>
@@ -19192,16 +19195,16 @@
         <v>8022822</v>
       </c>
       <c r="C218" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D218" s="2">
         <v>45382.75</v>
       </c>
       <c r="E218" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F218" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19210,7 +19213,7 @@
         <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J218">
         <v>2.2</v>
@@ -19278,16 +19281,16 @@
         <v>7624969</v>
       </c>
       <c r="C219" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D219" s="2">
         <v>45382.79166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19296,7 +19299,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J219">
         <v>1.833</v>
@@ -19364,16 +19367,16 @@
         <v>7623943</v>
       </c>
       <c r="C220" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D220" s="2">
         <v>45382.85416666666</v>
       </c>
       <c r="E220" t="s">
+        <v>44</v>
+      </c>
+      <c r="F220" t="s">
         <v>43</v>
-      </c>
-      <c r="F220" t="s">
-        <v>42</v>
       </c>
       <c r="G220">
         <v>3</v>
@@ -19382,7 +19385,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J220">
         <v>2.1</v>
@@ -19450,16 +19453,16 @@
         <v>7623939</v>
       </c>
       <c r="C221" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D221" s="2">
         <v>45382.91666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F221" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19468,7 +19471,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J221">
         <v>1.615</v>
@@ -19536,16 +19539,16 @@
         <v>7623940</v>
       </c>
       <c r="C222" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D222" s="2">
         <v>45383.75</v>
       </c>
       <c r="E222" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F222" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19554,7 +19557,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J222">
         <v>3</v>
@@ -19622,16 +19625,16 @@
         <v>7980420</v>
       </c>
       <c r="C223" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D223" s="2">
         <v>45385.95833333334</v>
       </c>
       <c r="E223" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F223" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19640,7 +19643,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J223">
         <v>1.222</v>
@@ -19708,16 +19711,16 @@
         <v>7623944</v>
       </c>
       <c r="C224" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D224" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E224" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F224" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G224">
         <v>3</v>
@@ -19726,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J224">
         <v>2.9</v>
@@ -19794,16 +19797,16 @@
         <v>7623946</v>
       </c>
       <c r="C225" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D225" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E225" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F225" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -19812,7 +19815,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J225">
         <v>3.4</v>
@@ -19880,16 +19883,16 @@
         <v>7623996</v>
       </c>
       <c r="C226" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D226" s="2">
         <v>45388.92708333334</v>
       </c>
       <c r="E226" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F226" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G226">
         <v>3</v>
@@ -19898,7 +19901,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J226">
         <v>1.363</v>
@@ -19966,16 +19969,16 @@
         <v>7623947</v>
       </c>
       <c r="C227" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D227" s="2">
         <v>45388.95833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F227" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G227">
         <v>3</v>
@@ -19984,7 +19987,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J227">
         <v>1.3</v>
@@ -20052,16 +20055,16 @@
         <v>8048492</v>
       </c>
       <c r="C228" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D228" s="2">
         <v>45389.75</v>
       </c>
       <c r="E228" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F228" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20070,7 +20073,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J228">
         <v>2.2</v>
@@ -20138,16 +20141,16 @@
         <v>7623997</v>
       </c>
       <c r="C229" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D229" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E229" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F229" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -20156,7 +20159,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J229">
         <v>1.285</v>
@@ -20224,16 +20227,16 @@
         <v>8070744</v>
       </c>
       <c r="C230" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D230" s="2">
         <v>45394.95833333334</v>
       </c>
       <c r="E230" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F230" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20242,7 +20245,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J230">
         <v>1.833</v>
@@ -20310,16 +20313,16 @@
         <v>7623999</v>
       </c>
       <c r="C231" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D231" s="2">
         <v>45395.75</v>
       </c>
       <c r="E231" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F231" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -20328,7 +20331,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J231">
         <v>2.15</v>
@@ -20396,16 +20399,16 @@
         <v>7623950</v>
       </c>
       <c r="C232" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D232" s="2">
         <v>45395.75</v>
       </c>
       <c r="E232" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F232" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -20414,7 +20417,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J232">
         <v>6</v>
@@ -20482,16 +20485,16 @@
         <v>7623998</v>
       </c>
       <c r="C233" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D233" s="2">
         <v>45395.86458333334</v>
       </c>
       <c r="E233" t="s">
+        <v>39</v>
+      </c>
+      <c r="F233" t="s">
         <v>38</v>
-      </c>
-      <c r="F233" t="s">
-        <v>37</v>
       </c>
       <c r="G233">
         <v>3</v>
@@ -20500,7 +20503,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J233">
         <v>2.625</v>
@@ -20568,16 +20571,16 @@
         <v>8070745</v>
       </c>
       <c r="C234" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D234" s="2">
         <v>45395.875</v>
       </c>
       <c r="E234" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F234" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20586,7 +20589,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J234">
         <v>4.2</v>
@@ -20654,16 +20657,16 @@
         <v>7623951</v>
       </c>
       <c r="C235" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D235" s="2">
         <v>45395.97916666666</v>
       </c>
       <c r="E235" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F235" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -20672,7 +20675,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J235">
         <v>6</v>
@@ -20740,16 +20743,16 @@
         <v>7623953</v>
       </c>
       <c r="C236" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D236" s="2">
         <v>45398.95833333334</v>
       </c>
       <c r="E236" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F236" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -20758,7 +20761,7 @@
         <v>2</v>
       </c>
       <c r="I236" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J236">
         <v>1.363</v>
@@ -20826,16 +20829,16 @@
         <v>8096859</v>
       </c>
       <c r="C237" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D237" s="2">
         <v>45399.75</v>
       </c>
       <c r="E237" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F237" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20844,7 +20847,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J237">
         <v>2.8</v>
@@ -20912,16 +20915,16 @@
         <v>8096857</v>
       </c>
       <c r="C238" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D238" s="2">
         <v>45399.75</v>
       </c>
       <c r="E238" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F238" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20930,7 +20933,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J238">
         <v>1.666</v>
@@ -20998,16 +21001,16 @@
         <v>8096858</v>
       </c>
       <c r="C239" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D239" s="2">
         <v>45399.875</v>
       </c>
       <c r="E239" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F239" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21016,7 +21019,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J239">
         <v>1.571</v>
@@ -21084,16 +21087,16 @@
         <v>7623954</v>
       </c>
       <c r="C240" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D240" s="2">
         <v>45399.95833333334</v>
       </c>
       <c r="E240" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F240" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -21102,7 +21105,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J240">
         <v>1.166</v>
@@ -21170,16 +21173,16 @@
         <v>7624000</v>
       </c>
       <c r="C241" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D241" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E241" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F241" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21188,7 +21191,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J241">
         <v>1.666</v>
@@ -21256,16 +21259,16 @@
         <v>7623960</v>
       </c>
       <c r="C242" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D242" s="2">
         <v>45402.79166666666</v>
       </c>
       <c r="E242" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F242" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21274,7 +21277,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -21342,16 +21345,16 @@
         <v>7623958</v>
       </c>
       <c r="C243" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D243" s="2">
         <v>45402.95833333334</v>
       </c>
       <c r="E243" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F243" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21360,7 +21363,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J243">
         <v>2.05</v>
@@ -21428,16 +21431,16 @@
         <v>7623956</v>
       </c>
       <c r="C244" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D244" s="2">
         <v>45403.83333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F244" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21446,7 +21449,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J244">
         <v>2.75</v>
@@ -21514,16 +21517,16 @@
         <v>7623959</v>
       </c>
       <c r="C245" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D245" s="2">
         <v>45403.875</v>
       </c>
       <c r="E245" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F245" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G245">
         <v>3</v>
@@ -21532,7 +21535,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J245">
         <v>2.2</v>
@@ -21600,16 +21603,16 @@
         <v>7624002</v>
       </c>
       <c r="C246" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D246" s="2">
         <v>45403.92708333334</v>
       </c>
       <c r="E246" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F246" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21618,7 +21621,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J246">
         <v>1.615</v>
@@ -21682,47 +21685,56 @@
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="s">
-        <v>27</v>
+      <c r="B247">
+        <v>7623957</v>
       </c>
       <c r="C247" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D247" s="2">
-        <v>45406.95833333334</v>
+        <v>45404.95833333334</v>
       </c>
       <c r="E247" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247" t="s">
+        <v>46</v>
       </c>
       <c r="J247">
-        <v>2.625</v>
+        <v>3.3</v>
       </c>
       <c r="K247">
+        <v>3.2</v>
+      </c>
+      <c r="L247">
+        <v>2.05</v>
+      </c>
+      <c r="M247">
+        <v>3.3</v>
+      </c>
+      <c r="N247">
         <v>3.4</v>
       </c>
-      <c r="L247">
-        <v>2.5</v>
-      </c>
-      <c r="M247">
-        <v>2.45</v>
-      </c>
-      <c r="N247">
-        <v>3.2</v>
-      </c>
       <c r="O247">
-        <v>2.8</v>
+        <v>1.909</v>
       </c>
       <c r="P247">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q247">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="R247">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="S247">
         <v>2.5</v>
@@ -21734,78 +21746,111 @@
         <v>1.975</v>
       </c>
       <c r="V247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>0</v>
+        <v>0.909</v>
+      </c>
+      <c r="Y247">
+        <v>-1</v>
+      </c>
+      <c r="Z247">
+        <v>1</v>
+      </c>
+      <c r="AA247">
+        <v>0.825</v>
+      </c>
+      <c r="AB247">
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:28">
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="s">
-        <v>28</v>
+      <c r="B248">
+        <v>8019072</v>
       </c>
       <c r="C248" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D248" s="2">
-        <v>45409.75</v>
+        <v>45406.95833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F248" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+      <c r="H248">
+        <v>3</v>
+      </c>
+      <c r="I248" t="s">
+        <v>48</v>
       </c>
       <c r="J248">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="K248">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L248">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M248">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N248">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O248">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="P248">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q248">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R248">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T248">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="U248">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W248">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X248">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB248">
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21813,46 +21858,46 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C249" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D249" s="2">
-        <v>45409.79166666666</v>
+        <v>45408.95833333334</v>
       </c>
       <c r="E249" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J249">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="K249">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L249">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="M249">
-        <v>2.2</v>
+        <v>1.533</v>
       </c>
       <c r="N249">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="O249">
-        <v>3.25</v>
+        <v>5.75</v>
       </c>
       <c r="P249">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="Q249">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="R249">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S249">
         <v>2.5</v>
@@ -21878,55 +21923,55 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C250" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D250" s="2">
-        <v>45409.95833333334</v>
+        <v>45409.75</v>
       </c>
       <c r="E250" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F250" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="J250">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="K250">
         <v>3.25</v>
       </c>
       <c r="L250">
-        <v>2.55</v>
+        <v>3</v>
       </c>
       <c r="M250">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="N250">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="O250">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="P250">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q250">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R250">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S250">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="T250">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="U250">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V250">
         <v>0</v>
@@ -21943,40 +21988,40 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C251" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D251" s="2">
-        <v>45410.79166666666</v>
+        <v>45409.75</v>
       </c>
       <c r="E251" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F251" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="J251">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="K251">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="L251">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="M251">
-        <v>1.285</v>
+        <v>3.1</v>
       </c>
       <c r="N251">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="O251">
-        <v>8.5</v>
+        <v>2.25</v>
       </c>
       <c r="P251">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q251">
         <v>1.875</v>
@@ -21985,21 +22030,216 @@
         <v>1.925</v>
       </c>
       <c r="S251">
+        <v>2.5</v>
+      </c>
+      <c r="T251">
+        <v>1.875</v>
+      </c>
+      <c r="U251">
+        <v>1.925</v>
+      </c>
+      <c r="V251">
+        <v>0</v>
+      </c>
+      <c r="W251">
+        <v>0</v>
+      </c>
+      <c r="X251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:28">
+      <c r="A252" s="1">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
+        <v>30</v>
+      </c>
+      <c r="C252" t="s">
+        <v>33</v>
+      </c>
+      <c r="D252" s="2">
+        <v>45409.79166666666</v>
+      </c>
+      <c r="E252" t="s">
+        <v>44</v>
+      </c>
+      <c r="F252" t="s">
+        <v>34</v>
+      </c>
+      <c r="J252">
+        <v>2.2</v>
+      </c>
+      <c r="K252">
+        <v>3.2</v>
+      </c>
+      <c r="L252">
+        <v>3.25</v>
+      </c>
+      <c r="M252">
+        <v>2.2</v>
+      </c>
+      <c r="N252">
+        <v>3.2</v>
+      </c>
+      <c r="O252">
+        <v>3.25</v>
+      </c>
+      <c r="P252">
+        <v>-0.25</v>
+      </c>
+      <c r="Q252">
+        <v>1.925</v>
+      </c>
+      <c r="R252">
+        <v>1.875</v>
+      </c>
+      <c r="S252">
+        <v>2.5</v>
+      </c>
+      <c r="T252">
+        <v>1.825</v>
+      </c>
+      <c r="U252">
+        <v>1.975</v>
+      </c>
+      <c r="V252">
+        <v>0</v>
+      </c>
+      <c r="W252">
+        <v>0</v>
+      </c>
+      <c r="X252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:28">
+      <c r="A253" s="1">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
+        <v>31</v>
+      </c>
+      <c r="C253" t="s">
+        <v>33</v>
+      </c>
+      <c r="D253" s="2">
+        <v>45409.95833333334</v>
+      </c>
+      <c r="E253" t="s">
+        <v>42</v>
+      </c>
+      <c r="F253" t="s">
+        <v>40</v>
+      </c>
+      <c r="J253">
+        <v>2.7</v>
+      </c>
+      <c r="K253">
+        <v>3.25</v>
+      </c>
+      <c r="L253">
+        <v>2.55</v>
+      </c>
+      <c r="M253">
+        <v>2.625</v>
+      </c>
+      <c r="N253">
+        <v>3.3</v>
+      </c>
+      <c r="O253">
+        <v>2.5</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>1.925</v>
+      </c>
+      <c r="R253">
+        <v>1.875</v>
+      </c>
+      <c r="S253">
+        <v>2.5</v>
+      </c>
+      <c r="T253">
+        <v>1.825</v>
+      </c>
+      <c r="U253">
+        <v>1.975</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:28">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
+        <v>32</v>
+      </c>
+      <c r="C254" t="s">
+        <v>33</v>
+      </c>
+      <c r="D254" s="2">
+        <v>45410.79166666666</v>
+      </c>
+      <c r="E254" t="s">
+        <v>37</v>
+      </c>
+      <c r="F254" t="s">
+        <v>43</v>
+      </c>
+      <c r="J254">
+        <v>1.285</v>
+      </c>
+      <c r="K254">
+        <v>5.5</v>
+      </c>
+      <c r="L254">
+        <v>8.5</v>
+      </c>
+      <c r="M254">
+        <v>1.285</v>
+      </c>
+      <c r="N254">
+        <v>5.5</v>
+      </c>
+      <c r="O254">
+        <v>8.5</v>
+      </c>
+      <c r="P254">
+        <v>-1.5</v>
+      </c>
+      <c r="Q254">
+        <v>1.85</v>
+      </c>
+      <c r="R254">
+        <v>1.95</v>
+      </c>
+      <c r="S254">
         <v>2.75</v>
       </c>
-      <c r="T251">
-        <v>1.85</v>
-      </c>
-      <c r="U251">
-        <v>1.95</v>
-      </c>
-      <c r="V251">
-        <v>0</v>
-      </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
+      <c r="T254">
+        <v>1.825</v>
+      </c>
+      <c r="U254">
+        <v>1.975</v>
+      </c>
+      <c r="V254">
+        <v>0</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="49">
   <si>
     <t>id</t>
   </si>
@@ -100,10 +100,10 @@
     <t>7624003</t>
   </si>
   <si>
-    <t>7623963</t>
+    <t>7624004</t>
   </si>
   <si>
-    <t>7624004</t>
+    <t>7623963</t>
   </si>
   <si>
     <t>8131545</t>
@@ -522,7 +522,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB254"/>
+  <dimension ref="A1:AB252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8614,7 +8614,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C95" t="s">
         <v>33</v>
@@ -8623,76 +8623,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
       <c r="H95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J95">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="K95">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L95">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="M95">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N95">
         <v>3.5</v>
       </c>
       <c r="O95">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q95">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R95">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S95">
         <v>2.75</v>
       </c>
       <c r="T95">
+        <v>2</v>
+      </c>
+      <c r="U95">
         <v>1.8</v>
       </c>
-      <c r="U95">
-        <v>2</v>
-      </c>
       <c r="V95">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z95">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
+        <v>-1</v>
+      </c>
+      <c r="AB95">
         <v>0.8</v>
-      </c>
-      <c r="AB95">
-        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8700,7 +8700,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C96" t="s">
         <v>33</v>
@@ -8709,76 +8709,76 @@
         <v>45221.79166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G96">
         <v>2</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J96">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="K96">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L96">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="M96">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N96">
         <v>3.5</v>
       </c>
       <c r="O96">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="P96">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R96">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S96">
         <v>2.75</v>
       </c>
       <c r="T96">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U96">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V96">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y96">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA96">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -9904,7 +9904,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C110" t="s">
         <v>33</v>
@@ -9913,76 +9913,76 @@
         <v>45238.875</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F110" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J110">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="K110">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L110">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="M110">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="N110">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O110">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="P110">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R110">
+        <v>1.825</v>
+      </c>
+      <c r="S110">
+        <v>3.25</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>1.8</v>
       </c>
-      <c r="S110">
-        <v>2.5</v>
-      </c>
-      <c r="T110">
-        <v>1.875</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
       <c r="V110">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z110">
+        <v>-0.5</v>
+      </c>
+      <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
         <v>0.8</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9990,7 +9990,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C111" t="s">
         <v>33</v>
@@ -9999,76 +9999,76 @@
         <v>45238.875</v>
       </c>
       <c r="E111" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J111">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="K111">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L111">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="M111">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="N111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O111">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="P111">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U111">
+        <v>1.925</v>
+      </c>
+      <c r="V111">
+        <v>-1</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
         <v>1.8</v>
       </c>
-      <c r="V111">
-        <v>0.25</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
       <c r="Y111">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -20826,7 +20826,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>8096859</v>
+        <v>8096857</v>
       </c>
       <c r="C237" t="s">
         <v>33</v>
@@ -20835,76 +20835,76 @@
         <v>45399.75</v>
       </c>
       <c r="E237" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F237" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G237">
         <v>0</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J237">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="K237">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L237">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="M237">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N237">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O237">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="P237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q237">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R237">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
         <v>2.5</v>
       </c>
       <c r="T237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
         <v>-1</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X237">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20912,7 +20912,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>8096857</v>
+        <v>8096859</v>
       </c>
       <c r="C238" t="s">
         <v>33</v>
@@ -20921,76 +20921,76 @@
         <v>45399.75</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F238" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J238">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="K238">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L238">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="M238">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O238">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="P238">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q238">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S238">
         <v>2.5</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V238">
         <v>-1</v>
       </c>
       <c r="W238">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
+        <v>1.05</v>
+      </c>
+      <c r="AA238">
+        <v>-1</v>
+      </c>
+      <c r="AB238">
         <v>0.825</v>
-      </c>
-      <c r="AA238">
-        <v>-1</v>
-      </c>
-      <c r="AB238">
-        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21685,56 +21685,47 @@
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247">
-        <v>7623957</v>
+      <c r="B247" t="s">
+        <v>27</v>
       </c>
       <c r="C247" t="s">
         <v>33</v>
       </c>
       <c r="D247" s="2">
-        <v>45404.95833333334</v>
+        <v>45408.95833333334</v>
       </c>
       <c r="E247" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F247" t="s">
-        <v>42</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="H247">
-        <v>2</v>
-      </c>
-      <c r="I247" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J247">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="K247">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L247">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="M247">
-        <v>3.3</v>
+        <v>1.571</v>
       </c>
       <c r="N247">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="O247">
-        <v>1.909</v>
+        <v>5.25</v>
       </c>
       <c r="P247">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="Q247">
+        <v>2</v>
+      </c>
+      <c r="R247">
         <v>1.8</v>
-      </c>
-      <c r="R247">
-        <v>2</v>
       </c>
       <c r="S247">
         <v>2.5</v>
@@ -21746,111 +21737,78 @@
         <v>1.975</v>
       </c>
       <c r="V247">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W247">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X247">
-        <v>0.909</v>
-      </c>
-      <c r="Y247">
-        <v>-1</v>
-      </c>
-      <c r="Z247">
-        <v>1</v>
-      </c>
-      <c r="AA247">
-        <v>0.825</v>
-      </c>
-      <c r="AB247">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:28">
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248">
-        <v>8019072</v>
+      <c r="B248" t="s">
+        <v>28</v>
       </c>
       <c r="C248" t="s">
         <v>33</v>
       </c>
       <c r="D248" s="2">
-        <v>45406.95833333334</v>
+        <v>45409.75</v>
       </c>
       <c r="E248" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F248" t="s">
         <v>38</v>
       </c>
-      <c r="G248">
-        <v>3</v>
-      </c>
-      <c r="H248">
-        <v>3</v>
-      </c>
-      <c r="I248" t="s">
-        <v>48</v>
-      </c>
       <c r="J248">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="K248">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L248">
+        <v>2.25</v>
+      </c>
+      <c r="M248">
+        <v>3.1</v>
+      </c>
+      <c r="N248">
+        <v>3.25</v>
+      </c>
+      <c r="O248">
+        <v>2.25</v>
+      </c>
+      <c r="P248">
+        <v>0.25</v>
+      </c>
+      <c r="Q248">
+        <v>1.85</v>
+      </c>
+      <c r="R248">
+        <v>1.95</v>
+      </c>
+      <c r="S248">
         <v>2.5</v>
       </c>
-      <c r="M248">
-        <v>2.55</v>
-      </c>
-      <c r="N248">
-        <v>3.3</v>
-      </c>
-      <c r="O248">
-        <v>2.6</v>
-      </c>
-      <c r="P248">
-        <v>0</v>
-      </c>
-      <c r="Q248">
-        <v>1.9</v>
-      </c>
-      <c r="R248">
-        <v>1.9</v>
-      </c>
-      <c r="S248">
-        <v>3</v>
-      </c>
       <c r="T248">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="U248">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V248">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W248">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="X248">
-        <v>-1</v>
-      </c>
-      <c r="Y248">
-        <v>0</v>
-      </c>
-      <c r="Z248">
-        <v>0</v>
-      </c>
-      <c r="AA248">
-        <v>0.9750000000000001</v>
-      </c>
-      <c r="AB248">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21858,49 +21816,49 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C249" t="s">
         <v>33</v>
       </c>
       <c r="D249" s="2">
-        <v>45408.95833333334</v>
+        <v>45409.75</v>
       </c>
       <c r="E249" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F249" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J249">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="K249">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="L249">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M249">
-        <v>1.533</v>
+        <v>2.3</v>
       </c>
       <c r="N249">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="O249">
-        <v>5.75</v>
+        <v>3</v>
       </c>
       <c r="P249">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q249">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="R249">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S249">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T249">
         <v>1.825</v>
@@ -21923,55 +21881,55 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C250" t="s">
         <v>33</v>
       </c>
       <c r="D250" s="2">
-        <v>45409.75</v>
+        <v>45409.79166666666</v>
       </c>
       <c r="E250" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F250" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J250">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K250">
+        <v>3.2</v>
+      </c>
+      <c r="L250">
         <v>3.25</v>
       </c>
-      <c r="L250">
-        <v>3</v>
-      </c>
       <c r="M250">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="N250">
         <v>3.25</v>
       </c>
       <c r="O250">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="P250">
         <v>-0.25</v>
       </c>
       <c r="Q250">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R250">
+        <v>1.9</v>
+      </c>
+      <c r="S250">
+        <v>2.75</v>
+      </c>
+      <c r="T250">
+        <v>2</v>
+      </c>
+      <c r="U250">
         <v>1.8</v>
-      </c>
-      <c r="S250">
-        <v>2.25</v>
-      </c>
-      <c r="T250">
-        <v>1.825</v>
-      </c>
-      <c r="U250">
-        <v>1.975</v>
       </c>
       <c r="V250">
         <v>0</v>
@@ -21988,40 +21946,40 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C251" t="s">
         <v>33</v>
       </c>
       <c r="D251" s="2">
-        <v>45409.75</v>
+        <v>45409.95833333334</v>
       </c>
       <c r="E251" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J251">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="K251">
         <v>3.25</v>
       </c>
       <c r="L251">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="M251">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N251">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O251">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="P251">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q251">
         <v>1.875</v>
@@ -22033,10 +21991,10 @@
         <v>2.5</v>
       </c>
       <c r="T251">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="U251">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V251">
         <v>0</v>
@@ -22053,49 +22011,49 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C252" t="s">
         <v>33</v>
       </c>
       <c r="D252" s="2">
-        <v>45409.79166666666</v>
+        <v>45410.79166666666</v>
       </c>
       <c r="E252" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="F252" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J252">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="K252">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="L252">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="M252">
-        <v>2.2</v>
+        <v>1.285</v>
       </c>
       <c r="N252">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="O252">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="P252">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q252">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="R252">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S252">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T252">
         <v>1.825</v>
@@ -22110,136 +22068,6 @@
         <v>0</v>
       </c>
       <c r="X252">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="253" spans="1:28">
-      <c r="A253" s="1">
-        <v>251</v>
-      </c>
-      <c r="B253" t="s">
-        <v>31</v>
-      </c>
-      <c r="C253" t="s">
-        <v>33</v>
-      </c>
-      <c r="D253" s="2">
-        <v>45409.95833333334</v>
-      </c>
-      <c r="E253" t="s">
-        <v>42</v>
-      </c>
-      <c r="F253" t="s">
-        <v>40</v>
-      </c>
-      <c r="J253">
-        <v>2.7</v>
-      </c>
-      <c r="K253">
-        <v>3.25</v>
-      </c>
-      <c r="L253">
-        <v>2.55</v>
-      </c>
-      <c r="M253">
-        <v>2.625</v>
-      </c>
-      <c r="N253">
-        <v>3.3</v>
-      </c>
-      <c r="O253">
-        <v>2.5</v>
-      </c>
-      <c r="P253">
-        <v>0</v>
-      </c>
-      <c r="Q253">
-        <v>1.925</v>
-      </c>
-      <c r="R253">
-        <v>1.875</v>
-      </c>
-      <c r="S253">
-        <v>2.5</v>
-      </c>
-      <c r="T253">
-        <v>1.825</v>
-      </c>
-      <c r="U253">
-        <v>1.975</v>
-      </c>
-      <c r="V253">
-        <v>0</v>
-      </c>
-      <c r="W253">
-        <v>0</v>
-      </c>
-      <c r="X253">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="254" spans="1:28">
-      <c r="A254" s="1">
-        <v>252</v>
-      </c>
-      <c r="B254" t="s">
-        <v>32</v>
-      </c>
-      <c r="C254" t="s">
-        <v>33</v>
-      </c>
-      <c r="D254" s="2">
-        <v>45410.79166666666</v>
-      </c>
-      <c r="E254" t="s">
-        <v>37</v>
-      </c>
-      <c r="F254" t="s">
-        <v>43</v>
-      </c>
-      <c r="J254">
-        <v>1.285</v>
-      </c>
-      <c r="K254">
-        <v>5.5</v>
-      </c>
-      <c r="L254">
-        <v>8.5</v>
-      </c>
-      <c r="M254">
-        <v>1.285</v>
-      </c>
-      <c r="N254">
-        <v>5.5</v>
-      </c>
-      <c r="O254">
-        <v>8.5</v>
-      </c>
-      <c r="P254">
-        <v>-1.5</v>
-      </c>
-      <c r="Q254">
-        <v>1.85</v>
-      </c>
-      <c r="R254">
-        <v>1.95</v>
-      </c>
-      <c r="S254">
-        <v>2.75</v>
-      </c>
-      <c r="T254">
-        <v>1.825</v>
-      </c>
-      <c r="U254">
-        <v>1.975</v>
-      </c>
-      <c r="V254">
-        <v>0</v>
-      </c>
-      <c r="W254">
-        <v>0</v>
-      </c>
-      <c r="X254">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -97,9 +97,6 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>7624003</t>
-  </si>
-  <si>
     <t>7624004</t>
   </si>
   <si>
@@ -107,9 +104,6 @@
   </si>
   <si>
     <t>8131545</t>
-  </si>
-  <si>
-    <t>7623961</t>
   </si>
   <si>
     <t>7623962</t>
@@ -619,16 +613,16 @@
         <v>6782492</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45132.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -637,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>3.8</v>
@@ -705,16 +699,16 @@
         <v>6781348</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45132.96875</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -723,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -791,16 +785,16 @@
         <v>6782489</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45133.91666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -809,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>4.5</v>
@@ -877,16 +871,16 @@
         <v>6782491</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45133.95833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -895,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>1.4</v>
@@ -963,16 +957,16 @@
         <v>6782488</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45134.9375</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -981,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>1.5</v>
@@ -1049,16 +1043,16 @@
         <v>6782490</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45134.95833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1067,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1135,16 +1129,16 @@
         <v>6983271</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45136.875</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1153,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <v>1.222</v>
@@ -1221,16 +1215,16 @@
         <v>6781349</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45136.91666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1239,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1307,16 +1301,16 @@
         <v>6782494</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45136.97916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1325,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>1.285</v>
@@ -1393,16 +1387,16 @@
         <v>6782493</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45137.75</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1411,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>4.2</v>
@@ -1479,16 +1473,16 @@
         <v>6782497</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45137.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1497,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>1.909</v>
@@ -1565,16 +1559,16 @@
         <v>6782496</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45137.875</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1583,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>3.75</v>
@@ -1651,16 +1645,16 @@
         <v>6782499</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45143.75</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1669,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J14">
         <v>2.25</v>
@@ -1737,25 +1731,25 @@
         <v>6782498</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45143.875</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>45</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>47</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -1823,16 +1817,16 @@
         <v>6782501</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45143.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1841,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <v>2.5</v>
@@ -1909,16 +1903,16 @@
         <v>6782502</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45143.96875</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1927,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>3.25</v>
@@ -1995,16 +1989,16 @@
         <v>6781350</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45144.58333333334</v>
       </c>
       <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
         <v>39</v>
-      </c>
-      <c r="F18" t="s">
-        <v>41</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2013,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2081,16 +2075,16 @@
         <v>6782500</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2099,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>1.666</v>
@@ -2167,16 +2161,16 @@
         <v>6782503</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45149.9375</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2185,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2253,16 +2247,16 @@
         <v>6782506</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45150.75</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2271,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2339,16 +2333,16 @@
         <v>6782504</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45150.875</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2357,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J22">
         <v>2.5</v>
@@ -2425,16 +2419,16 @@
         <v>6782505</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45150.95833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2443,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>1.4</v>
@@ -2511,16 +2505,16 @@
         <v>6782507</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45151.79166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2529,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>4.75</v>
@@ -2597,16 +2591,16 @@
         <v>6781351</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45151.875</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2615,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>3.75</v>
@@ -2683,16 +2677,16 @@
         <v>6782510</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45156.95833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2701,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J26">
         <v>1.444</v>
@@ -2769,16 +2763,16 @@
         <v>6782512</v>
       </c>
       <c r="C27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2787,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J27">
         <v>2.1</v>
@@ -2855,16 +2849,16 @@
         <v>6782509</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45157.95833333334</v>
       </c>
       <c r="E28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F28" t="s">
         <v>37</v>
-      </c>
-      <c r="F28" t="s">
-        <v>39</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2873,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>1.571</v>
@@ -2941,16 +2935,16 @@
         <v>6782508</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45158.75</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2959,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J29">
         <v>2.55</v>
@@ -3027,16 +3021,16 @@
         <v>6782511</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45158.875</v>
       </c>
       <c r="E30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3045,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3113,16 +3107,16 @@
         <v>6781352</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45159.75</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3131,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>3.8</v>
@@ -3199,16 +3193,16 @@
         <v>6782514</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45163.95833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3217,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>1.571</v>
@@ -3285,16 +3279,16 @@
         <v>6782516</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45164.75</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3303,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J33">
         <v>2.2</v>
@@ -3371,16 +3365,16 @@
         <v>7111690</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45164.79166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3389,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>1.833</v>
@@ -3457,16 +3451,16 @@
         <v>6782513</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45164.91666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3475,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>3.75</v>
@@ -3543,16 +3537,16 @@
         <v>6781353</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45165.75</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3561,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3629,16 +3623,16 @@
         <v>6782515</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45165.875</v>
       </c>
       <c r="E37" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3647,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3715,16 +3709,16 @@
         <v>6781354</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45171.75</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3733,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J38">
         <v>2.4</v>
@@ -3801,16 +3795,16 @@
         <v>6782522</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45171.75</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3819,7 +3813,7 @@
         <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>2.5</v>
@@ -3887,16 +3881,16 @@
         <v>6782521</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45171.85416666666</v>
       </c>
       <c r="E40" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3905,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>2.75</v>
@@ -3973,16 +3967,16 @@
         <v>6782518</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45171.875</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3991,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>2.3</v>
@@ -4059,16 +4053,16 @@
         <v>6782519</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45171.95833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4077,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <v>1.363</v>
@@ -4145,16 +4139,16 @@
         <v>6782520</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F43" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4163,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4231,16 +4225,16 @@
         <v>6782524</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45178.75</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4249,7 +4243,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>1.85</v>
@@ -4317,16 +4311,16 @@
         <v>6781355</v>
       </c>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45178.79166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4335,7 +4329,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>1.9</v>
@@ -4403,16 +4397,16 @@
         <v>6782523</v>
       </c>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45178.91666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4421,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4489,16 +4483,16 @@
         <v>6782526</v>
       </c>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4507,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J47">
         <v>1.3</v>
@@ -4575,16 +4569,16 @@
         <v>6782525</v>
       </c>
       <c r="C48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45179.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4593,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J48">
         <v>2.625</v>
@@ -4661,16 +4655,16 @@
         <v>6782527</v>
       </c>
       <c r="C49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45179.79166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4679,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>6</v>
@@ -4747,16 +4741,16 @@
         <v>6782528</v>
       </c>
       <c r="C50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45181.875</v>
       </c>
       <c r="E50" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4765,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J50">
         <v>2.3</v>
@@ -4833,17 +4827,17 @@
         <v>6782532</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45181.95833333334</v>
       </c>
       <c r="E51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" t="s">
         <v>35</v>
       </c>
-      <c r="F51" t="s">
-        <v>37</v>
-      </c>
       <c r="G51">
         <v>2</v>
       </c>
@@ -4851,7 +4845,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J51">
         <v>4.5</v>
@@ -4919,16 +4913,16 @@
         <v>6782531</v>
       </c>
       <c r="C52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45182.75</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4937,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -5005,16 +4999,16 @@
         <v>7196890</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45182.875</v>
       </c>
       <c r="E53" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5023,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5091,16 +5085,16 @@
         <v>6781356</v>
       </c>
       <c r="C54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45182.91666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5109,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>1.909</v>
@@ -5177,16 +5171,16 @@
         <v>6782530</v>
       </c>
       <c r="C55" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45182.97916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5195,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5263,16 +5257,16 @@
         <v>6782538</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45184.875</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G56">
         <v>7</v>
@@ -5281,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J56">
         <v>1.2</v>
@@ -5349,16 +5343,16 @@
         <v>6782533</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45184.97916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5367,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5435,16 +5429,16 @@
         <v>6782535</v>
       </c>
       <c r="C58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45185.83333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5453,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J58">
         <v>2.1</v>
@@ -5521,16 +5515,16 @@
         <v>6782536</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45185.88194444445</v>
       </c>
       <c r="E59" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5539,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J59">
         <v>3.4</v>
@@ -5607,16 +5601,16 @@
         <v>6781357</v>
       </c>
       <c r="C60" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45185.95833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5625,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>1.363</v>
@@ -5693,16 +5687,16 @@
         <v>6782537</v>
       </c>
       <c r="C61" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45186.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5711,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J61">
         <v>1.833</v>
@@ -5779,16 +5773,16 @@
         <v>6782540</v>
       </c>
       <c r="C62" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45188.75</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5797,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>4</v>
@@ -5865,16 +5859,16 @@
         <v>7229962</v>
       </c>
       <c r="C63" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45188.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5883,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J63">
         <v>1.3</v>
@@ -5951,16 +5945,16 @@
         <v>7233833</v>
       </c>
       <c r="C64" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45189.875</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5969,7 +5963,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>3.6</v>
@@ -6037,16 +6031,16 @@
         <v>6782541</v>
       </c>
       <c r="C65" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45189.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6055,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>1.5</v>
@@ -6123,16 +6117,16 @@
         <v>6782539</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45189.96875</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6141,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>1.95</v>
@@ -6209,16 +6203,16 @@
         <v>6781358</v>
       </c>
       <c r="C67" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45190.95833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6227,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J67">
         <v>3.1</v>
@@ -6295,16 +6289,16 @@
         <v>6782544</v>
       </c>
       <c r="C68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45192.75</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6313,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>2.5</v>
@@ -6381,16 +6375,16 @@
         <v>6782545</v>
       </c>
       <c r="C69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45192.85416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6399,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J69">
         <v>1.4</v>
@@ -6467,16 +6461,16 @@
         <v>6782546</v>
       </c>
       <c r="C70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45192.95833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6485,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>1.285</v>
@@ -6553,16 +6547,16 @@
         <v>6781359</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45193.75</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6571,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>1.85</v>
@@ -6639,16 +6633,16 @@
         <v>6782548</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6657,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>4.2</v>
@@ -6725,16 +6719,16 @@
         <v>6782547</v>
       </c>
       <c r="C73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45194.75</v>
       </c>
       <c r="E73" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6743,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>3.1</v>
@@ -6811,16 +6805,16 @@
         <v>6781360</v>
       </c>
       <c r="C74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45199.875</v>
       </c>
       <c r="E74" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6829,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J74">
         <v>2.5</v>
@@ -6897,16 +6891,16 @@
         <v>6782553</v>
       </c>
       <c r="C75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45199.95833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6915,7 +6909,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -6983,16 +6977,16 @@
         <v>6782549</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45199.96527777778</v>
       </c>
       <c r="E76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -7001,7 +6995,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J76">
         <v>1.95</v>
@@ -7069,16 +7063,16 @@
         <v>6782550</v>
       </c>
       <c r="C77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7087,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7155,16 +7149,16 @@
         <v>6782552</v>
       </c>
       <c r="C78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45200.75</v>
       </c>
       <c r="E78" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7173,7 +7167,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>4.5</v>
@@ -7241,16 +7235,16 @@
         <v>6782551</v>
       </c>
       <c r="C79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45200.88541666666</v>
       </c>
       <c r="E79" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7259,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>1.3</v>
@@ -7327,16 +7321,16 @@
         <v>6782557</v>
       </c>
       <c r="C80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45205.91666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7345,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J80">
         <v>2.8</v>
@@ -7413,16 +7407,16 @@
         <v>7301749</v>
       </c>
       <c r="C81" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45206.83333333334</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7431,7 +7425,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J81">
         <v>2.05</v>
@@ -7499,16 +7493,16 @@
         <v>6782555</v>
       </c>
       <c r="C82" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45206.95833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7517,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J82">
         <v>2.6</v>
@@ -7585,16 +7579,16 @@
         <v>6781361</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45207.75</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7603,7 +7597,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>2.55</v>
@@ -7671,16 +7665,16 @@
         <v>6782556</v>
       </c>
       <c r="C84" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45207.85416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7689,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>1.4</v>
@@ -7757,16 +7751,16 @@
         <v>6782554</v>
       </c>
       <c r="C85" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45207.875</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7775,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -7843,16 +7837,16 @@
         <v>6782562</v>
       </c>
       <c r="C86" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45216.75</v>
       </c>
       <c r="E86" t="s">
+        <v>32</v>
+      </c>
+      <c r="F86" t="s">
         <v>34</v>
-      </c>
-      <c r="F86" t="s">
-        <v>36</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7861,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J86">
         <v>1.85</v>
@@ -7929,16 +7923,16 @@
         <v>6782563</v>
       </c>
       <c r="C87" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45216.875</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7947,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>1.615</v>
@@ -8015,16 +8009,16 @@
         <v>6781362</v>
       </c>
       <c r="C88" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45216.95833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8033,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>1.333</v>
@@ -8101,16 +8095,16 @@
         <v>6782560</v>
       </c>
       <c r="C89" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45217.875</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -8119,7 +8113,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J89">
         <v>1.909</v>
@@ -8187,16 +8181,16 @@
         <v>6782561</v>
       </c>
       <c r="C90" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45217.97916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8205,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J90">
         <v>1.285</v>
@@ -8270,85 +8264,85 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6782566</v>
+        <v>6782568</v>
       </c>
       <c r="C91" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H91">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I91" t="s">
         <v>46</v>
       </c>
       <c r="J91">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="K91">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="L91">
-        <v>2</v>
+        <v>3.3</v>
       </c>
       <c r="M91">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="N91">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="O91">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="P91">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="Q91">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S91">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T91">
+        <v>1.825</v>
+      </c>
+      <c r="U91">
         <v>1.975</v>
       </c>
-      <c r="U91">
-        <v>1.825</v>
-      </c>
       <c r="V91">
         <v>-1</v>
       </c>
       <c r="W91">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X91">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Y91">
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA91">
+        <v>-1</v>
+      </c>
+      <c r="AB91">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AB91">
-        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:28">
@@ -8356,85 +8350,85 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6782568</v>
+        <v>6782566</v>
       </c>
       <c r="C92" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E92" t="s">
+        <v>37</v>
+      </c>
+      <c r="F92" t="s">
+        <v>35</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92" t="s">
         <v>44</v>
       </c>
-      <c r="F92" t="s">
-        <v>43</v>
-      </c>
-      <c r="G92">
-        <v>1</v>
-      </c>
-      <c r="H92">
-        <v>1</v>
-      </c>
-      <c r="I92" t="s">
-        <v>48</v>
-      </c>
       <c r="J92">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="K92">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="L92">
-        <v>3.3</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="N92">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O92">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="P92">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="Q92">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R92">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T92">
+        <v>1.975</v>
+      </c>
+      <c r="U92">
         <v>1.825</v>
       </c>
-      <c r="U92">
-        <v>1.975</v>
-      </c>
       <c r="V92">
         <v>-1</v>
       </c>
       <c r="W92">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Y92">
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB92">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:28">
@@ -8445,16 +8439,16 @@
         <v>6782564</v>
       </c>
       <c r="C93" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45220.9375</v>
       </c>
       <c r="E93" t="s">
+        <v>36</v>
+      </c>
+      <c r="F93" t="s">
         <v>38</v>
-      </c>
-      <c r="F93" t="s">
-        <v>40</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8463,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8531,16 +8525,16 @@
         <v>6781363</v>
       </c>
       <c r="C94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45220.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8549,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J94">
         <v>1.533</v>
@@ -8617,16 +8611,16 @@
         <v>6782565</v>
       </c>
       <c r="C95" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8635,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J95">
         <v>1.833</v>
@@ -8703,16 +8697,16 @@
         <v>6782567</v>
       </c>
       <c r="C96" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F96" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8721,7 +8715,7 @@
         <v>3</v>
       </c>
       <c r="I96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>2.875</v>
@@ -8789,16 +8783,16 @@
         <v>6782569</v>
       </c>
       <c r="C97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45226.91666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8807,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8875,16 +8869,16 @@
         <v>6782572</v>
       </c>
       <c r="C98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45226.95833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8893,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8961,16 +8955,16 @@
         <v>7392781</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45227.75</v>
       </c>
       <c r="E99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" t="s">
         <v>41</v>
-      </c>
-      <c r="F99" t="s">
-        <v>43</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8979,7 +8973,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>2.15</v>
@@ -9047,16 +9041,16 @@
         <v>6782573</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45227.83333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9065,7 +9059,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>2.05</v>
@@ -9133,16 +9127,16 @@
         <v>6782571</v>
       </c>
       <c r="C101" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45227.95833333334</v>
       </c>
       <c r="E101" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" t="s">
         <v>40</v>
-      </c>
-      <c r="F101" t="s">
-        <v>42</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9151,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J101">
         <v>1.909</v>
@@ -9219,16 +9213,16 @@
         <v>6782570</v>
       </c>
       <c r="C102" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45228.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9237,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9305,16 +9299,16 @@
         <v>6781365</v>
       </c>
       <c r="C103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45233.9375</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9323,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>1.75</v>
@@ -9391,16 +9385,16 @@
         <v>6782574</v>
       </c>
       <c r="C104" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45234.75</v>
       </c>
       <c r="E104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9409,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9477,16 +9471,16 @@
         <v>6782578</v>
       </c>
       <c r="C105" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -9495,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J105">
         <v>1.7</v>
@@ -9563,16 +9557,16 @@
         <v>6782576</v>
       </c>
       <c r="C106" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45234.95833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9581,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J106">
         <v>1.833</v>
@@ -9649,16 +9643,16 @@
         <v>6782575</v>
       </c>
       <c r="C107" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45235.58333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9667,7 +9661,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9735,16 +9729,16 @@
         <v>6782577</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45235.75</v>
       </c>
       <c r="E108" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9753,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>4.75</v>
@@ -9821,16 +9815,16 @@
         <v>6782583</v>
       </c>
       <c r="C109" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45238.75</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9839,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9904,85 +9898,85 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C110" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45238.875</v>
       </c>
       <c r="E110" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J110">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="K110">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L110">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="M110">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="N110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="P110">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U110">
+        <v>1.925</v>
+      </c>
+      <c r="V110">
+        <v>-1</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>1.8</v>
       </c>
-      <c r="V110">
-        <v>0.25</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
       <c r="Y110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9990,85 +9984,85 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C111" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45238.875</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J111">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="K111">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L111">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="M111">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="N111">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O111">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="P111">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R111">
+        <v>1.825</v>
+      </c>
+      <c r="S111">
+        <v>3.25</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
         <v>1.8</v>
       </c>
-      <c r="S111">
-        <v>2.5</v>
-      </c>
-      <c r="T111">
-        <v>1.875</v>
-      </c>
-      <c r="U111">
-        <v>1.925</v>
-      </c>
       <c r="V111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z111">
+        <v>-0.5</v>
+      </c>
+      <c r="AA111">
+        <v>-1</v>
+      </c>
+      <c r="AB111">
         <v>0.8</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
-      <c r="AB111">
-        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10079,16 +10073,16 @@
         <v>6781366</v>
       </c>
       <c r="C112" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45238.96875</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -10097,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J112">
         <v>2.05</v>
@@ -10165,16 +10159,16 @@
         <v>6782580</v>
       </c>
       <c r="C113" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45238.97916666666</v>
       </c>
       <c r="E113" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10183,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J113">
         <v>1.45</v>
@@ -10251,16 +10245,16 @@
         <v>6782582</v>
       </c>
       <c r="C114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45239.95833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10269,7 +10263,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>4.2</v>
@@ -10337,17 +10331,17 @@
         <v>6782585</v>
       </c>
       <c r="C115" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45241.75</v>
       </c>
       <c r="E115" t="s">
+        <v>41</v>
+      </c>
+      <c r="F115" t="s">
         <v>43</v>
       </c>
-      <c r="F115" t="s">
-        <v>45</v>
-      </c>
       <c r="G115">
         <v>0</v>
       </c>
@@ -10355,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J115">
         <v>1.571</v>
@@ -10423,16 +10417,16 @@
         <v>6782584</v>
       </c>
       <c r="C116" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45241.91666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10441,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10509,16 +10503,16 @@
         <v>6781367</v>
       </c>
       <c r="C117" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45241.95833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10527,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J117">
         <v>2.05</v>
@@ -10595,16 +10589,16 @@
         <v>6782586</v>
       </c>
       <c r="C118" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45242.58333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10613,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J118">
         <v>3.1</v>
@@ -10681,16 +10675,16 @@
         <v>6782587</v>
       </c>
       <c r="C119" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -10699,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>1.166</v>
@@ -10767,16 +10761,16 @@
         <v>6782588</v>
       </c>
       <c r="C120" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45242.875</v>
       </c>
       <c r="E120" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10785,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J120">
         <v>2.2</v>
@@ -10853,16 +10847,16 @@
         <v>7476547</v>
       </c>
       <c r="C121" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45245.75</v>
       </c>
       <c r="E121" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10871,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -10939,16 +10933,16 @@
         <v>6782593</v>
       </c>
       <c r="C122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45251.95833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10957,7 +10951,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J122">
         <v>2.3</v>
@@ -11025,16 +11019,16 @@
         <v>6782590</v>
       </c>
       <c r="C123" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45252.75</v>
       </c>
       <c r="E123" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G123">
         <v>4</v>
@@ -11043,7 +11037,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J123">
         <v>1.8</v>
@@ -11111,16 +11105,16 @@
         <v>6781368</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11129,7 +11123,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>4.2</v>
@@ -11197,16 +11191,16 @@
         <v>6782591</v>
       </c>
       <c r="C125" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45252.95833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11215,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J125">
         <v>1.333</v>
@@ -11283,16 +11277,16 @@
         <v>6782592</v>
       </c>
       <c r="C126" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45253.75</v>
       </c>
       <c r="E126" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11301,7 +11295,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J126">
         <v>7.5</v>
@@ -11369,16 +11363,16 @@
         <v>6782589</v>
       </c>
       <c r="C127" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F127" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11387,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J127">
         <v>1.4</v>
@@ -11455,16 +11449,16 @@
         <v>6781369</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11473,7 +11467,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>1.727</v>
@@ -11538,49 +11532,49 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C129" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F129" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J129">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="K129">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L129">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="M129">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="N129">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O129">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="P129">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q129">
         <v>1.8</v>
@@ -11589,16 +11583,16 @@
         <v>2</v>
       </c>
       <c r="S129">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T129">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U129">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V129">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11613,10 +11607,10 @@
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB129">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11624,85 +11618,85 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782596</v>
+        <v>6782598</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F130" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G130">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H130">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J130">
-        <v>1.363</v>
+        <v>4.5</v>
       </c>
       <c r="K130">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L130">
-        <v>8</v>
+        <v>1.615</v>
       </c>
       <c r="M130">
-        <v>1.444</v>
+        <v>3.4</v>
       </c>
       <c r="N130">
-        <v>4.333</v>
+        <v>3.4</v>
       </c>
       <c r="O130">
-        <v>7</v>
+        <v>1.85</v>
       </c>
       <c r="P130">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q130">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="R130">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="S130">
         <v>2.75</v>
       </c>
       <c r="T130">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U130">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V130">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W130">
         <v>-1</v>
       </c>
       <c r="X130">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="Y130">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="Z130">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA130">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB130">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -11710,85 +11704,85 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6782595</v>
+        <v>6782596</v>
       </c>
       <c r="C131" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>3</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I131" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="J131">
-        <v>1.4</v>
+        <v>1.363</v>
       </c>
       <c r="K131">
         <v>4.75</v>
       </c>
       <c r="L131">
+        <v>8</v>
+      </c>
+      <c r="M131">
+        <v>1.444</v>
+      </c>
+      <c r="N131">
+        <v>4.333</v>
+      </c>
+      <c r="O131">
         <v>7</v>
-      </c>
-      <c r="M131">
-        <v>1.363</v>
-      </c>
-      <c r="N131">
-        <v>4.75</v>
-      </c>
-      <c r="O131">
-        <v>8.5</v>
       </c>
       <c r="P131">
         <v>-1.25</v>
       </c>
       <c r="Q131">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="R131">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="S131">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T131">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="U131">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V131">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="W131">
         <v>-1</v>
       </c>
       <c r="X131">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Y131">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="Z131">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA131">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="132" spans="1:28">
@@ -11799,16 +11793,16 @@
         <v>6782594</v>
       </c>
       <c r="C132" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45256.75</v>
       </c>
       <c r="E132" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11817,7 +11811,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>5.5</v>
@@ -11885,16 +11879,16 @@
         <v>6782597</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45256.875</v>
       </c>
       <c r="E133" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11903,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>2.4</v>
@@ -11971,16 +11965,16 @@
         <v>7532513</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45262.95833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11989,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12057,16 +12051,16 @@
         <v>7532514</v>
       </c>
       <c r="C135" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45263.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12075,7 +12069,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12143,16 +12137,16 @@
         <v>7532516</v>
       </c>
       <c r="C136" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45269.95833333334</v>
       </c>
       <c r="E136" t="s">
+        <v>35</v>
+      </c>
+      <c r="F136" t="s">
         <v>37</v>
-      </c>
-      <c r="F136" t="s">
-        <v>39</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12161,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12229,16 +12223,16 @@
         <v>7532515</v>
       </c>
       <c r="C137" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45270.83333333334</v>
       </c>
       <c r="E137" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" t="s">
         <v>40</v>
-      </c>
-      <c r="F137" t="s">
-        <v>42</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12247,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J137">
         <v>1.95</v>
@@ -12315,16 +12309,16 @@
         <v>7589150</v>
       </c>
       <c r="C138" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45274.95833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F138" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12333,7 +12327,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12401,16 +12395,16 @@
         <v>7596073</v>
       </c>
       <c r="C139" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45277.83333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12419,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>1.727</v>
@@ -12487,16 +12481,16 @@
         <v>7623885</v>
       </c>
       <c r="C140" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45303.95833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12505,7 +12499,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J140">
         <v>1.45</v>
@@ -12573,16 +12567,16 @@
         <v>7623884</v>
       </c>
       <c r="C141" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45304.75</v>
       </c>
       <c r="E141" t="s">
+        <v>41</v>
+      </c>
+      <c r="F141" t="s">
         <v>43</v>
-      </c>
-      <c r="F141" t="s">
-        <v>45</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12591,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J141">
         <v>1.571</v>
@@ -12659,16 +12653,16 @@
         <v>7623883</v>
       </c>
       <c r="C142" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45304.79166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12677,7 +12671,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>2.9</v>
@@ -12745,16 +12739,16 @@
         <v>7623882</v>
       </c>
       <c r="C143" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45304.91666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12763,7 +12757,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J143">
         <v>1.909</v>
@@ -12831,16 +12825,16 @@
         <v>7624965</v>
       </c>
       <c r="C144" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45304.95833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12849,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J144">
         <v>1.25</v>
@@ -12917,16 +12911,16 @@
         <v>7623973</v>
       </c>
       <c r="C145" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45305.79166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12935,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>1.285</v>
@@ -13003,16 +12997,16 @@
         <v>7704994</v>
       </c>
       <c r="C146" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45307.91666666666</v>
       </c>
       <c r="E146" t="s">
+        <v>34</v>
+      </c>
+      <c r="F146" t="s">
         <v>36</v>
-      </c>
-      <c r="F146" t="s">
-        <v>38</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13021,7 +13015,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J146">
         <v>2.3</v>
@@ -13089,16 +13083,16 @@
         <v>7623887</v>
       </c>
       <c r="C147" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45307.95833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13107,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13175,16 +13169,16 @@
         <v>7623889</v>
       </c>
       <c r="C148" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45308.75</v>
       </c>
       <c r="E148" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13193,7 +13187,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J148">
         <v>3</v>
@@ -13261,16 +13255,16 @@
         <v>7623890</v>
       </c>
       <c r="C149" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45308.91666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13279,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>4</v>
@@ -13347,16 +13341,16 @@
         <v>7623888</v>
       </c>
       <c r="C150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45308.95833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13365,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13433,16 +13427,16 @@
         <v>7623974</v>
       </c>
       <c r="C151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45309.95833333334</v>
       </c>
       <c r="E151" t="s">
+        <v>33</v>
+      </c>
+      <c r="F151" t="s">
         <v>35</v>
-      </c>
-      <c r="F151" t="s">
-        <v>37</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13451,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>6</v>
@@ -13519,16 +13513,16 @@
         <v>7623891</v>
       </c>
       <c r="C152" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45311.75</v>
       </c>
       <c r="E152" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13537,7 +13531,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13605,16 +13599,16 @@
         <v>7623892</v>
       </c>
       <c r="C153" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45311.875</v>
       </c>
       <c r="E153" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13623,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J153">
         <v>1.363</v>
@@ -13691,16 +13685,16 @@
         <v>7623893</v>
       </c>
       <c r="C154" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45311.95833333334</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13709,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J154">
         <v>1.727</v>
@@ -13777,16 +13771,16 @@
         <v>7623975</v>
       </c>
       <c r="C155" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45311.97916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13795,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J155">
         <v>1.533</v>
@@ -13863,16 +13857,16 @@
         <v>7623976</v>
       </c>
       <c r="C156" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>45312.79166666666</v>
       </c>
       <c r="E156" t="s">
+        <v>35</v>
+      </c>
+      <c r="F156" t="s">
         <v>37</v>
-      </c>
-      <c r="F156" t="s">
-        <v>39</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13881,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J156">
         <v>1.444</v>
@@ -13949,16 +13943,16 @@
         <v>7623977</v>
       </c>
       <c r="C157" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45312.875</v>
       </c>
       <c r="E157" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13967,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J157">
         <v>1.727</v>
@@ -14035,25 +14029,25 @@
         <v>7623897</v>
       </c>
       <c r="C158" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45314.95833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s">
+        <v>43</v>
+      </c>
+      <c r="G158">
+        <v>2</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
         <v>45</v>
-      </c>
-      <c r="G158">
-        <v>2</v>
-      </c>
-      <c r="H158">
-        <v>0</v>
-      </c>
-      <c r="I158" t="s">
-        <v>47</v>
       </c>
       <c r="J158">
         <v>1.4</v>
@@ -14121,16 +14115,16 @@
         <v>7623896</v>
       </c>
       <c r="C159" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>45315.75</v>
       </c>
       <c r="E159" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -14139,7 +14133,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14207,16 +14201,16 @@
         <v>7623895</v>
       </c>
       <c r="C160" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>45315.875</v>
       </c>
       <c r="E160" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F160" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14225,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J160">
         <v>1.833</v>
@@ -14293,16 +14287,16 @@
         <v>7624966</v>
       </c>
       <c r="C161" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>45315.95833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14311,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14379,16 +14373,16 @@
         <v>7623894</v>
       </c>
       <c r="C162" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45316.91666666666</v>
       </c>
       <c r="E162" t="s">
+        <v>36</v>
+      </c>
+      <c r="F162" t="s">
         <v>38</v>
-      </c>
-      <c r="F162" t="s">
-        <v>40</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14397,7 +14391,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J162">
         <v>2.3</v>
@@ -14465,16 +14459,16 @@
         <v>7623898</v>
       </c>
       <c r="C163" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45316.95833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14483,7 +14477,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J163">
         <v>1.909</v>
@@ -14551,16 +14545,16 @@
         <v>7623901</v>
       </c>
       <c r="C164" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>45318.75</v>
       </c>
       <c r="E164" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F164" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14569,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14637,25 +14631,25 @@
         <v>7623979</v>
       </c>
       <c r="C165" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>45318.875</v>
       </c>
       <c r="E165" t="s">
+        <v>42</v>
+      </c>
+      <c r="F165" t="s">
+        <v>35</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165" t="s">
         <v>44</v>
-      </c>
-      <c r="F165" t="s">
-        <v>37</v>
-      </c>
-      <c r="G165">
-        <v>0</v>
-      </c>
-      <c r="H165">
-        <v>2</v>
-      </c>
-      <c r="I165" t="s">
-        <v>46</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14723,16 +14717,16 @@
         <v>7623978</v>
       </c>
       <c r="C166" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>45318.95833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14741,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J166">
         <v>3.8</v>
@@ -14809,16 +14803,16 @@
         <v>7623902</v>
       </c>
       <c r="C167" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45319.75</v>
       </c>
       <c r="E167" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" t="s">
         <v>41</v>
-      </c>
-      <c r="F167" t="s">
-        <v>43</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14827,7 +14821,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14895,16 +14889,16 @@
         <v>7623899</v>
       </c>
       <c r="C168" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45319.79166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14913,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J168">
         <v>1.615</v>
@@ -14981,16 +14975,16 @@
         <v>7623900</v>
       </c>
       <c r="C169" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>45319.91666666666</v>
       </c>
       <c r="E169" t="s">
+        <v>32</v>
+      </c>
+      <c r="F169" t="s">
         <v>34</v>
-      </c>
-      <c r="F169" t="s">
-        <v>36</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -14999,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15067,16 +15061,16 @@
         <v>7623905</v>
       </c>
       <c r="C170" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>45323.95833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15085,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J170">
         <v>1.333</v>
@@ -15153,16 +15147,16 @@
         <v>7623934</v>
       </c>
       <c r="C171" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2">
         <v>45330.95833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15171,7 +15165,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J171">
         <v>1.444</v>
@@ -15239,16 +15233,16 @@
         <v>7623909</v>
       </c>
       <c r="C172" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D172" s="2">
         <v>45332.875</v>
       </c>
       <c r="E172" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15257,7 +15251,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15325,16 +15319,16 @@
         <v>7623907</v>
       </c>
       <c r="C173" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2">
         <v>45332.91666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15343,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15411,16 +15405,16 @@
         <v>7623983</v>
       </c>
       <c r="C174" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D174" s="2">
         <v>45333</v>
       </c>
       <c r="E174" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15429,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J174">
         <v>2.625</v>
@@ -15497,16 +15491,16 @@
         <v>7623982</v>
       </c>
       <c r="C175" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <v>45333.58333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15515,7 +15509,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15583,16 +15577,16 @@
         <v>7623910</v>
       </c>
       <c r="C176" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D176" s="2">
         <v>45333.75</v>
       </c>
       <c r="E176" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F176" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15601,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J176">
         <v>5.5</v>
@@ -15669,25 +15663,25 @@
         <v>7623908</v>
       </c>
       <c r="C177" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D177" s="2">
         <v>45333.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
+        <v>42</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177" t="s">
         <v>44</v>
-      </c>
-      <c r="G177">
-        <v>0</v>
-      </c>
-      <c r="H177">
-        <v>2</v>
-      </c>
-      <c r="I177" t="s">
-        <v>46</v>
       </c>
       <c r="J177">
         <v>2.3</v>
@@ -15755,25 +15749,25 @@
         <v>7623984</v>
       </c>
       <c r="C178" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
         <v>45338.875</v>
       </c>
       <c r="E178" t="s">
+        <v>42</v>
+      </c>
+      <c r="F178" t="s">
+        <v>36</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>2</v>
+      </c>
+      <c r="I178" t="s">
         <v>44</v>
-      </c>
-      <c r="F178" t="s">
-        <v>38</v>
-      </c>
-      <c r="G178">
-        <v>0</v>
-      </c>
-      <c r="H178">
-        <v>2</v>
-      </c>
-      <c r="I178" t="s">
-        <v>46</v>
       </c>
       <c r="J178">
         <v>2.7</v>
@@ -15841,16 +15835,16 @@
         <v>7623913</v>
       </c>
       <c r="C179" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D179" s="2">
         <v>45339</v>
       </c>
       <c r="E179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15859,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J179">
         <v>2.25</v>
@@ -15927,16 +15921,16 @@
         <v>7623914</v>
       </c>
       <c r="C180" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D180" s="2">
         <v>45339.75</v>
       </c>
       <c r="E180" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15945,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J180">
         <v>2</v>
@@ -16013,16 +16007,16 @@
         <v>7623915</v>
       </c>
       <c r="C181" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D181" s="2">
         <v>45339.92708333334</v>
       </c>
       <c r="E181" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -16031,7 +16025,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J181">
         <v>2</v>
@@ -16099,16 +16093,16 @@
         <v>7623911</v>
       </c>
       <c r="C182" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D182" s="2">
         <v>45340.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F182" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16117,7 +16111,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16185,16 +16179,16 @@
         <v>7623912</v>
       </c>
       <c r="C183" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D183" s="2">
         <v>45340.875</v>
       </c>
       <c r="E183" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F183" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16203,7 +16197,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J183">
         <v>1.8</v>
@@ -16271,16 +16265,16 @@
         <v>7764338</v>
       </c>
       <c r="C184" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D184" s="2">
         <v>45342.91666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F184" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16289,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J184">
         <v>2.1</v>
@@ -16357,16 +16351,16 @@
         <v>7764528</v>
       </c>
       <c r="C185" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D185" s="2">
         <v>45342.95833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G185">
         <v>3</v>
@@ -16375,7 +16369,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J185">
         <v>1.533</v>
@@ -16443,16 +16437,16 @@
         <v>7764930</v>
       </c>
       <c r="C186" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D186" s="2">
         <v>45343.75</v>
       </c>
       <c r="E186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16461,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J186">
         <v>2</v>
@@ -16529,16 +16523,16 @@
         <v>7764929</v>
       </c>
       <c r="C187" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D187" s="2">
         <v>45343.91666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16547,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J187">
         <v>1.909</v>
@@ -16615,16 +16609,16 @@
         <v>7763915</v>
       </c>
       <c r="C188" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D188" s="2">
         <v>45343.95833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16633,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J188">
         <v>1.25</v>
@@ -16701,16 +16695,16 @@
         <v>7623917</v>
       </c>
       <c r="C189" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2">
         <v>45346.75</v>
       </c>
       <c r="E189" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16719,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J189">
         <v>5</v>
@@ -16787,16 +16781,16 @@
         <v>7623918</v>
       </c>
       <c r="C190" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D190" s="2">
         <v>45346.875</v>
       </c>
       <c r="E190" t="s">
+        <v>38</v>
+      </c>
+      <c r="F190" t="s">
         <v>40</v>
-      </c>
-      <c r="F190" t="s">
-        <v>42</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16805,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J190">
         <v>1.909</v>
@@ -16873,16 +16867,16 @@
         <v>7623985</v>
       </c>
       <c r="C191" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D191" s="2">
         <v>45346.9375</v>
       </c>
       <c r="E191" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16891,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J191">
         <v>1.571</v>
@@ -16956,10 +16950,10 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>7623919</v>
+        <v>7623916</v>
       </c>
       <c r="C192" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D192" s="2">
         <v>45347.75</v>
@@ -16968,31 +16962,31 @@
         <v>34</v>
       </c>
       <c r="F192" t="s">
+        <v>43</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192" t="s">
         <v>44</v>
       </c>
-      <c r="G192">
-        <v>2</v>
-      </c>
-      <c r="H192">
-        <v>0</v>
-      </c>
-      <c r="I192" t="s">
-        <v>47</v>
-      </c>
       <c r="J192">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="K192">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L192">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M192">
-        <v>1.8</v>
+        <v>1.909</v>
       </c>
       <c r="N192">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="O192">
         <v>3.6</v>
@@ -17001,40 +16995,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q192">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R192">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S192">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="T192">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="U192">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="V192">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="W192">
         <v>-1</v>
       </c>
       <c r="X192">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y192">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Z192">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA192">
         <v>-1</v>
       </c>
       <c r="AB192">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="193" spans="1:28">
@@ -17042,43 +17036,43 @@
         <v>191</v>
       </c>
       <c r="B193">
-        <v>7623916</v>
+        <v>7623919</v>
       </c>
       <c r="C193" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D193" s="2">
         <v>45347.75</v>
       </c>
       <c r="E193" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F193" t="s">
+        <v>42</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" t="s">
         <v>45</v>
       </c>
-      <c r="G193">
-        <v>0</v>
-      </c>
-      <c r="H193">
-        <v>2</v>
-      </c>
-      <c r="I193" t="s">
-        <v>46</v>
-      </c>
       <c r="J193">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="K193">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L193">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M193">
-        <v>1.909</v>
+        <v>1.8</v>
       </c>
       <c r="N193">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O193">
         <v>3.6</v>
@@ -17087,40 +17081,40 @@
         <v>-0.5</v>
       </c>
       <c r="Q193">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R193">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S193">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T193">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="U193">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V193">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="W193">
         <v>-1</v>
       </c>
       <c r="X193">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y193">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="Z193">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA193">
         <v>-1</v>
       </c>
       <c r="AB193">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="194" spans="1:28">
@@ -17131,16 +17125,16 @@
         <v>7623986</v>
       </c>
       <c r="C194" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D194" s="2">
         <v>45347.875</v>
       </c>
       <c r="E194" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F194" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17149,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J194">
         <v>2.625</v>
@@ -17217,16 +17211,16 @@
         <v>7623931</v>
       </c>
       <c r="C195" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D195" s="2">
         <v>45349.91666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17235,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J195">
         <v>1.333</v>
@@ -17303,16 +17297,16 @@
         <v>7623932</v>
       </c>
       <c r="C196" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D196" s="2">
         <v>45350.75</v>
       </c>
       <c r="E196" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17321,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17389,16 +17383,16 @@
         <v>7623935</v>
       </c>
       <c r="C197" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2">
         <v>45350.89583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F197" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -17407,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J197">
         <v>2.2</v>
@@ -17475,16 +17469,16 @@
         <v>7623933</v>
       </c>
       <c r="C198" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D198" s="2">
         <v>45350.95833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G198">
         <v>4</v>
@@ -17493,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J198">
         <v>1.533</v>
@@ -17561,16 +17555,16 @@
         <v>7623920</v>
       </c>
       <c r="C199" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2">
         <v>45352.95833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G199">
         <v>4</v>
@@ -17579,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J199">
         <v>1.25</v>
@@ -17644,85 +17638,85 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>7624967</v>
+        <v>7623921</v>
       </c>
       <c r="C200" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D200" s="2">
         <v>45353.75</v>
       </c>
       <c r="E200" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F200" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J200">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="K200">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="L200">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="M200">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="N200">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="O200">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="P200">
         <v>0.25</v>
       </c>
       <c r="Q200">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R200">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S200">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T200">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="U200">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V200">
         <v>-1</v>
       </c>
       <c r="W200">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X200">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="Y200">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
       <c r="Z200">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA200">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB200">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="201" spans="1:28">
@@ -17730,85 +17724,85 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>7623921</v>
+        <v>7624967</v>
       </c>
       <c r="C201" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D201" s="2">
         <v>45353.75</v>
       </c>
       <c r="E201" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F201" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="s">
         <v>46</v>
       </c>
       <c r="J201">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="K201">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L201">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="M201">
+        <v>2.8</v>
+      </c>
+      <c r="N201">
         <v>3.1</v>
       </c>
-      <c r="N201">
-        <v>3.25</v>
-      </c>
       <c r="O201">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="P201">
         <v>0.25</v>
       </c>
       <c r="Q201">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R201">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S201">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T201">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="U201">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="V201">
         <v>-1</v>
       </c>
       <c r="W201">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X201">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="Y201">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
       <c r="Z201">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA201">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB201">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="202" spans="1:28">
@@ -17819,16 +17813,16 @@
         <v>7623922</v>
       </c>
       <c r="C202" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D202" s="2">
         <v>45353.95833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F202" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17837,7 +17831,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J202">
         <v>2.375</v>
@@ -17905,16 +17899,16 @@
         <v>7623987</v>
       </c>
       <c r="C203" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D203" s="2">
         <v>45354.79166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F203" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17923,7 +17917,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J203">
         <v>1.571</v>
@@ -17991,16 +17985,16 @@
         <v>7623988</v>
       </c>
       <c r="C204" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D204" s="2">
         <v>45354.875</v>
       </c>
       <c r="E204" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F204" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18009,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J204">
         <v>2.45</v>
@@ -18077,16 +18071,16 @@
         <v>7623926</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D205" s="2">
         <v>45359.95833333334</v>
       </c>
       <c r="E205" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F205" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18095,7 +18089,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J205">
         <v>1.666</v>
@@ -18163,17 +18157,17 @@
         <v>7920639</v>
       </c>
       <c r="C206" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D206" s="2">
         <v>45360.83333333334</v>
       </c>
       <c r="E206" t="s">
+        <v>37</v>
+      </c>
+      <c r="F206" t="s">
         <v>39</v>
       </c>
-      <c r="F206" t="s">
-        <v>41</v>
-      </c>
       <c r="G206">
         <v>0</v>
       </c>
@@ -18181,7 +18175,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J206">
         <v>1.666</v>
@@ -18249,25 +18243,25 @@
         <v>7623923</v>
       </c>
       <c r="C207" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D207" s="2">
         <v>45360.91666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
+        <v>43</v>
+      </c>
+      <c r="G207">
+        <v>2</v>
+      </c>
+      <c r="H207">
+        <v>0</v>
+      </c>
+      <c r="I207" t="s">
         <v>45</v>
-      </c>
-      <c r="G207">
-        <v>2</v>
-      </c>
-      <c r="H207">
-        <v>0</v>
-      </c>
-      <c r="I207" t="s">
-        <v>47</v>
       </c>
       <c r="J207">
         <v>1.363</v>
@@ -18335,17 +18329,17 @@
         <v>7623990</v>
       </c>
       <c r="C208" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D208" s="2">
         <v>45360.95833333334</v>
       </c>
       <c r="E208" t="s">
+        <v>40</v>
+      </c>
+      <c r="F208" t="s">
         <v>42</v>
       </c>
-      <c r="F208" t="s">
-        <v>44</v>
-      </c>
       <c r="G208">
         <v>2</v>
       </c>
@@ -18353,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18421,16 +18415,16 @@
         <v>7623925</v>
       </c>
       <c r="C209" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D209" s="2">
         <v>45361.75</v>
       </c>
       <c r="E209" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F209" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18439,7 +18433,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J209">
         <v>5</v>
@@ -18507,16 +18501,16 @@
         <v>7916002</v>
       </c>
       <c r="C210" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D210" s="2">
         <v>45361.79166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F210" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18525,7 +18519,7 @@
         <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J210">
         <v>6.5</v>
@@ -18593,16 +18587,16 @@
         <v>7623995</v>
       </c>
       <c r="C211" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D211" s="2">
         <v>45377.83333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F211" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18611,7 +18605,7 @@
         <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J211">
         <v>2.3</v>
@@ -18679,16 +18673,16 @@
         <v>7623936</v>
       </c>
       <c r="C212" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D212" s="2">
         <v>45377.875</v>
       </c>
       <c r="E212" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F212" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -18697,7 +18691,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J212">
         <v>2.7</v>
@@ -18765,16 +18759,16 @@
         <v>7623937</v>
       </c>
       <c r="C213" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D213" s="2">
         <v>45377.9375</v>
       </c>
       <c r="E213" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F213" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18783,7 +18777,7 @@
         <v>4</v>
       </c>
       <c r="I213" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J213">
         <v>3.75</v>
@@ -18851,16 +18845,16 @@
         <v>7623938</v>
       </c>
       <c r="C214" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D214" s="2">
         <v>45378.75</v>
       </c>
       <c r="E214" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F214" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -18869,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J214">
         <v>3</v>
@@ -18937,16 +18931,16 @@
         <v>7623993</v>
       </c>
       <c r="C215" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D215" s="2">
         <v>45378.91666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F215" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18955,7 +18949,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J215">
         <v>2.5</v>
@@ -19023,16 +19017,16 @@
         <v>7623994</v>
       </c>
       <c r="C216" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D216" s="2">
         <v>45378.95833333334</v>
       </c>
       <c r="E216" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F216" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -19041,7 +19035,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J216">
         <v>3.25</v>
@@ -19109,16 +19103,16 @@
         <v>7623941</v>
       </c>
       <c r="C217" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D217" s="2">
         <v>45380.91666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F217" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -19127,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J217">
         <v>1.75</v>
@@ -19195,16 +19189,16 @@
         <v>8022822</v>
       </c>
       <c r="C218" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D218" s="2">
         <v>45382.75</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F218" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19213,7 +19207,7 @@
         <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J218">
         <v>2.2</v>
@@ -19281,16 +19275,16 @@
         <v>7624969</v>
       </c>
       <c r="C219" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D219" s="2">
         <v>45382.79166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F219" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19299,7 +19293,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J219">
         <v>1.833</v>
@@ -19367,16 +19361,16 @@
         <v>7623943</v>
       </c>
       <c r="C220" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D220" s="2">
         <v>45382.85416666666</v>
       </c>
       <c r="E220" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F220" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G220">
         <v>3</v>
@@ -19385,7 +19379,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J220">
         <v>2.1</v>
@@ -19453,16 +19447,16 @@
         <v>7623939</v>
       </c>
       <c r="C221" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D221" s="2">
         <v>45382.91666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F221" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19471,7 +19465,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J221">
         <v>1.615</v>
@@ -19539,25 +19533,25 @@
         <v>7623940</v>
       </c>
       <c r="C222" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D222" s="2">
         <v>45383.75</v>
       </c>
       <c r="E222" t="s">
+        <v>43</v>
+      </c>
+      <c r="F222" t="s">
+        <v>37</v>
+      </c>
+      <c r="G222">
+        <v>2</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222" t="s">
         <v>45</v>
-      </c>
-      <c r="F222" t="s">
-        <v>39</v>
-      </c>
-      <c r="G222">
-        <v>2</v>
-      </c>
-      <c r="H222">
-        <v>0</v>
-      </c>
-      <c r="I222" t="s">
-        <v>47</v>
       </c>
       <c r="J222">
         <v>3</v>
@@ -19625,16 +19619,16 @@
         <v>7980420</v>
       </c>
       <c r="C223" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D223" s="2">
         <v>45385.95833333334</v>
       </c>
       <c r="E223" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F223" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19643,7 +19637,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J223">
         <v>1.222</v>
@@ -19711,16 +19705,16 @@
         <v>7623944</v>
       </c>
       <c r="C224" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D224" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E224" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F224" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G224">
         <v>3</v>
@@ -19729,7 +19723,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J224">
         <v>2.9</v>
@@ -19797,16 +19791,16 @@
         <v>7623946</v>
       </c>
       <c r="C225" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D225" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E225" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F225" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G225">
         <v>0</v>
@@ -19815,7 +19809,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J225">
         <v>3.4</v>
@@ -19883,16 +19877,16 @@
         <v>7623996</v>
       </c>
       <c r="C226" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D226" s="2">
         <v>45388.92708333334</v>
       </c>
       <c r="E226" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G226">
         <v>3</v>
@@ -19901,7 +19895,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J226">
         <v>1.363</v>
@@ -19969,16 +19963,16 @@
         <v>7623947</v>
       </c>
       <c r="C227" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D227" s="2">
         <v>45388.95833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F227" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G227">
         <v>3</v>
@@ -19987,7 +19981,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J227">
         <v>1.3</v>
@@ -20055,16 +20049,16 @@
         <v>8048492</v>
       </c>
       <c r="C228" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D228" s="2">
         <v>45389.75</v>
       </c>
       <c r="E228" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F228" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20073,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J228">
         <v>2.2</v>
@@ -20141,16 +20135,16 @@
         <v>7623997</v>
       </c>
       <c r="C229" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D229" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E229" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F229" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -20159,7 +20153,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J229">
         <v>1.285</v>
@@ -20227,16 +20221,16 @@
         <v>8070744</v>
       </c>
       <c r="C230" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D230" s="2">
         <v>45394.95833333334</v>
       </c>
       <c r="E230" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F230" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20245,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J230">
         <v>1.833</v>
@@ -20313,16 +20307,16 @@
         <v>7623999</v>
       </c>
       <c r="C231" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D231" s="2">
         <v>45395.75</v>
       </c>
       <c r="E231" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F231" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G231">
         <v>2</v>
@@ -20331,7 +20325,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J231">
         <v>2.15</v>
@@ -20399,16 +20393,16 @@
         <v>7623950</v>
       </c>
       <c r="C232" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D232" s="2">
         <v>45395.75</v>
       </c>
       <c r="E232" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F232" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -20417,7 +20411,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J232">
         <v>6</v>
@@ -20485,16 +20479,16 @@
         <v>7623998</v>
       </c>
       <c r="C233" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D233" s="2">
         <v>45395.86458333334</v>
       </c>
       <c r="E233" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F233" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G233">
         <v>3</v>
@@ -20503,7 +20497,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J233">
         <v>2.625</v>
@@ -20571,16 +20565,16 @@
         <v>8070745</v>
       </c>
       <c r="C234" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D234" s="2">
         <v>45395.875</v>
       </c>
       <c r="E234" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F234" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20589,7 +20583,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J234">
         <v>4.2</v>
@@ -20657,16 +20651,16 @@
         <v>7623951</v>
       </c>
       <c r="C235" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D235" s="2">
         <v>45395.97916666666</v>
       </c>
       <c r="E235" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F235" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -20675,7 +20669,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J235">
         <v>6</v>
@@ -20743,16 +20737,16 @@
         <v>7623953</v>
       </c>
       <c r="C236" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D236" s="2">
         <v>45398.95833333334</v>
       </c>
       <c r="E236" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F236" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -20761,7 +20755,7 @@
         <v>2</v>
       </c>
       <c r="I236" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J236">
         <v>1.363</v>
@@ -20829,16 +20823,16 @@
         <v>8096857</v>
       </c>
       <c r="C237" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D237" s="2">
         <v>45399.75</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F237" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20847,7 +20841,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J237">
         <v>1.666</v>
@@ -20915,16 +20909,16 @@
         <v>8096859</v>
       </c>
       <c r="C238" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D238" s="2">
         <v>45399.75</v>
       </c>
       <c r="E238" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F238" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20933,7 +20927,7 @@
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J238">
         <v>2.8</v>
@@ -21001,16 +20995,16 @@
         <v>8096858</v>
       </c>
       <c r="C239" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D239" s="2">
         <v>45399.875</v>
       </c>
       <c r="E239" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F239" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21019,7 +21013,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J239">
         <v>1.571</v>
@@ -21087,16 +21081,16 @@
         <v>7623954</v>
       </c>
       <c r="C240" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D240" s="2">
         <v>45399.95833333334</v>
       </c>
       <c r="E240" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F240" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -21105,7 +21099,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J240">
         <v>1.166</v>
@@ -21173,16 +21167,16 @@
         <v>7624000</v>
       </c>
       <c r="C241" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D241" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E241" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F241" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21191,7 +21185,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J241">
         <v>1.666</v>
@@ -21259,16 +21253,16 @@
         <v>7623960</v>
       </c>
       <c r="C242" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D242" s="2">
         <v>45402.79166666666</v>
       </c>
       <c r="E242" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F242" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21277,7 +21271,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -21345,16 +21339,16 @@
         <v>7623958</v>
       </c>
       <c r="C243" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D243" s="2">
         <v>45402.95833333334</v>
       </c>
       <c r="E243" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F243" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21363,7 +21357,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J243">
         <v>2.05</v>
@@ -21431,16 +21425,16 @@
         <v>7623956</v>
       </c>
       <c r="C244" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D244" s="2">
         <v>45403.83333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21449,7 +21443,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J244">
         <v>2.75</v>
@@ -21517,16 +21511,16 @@
         <v>7623959</v>
       </c>
       <c r="C245" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D245" s="2">
         <v>45403.875</v>
       </c>
       <c r="E245" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F245" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G245">
         <v>3</v>
@@ -21535,7 +21529,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J245">
         <v>2.2</v>
@@ -21603,16 +21597,16 @@
         <v>7624002</v>
       </c>
       <c r="C246" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D246" s="2">
         <v>45403.92708333334</v>
       </c>
       <c r="E246" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F246" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21621,7 +21615,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J246">
         <v>1.615</v>
@@ -21685,47 +21679,56 @@
       <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="s">
-        <v>27</v>
+      <c r="B247">
+        <v>7623957</v>
       </c>
       <c r="C247" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D247" s="2">
-        <v>45408.95833333334</v>
+        <v>45404.95833333334</v>
       </c>
       <c r="E247" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F247" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="H247">
+        <v>2</v>
+      </c>
+      <c r="I247" t="s">
+        <v>44</v>
       </c>
       <c r="J247">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="K247">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L247">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="M247">
-        <v>1.571</v>
+        <v>3.3</v>
       </c>
       <c r="N247">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="O247">
-        <v>5.25</v>
+        <v>1.909</v>
       </c>
       <c r="P247">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="Q247">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="R247">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S247">
         <v>2.5</v>
@@ -21737,78 +21740,111 @@
         <v>1.975</v>
       </c>
       <c r="V247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W247">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X247">
-        <v>0</v>
+        <v>0.909</v>
+      </c>
+      <c r="Y247">
+        <v>-1</v>
+      </c>
+      <c r="Z247">
+        <v>1</v>
+      </c>
+      <c r="AA247">
+        <v>0.825</v>
+      </c>
+      <c r="AB247">
+        <v>-1</v>
       </c>
     </row>
     <row r="248" spans="1:28">
       <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="s">
-        <v>28</v>
+      <c r="B248">
+        <v>8019072</v>
       </c>
       <c r="C248" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D248" s="2">
-        <v>45409.75</v>
+        <v>45406.95833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="F248" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="G248">
+        <v>3</v>
+      </c>
+      <c r="H248">
+        <v>3</v>
+      </c>
+      <c r="I248" t="s">
+        <v>46</v>
       </c>
       <c r="J248">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="K248">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L248">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="M248">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="N248">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O248">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="P248">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="Q248">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="R248">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="S248">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T248">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="U248">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V248">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W248">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="X248">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="Y248">
+        <v>0</v>
+      </c>
+      <c r="Z248">
+        <v>0</v>
+      </c>
+      <c r="AA248">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB248">
+        <v>-1</v>
       </c>
     </row>
     <row r="249" spans="1:28">
@@ -21816,55 +21852,55 @@
         <v>247</v>
       </c>
       <c r="B249" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C249" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D249" s="2">
         <v>45409.75</v>
       </c>
       <c r="E249" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F249" t="s">
         <v>36</v>
       </c>
       <c r="J249">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K249">
         <v>3.25</v>
       </c>
       <c r="L249">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M249">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="N249">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O249">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="P249">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q249">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="R249">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S249">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T249">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="U249">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V249">
         <v>0</v>
@@ -21881,55 +21917,55 @@
         <v>248</v>
       </c>
       <c r="B250" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C250" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D250" s="2">
-        <v>45409.79166666666</v>
+        <v>45409.75</v>
       </c>
       <c r="E250" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F250" t="s">
         <v>34</v>
       </c>
       <c r="J250">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K250">
+        <v>3.25</v>
+      </c>
+      <c r="L250">
+        <v>3</v>
+      </c>
+      <c r="M250">
+        <v>2.25</v>
+      </c>
+      <c r="N250">
         <v>3.2</v>
       </c>
-      <c r="L250">
-        <v>3.25</v>
-      </c>
-      <c r="M250">
-        <v>2.15</v>
-      </c>
-      <c r="N250">
-        <v>3.25</v>
-      </c>
       <c r="O250">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P250">
         <v>-0.25</v>
       </c>
       <c r="Q250">
+        <v>2</v>
+      </c>
+      <c r="R250">
+        <v>1.8</v>
+      </c>
+      <c r="S250">
+        <v>2.25</v>
+      </c>
+      <c r="T250">
         <v>1.9</v>
       </c>
-      <c r="R250">
+      <c r="U250">
         <v>1.9</v>
-      </c>
-      <c r="S250">
-        <v>2.75</v>
-      </c>
-      <c r="T250">
-        <v>2</v>
-      </c>
-      <c r="U250">
-        <v>1.8</v>
       </c>
       <c r="V250">
         <v>0</v>
@@ -21946,55 +21982,55 @@
         <v>249</v>
       </c>
       <c r="B251" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C251" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D251" s="2">
-        <v>45409.95833333334</v>
+        <v>45409.875</v>
       </c>
       <c r="E251" t="s">
         <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J251">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="K251">
+        <v>3.2</v>
+      </c>
+      <c r="L251">
         <v>3.25</v>
       </c>
-      <c r="L251">
-        <v>2.55</v>
-      </c>
       <c r="M251">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="N251">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="O251">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="P251">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q251">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="R251">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S251">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T251">
+        <v>2</v>
+      </c>
+      <c r="U251">
         <v>1.8</v>
-      </c>
-      <c r="U251">
-        <v>2</v>
       </c>
       <c r="V251">
         <v>0</v>
@@ -22011,19 +22047,19 @@
         <v>250</v>
       </c>
       <c r="B252" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C252" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D252" s="2">
         <v>45410.79166666666</v>
       </c>
       <c r="E252" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F252" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J252">
         <v>1.285</v>
@@ -22047,10 +22083,10 @@
         <v>-1.5</v>
       </c>
       <c r="Q252">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="R252">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S252">
         <v>2.75</v>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -3706,7 +3706,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6781354</v>
+        <v>6782522</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
@@ -3715,49 +3715,49 @@
         <v>45171.75</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J38">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L38">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="M38">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="N38">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="O38">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="P38">
         <v>-0.25</v>
       </c>
       <c r="Q38">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="R38">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="T38">
         <v>1.9</v>
@@ -3766,25 +3766,25 @@
         <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Y38">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA38">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:28">
@@ -3792,7 +3792,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6782522</v>
+        <v>6781354</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -3801,49 +3801,49 @@
         <v>45171.75</v>
       </c>
       <c r="E39" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J39">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="L39">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="M39">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N39">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="O39">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P39">
         <v>-0.25</v>
       </c>
       <c r="Q39">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="R39">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T39">
         <v>1.9</v>
@@ -3852,25 +3852,25 @@
         <v>1.9</v>
       </c>
       <c r="V39">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z39">
+        <v>-1</v>
+      </c>
+      <c r="AA39">
+        <v>-1</v>
+      </c>
+      <c r="AB39">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AA39">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:28">
@@ -9898,7 +9898,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C110" t="s">
         <v>31</v>
@@ -9907,76 +9907,76 @@
         <v>45238.875</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J110">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="K110">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L110">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="M110">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="N110">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O110">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="P110">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R110">
+        <v>1.825</v>
+      </c>
+      <c r="S110">
+        <v>3.25</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
         <v>1.8</v>
       </c>
-      <c r="S110">
-        <v>2.5</v>
-      </c>
-      <c r="T110">
-        <v>1.875</v>
-      </c>
-      <c r="U110">
-        <v>1.925</v>
-      </c>
       <c r="V110">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W110">
         <v>-1</v>
       </c>
       <c r="X110">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z110">
+        <v>-0.5</v>
+      </c>
+      <c r="AA110">
+        <v>-1</v>
+      </c>
+      <c r="AB110">
         <v>0.8</v>
-      </c>
-      <c r="AA110">
-        <v>-1</v>
-      </c>
-      <c r="AB110">
-        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9984,7 +9984,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C111" t="s">
         <v>31</v>
@@ -9993,76 +9993,76 @@
         <v>45238.875</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J111">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="K111">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L111">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="M111">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="N111">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O111">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="P111">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R111">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T111">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U111">
+        <v>1.925</v>
+      </c>
+      <c r="V111">
+        <v>-1</v>
+      </c>
+      <c r="W111">
+        <v>-1</v>
+      </c>
+      <c r="X111">
         <v>1.8</v>
       </c>
-      <c r="V111">
-        <v>0.25</v>
-      </c>
-      <c r="W111">
-        <v>-1</v>
-      </c>
-      <c r="X111">
-        <v>-1</v>
-      </c>
       <c r="Y111">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -11532,7 +11532,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>6782595</v>
+        <v>6782598</v>
       </c>
       <c r="C129" t="s">
         <v>31</v>
@@ -11541,13 +11541,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -11556,25 +11556,25 @@
         <v>45</v>
       </c>
       <c r="J129">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="K129">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="L129">
-        <v>7</v>
+        <v>1.615</v>
       </c>
       <c r="M129">
-        <v>1.363</v>
+        <v>3.4</v>
       </c>
       <c r="N129">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="O129">
-        <v>8.5</v>
+        <v>1.85</v>
       </c>
       <c r="P129">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="Q129">
         <v>1.8</v>
@@ -11583,16 +11583,16 @@
         <v>2</v>
       </c>
       <c r="S129">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T129">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="U129">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V129">
-        <v>0.363</v>
+        <v>2.4</v>
       </c>
       <c r="W129">
         <v>-1</v>
@@ -11607,10 +11607,10 @@
         <v>-1</v>
       </c>
       <c r="AA129">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AB129">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="130" spans="1:28">
@@ -11618,7 +11618,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>6782598</v>
+        <v>6782595</v>
       </c>
       <c r="C130" t="s">
         <v>31</v>
@@ -11627,13 +11627,13 @@
         <v>45255.95833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -11642,25 +11642,25 @@
         <v>45</v>
       </c>
       <c r="J130">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="K130">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="L130">
-        <v>1.615</v>
+        <v>7</v>
       </c>
       <c r="M130">
-        <v>3.4</v>
+        <v>1.363</v>
       </c>
       <c r="N130">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="O130">
-        <v>1.85</v>
+        <v>8.5</v>
       </c>
       <c r="P130">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="Q130">
         <v>1.8</v>
@@ -11669,16 +11669,16 @@
         <v>2</v>
       </c>
       <c r="S130">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T130">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U130">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V130">
-        <v>2.4</v>
+        <v>0.363</v>
       </c>
       <c r="W130">
         <v>-1</v>
@@ -11693,10 +11693,10 @@
         <v>-1</v>
       </c>
       <c r="AA130">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB130">
-        <v>0.8999999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:28">
@@ -20820,7 +20820,7 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>8096857</v>
+        <v>8096859</v>
       </c>
       <c r="C237" t="s">
         <v>31</v>
@@ -20829,76 +20829,76 @@
         <v>45399.75</v>
       </c>
       <c r="E237" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G237">
         <v>0</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J237">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="K237">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L237">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="M237">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="N237">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O237">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="P237">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q237">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R237">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S237">
         <v>2.5</v>
       </c>
       <c r="T237">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U237">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V237">
         <v>-1</v>
       </c>
       <c r="W237">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X237">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
+        <v>1.05</v>
+      </c>
+      <c r="AA237">
+        <v>-1</v>
+      </c>
+      <c r="AB237">
         <v>0.825</v>
-      </c>
-      <c r="AA237">
-        <v>-1</v>
-      </c>
-      <c r="AB237">
-        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20906,7 +20906,7 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>8096859</v>
+        <v>8096857</v>
       </c>
       <c r="C238" t="s">
         <v>31</v>
@@ -20915,76 +20915,76 @@
         <v>45399.75</v>
       </c>
       <c r="E238" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F238" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G238">
         <v>0</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J238">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="K238">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L238">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="M238">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N238">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O238">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="P238">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q238">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R238">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S238">
         <v>2.5</v>
       </c>
       <c r="T238">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U238">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V238">
         <v>-1</v>
       </c>
       <c r="W238">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X238">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA238">
         <v>-1</v>
       </c>
       <c r="AB238">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -21953,19 +21953,19 @@
         <v>-0.25</v>
       </c>
       <c r="Q250">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="R250">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="S250">
         <v>2.25</v>
       </c>
       <c r="T250">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="U250">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V250">
         <v>0</v>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -95,15 +95,6 @@
   </si>
   <si>
     <t>PL_AhUnder</t>
-  </si>
-  <si>
-    <t>7624004</t>
-  </si>
-  <si>
-    <t>7623963</t>
-  </si>
-  <si>
-    <t>8131545</t>
   </si>
   <si>
     <t>7623962</t>
@@ -516,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB252"/>
+  <dimension ref="A1:AB249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +604,16 @@
         <v>6782492</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2">
         <v>45132.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -631,7 +622,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J2">
         <v>3.8</v>
@@ -699,16 +690,16 @@
         <v>6781348</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2">
         <v>45132.96875</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -717,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -785,16 +776,16 @@
         <v>6782489</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2">
         <v>45133.91666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -803,7 +794,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J4">
         <v>4.5</v>
@@ -871,16 +862,16 @@
         <v>6782491</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2">
         <v>45133.95833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -889,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>1.4</v>
@@ -957,16 +948,16 @@
         <v>6782488</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
         <v>45134.9375</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -975,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J6">
         <v>1.5</v>
@@ -1043,16 +1034,16 @@
         <v>6782490</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2">
         <v>45134.95833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1061,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1129,16 +1120,16 @@
         <v>6983271</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
         <v>45136.875</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1147,7 +1138,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J8">
         <v>1.222</v>
@@ -1215,16 +1206,16 @@
         <v>6781349</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2">
         <v>45136.91666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1233,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1301,16 +1292,16 @@
         <v>6782494</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" s="2">
         <v>45136.97916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1319,7 +1310,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J10">
         <v>1.285</v>
@@ -1387,16 +1378,16 @@
         <v>6782493</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>45137.75</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1405,7 +1396,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J11">
         <v>4.2</v>
@@ -1473,16 +1464,16 @@
         <v>6782497</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>45137.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1491,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J12">
         <v>1.909</v>
@@ -1559,16 +1550,16 @@
         <v>6782496</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
         <v>45137.875</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1577,7 +1568,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J13">
         <v>3.75</v>
@@ -1645,16 +1636,16 @@
         <v>6782499</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
         <v>45143.75</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1663,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J14">
         <v>2.25</v>
@@ -1731,16 +1722,16 @@
         <v>6782498</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="2">
         <v>45143.875</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1749,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -1817,16 +1808,16 @@
         <v>6782501</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>45143.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1835,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J16">
         <v>2.5</v>
@@ -1903,16 +1894,16 @@
         <v>6782502</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D17" s="2">
         <v>45143.96875</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1921,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J17">
         <v>3.25</v>
@@ -1989,16 +1980,16 @@
         <v>6781350</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2">
         <v>45144.58333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2007,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2075,16 +2066,16 @@
         <v>6782500</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2093,7 +2084,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J19">
         <v>1.666</v>
@@ -2161,16 +2152,16 @@
         <v>6782503</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D20" s="2">
         <v>45149.9375</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2179,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2247,16 +2238,16 @@
         <v>6782506</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D21" s="2">
         <v>45150.75</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2265,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2333,16 +2324,16 @@
         <v>6782504</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2">
         <v>45150.875</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2351,7 +2342,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J22">
         <v>2.5</v>
@@ -2419,16 +2410,16 @@
         <v>6782505</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2">
         <v>45150.95833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2437,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J23">
         <v>1.4</v>
@@ -2505,16 +2496,16 @@
         <v>6782507</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D24" s="2">
         <v>45151.79166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2523,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J24">
         <v>4.75</v>
@@ -2591,16 +2582,16 @@
         <v>6781351</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D25" s="2">
         <v>45151.875</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2609,7 +2600,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J25">
         <v>3.75</v>
@@ -2677,16 +2668,16 @@
         <v>6782510</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D26" s="2">
         <v>45156.95833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2695,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J26">
         <v>1.444</v>
@@ -2763,16 +2754,16 @@
         <v>6782512</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2781,7 +2772,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J27">
         <v>2.1</v>
@@ -2849,16 +2840,16 @@
         <v>6782509</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2">
         <v>45157.95833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2867,7 +2858,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J28">
         <v>1.571</v>
@@ -2935,16 +2926,16 @@
         <v>6782508</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2">
         <v>45158.75</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2953,7 +2944,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J29">
         <v>2.55</v>
@@ -3021,16 +3012,16 @@
         <v>6782511</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D30" s="2">
         <v>45158.875</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3039,7 +3030,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3107,16 +3098,16 @@
         <v>6781352</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D31" s="2">
         <v>45159.75</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3125,7 +3116,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J31">
         <v>3.8</v>
@@ -3193,16 +3184,16 @@
         <v>6782514</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D32" s="2">
         <v>45163.95833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3211,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J32">
         <v>1.571</v>
@@ -3279,25 +3270,25 @@
         <v>6782516</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D33" s="2">
         <v>45164.75</v>
       </c>
       <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33" t="s">
         <v>43</v>
-      </c>
-      <c r="F33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33" t="s">
-        <v>46</v>
       </c>
       <c r="J33">
         <v>2.2</v>
@@ -3365,16 +3356,16 @@
         <v>7111690</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D34" s="2">
         <v>45164.79166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3383,7 +3374,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J34">
         <v>1.833</v>
@@ -3451,16 +3442,16 @@
         <v>6782513</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D35" s="2">
         <v>45164.91666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3469,7 +3460,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J35">
         <v>3.75</v>
@@ -3537,16 +3528,16 @@
         <v>6781353</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D36" s="2">
         <v>45165.75</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3555,7 +3546,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3623,16 +3614,16 @@
         <v>6782515</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2">
         <v>45165.875</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3641,7 +3632,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3709,16 +3700,16 @@
         <v>6782522</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D38" s="2">
         <v>45171.75</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3727,7 +3718,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3795,16 +3786,16 @@
         <v>6781354</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2">
         <v>45171.75</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3813,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -3881,16 +3872,16 @@
         <v>6782521</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D40" s="2">
         <v>45171.85416666666</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3899,7 +3890,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J40">
         <v>2.75</v>
@@ -3967,16 +3958,16 @@
         <v>6782518</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D41" s="2">
         <v>45171.875</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3985,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J41">
         <v>2.3</v>
@@ -4053,16 +4044,16 @@
         <v>6782519</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D42" s="2">
         <v>45171.95833333334</v>
       </c>
       <c r="E42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F42" t="s">
         <v>40</v>
-      </c>
-      <c r="F42" t="s">
-        <v>43</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4071,7 +4062,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J42">
         <v>1.363</v>
@@ -4139,16 +4130,16 @@
         <v>6782520</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D43" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4157,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4225,16 +4216,16 @@
         <v>6782524</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D44" s="2">
         <v>45178.75</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4243,7 +4234,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J44">
         <v>1.85</v>
@@ -4311,16 +4302,16 @@
         <v>6781355</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D45" s="2">
         <v>45178.79166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4329,7 +4320,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J45">
         <v>1.9</v>
@@ -4397,16 +4388,16 @@
         <v>6782523</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D46" s="2">
         <v>45178.91666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4415,7 +4406,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4483,16 +4474,16 @@
         <v>6782526</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D47" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4501,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J47">
         <v>1.3</v>
@@ -4569,16 +4560,16 @@
         <v>6782525</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D48" s="2">
         <v>45179.58333333334</v>
       </c>
       <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48" t="s">
         <v>37</v>
-      </c>
-      <c r="F48" t="s">
-        <v>40</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4587,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J48">
         <v>2.625</v>
@@ -4655,16 +4646,16 @@
         <v>6782527</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D49" s="2">
         <v>45179.79166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4673,7 +4664,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J49">
         <v>6</v>
@@ -4741,16 +4732,16 @@
         <v>6782528</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D50" s="2">
         <v>45181.875</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4759,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J50">
         <v>2.3</v>
@@ -4827,16 +4818,16 @@
         <v>6782532</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D51" s="2">
         <v>45181.95833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4845,7 +4836,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J51">
         <v>4.5</v>
@@ -4913,16 +4904,16 @@
         <v>6782531</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D52" s="2">
         <v>45182.75</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4931,7 +4922,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -4999,16 +4990,16 @@
         <v>7196890</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D53" s="2">
         <v>45182.875</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5017,7 +5008,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5085,16 +5076,16 @@
         <v>6781356</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D54" s="2">
         <v>45182.91666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5103,7 +5094,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J54">
         <v>1.909</v>
@@ -5171,16 +5162,16 @@
         <v>6782530</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2">
         <v>45182.97916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5189,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5257,16 +5248,16 @@
         <v>6782538</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D56" s="2">
         <v>45184.875</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G56">
         <v>7</v>
@@ -5275,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J56">
         <v>1.2</v>
@@ -5343,16 +5334,16 @@
         <v>6782533</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D57" s="2">
         <v>45184.97916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5361,7 +5352,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5429,17 +5420,17 @@
         <v>6782535</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D58" s="2">
         <v>45185.83333333334</v>
       </c>
       <c r="E58" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" t="s">
         <v>33</v>
       </c>
-      <c r="F58" t="s">
-        <v>36</v>
-      </c>
       <c r="G58">
         <v>2</v>
       </c>
@@ -5447,7 +5438,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J58">
         <v>2.1</v>
@@ -5515,16 +5506,16 @@
         <v>6782536</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D59" s="2">
         <v>45185.88194444445</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5533,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J59">
         <v>3.4</v>
@@ -5601,16 +5592,16 @@
         <v>6781357</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D60" s="2">
         <v>45185.95833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5619,7 +5610,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J60">
         <v>1.363</v>
@@ -5687,16 +5678,16 @@
         <v>6782537</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2">
         <v>45186.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5705,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J61">
         <v>1.833</v>
@@ -5773,16 +5764,16 @@
         <v>6782540</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D62" s="2">
         <v>45188.75</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5791,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J62">
         <v>4</v>
@@ -5859,16 +5850,16 @@
         <v>7229962</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D63" s="2">
         <v>45188.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5877,7 +5868,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J63">
         <v>1.3</v>
@@ -5945,16 +5936,16 @@
         <v>7233833</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D64" s="2">
         <v>45189.875</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5963,7 +5954,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J64">
         <v>3.6</v>
@@ -6031,16 +6022,16 @@
         <v>6782541</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D65" s="2">
         <v>45189.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6049,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J65">
         <v>1.5</v>
@@ -6117,16 +6108,16 @@
         <v>6782539</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D66" s="2">
         <v>45189.96875</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6135,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J66">
         <v>1.95</v>
@@ -6203,16 +6194,16 @@
         <v>6781358</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D67" s="2">
         <v>45190.95833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6221,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J67">
         <v>3.1</v>
@@ -6289,16 +6280,16 @@
         <v>6782544</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D68" s="2">
         <v>45192.75</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6307,7 +6298,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J68">
         <v>2.5</v>
@@ -6375,16 +6366,16 @@
         <v>6782545</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D69" s="2">
         <v>45192.85416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6393,7 +6384,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J69">
         <v>1.4</v>
@@ -6461,16 +6452,16 @@
         <v>6782546</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D70" s="2">
         <v>45192.95833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6479,7 +6470,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J70">
         <v>1.285</v>
@@ -6547,16 +6538,16 @@
         <v>6781359</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D71" s="2">
         <v>45193.75</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6565,7 +6556,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J71">
         <v>1.85</v>
@@ -6633,16 +6624,16 @@
         <v>6782548</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6651,7 +6642,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J72">
         <v>4.2</v>
@@ -6719,16 +6710,16 @@
         <v>6782547</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D73" s="2">
         <v>45194.75</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6737,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J73">
         <v>3.1</v>
@@ -6805,16 +6796,16 @@
         <v>6781360</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D74" s="2">
         <v>45199.875</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6823,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J74">
         <v>2.5</v>
@@ -6891,16 +6882,16 @@
         <v>6782553</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D75" s="2">
         <v>45199.95833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6909,7 +6900,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -6977,16 +6968,16 @@
         <v>6782549</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D76" s="2">
         <v>45199.96527777778</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6995,7 +6986,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J76">
         <v>1.95</v>
@@ -7063,16 +7054,16 @@
         <v>6782550</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D77" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7081,7 +7072,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7149,16 +7140,16 @@
         <v>6782552</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D78" s="2">
         <v>45200.75</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7167,7 +7158,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J78">
         <v>4.5</v>
@@ -7235,16 +7226,16 @@
         <v>6782551</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D79" s="2">
         <v>45200.88541666666</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7253,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J79">
         <v>1.3</v>
@@ -7321,25 +7312,25 @@
         <v>6782557</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D80" s="2">
         <v>45205.91666666666</v>
       </c>
       <c r="E80" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
         <v>43</v>
-      </c>
-      <c r="F80" t="s">
-        <v>34</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80" t="s">
-        <v>46</v>
       </c>
       <c r="J80">
         <v>2.8</v>
@@ -7407,16 +7398,16 @@
         <v>7301749</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D81" s="2">
         <v>45206.83333333334</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7425,7 +7416,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J81">
         <v>2.05</v>
@@ -7493,16 +7484,16 @@
         <v>6782555</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D82" s="2">
         <v>45206.95833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7511,7 +7502,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J82">
         <v>2.6</v>
@@ -7579,16 +7570,16 @@
         <v>6781361</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D83" s="2">
         <v>45207.75</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7597,7 +7588,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J83">
         <v>2.55</v>
@@ -7665,16 +7656,16 @@
         <v>6782556</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D84" s="2">
         <v>45207.85416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7683,7 +7674,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J84">
         <v>1.4</v>
@@ -7751,16 +7742,16 @@
         <v>6782554</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D85" s="2">
         <v>45207.875</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7769,7 +7760,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -7837,16 +7828,16 @@
         <v>6782562</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D86" s="2">
         <v>45216.75</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7855,7 +7846,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J86">
         <v>1.85</v>
@@ -7923,16 +7914,16 @@
         <v>6782563</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D87" s="2">
         <v>45216.875</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7941,7 +7932,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J87">
         <v>1.615</v>
@@ -8009,16 +8000,16 @@
         <v>6781362</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D88" s="2">
         <v>45216.95833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8027,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J88">
         <v>1.333</v>
@@ -8095,16 +8086,16 @@
         <v>6782560</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D89" s="2">
         <v>45217.875</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -8113,7 +8104,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J89">
         <v>1.909</v>
@@ -8181,16 +8172,16 @@
         <v>6782561</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D90" s="2">
         <v>45217.97916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8199,7 +8190,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J90">
         <v>1.285</v>
@@ -8267,16 +8258,16 @@
         <v>6782568</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D91" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8285,7 +8276,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J91">
         <v>1.909</v>
@@ -8353,16 +8344,16 @@
         <v>6782566</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D92" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8371,7 +8362,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8439,16 +8430,16 @@
         <v>6782564</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D93" s="2">
         <v>45220.9375</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8457,7 +8448,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8525,16 +8516,16 @@
         <v>6781363</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D94" s="2">
         <v>45220.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8543,7 +8534,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J94">
         <v>1.533</v>
@@ -8608,85 +8599,85 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>6782565</v>
+        <v>6782567</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G95">
         <v>2</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J95">
-        <v>1.833</v>
+        <v>2.875</v>
       </c>
       <c r="K95">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L95">
-        <v>3.75</v>
+        <v>2.15</v>
       </c>
       <c r="M95">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="N95">
         <v>3.5</v>
       </c>
       <c r="O95">
-        <v>3.75</v>
+        <v>2.6</v>
       </c>
       <c r="P95">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="R95">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S95">
         <v>2.75</v>
       </c>
       <c r="T95">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U95">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V95">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>1.6</v>
       </c>
       <c r="Y95">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA95">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB95">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:28">
@@ -8694,85 +8685,85 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>6782567</v>
+        <v>6782565</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D96" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G96">
         <v>2</v>
       </c>
       <c r="H96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J96">
-        <v>2.875</v>
+        <v>1.833</v>
       </c>
       <c r="K96">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L96">
-        <v>2.15</v>
+        <v>3.75</v>
       </c>
       <c r="M96">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="N96">
         <v>3.5</v>
       </c>
       <c r="O96">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="Q96">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="R96">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S96">
         <v>2.75</v>
       </c>
       <c r="T96">
+        <v>2</v>
+      </c>
+      <c r="U96">
         <v>1.8</v>
       </c>
-      <c r="U96">
-        <v>2</v>
-      </c>
       <c r="V96">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="Z96">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
+        <v>-1</v>
+      </c>
+      <c r="AB96">
         <v>0.8</v>
-      </c>
-      <c r="AB96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:28">
@@ -8783,16 +8774,16 @@
         <v>6782569</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D97" s="2">
         <v>45226.91666666666</v>
       </c>
       <c r="E97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97" t="s">
         <v>34</v>
-      </c>
-      <c r="F97" t="s">
-        <v>37</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8801,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8869,16 +8860,16 @@
         <v>6782572</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D98" s="2">
         <v>45226.95833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8887,7 +8878,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8955,16 +8946,16 @@
         <v>7392781</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D99" s="2">
         <v>45227.75</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8973,7 +8964,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J99">
         <v>2.15</v>
@@ -9041,16 +9032,16 @@
         <v>6782573</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D100" s="2">
         <v>45227.83333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F100" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9059,7 +9050,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J100">
         <v>2.05</v>
@@ -9127,16 +9118,16 @@
         <v>6782571</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D101" s="2">
         <v>45227.95833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9145,7 +9136,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J101">
         <v>1.909</v>
@@ -9213,16 +9204,16 @@
         <v>6782570</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D102" s="2">
         <v>45228.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9231,7 +9222,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9299,16 +9290,16 @@
         <v>6781365</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D103" s="2">
         <v>45233.9375</v>
       </c>
       <c r="E103" t="s">
+        <v>33</v>
+      </c>
+      <c r="F103" t="s">
         <v>36</v>
-      </c>
-      <c r="F103" t="s">
-        <v>39</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9317,7 +9308,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J103">
         <v>1.75</v>
@@ -9385,16 +9376,16 @@
         <v>6782574</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D104" s="2">
         <v>45234.75</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9403,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9471,16 +9462,16 @@
         <v>6782578</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D105" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -9489,7 +9480,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J105">
         <v>1.7</v>
@@ -9557,16 +9548,16 @@
         <v>6782576</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D106" s="2">
         <v>45234.95833333334</v>
       </c>
       <c r="E106" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" t="s">
         <v>35</v>
-      </c>
-      <c r="F106" t="s">
-        <v>38</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9575,7 +9566,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J106">
         <v>1.833</v>
@@ -9643,16 +9634,16 @@
         <v>6782575</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D107" s="2">
         <v>45235.58333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9661,7 +9652,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9729,25 +9720,25 @@
         <v>6782577</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D108" s="2">
         <v>45235.75</v>
       </c>
       <c r="E108" t="s">
+        <v>40</v>
+      </c>
+      <c r="F108" t="s">
+        <v>37</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
         <v>43</v>
-      </c>
-      <c r="F108" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108">
-        <v>0</v>
-      </c>
-      <c r="H108">
-        <v>0</v>
-      </c>
-      <c r="I108" t="s">
-        <v>46</v>
       </c>
       <c r="J108">
         <v>4.75</v>
@@ -9815,16 +9806,16 @@
         <v>6782583</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D109" s="2">
         <v>45238.75</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9833,7 +9824,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9898,85 +9889,85 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>6782581</v>
+        <v>6782579</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D110" s="2">
         <v>45238.875</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J110">
-        <v>1.181</v>
+        <v>2.4</v>
       </c>
       <c r="K110">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="L110">
-        <v>11</v>
+        <v>2.7</v>
       </c>
       <c r="M110">
-        <v>1.25</v>
+        <v>2.375</v>
       </c>
       <c r="N110">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="O110">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="P110">
-        <v>-1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="Q110">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="R110">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="T110">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="U110">
+        <v>1.925</v>
+      </c>
+      <c r="V110">
+        <v>-1</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
         <v>1.8</v>
       </c>
-      <c r="V110">
-        <v>0.25</v>
-      </c>
-      <c r="W110">
-        <v>-1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
       <c r="Y110">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AA110">
         <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -9984,85 +9975,85 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6782579</v>
+        <v>6782581</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D111" s="2">
         <v>45238.875</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J111">
-        <v>2.4</v>
+        <v>1.181</v>
       </c>
       <c r="K111">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="L111">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="M111">
-        <v>2.375</v>
+        <v>1.25</v>
       </c>
       <c r="N111">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O111">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="P111">
-        <v>-0.25</v>
+        <v>-1.75</v>
       </c>
       <c r="Q111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="R111">
+        <v>1.825</v>
+      </c>
+      <c r="S111">
+        <v>3.25</v>
+      </c>
+      <c r="T111">
+        <v>2</v>
+      </c>
+      <c r="U111">
         <v>1.8</v>
       </c>
-      <c r="S111">
-        <v>2.5</v>
-      </c>
-      <c r="T111">
-        <v>1.875</v>
-      </c>
-      <c r="U111">
-        <v>1.925</v>
-      </c>
       <c r="V111">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="W111">
         <v>-1</v>
       </c>
       <c r="X111">
-        <v>1.8</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z111">
+        <v>-0.5</v>
+      </c>
+      <c r="AA111">
+        <v>-1</v>
+      </c>
+      <c r="AB111">
         <v>0.8</v>
-      </c>
-      <c r="AA111">
-        <v>-1</v>
-      </c>
-      <c r="AB111">
-        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -10073,16 +10064,16 @@
         <v>6781366</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2">
         <v>45238.96875</v>
       </c>
       <c r="E112" t="s">
+        <v>36</v>
+      </c>
+      <c r="F112" t="s">
         <v>39</v>
-      </c>
-      <c r="F112" t="s">
-        <v>42</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -10091,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J112">
         <v>2.05</v>
@@ -10159,16 +10150,16 @@
         <v>6782580</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D113" s="2">
         <v>45238.97916666666</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10177,7 +10168,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J113">
         <v>1.45</v>
@@ -10245,16 +10236,16 @@
         <v>6782582</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D114" s="2">
         <v>45239.95833333334</v>
       </c>
       <c r="E114" t="s">
+        <v>29</v>
+      </c>
+      <c r="F114" t="s">
         <v>32</v>
-      </c>
-      <c r="F114" t="s">
-        <v>35</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10263,7 +10254,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J114">
         <v>4.2</v>
@@ -10331,25 +10322,25 @@
         <v>6782585</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D115" s="2">
         <v>45241.75</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F115" t="s">
+        <v>40</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
         <v>43</v>
-      </c>
-      <c r="G115">
-        <v>0</v>
-      </c>
-      <c r="H115">
-        <v>0</v>
-      </c>
-      <c r="I115" t="s">
-        <v>46</v>
       </c>
       <c r="J115">
         <v>1.571</v>
@@ -10417,16 +10408,16 @@
         <v>6782584</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D116" s="2">
         <v>45241.91666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10435,7 +10426,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10503,16 +10494,16 @@
         <v>6781367</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D117" s="2">
         <v>45241.95833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10521,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J117">
         <v>2.05</v>
@@ -10589,16 +10580,16 @@
         <v>6782586</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D118" s="2">
         <v>45242.58333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F118" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10607,7 +10598,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J118">
         <v>3.1</v>
@@ -10675,16 +10666,16 @@
         <v>6782587</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D119" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -10693,7 +10684,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J119">
         <v>1.166</v>
@@ -10761,16 +10752,16 @@
         <v>6782588</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D120" s="2">
         <v>45242.875</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10779,7 +10770,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J120">
         <v>2.2</v>
@@ -10847,16 +10838,16 @@
         <v>7476547</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D121" s="2">
         <v>45245.75</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10865,7 +10856,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -10933,16 +10924,16 @@
         <v>6782593</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2">
         <v>45251.95833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10951,7 +10942,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J122">
         <v>2.3</v>
@@ -11019,16 +11010,16 @@
         <v>6782590</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D123" s="2">
         <v>45252.75</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G123">
         <v>4</v>
@@ -11037,7 +11028,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J123">
         <v>1.8</v>
@@ -11105,16 +11096,16 @@
         <v>6781368</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11123,7 +11114,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J124">
         <v>4.2</v>
@@ -11191,16 +11182,16 @@
         <v>6782591</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D125" s="2">
         <v>45252.95833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11209,7 +11200,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J125">
         <v>1.333</v>
@@ -11277,16 +11268,16 @@
         <v>6782592</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D126" s="2">
         <v>45253.75</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11295,7 +11286,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J126">
         <v>7.5</v>
@@ -11363,16 +11354,16 @@
         <v>6782589</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D127" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11381,7 +11372,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J127">
         <v>1.4</v>
@@ -11449,16 +11440,16 @@
         <v>6781369</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D128" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11467,7 +11458,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J128">
         <v>1.727</v>
@@ -11535,16 +11526,16 @@
         <v>6782598</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D129" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11553,7 +11544,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J129">
         <v>4.5</v>
@@ -11621,16 +11612,16 @@
         <v>6782595</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D130" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11639,7 +11630,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11707,16 +11698,16 @@
         <v>6782596</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D131" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" t="s">
         <v>38</v>
-      </c>
-      <c r="F131" t="s">
-        <v>41</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11725,7 +11716,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J131">
         <v>1.363</v>
@@ -11793,16 +11784,16 @@
         <v>6782594</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D132" s="2">
         <v>45256.75</v>
       </c>
       <c r="E132" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F132" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11811,7 +11802,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J132">
         <v>5.5</v>
@@ -11879,16 +11870,16 @@
         <v>6782597</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D133" s="2">
         <v>45256.875</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11897,7 +11888,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J133">
         <v>2.4</v>
@@ -11965,16 +11956,16 @@
         <v>7532513</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D134" s="2">
         <v>45262.95833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11983,7 +11974,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12051,16 +12042,16 @@
         <v>7532514</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D135" s="2">
         <v>45263.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12069,7 +12060,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12137,16 +12128,16 @@
         <v>7532516</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D136" s="2">
         <v>45269.95833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12155,7 +12146,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12223,16 +12214,16 @@
         <v>7532515</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D137" s="2">
         <v>45270.83333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12241,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J137">
         <v>1.95</v>
@@ -12309,16 +12300,16 @@
         <v>7589150</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D138" s="2">
         <v>45274.95833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12327,7 +12318,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12395,16 +12386,16 @@
         <v>7596073</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D139" s="2">
         <v>45277.83333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12413,7 +12404,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J139">
         <v>1.727</v>
@@ -12481,16 +12472,16 @@
         <v>7623885</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D140" s="2">
         <v>45303.95833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12499,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J140">
         <v>1.45</v>
@@ -12567,16 +12558,16 @@
         <v>7623884</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D141" s="2">
         <v>45304.75</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12585,7 +12576,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J141">
         <v>1.571</v>
@@ -12653,17 +12644,17 @@
         <v>7623883</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D142" s="2">
         <v>45304.79166666666</v>
       </c>
       <c r="E142" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" t="s">
         <v>34</v>
       </c>
-      <c r="F142" t="s">
-        <v>37</v>
-      </c>
       <c r="G142">
         <v>0</v>
       </c>
@@ -12671,7 +12662,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J142">
         <v>2.9</v>
@@ -12739,16 +12730,16 @@
         <v>7623882</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2">
         <v>45304.91666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12757,7 +12748,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J143">
         <v>1.909</v>
@@ -12825,16 +12816,16 @@
         <v>7624965</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D144" s="2">
         <v>45304.95833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12843,7 +12834,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J144">
         <v>1.25</v>
@@ -12911,16 +12902,16 @@
         <v>7623973</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D145" s="2">
         <v>45305.79166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12929,7 +12920,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J145">
         <v>1.285</v>
@@ -12997,16 +12988,16 @@
         <v>7704994</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D146" s="2">
         <v>45307.91666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13015,7 +13006,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J146">
         <v>2.3</v>
@@ -13083,16 +13074,16 @@
         <v>7623887</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D147" s="2">
         <v>45307.95833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13101,7 +13092,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13169,25 +13160,25 @@
         <v>7623889</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2">
         <v>45308.75</v>
       </c>
       <c r="E148" t="s">
+        <v>40</v>
+      </c>
+      <c r="F148" t="s">
+        <v>39</v>
+      </c>
+      <c r="G148">
+        <v>2</v>
+      </c>
+      <c r="H148">
+        <v>2</v>
+      </c>
+      <c r="I148" t="s">
         <v>43</v>
-      </c>
-      <c r="F148" t="s">
-        <v>42</v>
-      </c>
-      <c r="G148">
-        <v>2</v>
-      </c>
-      <c r="H148">
-        <v>2</v>
-      </c>
-      <c r="I148" t="s">
-        <v>46</v>
       </c>
       <c r="J148">
         <v>3</v>
@@ -13255,16 +13246,16 @@
         <v>7623890</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D149" s="2">
         <v>45308.91666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13273,7 +13264,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J149">
         <v>4</v>
@@ -13341,16 +13332,16 @@
         <v>7623888</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D150" s="2">
         <v>45308.95833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13359,7 +13350,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13427,16 +13418,16 @@
         <v>7623974</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D151" s="2">
         <v>45309.95833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13445,7 +13436,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J151">
         <v>6</v>
@@ -13513,16 +13504,16 @@
         <v>7623891</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D152" s="2">
         <v>45311.75</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13531,7 +13522,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13599,16 +13590,16 @@
         <v>7623892</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D153" s="2">
         <v>45311.875</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13617,7 +13608,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J153">
         <v>1.363</v>
@@ -13685,25 +13676,25 @@
         <v>7623893</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D154" s="2">
         <v>45311.95833333334</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F154" t="s">
+        <v>40</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
         <v>43</v>
-      </c>
-      <c r="G154">
-        <v>0</v>
-      </c>
-      <c r="H154">
-        <v>0</v>
-      </c>
-      <c r="I154" t="s">
-        <v>46</v>
       </c>
       <c r="J154">
         <v>1.727</v>
@@ -13771,16 +13762,16 @@
         <v>7623975</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D155" s="2">
         <v>45311.97916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13789,7 +13780,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J155">
         <v>1.533</v>
@@ -13857,16 +13848,16 @@
         <v>7623976</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D156" s="2">
         <v>45312.79166666666</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13875,7 +13866,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J156">
         <v>1.444</v>
@@ -13943,16 +13934,16 @@
         <v>7623977</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D157" s="2">
         <v>45312.875</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13961,7 +13952,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J157">
         <v>1.727</v>
@@ -14029,16 +14020,16 @@
         <v>7623897</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D158" s="2">
         <v>45314.95833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14047,7 +14038,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J158">
         <v>1.4</v>
@@ -14115,16 +14106,16 @@
         <v>7623896</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D159" s="2">
         <v>45315.75</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F159" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -14133,7 +14124,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14201,16 +14192,16 @@
         <v>7623895</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D160" s="2">
         <v>45315.875</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14219,7 +14210,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J160">
         <v>1.833</v>
@@ -14287,16 +14278,16 @@
         <v>7624966</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D161" s="2">
         <v>45315.95833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14305,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14373,16 +14364,16 @@
         <v>7623894</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D162" s="2">
         <v>45316.91666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14391,7 +14382,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J162">
         <v>2.3</v>
@@ -14459,16 +14450,16 @@
         <v>7623898</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D163" s="2">
         <v>45316.95833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14477,7 +14468,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J163">
         <v>1.909</v>
@@ -14545,16 +14536,16 @@
         <v>7623901</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D164" s="2">
         <v>45318.75</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14563,7 +14554,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14631,16 +14622,16 @@
         <v>7623979</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D165" s="2">
         <v>45318.875</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14649,7 +14640,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14717,16 +14708,16 @@
         <v>7623978</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2">
         <v>45318.95833333334</v>
       </c>
       <c r="E166" t="s">
+        <v>30</v>
+      </c>
+      <c r="F166" t="s">
         <v>33</v>
-      </c>
-      <c r="F166" t="s">
-        <v>36</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14735,7 +14726,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J166">
         <v>3.8</v>
@@ -14803,16 +14794,16 @@
         <v>7623902</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D167" s="2">
         <v>45319.75</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14821,7 +14812,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14889,16 +14880,16 @@
         <v>7623899</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D168" s="2">
         <v>45319.79166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14907,7 +14898,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J168">
         <v>1.615</v>
@@ -14975,16 +14966,16 @@
         <v>7623900</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D169" s="2">
         <v>45319.91666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -14993,7 +14984,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15061,16 +15052,16 @@
         <v>7623905</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D170" s="2">
         <v>45323.95833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15079,7 +15070,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J170">
         <v>1.333</v>
@@ -15147,16 +15138,16 @@
         <v>7623934</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D171" s="2">
         <v>45330.95833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F171" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15165,7 +15156,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J171">
         <v>1.444</v>
@@ -15233,16 +15224,16 @@
         <v>7623909</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D172" s="2">
         <v>45332.875</v>
       </c>
       <c r="E172" t="s">
+        <v>29</v>
+      </c>
+      <c r="F172" t="s">
         <v>32</v>
-      </c>
-      <c r="F172" t="s">
-        <v>35</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15251,7 +15242,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15319,16 +15310,16 @@
         <v>7623907</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D173" s="2">
         <v>45332.91666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15337,7 +15328,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15405,16 +15396,16 @@
         <v>7623983</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D174" s="2">
         <v>45333</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15423,7 +15414,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J174">
         <v>2.625</v>
@@ -15491,16 +15482,16 @@
         <v>7623982</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D175" s="2">
         <v>45333.58333333334</v>
       </c>
       <c r="E175" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175" t="s">
         <v>37</v>
-      </c>
-      <c r="F175" t="s">
-        <v>40</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15509,7 +15500,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15577,16 +15568,16 @@
         <v>7623910</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D176" s="2">
         <v>45333.75</v>
       </c>
       <c r="E176" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15595,7 +15586,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J176">
         <v>5.5</v>
@@ -15663,16 +15654,16 @@
         <v>7623908</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D177" s="2">
         <v>45333.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15681,7 +15672,7 @@
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J177">
         <v>2.3</v>
@@ -15749,16 +15740,16 @@
         <v>7623984</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D178" s="2">
         <v>45338.875</v>
       </c>
       <c r="E178" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15767,7 +15758,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J178">
         <v>2.7</v>
@@ -15835,17 +15826,17 @@
         <v>7623913</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D179" s="2">
         <v>45339</v>
       </c>
       <c r="E179" t="s">
+        <v>32</v>
+      </c>
+      <c r="F179" t="s">
         <v>35</v>
       </c>
-      <c r="F179" t="s">
-        <v>38</v>
-      </c>
       <c r="G179">
         <v>0</v>
       </c>
@@ -15853,7 +15844,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J179">
         <v>2.25</v>
@@ -15921,16 +15912,16 @@
         <v>7623914</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D180" s="2">
         <v>45339.75</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15939,7 +15930,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J180">
         <v>2</v>
@@ -16007,16 +15998,16 @@
         <v>7623915</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D181" s="2">
         <v>45339.92708333334</v>
       </c>
       <c r="E181" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -16025,7 +16016,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J181">
         <v>2</v>
@@ -16093,16 +16084,16 @@
         <v>7623911</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D182" s="2">
         <v>45340.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16111,7 +16102,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16179,16 +16170,16 @@
         <v>7623912</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D183" s="2">
         <v>45340.875</v>
       </c>
       <c r="E183" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F183" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16197,7 +16188,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J183">
         <v>1.8</v>
@@ -16265,16 +16256,16 @@
         <v>7764338</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D184" s="2">
         <v>45342.91666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16283,7 +16274,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J184">
         <v>2.1</v>
@@ -16351,16 +16342,16 @@
         <v>7764528</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D185" s="2">
         <v>45342.95833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G185">
         <v>3</v>
@@ -16369,7 +16360,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J185">
         <v>1.533</v>
@@ -16437,16 +16428,16 @@
         <v>7764930</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D186" s="2">
         <v>45343.75</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16455,7 +16446,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J186">
         <v>2</v>
@@ -16523,16 +16514,16 @@
         <v>7764929</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D187" s="2">
         <v>45343.91666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F187" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16541,7 +16532,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J187">
         <v>1.909</v>
@@ -16609,16 +16600,16 @@
         <v>7763915</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D188" s="2">
         <v>45343.95833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16627,7 +16618,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J188">
         <v>1.25</v>
@@ -16695,16 +16686,16 @@
         <v>7623917</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D189" s="2">
         <v>45346.75</v>
       </c>
       <c r="E189" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16713,7 +16704,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J189">
         <v>5</v>
@@ -16781,16 +16772,16 @@
         <v>7623918</v>
       </c>
       <c r="C190" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D190" s="2">
         <v>45346.875</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16799,7 +16790,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J190">
         <v>1.909</v>
@@ -16867,16 +16858,16 @@
         <v>7623985</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D191" s="2">
         <v>45346.9375</v>
       </c>
       <c r="E191" t="s">
+        <v>33</v>
+      </c>
+      <c r="F191" t="s">
         <v>36</v>
-      </c>
-      <c r="F191" t="s">
-        <v>39</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16885,7 +16876,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J191">
         <v>1.571</v>
@@ -16953,16 +16944,16 @@
         <v>7623916</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D192" s="2">
         <v>45347.75</v>
       </c>
       <c r="E192" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F192" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -16971,7 +16962,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J192">
         <v>2.05</v>
@@ -17039,25 +17030,25 @@
         <v>7623919</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D193" s="2">
         <v>45347.75</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F193" t="s">
+        <v>39</v>
+      </c>
+      <c r="G193">
+        <v>2</v>
+      </c>
+      <c r="H193">
+        <v>0</v>
+      </c>
+      <c r="I193" t="s">
         <v>42</v>
-      </c>
-      <c r="G193">
-        <v>2</v>
-      </c>
-      <c r="H193">
-        <v>0</v>
-      </c>
-      <c r="I193" t="s">
-        <v>45</v>
       </c>
       <c r="J193">
         <v>1.75</v>
@@ -17125,16 +17116,16 @@
         <v>7623986</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D194" s="2">
         <v>45347.875</v>
       </c>
       <c r="E194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17143,7 +17134,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J194">
         <v>2.625</v>
@@ -17211,16 +17202,16 @@
         <v>7623931</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D195" s="2">
         <v>45349.91666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17229,7 +17220,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J195">
         <v>1.333</v>
@@ -17297,16 +17288,16 @@
         <v>7623932</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D196" s="2">
         <v>45350.75</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17315,7 +17306,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17383,16 +17374,16 @@
         <v>7623935</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D197" s="2">
         <v>45350.89583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F197" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -17401,7 +17392,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J197">
         <v>2.2</v>
@@ -17469,16 +17460,16 @@
         <v>7623933</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D198" s="2">
         <v>45350.95833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G198">
         <v>4</v>
@@ -17487,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J198">
         <v>1.533</v>
@@ -17555,16 +17546,16 @@
         <v>7623920</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D199" s="2">
         <v>45352.95833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G199">
         <v>4</v>
@@ -17573,7 +17564,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J199">
         <v>1.25</v>
@@ -17641,16 +17632,16 @@
         <v>7623921</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D200" s="2">
         <v>45353.75</v>
       </c>
       <c r="E200" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F200" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G200">
         <v>1</v>
@@ -17659,7 +17650,7 @@
         <v>2</v>
       </c>
       <c r="I200" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J200">
         <v>2.75</v>
@@ -17727,16 +17718,16 @@
         <v>7624967</v>
       </c>
       <c r="C201" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D201" s="2">
         <v>45353.75</v>
       </c>
       <c r="E201" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F201" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G201">
         <v>0</v>
@@ -17745,7 +17736,7 @@
         <v>0</v>
       </c>
       <c r="I201" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J201">
         <v>3.75</v>
@@ -17813,16 +17804,16 @@
         <v>7623922</v>
       </c>
       <c r="C202" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D202" s="2">
         <v>45353.95833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17831,7 +17822,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J202">
         <v>2.375</v>
@@ -17899,16 +17890,16 @@
         <v>7623987</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D203" s="2">
         <v>45354.79166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F203" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17917,7 +17908,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J203">
         <v>1.571</v>
@@ -17985,25 +17976,25 @@
         <v>7623988</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D204" s="2">
         <v>45354.875</v>
       </c>
       <c r="E204" t="s">
+        <v>39</v>
+      </c>
+      <c r="F204" t="s">
+        <v>34</v>
+      </c>
+      <c r="G204">
+        <v>2</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+      <c r="I204" t="s">
         <v>42</v>
-      </c>
-      <c r="F204" t="s">
-        <v>37</v>
-      </c>
-      <c r="G204">
-        <v>2</v>
-      </c>
-      <c r="H204">
-        <v>0</v>
-      </c>
-      <c r="I204" t="s">
-        <v>45</v>
       </c>
       <c r="J204">
         <v>2.45</v>
@@ -18071,16 +18062,16 @@
         <v>7623926</v>
       </c>
       <c r="C205" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D205" s="2">
         <v>45359.95833333334</v>
       </c>
       <c r="E205" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F205" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18089,7 +18080,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J205">
         <v>1.666</v>
@@ -18157,16 +18148,16 @@
         <v>7920639</v>
       </c>
       <c r="C206" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D206" s="2">
         <v>45360.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18175,7 +18166,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J206">
         <v>1.666</v>
@@ -18243,16 +18234,16 @@
         <v>7623923</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D207" s="2">
         <v>45360.91666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18261,7 +18252,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J207">
         <v>1.363</v>
@@ -18329,25 +18320,25 @@
         <v>7623990</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D208" s="2">
         <v>45360.95833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F208" t="s">
+        <v>39</v>
+      </c>
+      <c r="G208">
+        <v>2</v>
+      </c>
+      <c r="H208">
+        <v>0</v>
+      </c>
+      <c r="I208" t="s">
         <v>42</v>
-      </c>
-      <c r="G208">
-        <v>2</v>
-      </c>
-      <c r="H208">
-        <v>0</v>
-      </c>
-      <c r="I208" t="s">
-        <v>45</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18415,16 +18406,16 @@
         <v>7623925</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D209" s="2">
         <v>45361.75</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18433,7 +18424,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J209">
         <v>5</v>
@@ -18501,16 +18492,16 @@
         <v>7916002</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D210" s="2">
         <v>45361.79166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F210" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18519,7 +18510,7 @@
         <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J210">
         <v>6.5</v>
@@ -18587,16 +18578,16 @@
         <v>7623995</v>
       </c>
       <c r="C211" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D211" s="2">
         <v>45377.83333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18605,7 +18596,7 @@
         <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J211">
         <v>2.3</v>
@@ -18673,16 +18664,16 @@
         <v>7623936</v>
       </c>
       <c r="C212" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D212" s="2">
         <v>45377.875</v>
       </c>
       <c r="E212" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -18691,7 +18682,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J212">
         <v>2.7</v>
@@ -18759,16 +18750,16 @@
         <v>7623937</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D213" s="2">
         <v>45377.9375</v>
       </c>
       <c r="E213" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18777,7 +18768,7 @@
         <v>4</v>
       </c>
       <c r="I213" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J213">
         <v>3.75</v>
@@ -18845,16 +18836,16 @@
         <v>7623938</v>
       </c>
       <c r="C214" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D214" s="2">
         <v>45378.75</v>
       </c>
       <c r="E214" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -18863,7 +18854,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J214">
         <v>3</v>
@@ -18931,16 +18922,16 @@
         <v>7623993</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D215" s="2">
         <v>45378.91666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18949,7 +18940,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J215">
         <v>2.5</v>
@@ -19017,16 +19008,16 @@
         <v>7623994</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D216" s="2">
         <v>45378.95833333334</v>
       </c>
       <c r="E216" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -19035,7 +19026,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J216">
         <v>3.25</v>
@@ -19103,16 +19094,16 @@
         <v>7623941</v>
       </c>
       <c r="C217" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D217" s="2">
         <v>45380.91666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F217" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -19121,7 +19112,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J217">
         <v>1.75</v>
@@ -19189,16 +19180,16 @@
         <v>8022822</v>
       </c>
       <c r="C218" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D218" s="2">
         <v>45382.75</v>
       </c>
       <c r="E218" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19207,7 +19198,7 @@
         <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J218">
         <v>2.2</v>
@@ -19275,16 +19266,16 @@
         <v>7624969</v>
       </c>
       <c r="C219" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D219" s="2">
         <v>45382.79166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19293,7 +19284,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J219">
         <v>1.833</v>
@@ -19361,16 +19352,16 @@
         <v>7623943</v>
       </c>
       <c r="C220" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D220" s="2">
         <v>45382.85416666666</v>
       </c>
       <c r="E220" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G220">
         <v>3</v>
@@ -19379,7 +19370,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J220">
         <v>2.1</v>
@@ -19447,16 +19438,16 @@
         <v>7623939</v>
       </c>
       <c r="C221" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D221" s="2">
         <v>45382.91666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19465,7 +19456,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J221">
         <v>1.615</v>
@@ -19533,16 +19524,16 @@
         <v>7623940</v>
       </c>
       <c r="C222" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D222" s="2">
         <v>45383.75</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19551,7 +19542,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J222">
         <v>3</v>
@@ -19619,16 +19610,16 @@
         <v>7980420</v>
       </c>
       <c r="C223" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D223" s="2">
         <v>45385.95833333334</v>
       </c>
       <c r="E223" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19637,7 +19628,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J223">
         <v>1.222</v>
@@ -19702,10 +19693,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7623944</v>
+        <v>7623946</v>
       </c>
       <c r="C224" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D224" s="2">
         <v>45388.83333333334</v>
@@ -19714,73 +19705,73 @@
         <v>34</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J224">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="K224">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L224">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="M224">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N224">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O224">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="P224">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q224">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T224">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V224">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19788,85 +19779,85 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7623946</v>
+        <v>7623944</v>
       </c>
       <c r="C225" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D225" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E225" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="J225">
+        <v>2.9</v>
+      </c>
+      <c r="K225">
+        <v>3.25</v>
+      </c>
+      <c r="L225">
+        <v>2.375</v>
+      </c>
+      <c r="M225">
         <v>3.4</v>
       </c>
-      <c r="K225">
-        <v>3.4</v>
-      </c>
-      <c r="L225">
+      <c r="N225">
+        <v>3.2</v>
+      </c>
+      <c r="O225">
+        <v>2.15</v>
+      </c>
+      <c r="P225">
+        <v>0.25</v>
+      </c>
+      <c r="Q225">
         <v>1.95</v>
       </c>
-      <c r="M225">
-        <v>3.8</v>
-      </c>
-      <c r="N225">
-        <v>3.6</v>
-      </c>
-      <c r="O225">
-        <v>1.75</v>
-      </c>
-      <c r="P225">
-        <v>0.75</v>
-      </c>
-      <c r="Q225">
+      <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
+        <v>2.5</v>
+      </c>
+      <c r="T225">
+        <v>2</v>
+      </c>
+      <c r="U225">
         <v>1.8</v>
       </c>
-      <c r="R225">
-        <v>2</v>
-      </c>
-      <c r="S225">
-        <v>2.75</v>
-      </c>
-      <c r="T225">
-        <v>1.925</v>
-      </c>
-      <c r="U225">
-        <v>1.875</v>
-      </c>
       <c r="V225">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB225">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -19877,16 +19868,16 @@
         <v>7623996</v>
       </c>
       <c r="C226" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D226" s="2">
         <v>45388.92708333334</v>
       </c>
       <c r="E226" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G226">
         <v>3</v>
@@ -19895,7 +19886,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J226">
         <v>1.363</v>
@@ -19963,16 +19954,16 @@
         <v>7623947</v>
       </c>
       <c r="C227" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D227" s="2">
         <v>45388.95833333334</v>
       </c>
       <c r="E227" t="s">
+        <v>37</v>
+      </c>
+      <c r="F227" t="s">
         <v>40</v>
-      </c>
-      <c r="F227" t="s">
-        <v>43</v>
       </c>
       <c r="G227">
         <v>3</v>
@@ -19981,7 +19972,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J227">
         <v>1.3</v>
@@ -20049,16 +20040,16 @@
         <v>8048492</v>
       </c>
       <c r="C228" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D228" s="2">
         <v>45389.75</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20067,7 +20058,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J228">
         <v>2.2</v>
@@ -20135,16 +20126,16 @@
         <v>7623997</v>
       </c>
       <c r="C229" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D229" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E229" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F229" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -20153,7 +20144,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J229">
         <v>1.285</v>
@@ -20221,16 +20212,16 @@
         <v>8070744</v>
       </c>
       <c r="C230" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D230" s="2">
         <v>45394.95833333334</v>
       </c>
       <c r="E230" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20239,7 +20230,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J230">
         <v>1.833</v>
@@ -20304,85 +20295,85 @@
         <v>229</v>
       </c>
       <c r="B231">
-        <v>7623999</v>
+        <v>7623950</v>
       </c>
       <c r="C231" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D231" s="2">
         <v>45395.75</v>
       </c>
       <c r="E231" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F231" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="J231">
-        <v>2.15</v>
+        <v>6</v>
       </c>
       <c r="K231">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="L231">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="M231">
-        <v>2.15</v>
+        <v>9</v>
       </c>
       <c r="N231">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="O231">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="P231">
-        <v>-0.25</v>
+        <v>1</v>
       </c>
       <c r="Q231">
-        <v>1.825</v>
+        <v>2.025</v>
       </c>
       <c r="R231">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S231">
         <v>2.5</v>
       </c>
       <c r="T231">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="U231">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V231">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="W231">
         <v>-1</v>
       </c>
       <c r="X231">
-        <v>-1</v>
+        <v>0.3999999999999999</v>
       </c>
       <c r="Y231">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="Z231">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA231">
+        <v>-1</v>
+      </c>
+      <c r="AB231">
         <v>1</v>
-      </c>
-      <c r="AB231">
-        <v>-1</v>
       </c>
     </row>
     <row r="232" spans="1:28">
@@ -20390,85 +20381,85 @@
         <v>230</v>
       </c>
       <c r="B232">
-        <v>7623950</v>
+        <v>7623999</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D232" s="2">
         <v>45395.75</v>
       </c>
       <c r="E232" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F232" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H232">
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J232">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="K232">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="L232">
-        <v>1.5</v>
+        <v>3.1</v>
       </c>
       <c r="M232">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="N232">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="O232">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="P232">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="Q232">
-        <v>2.025</v>
+        <v>1.825</v>
       </c>
       <c r="R232">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S232">
         <v>2.5</v>
       </c>
       <c r="T232">
+        <v>2</v>
+      </c>
+      <c r="U232">
         <v>1.8</v>
       </c>
-      <c r="U232">
-        <v>2</v>
-      </c>
       <c r="V232">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="W232">
         <v>-1</v>
       </c>
       <c r="X232">
-        <v>0.3999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="Y232">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="Z232">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA232">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB232">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="233" spans="1:28">
@@ -20479,16 +20470,16 @@
         <v>7623998</v>
       </c>
       <c r="C233" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D233" s="2">
         <v>45395.86458333334</v>
       </c>
       <c r="E233" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G233">
         <v>3</v>
@@ -20497,7 +20488,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J233">
         <v>2.625</v>
@@ -20565,16 +20556,16 @@
         <v>8070745</v>
       </c>
       <c r="C234" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D234" s="2">
         <v>45395.875</v>
       </c>
       <c r="E234" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20583,7 +20574,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J234">
         <v>4.2</v>
@@ -20651,16 +20642,16 @@
         <v>7623951</v>
       </c>
       <c r="C235" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D235" s="2">
         <v>45395.97916666666</v>
       </c>
       <c r="E235" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -20669,7 +20660,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J235">
         <v>6</v>
@@ -20737,16 +20728,16 @@
         <v>7623953</v>
       </c>
       <c r="C236" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D236" s="2">
         <v>45398.95833333334</v>
       </c>
       <c r="E236" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F236" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G236">
         <v>2</v>
@@ -20755,7 +20746,7 @@
         <v>2</v>
       </c>
       <c r="I236" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J236">
         <v>1.363</v>
@@ -20820,85 +20811,85 @@
         <v>235</v>
       </c>
       <c r="B237">
-        <v>8096859</v>
+        <v>8096857</v>
       </c>
       <c r="C237" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D237" s="2">
         <v>45399.75</v>
       </c>
       <c r="E237" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F237" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G237">
         <v>0</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J237">
-        <v>2.8</v>
+        <v>1.666</v>
       </c>
       <c r="K237">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L237">
-        <v>2.4</v>
+        <v>4.75</v>
       </c>
       <c r="M237">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="N237">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O237">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="P237">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="Q237">
-        <v>1.75</v>
+        <v>1.975</v>
       </c>
       <c r="R237">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S237">
         <v>2.5</v>
       </c>
       <c r="T237">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="U237">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V237">
         <v>-1</v>
       </c>
       <c r="W237">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X237">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Y237">
         <v>-1</v>
       </c>
       <c r="Z237">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA237">
         <v>-1</v>
       </c>
       <c r="AB237">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="238" spans="1:28">
@@ -20906,16 +20897,16 @@
         <v>236</v>
       </c>
       <c r="B238">
-        <v>8096857</v>
+        <v>8096859</v>
       </c>
       <c r="C238" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D238" s="2">
         <v>45399.75</v>
       </c>
       <c r="E238" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F238" t="s">
         <v>33</v>
@@ -20924,67 +20915,67 @@
         <v>0</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J238">
-        <v>1.666</v>
+        <v>2.8</v>
       </c>
       <c r="K238">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="L238">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="M238">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="N238">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="O238">
-        <v>4.5</v>
+        <v>2.3</v>
       </c>
       <c r="P238">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="Q238">
-        <v>1.975</v>
+        <v>1.75</v>
       </c>
       <c r="R238">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="S238">
         <v>2.5</v>
       </c>
       <c r="T238">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="U238">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V238">
         <v>-1</v>
       </c>
       <c r="W238">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X238">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Y238">
         <v>-1</v>
       </c>
       <c r="Z238">
+        <v>1.05</v>
+      </c>
+      <c r="AA238">
+        <v>-1</v>
+      </c>
+      <c r="AB238">
         <v>0.825</v>
-      </c>
-      <c r="AA238">
-        <v>-1</v>
-      </c>
-      <c r="AB238">
-        <v>0.8</v>
       </c>
     </row>
     <row r="239" spans="1:28">
@@ -20995,16 +20986,16 @@
         <v>8096858</v>
       </c>
       <c r="C239" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D239" s="2">
         <v>45399.875</v>
       </c>
       <c r="E239" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F239" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21013,7 +21004,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J239">
         <v>1.571</v>
@@ -21081,16 +21072,16 @@
         <v>7623954</v>
       </c>
       <c r="C240" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D240" s="2">
         <v>45399.95833333334</v>
       </c>
       <c r="E240" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F240" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -21099,7 +21090,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J240">
         <v>1.166</v>
@@ -21167,16 +21158,16 @@
         <v>7624000</v>
       </c>
       <c r="C241" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D241" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E241" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F241" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21185,7 +21176,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J241">
         <v>1.666</v>
@@ -21253,16 +21244,16 @@
         <v>7623960</v>
       </c>
       <c r="C242" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D242" s="2">
         <v>45402.79166666666</v>
       </c>
       <c r="E242" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F242" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21271,7 +21262,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -21339,16 +21330,16 @@
         <v>7623958</v>
       </c>
       <c r="C243" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D243" s="2">
         <v>45402.95833333334</v>
       </c>
       <c r="E243" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F243" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G243">
         <v>2</v>
@@ -21357,7 +21348,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J243">
         <v>2.05</v>
@@ -21425,16 +21416,16 @@
         <v>7623956</v>
       </c>
       <c r="C244" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D244" s="2">
         <v>45403.83333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F244" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21443,7 +21434,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J244">
         <v>2.75</v>
@@ -21511,16 +21502,16 @@
         <v>7623959</v>
       </c>
       <c r="C245" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D245" s="2">
         <v>45403.875</v>
       </c>
       <c r="E245" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F245" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G245">
         <v>3</v>
@@ -21529,7 +21520,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="J245">
         <v>2.2</v>
@@ -21597,16 +21588,16 @@
         <v>7624002</v>
       </c>
       <c r="C246" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D246" s="2">
         <v>45403.92708333334</v>
       </c>
       <c r="E246" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F246" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21615,7 +21606,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J246">
         <v>1.615</v>
@@ -21683,16 +21674,16 @@
         <v>7623957</v>
       </c>
       <c r="C247" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D247" s="2">
         <v>45404.95833333334</v>
       </c>
       <c r="E247" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F247" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -21701,7 +21692,7 @@
         <v>2</v>
       </c>
       <c r="I247" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J247">
         <v>3.3</v>
@@ -21769,16 +21760,16 @@
         <v>8019072</v>
       </c>
       <c r="C248" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D248" s="2">
         <v>45406.95833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F248" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -21787,7 +21778,7 @@
         <v>3</v>
       </c>
       <c r="I248" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J248">
         <v>2.625</v>
@@ -21855,52 +21846,52 @@
         <v>27</v>
       </c>
       <c r="C249" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D249" s="2">
-        <v>45409.75</v>
+        <v>45410.79166666666</v>
       </c>
       <c r="E249" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F249" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J249">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="K249">
-        <v>3.25</v>
+        <v>5.5</v>
       </c>
       <c r="L249">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="M249">
-        <v>3.1</v>
+        <v>1.285</v>
       </c>
       <c r="N249">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="O249">
-        <v>2.25</v>
+        <v>8.5</v>
       </c>
       <c r="P249">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="Q249">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="R249">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S249">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T249">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="U249">
-        <v>1.95</v>
+        <v>1.775</v>
       </c>
       <c r="V249">
         <v>0</v>
@@ -21909,201 +21900,6 @@
         <v>0</v>
       </c>
       <c r="X249">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="250" spans="1:28">
-      <c r="A250" s="1">
-        <v>248</v>
-      </c>
-      <c r="B250" t="s">
-        <v>28</v>
-      </c>
-      <c r="C250" t="s">
-        <v>31</v>
-      </c>
-      <c r="D250" s="2">
-        <v>45409.75</v>
-      </c>
-      <c r="E250" t="s">
-        <v>43</v>
-      </c>
-      <c r="F250" t="s">
-        <v>34</v>
-      </c>
-      <c r="J250">
-        <v>2.3</v>
-      </c>
-      <c r="K250">
-        <v>3.25</v>
-      </c>
-      <c r="L250">
-        <v>3</v>
-      </c>
-      <c r="M250">
-        <v>2.25</v>
-      </c>
-      <c r="N250">
-        <v>3.2</v>
-      </c>
-      <c r="O250">
-        <v>3</v>
-      </c>
-      <c r="P250">
-        <v>-0.25</v>
-      </c>
-      <c r="Q250">
-        <v>2.025</v>
-      </c>
-      <c r="R250">
-        <v>1.775</v>
-      </c>
-      <c r="S250">
-        <v>2.25</v>
-      </c>
-      <c r="T250">
-        <v>1.95</v>
-      </c>
-      <c r="U250">
-        <v>1.85</v>
-      </c>
-      <c r="V250">
-        <v>0</v>
-      </c>
-      <c r="W250">
-        <v>0</v>
-      </c>
-      <c r="X250">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:28">
-      <c r="A251" s="1">
-        <v>249</v>
-      </c>
-      <c r="B251" t="s">
-        <v>29</v>
-      </c>
-      <c r="C251" t="s">
-        <v>31</v>
-      </c>
-      <c r="D251" s="2">
-        <v>45409.875</v>
-      </c>
-      <c r="E251" t="s">
-        <v>42</v>
-      </c>
-      <c r="F251" t="s">
-        <v>32</v>
-      </c>
-      <c r="J251">
-        <v>2.2</v>
-      </c>
-      <c r="K251">
-        <v>3.2</v>
-      </c>
-      <c r="L251">
-        <v>3.25</v>
-      </c>
-      <c r="M251">
-        <v>2.3</v>
-      </c>
-      <c r="N251">
-        <v>3.2</v>
-      </c>
-      <c r="O251">
-        <v>3</v>
-      </c>
-      <c r="P251">
-        <v>-0.25</v>
-      </c>
-      <c r="Q251">
-        <v>2</v>
-      </c>
-      <c r="R251">
-        <v>1.8</v>
-      </c>
-      <c r="S251">
-        <v>2.75</v>
-      </c>
-      <c r="T251">
-        <v>2</v>
-      </c>
-      <c r="U251">
-        <v>1.8</v>
-      </c>
-      <c r="V251">
-        <v>0</v>
-      </c>
-      <c r="W251">
-        <v>0</v>
-      </c>
-      <c r="X251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:28">
-      <c r="A252" s="1">
-        <v>250</v>
-      </c>
-      <c r="B252" t="s">
-        <v>30</v>
-      </c>
-      <c r="C252" t="s">
-        <v>31</v>
-      </c>
-      <c r="D252" s="2">
-        <v>45410.79166666666</v>
-      </c>
-      <c r="E252" t="s">
-        <v>35</v>
-      </c>
-      <c r="F252" t="s">
-        <v>41</v>
-      </c>
-      <c r="J252">
-        <v>1.285</v>
-      </c>
-      <c r="K252">
-        <v>5.5</v>
-      </c>
-      <c r="L252">
-        <v>8.5</v>
-      </c>
-      <c r="M252">
-        <v>1.285</v>
-      </c>
-      <c r="N252">
-        <v>5.5</v>
-      </c>
-      <c r="O252">
-        <v>8.5</v>
-      </c>
-      <c r="P252">
-        <v>-1.5</v>
-      </c>
-      <c r="Q252">
-        <v>1.825</v>
-      </c>
-      <c r="R252">
-        <v>1.975</v>
-      </c>
-      <c r="S252">
-        <v>2.75</v>
-      </c>
-      <c r="T252">
-        <v>1.825</v>
-      </c>
-      <c r="U252">
-        <v>1.975</v>
-      </c>
-      <c r="V252">
-        <v>0</v>
-      </c>
-      <c r="W252">
-        <v>0</v>
-      </c>
-      <c r="X252">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -97,7 +97,16 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8159342</t>
+    <t>8135288</t>
+  </si>
+  <si>
+    <t>8162896</t>
+  </si>
+  <si>
+    <t>8164717</t>
+  </si>
+  <si>
+    <t>8162897</t>
   </si>
   <si>
     <t>Costa Rica Primera Division</t>
@@ -507,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB253"/>
+  <dimension ref="A1:AB256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,16 +613,16 @@
         <v>6782492</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2">
         <v>45132.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -622,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J2">
         <v>3.8</v>
@@ -690,16 +699,16 @@
         <v>6781348</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D3" s="2">
         <v>45132.96875</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -708,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -776,16 +785,16 @@
         <v>6782489</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" s="2">
         <v>45133.91666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -794,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J4">
         <v>4.5</v>
@@ -862,16 +871,16 @@
         <v>6782491</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D5" s="2">
         <v>45133.95833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -880,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J5">
         <v>1.4</v>
@@ -948,16 +957,16 @@
         <v>6782488</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6" s="2">
         <v>45134.9375</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -966,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J6">
         <v>1.5</v>
@@ -1034,16 +1043,16 @@
         <v>6782490</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" s="2">
         <v>45134.95833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1052,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1120,16 +1129,16 @@
         <v>6983271</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2">
         <v>45136.875</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1138,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J8">
         <v>1.222</v>
@@ -1206,16 +1215,16 @@
         <v>6781349</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2">
         <v>45136.91666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1224,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1292,16 +1301,16 @@
         <v>6782494</v>
       </c>
       <c r="C10" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D10" s="2">
         <v>45136.97916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1310,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J10">
         <v>1.285</v>
@@ -1378,16 +1387,16 @@
         <v>6782493</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D11" s="2">
         <v>45137.75</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1396,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J11">
         <v>4.2</v>
@@ -1464,16 +1473,16 @@
         <v>6782497</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2">
         <v>45137.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1482,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J12">
         <v>1.909</v>
@@ -1550,16 +1559,16 @@
         <v>6782496</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>45137.875</v>
       </c>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1568,7 +1577,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J13">
         <v>3.75</v>
@@ -1636,16 +1645,16 @@
         <v>6782499</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" s="2">
         <v>45143.75</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1654,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J14">
         <v>2.25</v>
@@ -1722,16 +1731,16 @@
         <v>6782498</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
         <v>45143.875</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1740,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -1808,16 +1817,16 @@
         <v>6782501</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D16" s="2">
         <v>45143.95833333334</v>
       </c>
       <c r="E16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1826,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J16">
         <v>2.5</v>
@@ -1894,16 +1903,16 @@
         <v>6782502</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2">
         <v>45143.96875</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1912,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J17">
         <v>3.25</v>
@@ -1980,16 +1989,16 @@
         <v>6781350</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2">
         <v>45144.58333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1998,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2066,16 +2075,16 @@
         <v>6782500</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2084,7 +2093,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J19">
         <v>1.666</v>
@@ -2152,16 +2161,16 @@
         <v>6782503</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D20" s="2">
         <v>45149.9375</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2170,7 +2179,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2238,16 +2247,16 @@
         <v>6782506</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21" s="2">
         <v>45150.75</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2256,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2324,16 +2333,16 @@
         <v>6782504</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2">
         <v>45150.875</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2342,7 +2351,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J22">
         <v>2.5</v>
@@ -2410,16 +2419,16 @@
         <v>6782505</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D23" s="2">
         <v>45150.95833333334</v>
       </c>
       <c r="E23" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2428,7 +2437,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J23">
         <v>1.4</v>
@@ -2496,16 +2505,16 @@
         <v>6782507</v>
       </c>
       <c r="C24" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>45151.79166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2514,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J24">
         <v>4.75</v>
@@ -2582,16 +2591,16 @@
         <v>6781351</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D25" s="2">
         <v>45151.875</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2600,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J25">
         <v>3.75</v>
@@ -2668,16 +2677,16 @@
         <v>6782510</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D26" s="2">
         <v>45156.95833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2686,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J26">
         <v>1.444</v>
@@ -2754,16 +2763,16 @@
         <v>6782512</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D27" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2772,7 +2781,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J27">
         <v>2.1</v>
@@ -2840,16 +2849,16 @@
         <v>6782509</v>
       </c>
       <c r="C28" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D28" s="2">
         <v>45157.95833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2858,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J28">
         <v>1.571</v>
@@ -2926,16 +2935,16 @@
         <v>6782508</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D29" s="2">
         <v>45158.75</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2944,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J29">
         <v>2.55</v>
@@ -3012,16 +3021,16 @@
         <v>6782511</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D30" s="2">
         <v>45158.875</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F30" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3030,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3098,16 +3107,16 @@
         <v>6781352</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D31" s="2">
         <v>45159.75</v>
       </c>
       <c r="E31" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3116,7 +3125,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J31">
         <v>3.8</v>
@@ -3184,16 +3193,16 @@
         <v>6782514</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D32" s="2">
         <v>45163.95833333334</v>
       </c>
       <c r="E32" t="s">
+        <v>37</v>
+      </c>
+      <c r="F32" t="s">
         <v>34</v>
-      </c>
-      <c r="F32" t="s">
-        <v>31</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3202,7 +3211,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J32">
         <v>1.571</v>
@@ -3270,16 +3279,16 @@
         <v>6782516</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D33" s="2">
         <v>45164.75</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3288,7 +3297,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J33">
         <v>2.2</v>
@@ -3356,16 +3365,16 @@
         <v>7111690</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D34" s="2">
         <v>45164.79166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3374,7 +3383,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J34">
         <v>1.833</v>
@@ -3442,16 +3451,16 @@
         <v>6782513</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D35" s="2">
         <v>45164.91666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3460,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J35">
         <v>3.75</v>
@@ -3528,16 +3537,16 @@
         <v>6781353</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D36" s="2">
         <v>45165.75</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3546,7 +3555,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3614,16 +3623,16 @@
         <v>6782515</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D37" s="2">
         <v>45165.875</v>
       </c>
       <c r="E37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3632,7 +3641,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3700,16 +3709,16 @@
         <v>6782522</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D38" s="2">
         <v>45171.75</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3718,7 +3727,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3786,16 +3795,16 @@
         <v>6781354</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2">
         <v>45171.75</v>
       </c>
       <c r="E39" t="s">
+        <v>39</v>
+      </c>
+      <c r="F39" t="s">
         <v>36</v>
-      </c>
-      <c r="F39" t="s">
-        <v>33</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3804,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -3872,16 +3881,16 @@
         <v>6782521</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D40" s="2">
         <v>45171.85416666666</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3890,7 +3899,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J40">
         <v>2.75</v>
@@ -3958,16 +3967,16 @@
         <v>6782518</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D41" s="2">
         <v>45171.875</v>
       </c>
       <c r="E41" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F41" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3976,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J41">
         <v>2.3</v>
@@ -4044,16 +4053,16 @@
         <v>6782519</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D42" s="2">
         <v>45171.95833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4062,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J42">
         <v>1.363</v>
@@ -4130,16 +4139,16 @@
         <v>6782520</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D43" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
         <v>35</v>
-      </c>
-      <c r="F43" t="s">
-        <v>32</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4148,7 +4157,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4216,16 +4225,16 @@
         <v>6782524</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D44" s="2">
         <v>45178.75</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4234,7 +4243,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J44">
         <v>1.85</v>
@@ -4302,16 +4311,16 @@
         <v>6781355</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D45" s="2">
         <v>45178.79166666666</v>
       </c>
       <c r="E45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F45" t="s">
         <v>39</v>
-      </c>
-      <c r="F45" t="s">
-        <v>36</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4320,7 +4329,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J45">
         <v>1.9</v>
@@ -4388,16 +4397,16 @@
         <v>6782523</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D46" s="2">
         <v>45178.91666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F46" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4406,7 +4415,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4474,17 +4483,17 @@
         <v>6782526</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D47" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E47" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" t="s">
         <v>32</v>
       </c>
-      <c r="F47" t="s">
-        <v>29</v>
-      </c>
       <c r="G47">
         <v>2</v>
       </c>
@@ -4492,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J47">
         <v>1.3</v>
@@ -4560,16 +4569,16 @@
         <v>6782525</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D48" s="2">
         <v>45179.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F48" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4578,7 +4587,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J48">
         <v>2.625</v>
@@ -4646,16 +4655,16 @@
         <v>6782527</v>
       </c>
       <c r="C49" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D49" s="2">
         <v>45179.79166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4664,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J49">
         <v>6</v>
@@ -4732,16 +4741,16 @@
         <v>6782528</v>
       </c>
       <c r="C50" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D50" s="2">
         <v>45181.875</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4750,7 +4759,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J50">
         <v>2.3</v>
@@ -4818,16 +4827,16 @@
         <v>6782532</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D51" s="2">
         <v>45181.95833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4836,7 +4845,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J51">
         <v>4.5</v>
@@ -4904,16 +4913,16 @@
         <v>6782531</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D52" s="2">
         <v>45182.75</v>
       </c>
       <c r="E52" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4922,7 +4931,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -4990,16 +4999,16 @@
         <v>7196890</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D53" s="2">
         <v>45182.875</v>
       </c>
       <c r="E53" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F53" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5008,7 +5017,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5076,16 +5085,16 @@
         <v>6781356</v>
       </c>
       <c r="C54" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D54" s="2">
         <v>45182.91666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5094,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J54">
         <v>1.909</v>
@@ -5162,16 +5171,16 @@
         <v>6782530</v>
       </c>
       <c r="C55" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>45182.97916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5180,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5248,16 +5257,16 @@
         <v>6782538</v>
       </c>
       <c r="C56" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D56" s="2">
         <v>45184.875</v>
       </c>
       <c r="E56" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G56">
         <v>7</v>
@@ -5266,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J56">
         <v>1.2</v>
@@ -5334,16 +5343,16 @@
         <v>6782533</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D57" s="2">
         <v>45184.97916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5352,7 +5361,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5420,16 +5429,16 @@
         <v>6782535</v>
       </c>
       <c r="C58" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D58" s="2">
         <v>45185.83333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5438,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J58">
         <v>2.1</v>
@@ -5506,16 +5515,16 @@
         <v>6782536</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D59" s="2">
         <v>45185.88194444445</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5524,7 +5533,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J59">
         <v>3.4</v>
@@ -5592,16 +5601,16 @@
         <v>6781357</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D60" s="2">
         <v>45185.95833333334</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F60" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G60">
         <v>2</v>
@@ -5610,7 +5619,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J60">
         <v>1.363</v>
@@ -5678,16 +5687,16 @@
         <v>6782537</v>
       </c>
       <c r="C61" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D61" s="2">
         <v>45186.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5696,7 +5705,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J61">
         <v>1.833</v>
@@ -5764,16 +5773,16 @@
         <v>6782540</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D62" s="2">
         <v>45188.75</v>
       </c>
       <c r="E62" t="s">
+        <v>41</v>
+      </c>
+      <c r="F62" t="s">
         <v>38</v>
-      </c>
-      <c r="F62" t="s">
-        <v>35</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5782,7 +5791,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J62">
         <v>4</v>
@@ -5850,16 +5859,16 @@
         <v>7229962</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D63" s="2">
         <v>45188.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5868,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J63">
         <v>1.3</v>
@@ -5936,16 +5945,16 @@
         <v>7233833</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D64" s="2">
         <v>45189.875</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5954,7 +5963,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J64">
         <v>3.6</v>
@@ -6022,16 +6031,16 @@
         <v>6782541</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D65" s="2">
         <v>45189.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6040,7 +6049,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J65">
         <v>1.5</v>
@@ -6108,16 +6117,16 @@
         <v>6782539</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D66" s="2">
         <v>45189.96875</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F66" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6126,7 +6135,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J66">
         <v>1.95</v>
@@ -6194,16 +6203,16 @@
         <v>6781358</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D67" s="2">
         <v>45190.95833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6212,7 +6221,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J67">
         <v>3.1</v>
@@ -6280,16 +6289,16 @@
         <v>6782544</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D68" s="2">
         <v>45192.75</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6298,7 +6307,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J68">
         <v>2.5</v>
@@ -6366,16 +6375,16 @@
         <v>6782545</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D69" s="2">
         <v>45192.85416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6384,7 +6393,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J69">
         <v>1.4</v>
@@ -6452,16 +6461,16 @@
         <v>6782546</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D70" s="2">
         <v>45192.95833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6470,7 +6479,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J70">
         <v>1.285</v>
@@ -6538,16 +6547,16 @@
         <v>6781359</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D71" s="2">
         <v>45193.75</v>
       </c>
       <c r="E71" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6556,7 +6565,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J71">
         <v>1.85</v>
@@ -6624,16 +6633,16 @@
         <v>6782548</v>
       </c>
       <c r="C72" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6642,7 +6651,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J72">
         <v>4.2</v>
@@ -6710,16 +6719,16 @@
         <v>6782547</v>
       </c>
       <c r="C73" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D73" s="2">
         <v>45194.75</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6728,7 +6737,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J73">
         <v>3.1</v>
@@ -6796,16 +6805,16 @@
         <v>6781360</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D74" s="2">
         <v>45199.875</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6814,7 +6823,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J74">
         <v>2.5</v>
@@ -6882,16 +6891,16 @@
         <v>6782553</v>
       </c>
       <c r="C75" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D75" s="2">
         <v>45199.95833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6900,7 +6909,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -6968,16 +6977,16 @@
         <v>6782549</v>
       </c>
       <c r="C76" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D76" s="2">
         <v>45199.96527777778</v>
       </c>
       <c r="E76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6986,7 +6995,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J76">
         <v>1.95</v>
@@ -7054,16 +7063,16 @@
         <v>6782550</v>
       </c>
       <c r="C77" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D77" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7072,7 +7081,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7140,16 +7149,16 @@
         <v>6782552</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D78" s="2">
         <v>45200.75</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F78" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7158,7 +7167,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J78">
         <v>4.5</v>
@@ -7226,16 +7235,16 @@
         <v>6782551</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D79" s="2">
         <v>45200.88541666666</v>
       </c>
       <c r="E79" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F79" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7244,7 +7253,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J79">
         <v>1.3</v>
@@ -7312,16 +7321,16 @@
         <v>6782557</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D80" s="2">
         <v>45205.91666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7330,7 +7339,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J80">
         <v>2.8</v>
@@ -7398,16 +7407,16 @@
         <v>7301749</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D81" s="2">
         <v>45206.83333333334</v>
       </c>
       <c r="E81" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7416,7 +7425,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J81">
         <v>2.05</v>
@@ -7484,16 +7493,16 @@
         <v>6782555</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D82" s="2">
         <v>45206.95833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7502,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J82">
         <v>2.6</v>
@@ -7570,16 +7579,16 @@
         <v>6781361</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D83" s="2">
         <v>45207.75</v>
       </c>
       <c r="E83" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7588,7 +7597,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J83">
         <v>2.55</v>
@@ -7656,16 +7665,16 @@
         <v>6782556</v>
       </c>
       <c r="C84" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D84" s="2">
         <v>45207.85416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7674,7 +7683,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J84">
         <v>1.4</v>
@@ -7742,16 +7751,16 @@
         <v>6782554</v>
       </c>
       <c r="C85" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D85" s="2">
         <v>45207.875</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7760,7 +7769,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -7828,16 +7837,16 @@
         <v>6782562</v>
       </c>
       <c r="C86" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D86" s="2">
         <v>45216.75</v>
       </c>
       <c r="E86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F86" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7846,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J86">
         <v>1.85</v>
@@ -7914,16 +7923,16 @@
         <v>6782563</v>
       </c>
       <c r="C87" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D87" s="2">
         <v>45216.875</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7932,7 +7941,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J87">
         <v>1.615</v>
@@ -8000,16 +8009,16 @@
         <v>6781362</v>
       </c>
       <c r="C88" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D88" s="2">
         <v>45216.95833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F88" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8018,7 +8027,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J88">
         <v>1.333</v>
@@ -8086,16 +8095,16 @@
         <v>6782560</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D89" s="2">
         <v>45217.875</v>
       </c>
       <c r="E89" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F89" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -8104,7 +8113,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J89">
         <v>1.909</v>
@@ -8172,16 +8181,16 @@
         <v>6782561</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D90" s="2">
         <v>45217.97916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8190,7 +8199,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J90">
         <v>1.285</v>
@@ -8258,16 +8267,16 @@
         <v>6782568</v>
       </c>
       <c r="C91" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D91" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8276,7 +8285,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J91">
         <v>1.909</v>
@@ -8344,16 +8353,16 @@
         <v>6782566</v>
       </c>
       <c r="C92" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D92" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F92" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8362,7 +8371,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8430,16 +8439,16 @@
         <v>6782564</v>
       </c>
       <c r="C93" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D93" s="2">
         <v>45220.9375</v>
       </c>
       <c r="E93" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8448,7 +8457,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8516,16 +8525,16 @@
         <v>6781363</v>
       </c>
       <c r="C94" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D94" s="2">
         <v>45220.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F94" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8534,7 +8543,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J94">
         <v>1.533</v>
@@ -8602,16 +8611,16 @@
         <v>6782567</v>
       </c>
       <c r="C95" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8620,7 +8629,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J95">
         <v>2.875</v>
@@ -8688,16 +8697,16 @@
         <v>6782565</v>
       </c>
       <c r="C96" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D96" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8706,7 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8774,16 +8783,16 @@
         <v>6782569</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D97" s="2">
         <v>45226.91666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8792,7 +8801,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8860,16 +8869,16 @@
         <v>6782572</v>
       </c>
       <c r="C98" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D98" s="2">
         <v>45226.95833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8878,7 +8887,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8946,16 +8955,16 @@
         <v>7392781</v>
       </c>
       <c r="C99" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D99" s="2">
         <v>45227.75</v>
       </c>
       <c r="E99" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F99" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8964,7 +8973,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J99">
         <v>2.15</v>
@@ -9032,16 +9041,16 @@
         <v>6782573</v>
       </c>
       <c r="C100" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D100" s="2">
         <v>45227.83333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G100">
         <v>0</v>
@@ -9050,7 +9059,7 @@
         <v>2</v>
       </c>
       <c r="I100" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J100">
         <v>2.05</v>
@@ -9118,16 +9127,16 @@
         <v>6782571</v>
       </c>
       <c r="C101" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D101" s="2">
         <v>45227.95833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9136,7 +9145,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J101">
         <v>1.909</v>
@@ -9204,16 +9213,16 @@
         <v>6782570</v>
       </c>
       <c r="C102" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D102" s="2">
         <v>45228.79166666666</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9222,7 +9231,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9290,16 +9299,16 @@
         <v>6781365</v>
       </c>
       <c r="C103" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D103" s="2">
         <v>45233.9375</v>
       </c>
       <c r="E103" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F103" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9308,7 +9317,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J103">
         <v>1.75</v>
@@ -9376,16 +9385,16 @@
         <v>6782574</v>
       </c>
       <c r="C104" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D104" s="2">
         <v>45234.75</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9394,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9462,16 +9471,16 @@
         <v>6782578</v>
       </c>
       <c r="C105" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D105" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -9480,7 +9489,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J105">
         <v>1.7</v>
@@ -9548,16 +9557,16 @@
         <v>6782576</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D106" s="2">
         <v>45234.95833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9566,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J106">
         <v>1.833</v>
@@ -9634,16 +9643,16 @@
         <v>6782575</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D107" s="2">
         <v>45235.58333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9652,7 +9661,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9720,17 +9729,17 @@
         <v>6782577</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D108" s="2">
         <v>45235.75</v>
       </c>
       <c r="E108" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" t="s">
         <v>40</v>
       </c>
-      <c r="F108" t="s">
-        <v>37</v>
-      </c>
       <c r="G108">
         <v>0</v>
       </c>
@@ -9738,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J108">
         <v>4.75</v>
@@ -9806,16 +9815,16 @@
         <v>6782583</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D109" s="2">
         <v>45238.75</v>
       </c>
       <c r="E109" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9824,7 +9833,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9892,16 +9901,16 @@
         <v>6782581</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D110" s="2">
         <v>45238.875</v>
       </c>
       <c r="E110" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9910,7 +9919,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J110">
         <v>1.181</v>
@@ -9978,16 +9987,16 @@
         <v>6782579</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D111" s="2">
         <v>45238.875</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -9996,7 +10005,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J111">
         <v>2.4</v>
@@ -10064,16 +10073,16 @@
         <v>6781366</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D112" s="2">
         <v>45238.96875</v>
       </c>
       <c r="E112" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -10082,7 +10091,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J112">
         <v>2.05</v>
@@ -10150,16 +10159,16 @@
         <v>6782580</v>
       </c>
       <c r="C113" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D113" s="2">
         <v>45238.97916666666</v>
       </c>
       <c r="E113" t="s">
+        <v>40</v>
+      </c>
+      <c r="F113" t="s">
         <v>37</v>
-      </c>
-      <c r="F113" t="s">
-        <v>34</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10168,7 +10177,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J113">
         <v>1.45</v>
@@ -10236,16 +10245,16 @@
         <v>6782582</v>
       </c>
       <c r="C114" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D114" s="2">
         <v>45239.95833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10254,7 +10263,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J114">
         <v>4.2</v>
@@ -10322,16 +10331,16 @@
         <v>6782585</v>
       </c>
       <c r="C115" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D115" s="2">
         <v>45241.75</v>
       </c>
       <c r="E115" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10340,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J115">
         <v>1.571</v>
@@ -10408,16 +10417,16 @@
         <v>6782584</v>
       </c>
       <c r="C116" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D116" s="2">
         <v>45241.91666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10426,7 +10435,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10494,16 +10503,16 @@
         <v>6781367</v>
       </c>
       <c r="C117" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D117" s="2">
         <v>45241.95833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F117" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10512,7 +10521,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J117">
         <v>2.05</v>
@@ -10580,16 +10589,16 @@
         <v>6782586</v>
       </c>
       <c r="C118" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D118" s="2">
         <v>45242.58333333334</v>
       </c>
       <c r="E118" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F118" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10598,7 +10607,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J118">
         <v>3.1</v>
@@ -10666,16 +10675,16 @@
         <v>6782587</v>
       </c>
       <c r="C119" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D119" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -10684,7 +10693,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J119">
         <v>1.166</v>
@@ -10752,16 +10761,16 @@
         <v>6782588</v>
       </c>
       <c r="C120" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D120" s="2">
         <v>45242.875</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10770,7 +10779,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J120">
         <v>2.2</v>
@@ -10838,16 +10847,16 @@
         <v>7476547</v>
       </c>
       <c r="C121" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D121" s="2">
         <v>45245.75</v>
       </c>
       <c r="E121" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10856,7 +10865,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -10924,16 +10933,16 @@
         <v>6782593</v>
       </c>
       <c r="C122" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D122" s="2">
         <v>45251.95833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10942,7 +10951,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J122">
         <v>2.3</v>
@@ -11010,16 +11019,16 @@
         <v>6782590</v>
       </c>
       <c r="C123" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D123" s="2">
         <v>45252.75</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G123">
         <v>4</v>
@@ -11028,7 +11037,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J123">
         <v>1.8</v>
@@ -11096,16 +11105,16 @@
         <v>6781368</v>
       </c>
       <c r="C124" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11114,7 +11123,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J124">
         <v>4.2</v>
@@ -11182,16 +11191,16 @@
         <v>6782591</v>
       </c>
       <c r="C125" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D125" s="2">
         <v>45252.95833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F125" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11200,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J125">
         <v>1.333</v>
@@ -11268,16 +11277,16 @@
         <v>6782592</v>
       </c>
       <c r="C126" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D126" s="2">
         <v>45253.75</v>
       </c>
       <c r="E126" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F126" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11286,7 +11295,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J126">
         <v>7.5</v>
@@ -11354,16 +11363,16 @@
         <v>6782589</v>
       </c>
       <c r="C127" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D127" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E127" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" t="s">
         <v>33</v>
-      </c>
-      <c r="F127" t="s">
-        <v>30</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11372,7 +11381,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J127">
         <v>1.4</v>
@@ -11440,16 +11449,16 @@
         <v>6781369</v>
       </c>
       <c r="C128" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D128" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11458,7 +11467,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J128">
         <v>1.727</v>
@@ -11526,16 +11535,16 @@
         <v>6782598</v>
       </c>
       <c r="C129" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D129" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F129" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11544,7 +11553,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J129">
         <v>4.5</v>
@@ -11612,16 +11621,16 @@
         <v>6782595</v>
       </c>
       <c r="C130" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D130" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F130" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11630,7 +11639,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11698,16 +11707,16 @@
         <v>6782596</v>
       </c>
       <c r="C131" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D131" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F131" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11716,7 +11725,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J131">
         <v>1.363</v>
@@ -11784,16 +11793,16 @@
         <v>6782594</v>
       </c>
       <c r="C132" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D132" s="2">
         <v>45256.75</v>
       </c>
       <c r="E132" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F132" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11802,7 +11811,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J132">
         <v>5.5</v>
@@ -11870,16 +11879,16 @@
         <v>6782597</v>
       </c>
       <c r="C133" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D133" s="2">
         <v>45256.875</v>
       </c>
       <c r="E133" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F133" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11888,7 +11897,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J133">
         <v>2.4</v>
@@ -11956,16 +11965,16 @@
         <v>7532513</v>
       </c>
       <c r="C134" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D134" s="2">
         <v>45262.95833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F134" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11974,7 +11983,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12042,16 +12051,16 @@
         <v>7532514</v>
       </c>
       <c r="C135" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D135" s="2">
         <v>45263.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F135" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12060,7 +12069,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12128,16 +12137,16 @@
         <v>7532516</v>
       </c>
       <c r="C136" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D136" s="2">
         <v>45269.95833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F136" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12146,7 +12155,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12214,16 +12223,16 @@
         <v>7532515</v>
       </c>
       <c r="C137" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D137" s="2">
         <v>45270.83333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12232,7 +12241,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J137">
         <v>1.95</v>
@@ -12300,16 +12309,16 @@
         <v>7589150</v>
       </c>
       <c r="C138" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D138" s="2">
         <v>45274.95833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F138" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12318,7 +12327,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12386,16 +12395,16 @@
         <v>7596073</v>
       </c>
       <c r="C139" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D139" s="2">
         <v>45277.83333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12404,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J139">
         <v>1.727</v>
@@ -12472,16 +12481,16 @@
         <v>7623885</v>
       </c>
       <c r="C140" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D140" s="2">
         <v>45303.95833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F140" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12490,7 +12499,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J140">
         <v>1.45</v>
@@ -12558,16 +12567,16 @@
         <v>7623884</v>
       </c>
       <c r="C141" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D141" s="2">
         <v>45304.75</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12576,7 +12585,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J141">
         <v>1.571</v>
@@ -12644,16 +12653,16 @@
         <v>7623883</v>
       </c>
       <c r="C142" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D142" s="2">
         <v>45304.79166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F142" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12662,7 +12671,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J142">
         <v>2.9</v>
@@ -12730,16 +12739,16 @@
         <v>7623882</v>
       </c>
       <c r="C143" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D143" s="2">
         <v>45304.91666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F143" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12748,7 +12757,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J143">
         <v>1.909</v>
@@ -12816,16 +12825,16 @@
         <v>7624965</v>
       </c>
       <c r="C144" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D144" s="2">
         <v>45304.95833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F144" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12834,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J144">
         <v>1.25</v>
@@ -12902,16 +12911,16 @@
         <v>7623973</v>
       </c>
       <c r="C145" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D145" s="2">
         <v>45305.79166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F145" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12920,7 +12929,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J145">
         <v>1.285</v>
@@ -12988,16 +12997,16 @@
         <v>7704994</v>
       </c>
       <c r="C146" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2">
         <v>45307.91666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F146" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13006,7 +13015,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J146">
         <v>2.3</v>
@@ -13074,16 +13083,16 @@
         <v>7623887</v>
       </c>
       <c r="C147" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2">
         <v>45307.95833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F147" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13092,7 +13101,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13160,16 +13169,16 @@
         <v>7623889</v>
       </c>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2">
         <v>45308.75</v>
       </c>
       <c r="E148" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F148" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13178,7 +13187,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J148">
         <v>3</v>
@@ -13246,16 +13255,16 @@
         <v>7623890</v>
       </c>
       <c r="C149" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D149" s="2">
         <v>45308.91666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13264,7 +13273,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J149">
         <v>4</v>
@@ -13332,16 +13341,16 @@
         <v>7623888</v>
       </c>
       <c r="C150" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D150" s="2">
         <v>45308.95833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F150" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13350,7 +13359,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13418,16 +13427,16 @@
         <v>7623974</v>
       </c>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D151" s="2">
         <v>45309.95833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F151" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13436,7 +13445,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J151">
         <v>6</v>
@@ -13504,16 +13513,16 @@
         <v>7623891</v>
       </c>
       <c r="C152" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D152" s="2">
         <v>45311.75</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13522,7 +13531,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13590,16 +13599,16 @@
         <v>7623892</v>
       </c>
       <c r="C153" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D153" s="2">
         <v>45311.875</v>
       </c>
       <c r="E153" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F153" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13608,7 +13617,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J153">
         <v>1.363</v>
@@ -13676,16 +13685,16 @@
         <v>7623893</v>
       </c>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D154" s="2">
         <v>45311.95833333334</v>
       </c>
       <c r="E154" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13694,7 +13703,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J154">
         <v>1.727</v>
@@ -13762,16 +13771,16 @@
         <v>7623975</v>
       </c>
       <c r="C155" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D155" s="2">
         <v>45311.97916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F155" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13780,7 +13789,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J155">
         <v>1.533</v>
@@ -13848,16 +13857,16 @@
         <v>7623976</v>
       </c>
       <c r="C156" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D156" s="2">
         <v>45312.79166666666</v>
       </c>
       <c r="E156" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F156" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13866,7 +13875,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J156">
         <v>1.444</v>
@@ -13934,16 +13943,16 @@
         <v>7623977</v>
       </c>
       <c r="C157" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D157" s="2">
         <v>45312.875</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13952,7 +13961,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J157">
         <v>1.727</v>
@@ -14020,16 +14029,16 @@
         <v>7623897</v>
       </c>
       <c r="C158" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D158" s="2">
         <v>45314.95833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F158" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14038,7 +14047,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J158">
         <v>1.4</v>
@@ -14106,16 +14115,16 @@
         <v>7623896</v>
       </c>
       <c r="C159" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D159" s="2">
         <v>45315.75</v>
       </c>
       <c r="E159" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -14124,7 +14133,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14192,16 +14201,16 @@
         <v>7623895</v>
       </c>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D160" s="2">
         <v>45315.875</v>
       </c>
       <c r="E160" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F160" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14210,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J160">
         <v>1.833</v>
@@ -14278,16 +14287,16 @@
         <v>7624966</v>
       </c>
       <c r="C161" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D161" s="2">
         <v>45315.95833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F161" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14296,7 +14305,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14364,16 +14373,16 @@
         <v>7623894</v>
       </c>
       <c r="C162" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D162" s="2">
         <v>45316.91666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F162" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14382,7 +14391,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J162">
         <v>2.3</v>
@@ -14450,16 +14459,16 @@
         <v>7623898</v>
       </c>
       <c r="C163" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D163" s="2">
         <v>45316.95833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F163" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14468,7 +14477,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J163">
         <v>1.909</v>
@@ -14536,16 +14545,16 @@
         <v>7623901</v>
       </c>
       <c r="C164" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D164" s="2">
         <v>45318.75</v>
       </c>
       <c r="E164" t="s">
+        <v>43</v>
+      </c>
+      <c r="F164" t="s">
         <v>40</v>
-      </c>
-      <c r="F164" t="s">
-        <v>37</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14554,7 +14563,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14622,16 +14631,16 @@
         <v>7623979</v>
       </c>
       <c r="C165" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D165" s="2">
         <v>45318.875</v>
       </c>
       <c r="E165" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14640,7 +14649,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14708,16 +14717,16 @@
         <v>7623978</v>
       </c>
       <c r="C166" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D166" s="2">
         <v>45318.95833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F166" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14726,7 +14735,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J166">
         <v>3.8</v>
@@ -14794,16 +14803,16 @@
         <v>7623902</v>
       </c>
       <c r="C167" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D167" s="2">
         <v>45319.75</v>
       </c>
       <c r="E167" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F167" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14812,7 +14821,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14880,16 +14889,16 @@
         <v>7623899</v>
       </c>
       <c r="C168" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D168" s="2">
         <v>45319.79166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F168" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14898,7 +14907,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J168">
         <v>1.615</v>
@@ -14966,16 +14975,16 @@
         <v>7623900</v>
       </c>
       <c r="C169" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D169" s="2">
         <v>45319.91666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F169" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -14984,7 +14993,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15052,16 +15061,16 @@
         <v>7623905</v>
       </c>
       <c r="C170" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D170" s="2">
         <v>45323.95833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F170" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15070,7 +15079,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J170">
         <v>1.333</v>
@@ -15138,16 +15147,16 @@
         <v>7623934</v>
       </c>
       <c r="C171" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D171" s="2">
         <v>45330.95833333334</v>
       </c>
       <c r="E171" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F171" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15156,7 +15165,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J171">
         <v>1.444</v>
@@ -15224,16 +15233,16 @@
         <v>7623909</v>
       </c>
       <c r="C172" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D172" s="2">
         <v>45332.875</v>
       </c>
       <c r="E172" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15242,7 +15251,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15310,16 +15319,16 @@
         <v>7623907</v>
       </c>
       <c r="C173" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D173" s="2">
         <v>45332.91666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F173" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15328,7 +15337,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15396,16 +15405,16 @@
         <v>7623983</v>
       </c>
       <c r="C174" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D174" s="2">
         <v>45333</v>
       </c>
       <c r="E174" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F174" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15414,7 +15423,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J174">
         <v>2.625</v>
@@ -15482,16 +15491,16 @@
         <v>7623982</v>
       </c>
       <c r="C175" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <v>45333.58333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F175" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15500,7 +15509,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15568,16 +15577,16 @@
         <v>7623910</v>
       </c>
       <c r="C176" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D176" s="2">
         <v>45333.75</v>
       </c>
       <c r="E176" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F176" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15586,7 +15595,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J176">
         <v>5.5</v>
@@ -15654,16 +15663,16 @@
         <v>7623908</v>
       </c>
       <c r="C177" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D177" s="2">
         <v>45333.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F177" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15672,7 +15681,7 @@
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J177">
         <v>2.3</v>
@@ -15740,16 +15749,16 @@
         <v>7623984</v>
       </c>
       <c r="C178" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D178" s="2">
         <v>45338.875</v>
       </c>
       <c r="E178" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15758,7 +15767,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J178">
         <v>2.7</v>
@@ -15826,16 +15835,16 @@
         <v>7623913</v>
       </c>
       <c r="C179" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D179" s="2">
         <v>45339</v>
       </c>
       <c r="E179" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15844,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J179">
         <v>2.25</v>
@@ -15912,16 +15921,16 @@
         <v>7623914</v>
       </c>
       <c r="C180" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D180" s="2">
         <v>45339.75</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F180" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15930,7 +15939,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J180">
         <v>2</v>
@@ -15998,16 +16007,16 @@
         <v>7623915</v>
       </c>
       <c r="C181" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D181" s="2">
         <v>45339.92708333334</v>
       </c>
       <c r="E181" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F181" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -16016,7 +16025,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J181">
         <v>2</v>
@@ -16084,16 +16093,16 @@
         <v>7623911</v>
       </c>
       <c r="C182" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D182" s="2">
         <v>45340.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F182" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16102,7 +16111,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16170,16 +16179,16 @@
         <v>7623912</v>
       </c>
       <c r="C183" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D183" s="2">
         <v>45340.875</v>
       </c>
       <c r="E183" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F183" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16188,7 +16197,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J183">
         <v>1.8</v>
@@ -16256,16 +16265,16 @@
         <v>7764338</v>
       </c>
       <c r="C184" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D184" s="2">
         <v>45342.91666666666</v>
       </c>
       <c r="E184" t="s">
+        <v>42</v>
+      </c>
+      <c r="F184" t="s">
         <v>39</v>
-      </c>
-      <c r="F184" t="s">
-        <v>36</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16274,7 +16283,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J184">
         <v>2.1</v>
@@ -16342,16 +16351,16 @@
         <v>7764528</v>
       </c>
       <c r="C185" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D185" s="2">
         <v>45342.95833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F185" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G185">
         <v>3</v>
@@ -16360,7 +16369,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J185">
         <v>1.533</v>
@@ -16428,16 +16437,16 @@
         <v>7764930</v>
       </c>
       <c r="C186" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D186" s="2">
         <v>45343.75</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F186" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16446,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J186">
         <v>2</v>
@@ -16514,16 +16523,16 @@
         <v>7764929</v>
       </c>
       <c r="C187" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D187" s="2">
         <v>45343.91666666666</v>
       </c>
       <c r="E187" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F187" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G187">
         <v>2</v>
@@ -16532,7 +16541,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J187">
         <v>1.909</v>
@@ -16600,16 +16609,16 @@
         <v>7763915</v>
       </c>
       <c r="C188" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D188" s="2">
         <v>45343.95833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F188" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16618,7 +16627,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J188">
         <v>1.25</v>
@@ -16686,16 +16695,16 @@
         <v>7623917</v>
       </c>
       <c r="C189" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D189" s="2">
         <v>45346.75</v>
       </c>
       <c r="E189" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F189" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16704,7 +16713,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J189">
         <v>5</v>
@@ -16772,16 +16781,16 @@
         <v>7623918</v>
       </c>
       <c r="C190" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D190" s="2">
         <v>45346.875</v>
       </c>
       <c r="E190" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F190" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16790,7 +16799,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J190">
         <v>1.909</v>
@@ -16858,16 +16867,16 @@
         <v>7623985</v>
       </c>
       <c r="C191" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D191" s="2">
         <v>45346.9375</v>
       </c>
       <c r="E191" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F191" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16876,7 +16885,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J191">
         <v>1.571</v>
@@ -16944,16 +16953,16 @@
         <v>7623916</v>
       </c>
       <c r="C192" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D192" s="2">
         <v>45347.75</v>
       </c>
       <c r="E192" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F192" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G192">
         <v>0</v>
@@ -16962,7 +16971,7 @@
         <v>2</v>
       </c>
       <c r="I192" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J192">
         <v>2.05</v>
@@ -17030,16 +17039,16 @@
         <v>7623919</v>
       </c>
       <c r="C193" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D193" s="2">
         <v>45347.75</v>
       </c>
       <c r="E193" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F193" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17048,7 +17057,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J193">
         <v>1.75</v>
@@ -17116,16 +17125,16 @@
         <v>7623986</v>
       </c>
       <c r="C194" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D194" s="2">
         <v>45347.875</v>
       </c>
       <c r="E194" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F194" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17134,7 +17143,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J194">
         <v>2.625</v>
@@ -17202,16 +17211,16 @@
         <v>7623931</v>
       </c>
       <c r="C195" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D195" s="2">
         <v>45349.91666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F195" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17220,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J195">
         <v>1.333</v>
@@ -17288,16 +17297,16 @@
         <v>7623932</v>
       </c>
       <c r="C196" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D196" s="2">
         <v>45350.75</v>
       </c>
       <c r="E196" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F196" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17306,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17374,16 +17383,16 @@
         <v>7623935</v>
       </c>
       <c r="C197" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D197" s="2">
         <v>45350.89583333334</v>
       </c>
       <c r="E197" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F197" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -17392,7 +17401,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J197">
         <v>2.2</v>
@@ -17460,16 +17469,16 @@
         <v>7623933</v>
       </c>
       <c r="C198" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D198" s="2">
         <v>45350.95833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F198" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G198">
         <v>4</v>
@@ -17478,7 +17487,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J198">
         <v>1.533</v>
@@ -17546,16 +17555,16 @@
         <v>7623920</v>
       </c>
       <c r="C199" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D199" s="2">
         <v>45352.95833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F199" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G199">
         <v>4</v>
@@ -17564,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J199">
         <v>1.25</v>
@@ -17632,16 +17641,16 @@
         <v>7624967</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D200" s="2">
         <v>45353.75</v>
       </c>
       <c r="E200" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F200" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G200">
         <v>0</v>
@@ -17650,7 +17659,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J200">
         <v>3.75</v>
@@ -17718,16 +17727,16 @@
         <v>7623921</v>
       </c>
       <c r="C201" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D201" s="2">
         <v>45353.75</v>
       </c>
       <c r="E201" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F201" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17736,7 +17745,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J201">
         <v>2.75</v>
@@ -17804,16 +17813,16 @@
         <v>7623922</v>
       </c>
       <c r="C202" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D202" s="2">
         <v>45353.95833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F202" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17822,7 +17831,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J202">
         <v>2.375</v>
@@ -17890,16 +17899,16 @@
         <v>7623987</v>
       </c>
       <c r="C203" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D203" s="2">
         <v>45354.79166666666</v>
       </c>
       <c r="E203" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F203" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G203">
         <v>2</v>
@@ -17908,7 +17917,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J203">
         <v>1.571</v>
@@ -17976,16 +17985,16 @@
         <v>7623988</v>
       </c>
       <c r="C204" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D204" s="2">
         <v>45354.875</v>
       </c>
       <c r="E204" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F204" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -17994,7 +18003,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J204">
         <v>2.45</v>
@@ -18062,16 +18071,16 @@
         <v>7623926</v>
       </c>
       <c r="C205" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D205" s="2">
         <v>45359.95833333334</v>
       </c>
       <c r="E205" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F205" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18080,7 +18089,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J205">
         <v>1.666</v>
@@ -18148,16 +18157,16 @@
         <v>7920639</v>
       </c>
       <c r="C206" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D206" s="2">
         <v>45360.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F206" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18166,7 +18175,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J206">
         <v>1.666</v>
@@ -18234,16 +18243,16 @@
         <v>7623923</v>
       </c>
       <c r="C207" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D207" s="2">
         <v>45360.91666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F207" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18252,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J207">
         <v>1.363</v>
@@ -18320,16 +18329,16 @@
         <v>7623990</v>
       </c>
       <c r="C208" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D208" s="2">
         <v>45360.95833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F208" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18338,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18406,16 +18415,16 @@
         <v>7623925</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D209" s="2">
         <v>45361.75</v>
       </c>
       <c r="E209" t="s">
+        <v>41</v>
+      </c>
+      <c r="F209" t="s">
         <v>38</v>
-      </c>
-      <c r="F209" t="s">
-        <v>35</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18424,7 +18433,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J209">
         <v>5</v>
@@ -18492,16 +18501,16 @@
         <v>7916002</v>
       </c>
       <c r="C210" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D210" s="2">
         <v>45361.79166666666</v>
       </c>
       <c r="E210" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F210" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18510,7 +18519,7 @@
         <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J210">
         <v>6.5</v>
@@ -18578,16 +18587,16 @@
         <v>7623995</v>
       </c>
       <c r="C211" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D211" s="2">
         <v>45377.83333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F211" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18596,7 +18605,7 @@
         <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J211">
         <v>2.3</v>
@@ -18664,16 +18673,16 @@
         <v>7623936</v>
       </c>
       <c r="C212" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D212" s="2">
         <v>45377.875</v>
       </c>
       <c r="E212" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F212" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -18682,7 +18691,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J212">
         <v>2.7</v>
@@ -18750,16 +18759,16 @@
         <v>7623937</v>
       </c>
       <c r="C213" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D213" s="2">
         <v>45377.9375</v>
       </c>
       <c r="E213" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F213" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18768,7 +18777,7 @@
         <v>4</v>
       </c>
       <c r="I213" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J213">
         <v>3.75</v>
@@ -18836,16 +18845,16 @@
         <v>7623938</v>
       </c>
       <c r="C214" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D214" s="2">
         <v>45378.75</v>
       </c>
       <c r="E214" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F214" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -18854,7 +18863,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J214">
         <v>3</v>
@@ -18922,16 +18931,16 @@
         <v>7623993</v>
       </c>
       <c r="C215" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D215" s="2">
         <v>45378.91666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F215" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18940,7 +18949,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J215">
         <v>2.5</v>
@@ -19008,16 +19017,16 @@
         <v>7623994</v>
       </c>
       <c r="C216" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D216" s="2">
         <v>45378.95833333334</v>
       </c>
       <c r="E216" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F216" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -19026,7 +19035,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J216">
         <v>3.25</v>
@@ -19094,16 +19103,16 @@
         <v>7623941</v>
       </c>
       <c r="C217" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D217" s="2">
         <v>45380.91666666666</v>
       </c>
       <c r="E217" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F217" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -19112,7 +19121,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J217">
         <v>1.75</v>
@@ -19180,16 +19189,16 @@
         <v>8022822</v>
       </c>
       <c r="C218" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D218" s="2">
         <v>45382.75</v>
       </c>
       <c r="E218" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F218" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19198,7 +19207,7 @@
         <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J218">
         <v>2.2</v>
@@ -19266,16 +19275,16 @@
         <v>7624969</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D219" s="2">
         <v>45382.79166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F219" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19284,7 +19293,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J219">
         <v>1.833</v>
@@ -19352,16 +19361,16 @@
         <v>7623943</v>
       </c>
       <c r="C220" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D220" s="2">
         <v>45382.85416666666</v>
       </c>
       <c r="E220" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F220" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G220">
         <v>3</v>
@@ -19370,7 +19379,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J220">
         <v>2.1</v>
@@ -19438,16 +19447,16 @@
         <v>7623939</v>
       </c>
       <c r="C221" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D221" s="2">
         <v>45382.91666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F221" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19456,7 +19465,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J221">
         <v>1.615</v>
@@ -19524,16 +19533,16 @@
         <v>7623940</v>
       </c>
       <c r="C222" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D222" s="2">
         <v>45383.75</v>
       </c>
       <c r="E222" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F222" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19542,7 +19551,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J222">
         <v>3</v>
@@ -19610,16 +19619,16 @@
         <v>7980420</v>
       </c>
       <c r="C223" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D223" s="2">
         <v>45385.95833333334</v>
       </c>
       <c r="E223" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F223" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19628,7 +19637,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J223">
         <v>1.222</v>
@@ -19693,10 +19702,10 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7623946</v>
+        <v>7623944</v>
       </c>
       <c r="C224" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D224" s="2">
         <v>45388.83333333334</v>
@@ -19705,73 +19714,73 @@
         <v>34</v>
       </c>
       <c r="F224" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H224">
         <v>0</v>
       </c>
       <c r="I224" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J224">
+        <v>2.9</v>
+      </c>
+      <c r="K224">
+        <v>3.25</v>
+      </c>
+      <c r="L224">
+        <v>2.375</v>
+      </c>
+      <c r="M224">
         <v>3.4</v>
       </c>
-      <c r="K224">
-        <v>3.4</v>
-      </c>
-      <c r="L224">
+      <c r="N224">
+        <v>3.2</v>
+      </c>
+      <c r="O224">
+        <v>2.15</v>
+      </c>
+      <c r="P224">
+        <v>0.25</v>
+      </c>
+      <c r="Q224">
         <v>1.95</v>
       </c>
-      <c r="M224">
-        <v>3.8</v>
-      </c>
-      <c r="N224">
-        <v>3.6</v>
-      </c>
-      <c r="O224">
-        <v>1.75</v>
-      </c>
-      <c r="P224">
-        <v>0.75</v>
-      </c>
-      <c r="Q224">
+      <c r="R224">
+        <v>1.85</v>
+      </c>
+      <c r="S224">
+        <v>2.5</v>
+      </c>
+      <c r="T224">
+        <v>2</v>
+      </c>
+      <c r="U224">
         <v>1.8</v>
       </c>
-      <c r="R224">
-        <v>2</v>
-      </c>
-      <c r="S224">
-        <v>2.75</v>
-      </c>
-      <c r="T224">
-        <v>1.925</v>
-      </c>
-      <c r="U224">
-        <v>1.875</v>
-      </c>
       <c r="V224">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W224">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB224">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19779,85 +19788,85 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7623944</v>
+        <v>7623946</v>
       </c>
       <c r="C225" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D225" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E225" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="F225" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G225">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J225">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="K225">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L225">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="M225">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N225">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O225">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="P225">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q225">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R225">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S225">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T225">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U225">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V225">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W225">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB225">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -19868,16 +19877,16 @@
         <v>7623996</v>
       </c>
       <c r="C226" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D226" s="2">
         <v>45388.92708333334</v>
       </c>
       <c r="E226" t="s">
+        <v>36</v>
+      </c>
+      <c r="F226" t="s">
         <v>33</v>
-      </c>
-      <c r="F226" t="s">
-        <v>30</v>
       </c>
       <c r="G226">
         <v>3</v>
@@ -19886,7 +19895,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J226">
         <v>1.363</v>
@@ -19954,16 +19963,16 @@
         <v>7623947</v>
       </c>
       <c r="C227" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D227" s="2">
         <v>45388.95833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F227" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G227">
         <v>3</v>
@@ -19972,7 +19981,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J227">
         <v>1.3</v>
@@ -20040,16 +20049,16 @@
         <v>8048492</v>
       </c>
       <c r="C228" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D228" s="2">
         <v>45389.75</v>
       </c>
       <c r="E228" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F228" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20058,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J228">
         <v>2.2</v>
@@ -20126,16 +20135,16 @@
         <v>7623997</v>
       </c>
       <c r="C229" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D229" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E229" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F229" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -20144,7 +20153,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J229">
         <v>1.285</v>
@@ -20212,16 +20221,16 @@
         <v>8070744</v>
       </c>
       <c r="C230" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D230" s="2">
         <v>45394.95833333334</v>
       </c>
       <c r="E230" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F230" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20230,7 +20239,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J230">
         <v>1.833</v>
@@ -20298,16 +20307,16 @@
         <v>7623950</v>
       </c>
       <c r="C231" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D231" s="2">
         <v>45395.75</v>
       </c>
       <c r="E231" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F231" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20316,7 +20325,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J231">
         <v>6</v>
@@ -20384,16 +20393,16 @@
         <v>7623999</v>
       </c>
       <c r="C232" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D232" s="2">
         <v>45395.75</v>
       </c>
       <c r="E232" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F232" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -20402,7 +20411,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J232">
         <v>2.15</v>
@@ -20470,16 +20479,16 @@
         <v>7623998</v>
       </c>
       <c r="C233" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D233" s="2">
         <v>45395.86458333334</v>
       </c>
       <c r="E233" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F233" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G233">
         <v>3</v>
@@ -20488,7 +20497,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J233">
         <v>2.625</v>
@@ -20556,16 +20565,16 @@
         <v>8070745</v>
       </c>
       <c r="C234" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D234" s="2">
         <v>45395.875</v>
       </c>
       <c r="E234" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F234" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20574,7 +20583,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J234">
         <v>4.2</v>
@@ -20642,16 +20651,16 @@
         <v>7623951</v>
       </c>
       <c r="C235" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D235" s="2">
         <v>45395.97916666666</v>
       </c>
       <c r="E235" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F235" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -20660,7 +20669,7 @@
         <v>1</v>
       </c>
       <c r="I235" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J235">
         <v>6</v>
@@ -20728,17 +20737,17 @@
         <v>7623953</v>
       </c>
       <c r="C236" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D236" s="2">
         <v>45398.95833333334</v>
       </c>
       <c r="E236" t="s">
+        <v>35</v>
+      </c>
+      <c r="F236" t="s">
         <v>32</v>
       </c>
-      <c r="F236" t="s">
-        <v>29</v>
-      </c>
       <c r="G236">
         <v>2</v>
       </c>
@@ -20746,7 +20755,7 @@
         <v>2</v>
       </c>
       <c r="I236" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J236">
         <v>1.363</v>
@@ -20814,16 +20823,16 @@
         <v>8096859</v>
       </c>
       <c r="C237" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D237" s="2">
         <v>45399.75</v>
       </c>
       <c r="E237" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F237" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -20832,7 +20841,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J237">
         <v>2.8</v>
@@ -20900,16 +20909,16 @@
         <v>8096857</v>
       </c>
       <c r="C238" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D238" s="2">
         <v>45399.75</v>
       </c>
       <c r="E238" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F238" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -20918,7 +20927,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J238">
         <v>1.666</v>
@@ -20986,16 +20995,16 @@
         <v>8096858</v>
       </c>
       <c r="C239" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D239" s="2">
         <v>45399.875</v>
       </c>
       <c r="E239" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F239" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G239">
         <v>2</v>
@@ -21004,7 +21013,7 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J239">
         <v>1.571</v>
@@ -21072,16 +21081,16 @@
         <v>7623954</v>
       </c>
       <c r="C240" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D240" s="2">
         <v>45399.95833333334</v>
       </c>
       <c r="E240" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F240" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G240">
         <v>3</v>
@@ -21090,7 +21099,7 @@
         <v>1</v>
       </c>
       <c r="I240" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J240">
         <v>1.166</v>
@@ -21158,16 +21167,16 @@
         <v>7624000</v>
       </c>
       <c r="C241" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D241" s="2">
         <v>45400.95833333334</v>
       </c>
       <c r="E241" t="s">
+        <v>40</v>
+      </c>
+      <c r="F241" t="s">
         <v>37</v>
-      </c>
-      <c r="F241" t="s">
-        <v>34</v>
       </c>
       <c r="G241">
         <v>1</v>
@@ -21176,7 +21185,7 @@
         <v>1</v>
       </c>
       <c r="I241" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J241">
         <v>1.666</v>
@@ -21244,16 +21253,16 @@
         <v>7623960</v>
       </c>
       <c r="C242" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D242" s="2">
         <v>45402.79166666666</v>
       </c>
       <c r="E242" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F242" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G242">
         <v>1</v>
@@ -21262,7 +21271,7 @@
         <v>1</v>
       </c>
       <c r="I242" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -21330,17 +21339,17 @@
         <v>7623958</v>
       </c>
       <c r="C243" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D243" s="2">
         <v>45402.95833333334</v>
       </c>
       <c r="E243" t="s">
+        <v>38</v>
+      </c>
+      <c r="F243" t="s">
         <v>35</v>
       </c>
-      <c r="F243" t="s">
-        <v>32</v>
-      </c>
       <c r="G243">
         <v>2</v>
       </c>
@@ -21348,7 +21357,7 @@
         <v>2</v>
       </c>
       <c r="I243" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J243">
         <v>2.05</v>
@@ -21416,16 +21425,16 @@
         <v>7623956</v>
       </c>
       <c r="C244" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D244" s="2">
         <v>45403.83333333334</v>
       </c>
       <c r="E244" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F244" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G244">
         <v>2</v>
@@ -21434,7 +21443,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J244">
         <v>2.75</v>
@@ -21502,16 +21511,16 @@
         <v>7623959</v>
       </c>
       <c r="C245" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D245" s="2">
         <v>45403.875</v>
       </c>
       <c r="E245" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F245" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G245">
         <v>3</v>
@@ -21520,7 +21529,7 @@
         <v>1</v>
       </c>
       <c r="I245" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J245">
         <v>2.2</v>
@@ -21588,16 +21597,16 @@
         <v>7624002</v>
       </c>
       <c r="C246" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D246" s="2">
         <v>45403.92708333334</v>
       </c>
       <c r="E246" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F246" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -21606,7 +21615,7 @@
         <v>1</v>
       </c>
       <c r="I246" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J246">
         <v>1.615</v>
@@ -21674,16 +21683,16 @@
         <v>7623957</v>
       </c>
       <c r="C247" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D247" s="2">
         <v>45404.95833333334</v>
       </c>
       <c r="E247" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F247" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G247">
         <v>1</v>
@@ -21692,7 +21701,7 @@
         <v>2</v>
       </c>
       <c r="I247" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J247">
         <v>3.3</v>
@@ -21760,16 +21769,16 @@
         <v>8019072</v>
       </c>
       <c r="C248" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D248" s="2">
         <v>45406.95833333334</v>
       </c>
       <c r="E248" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F248" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G248">
         <v>3</v>
@@ -21778,7 +21787,7 @@
         <v>3</v>
       </c>
       <c r="I248" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="J248">
         <v>2.625</v>
@@ -21843,49 +21852,49 @@
         <v>247</v>
       </c>
       <c r="B249">
-        <v>7624004</v>
+        <v>7623963</v>
       </c>
       <c r="C249" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D249" s="2">
         <v>45409.75</v>
       </c>
       <c r="E249" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="F249" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G249">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J249">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="K249">
         <v>3.25</v>
       </c>
       <c r="L249">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="M249">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="N249">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="O249">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="P249">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="Q249">
         <v>1.975</v>
@@ -21894,34 +21903,34 @@
         <v>1.825</v>
       </c>
       <c r="S249">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="T249">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="U249">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V249">
         <v>-1</v>
       </c>
       <c r="W249">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="X249">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y249">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="Z249">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AA249">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB249">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="250" spans="1:28">
@@ -21929,49 +21938,49 @@
         <v>248</v>
       </c>
       <c r="B250">
-        <v>7623963</v>
+        <v>7624004</v>
       </c>
       <c r="C250" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D250" s="2">
         <v>45409.75</v>
       </c>
       <c r="E250" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F250" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I250" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="J250">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K250">
         <v>3.25</v>
       </c>
       <c r="L250">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="M250">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="N250">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="O250">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="P250">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="Q250">
         <v>1.975</v>
@@ -21980,34 +21989,34 @@
         <v>1.825</v>
       </c>
       <c r="S250">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="T250">
-        <v>1.75</v>
+        <v>1.875</v>
       </c>
       <c r="U250">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V250">
         <v>-1</v>
       </c>
       <c r="W250">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="X250">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y250">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="Z250">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA250">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB250">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="251" spans="1:28">
@@ -22018,16 +22027,16 @@
         <v>8131545</v>
       </c>
       <c r="C251" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D251" s="2">
         <v>45409.875</v>
       </c>
       <c r="E251" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F251" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G251">
         <v>3</v>
@@ -22036,7 +22045,7 @@
         <v>2</v>
       </c>
       <c r="I251" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J251">
         <v>2.2</v>
@@ -22104,16 +22113,16 @@
         <v>7623962</v>
       </c>
       <c r="C252" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D252" s="2">
         <v>45410.79166666666</v>
       </c>
       <c r="E252" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F252" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G252">
         <v>4</v>
@@ -22122,7 +22131,7 @@
         <v>1</v>
       </c>
       <c r="I252" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J252">
         <v>1.285</v>
@@ -22190,60 +22199,255 @@
         <v>27</v>
       </c>
       <c r="C253" t="s">
+        <v>31</v>
+      </c>
+      <c r="D253" s="2">
+        <v>45415.75</v>
+      </c>
+      <c r="E253" t="s">
+        <v>43</v>
+      </c>
+      <c r="F253" t="s">
+        <v>41</v>
+      </c>
+      <c r="J253">
+        <v>2.7</v>
+      </c>
+      <c r="K253">
+        <v>3.2</v>
+      </c>
+      <c r="L253">
+        <v>2.375</v>
+      </c>
+      <c r="M253">
+        <v>2.375</v>
+      </c>
+      <c r="N253">
+        <v>3.2</v>
+      </c>
+      <c r="O253">
+        <v>2.625</v>
+      </c>
+      <c r="P253">
+        <v>0</v>
+      </c>
+      <c r="Q253">
+        <v>1.775</v>
+      </c>
+      <c r="R253">
+        <v>2.025</v>
+      </c>
+      <c r="S253">
+        <v>2.25</v>
+      </c>
+      <c r="T253">
+        <v>1.85</v>
+      </c>
+      <c r="U253">
+        <v>1.95</v>
+      </c>
+      <c r="V253">
+        <v>0</v>
+      </c>
+      <c r="W253">
+        <v>0</v>
+      </c>
+      <c r="X253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:28">
+      <c r="A254" s="1">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
         <v>28</v>
       </c>
-      <c r="D253" s="2">
-        <v>45413.75</v>
-      </c>
-      <c r="E253" t="s">
+      <c r="C254" t="s">
+        <v>31</v>
+      </c>
+      <c r="D254" s="2">
+        <v>45416.91666666666</v>
+      </c>
+      <c r="E254" t="s">
+        <v>33</v>
+      </c>
+      <c r="F254" t="s">
+        <v>40</v>
+      </c>
+      <c r="J254">
+        <v>4.2</v>
+      </c>
+      <c r="K254">
+        <v>3.5</v>
+      </c>
+      <c r="L254">
+        <v>1.727</v>
+      </c>
+      <c r="M254">
+        <v>4</v>
+      </c>
+      <c r="N254">
+        <v>3.5</v>
+      </c>
+      <c r="O254">
+        <v>1.75</v>
+      </c>
+      <c r="P254">
+        <v>0.5</v>
+      </c>
+      <c r="Q254">
+        <v>2</v>
+      </c>
+      <c r="R254">
+        <v>1.8</v>
+      </c>
+      <c r="S254">
+        <v>2.5</v>
+      </c>
+      <c r="T254">
+        <v>2</v>
+      </c>
+      <c r="U254">
+        <v>1.8</v>
+      </c>
+      <c r="V254">
+        <v>0</v>
+      </c>
+      <c r="W254">
+        <v>0</v>
+      </c>
+      <c r="X254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:28">
+      <c r="A255" s="1">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
+        <v>29</v>
+      </c>
+      <c r="C255" t="s">
+        <v>31</v>
+      </c>
+      <c r="D255" s="2">
+        <v>45416.91666666666</v>
+      </c>
+      <c r="E255" t="s">
+        <v>42</v>
+      </c>
+      <c r="F255" t="s">
+        <v>38</v>
+      </c>
+      <c r="J255">
+        <v>5</v>
+      </c>
+      <c r="K255">
+        <v>4</v>
+      </c>
+      <c r="L255">
+        <v>1.533</v>
+      </c>
+      <c r="M255">
+        <v>4</v>
+      </c>
+      <c r="N255">
+        <v>3.75</v>
+      </c>
+      <c r="O255">
+        <v>1.727</v>
+      </c>
+      <c r="P255">
+        <v>0.75</v>
+      </c>
+      <c r="Q255">
+        <v>1.8</v>
+      </c>
+      <c r="R255">
+        <v>2</v>
+      </c>
+      <c r="S255">
+        <v>2.5</v>
+      </c>
+      <c r="T255">
+        <v>1.85</v>
+      </c>
+      <c r="U255">
+        <v>1.95</v>
+      </c>
+      <c r="V255">
+        <v>0</v>
+      </c>
+      <c r="W255">
+        <v>0</v>
+      </c>
+      <c r="X255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:28">
+      <c r="A256" s="1">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
+        <v>30</v>
+      </c>
+      <c r="C256" t="s">
+        <v>31</v>
+      </c>
+      <c r="D256" s="2">
+        <v>45417.58333333334</v>
+      </c>
+      <c r="E256" t="s">
+        <v>37</v>
+      </c>
+      <c r="F256" t="s">
         <v>34</v>
       </c>
-      <c r="F253" t="s">
-        <v>30</v>
-      </c>
-      <c r="J253">
+      <c r="J256">
+        <v>1.444</v>
+      </c>
+      <c r="K256">
+        <v>4.2</v>
+      </c>
+      <c r="L256">
+        <v>6</v>
+      </c>
+      <c r="M256">
         <v>1.533</v>
       </c>
-      <c r="K253">
+      <c r="N256">
         <v>4</v>
       </c>
-      <c r="L253">
-        <v>5.75</v>
-      </c>
-      <c r="M253">
-        <v>1.6</v>
-      </c>
-      <c r="N253">
-        <v>4</v>
-      </c>
-      <c r="O253">
+      <c r="O256">
         <v>5.25</v>
       </c>
-      <c r="P253">
-        <v>-1</v>
-      </c>
-      <c r="Q253">
-        <v>2.025</v>
-      </c>
-      <c r="R253">
-        <v>1.775</v>
-      </c>
-      <c r="S253">
-        <v>2.5</v>
-      </c>
-      <c r="T253">
-        <v>1.825</v>
-      </c>
-      <c r="U253">
-        <v>1.975</v>
-      </c>
-      <c r="V253">
-        <v>0</v>
-      </c>
-      <c r="W253">
-        <v>0</v>
-      </c>
-      <c r="X253">
+      <c r="P256">
+        <v>-1</v>
+      </c>
+      <c r="Q256">
+        <v>1.9</v>
+      </c>
+      <c r="R256">
+        <v>1.9</v>
+      </c>
+      <c r="S256">
+        <v>2.75</v>
+      </c>
+      <c r="T256">
+        <v>1.95</v>
+      </c>
+      <c r="U256">
+        <v>1.85</v>
+      </c>
+      <c r="V256">
+        <v>0</v>
+      </c>
+      <c r="W256">
+        <v>0</v>
+      </c>
+      <c r="X256">
         <v>0</v>
       </c>
     </row>

--- a/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
+++ b/Costa Rica Primera Division/Costa Rica Primera Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1043" uniqueCount="46">
   <si>
     <t>id</t>
   </si>
@@ -97,13 +97,10 @@
     <t>PL_AhUnder</t>
   </si>
   <si>
-    <t>8135288</t>
+    <t>8164717</t>
   </si>
   <si>
     <t>8162896</t>
-  </si>
-  <si>
-    <t>8164717</t>
   </si>
   <si>
     <t>8162897</t>
@@ -516,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB256"/>
+  <dimension ref="A1:AB255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -613,16 +610,16 @@
         <v>6782492</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="2">
         <v>45132.95833333334</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -631,7 +628,7 @@
         <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J2">
         <v>3.8</v>
@@ -699,16 +696,16 @@
         <v>6781348</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D3" s="2">
         <v>45132.96875</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -717,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J3">
         <v>2.375</v>
@@ -785,16 +782,16 @@
         <v>6782489</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2">
         <v>45133.91666666666</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -803,7 +800,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4">
         <v>4.5</v>
@@ -871,16 +868,16 @@
         <v>6782491</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>45133.95833333334</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -889,7 +886,7 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J5">
         <v>1.4</v>
@@ -957,16 +954,16 @@
         <v>6782488</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>45134.9375</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6">
         <v>3</v>
@@ -975,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J6">
         <v>1.5</v>
@@ -1043,16 +1040,16 @@
         <v>6782490</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>45134.95833333334</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1061,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
         <v>1.65</v>
@@ -1129,16 +1126,16 @@
         <v>6983271</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2">
         <v>45136.875</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1147,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>1.222</v>
@@ -1215,16 +1212,16 @@
         <v>6781349</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="2">
         <v>45136.91666666666</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1233,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9">
         <v>1.95</v>
@@ -1301,16 +1298,16 @@
         <v>6782494</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="2">
         <v>45136.97916666666</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1319,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J10">
         <v>1.285</v>
@@ -1387,16 +1384,16 @@
         <v>6782493</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2">
         <v>45137.75</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1405,7 +1402,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J11">
         <v>4.2</v>
@@ -1473,16 +1470,16 @@
         <v>6782497</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="2">
         <v>45137.83333333334</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1491,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J12">
         <v>1.909</v>
@@ -1559,16 +1556,16 @@
         <v>6782496</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>45137.875</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13">
         <v>3</v>
@@ -1577,7 +1574,7 @@
         <v>4</v>
       </c>
       <c r="I13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J13">
         <v>3.75</v>
@@ -1645,16 +1642,16 @@
         <v>6782499</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14" s="2">
         <v>45143.75</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1663,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J14">
         <v>2.25</v>
@@ -1731,16 +1728,16 @@
         <v>6782498</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="2">
         <v>45143.875</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G15">
         <v>2</v>
@@ -1749,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J15">
         <v>1.909</v>
@@ -1817,16 +1814,16 @@
         <v>6782501</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="2">
         <v>45143.95833333334</v>
       </c>
       <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" t="s">
         <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>33</v>
       </c>
       <c r="G16">
         <v>3</v>
@@ -1835,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J16">
         <v>2.5</v>
@@ -1903,16 +1900,16 @@
         <v>6782502</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="2">
         <v>45143.96875</v>
       </c>
       <c r="E17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1921,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J17">
         <v>3.25</v>
@@ -1989,16 +1986,16 @@
         <v>6781350</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>45144.58333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -2007,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J18">
         <v>1.615</v>
@@ -2075,16 +2072,16 @@
         <v>6782500</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2">
         <v>45144.83333333334</v>
       </c>
       <c r="E19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -2093,7 +2090,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19">
         <v>1.666</v>
@@ -2161,16 +2158,16 @@
         <v>6782503</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2">
         <v>45149.9375</v>
       </c>
       <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
         <v>36</v>
-      </c>
-      <c r="F20" t="s">
-        <v>37</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -2179,7 +2176,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J20">
         <v>2.25</v>
@@ -2247,16 +2244,16 @@
         <v>6782506</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2">
         <v>45150.75</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2265,7 +2262,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21">
         <v>2.8</v>
@@ -2333,16 +2330,16 @@
         <v>6782504</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" s="2">
         <v>45150.875</v>
       </c>
       <c r="E22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -2351,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J22">
         <v>2.5</v>
@@ -2419,16 +2416,16 @@
         <v>6782505</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>45150.95833333334</v>
       </c>
       <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
         <v>40</v>
-      </c>
-      <c r="F23" t="s">
-        <v>41</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2437,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J23">
         <v>1.4</v>
@@ -2505,16 +2502,16 @@
         <v>6782507</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2">
         <v>45151.79166666666</v>
       </c>
       <c r="E24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -2523,7 +2520,7 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J24">
         <v>4.75</v>
@@ -2591,16 +2588,16 @@
         <v>6781351</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="2">
         <v>45151.875</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G25">
         <v>2</v>
@@ -2609,7 +2606,7 @@
         <v>4</v>
       </c>
       <c r="I25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J25">
         <v>3.75</v>
@@ -2677,16 +2674,16 @@
         <v>6782510</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26" s="2">
         <v>45156.95833333334</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -2695,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J26">
         <v>1.444</v>
@@ -2763,16 +2760,16 @@
         <v>6782512</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="2">
         <v>45157.83333333334</v>
       </c>
       <c r="E27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" t="s">
         <v>33</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -2781,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J27">
         <v>2.1</v>
@@ -2849,16 +2846,16 @@
         <v>6782509</v>
       </c>
       <c r="C28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2">
         <v>45157.95833333334</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G28">
         <v>2</v>
@@ -2867,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="I28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J28">
         <v>1.571</v>
@@ -2935,16 +2932,16 @@
         <v>6782508</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="2">
         <v>45158.75</v>
       </c>
       <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
         <v>41</v>
-      </c>
-      <c r="F29" t="s">
-        <v>42</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2953,7 +2950,7 @@
         <v>1</v>
       </c>
       <c r="I29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J29">
         <v>2.55</v>
@@ -3021,16 +3018,16 @@
         <v>6782511</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2">
         <v>45158.875</v>
       </c>
       <c r="E30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -3039,7 +3036,7 @@
         <v>1</v>
       </c>
       <c r="I30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J30">
         <v>2.1</v>
@@ -3107,16 +3104,16 @@
         <v>6781352</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="2">
         <v>45159.75</v>
       </c>
       <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
         <v>39</v>
-      </c>
-      <c r="F31" t="s">
-        <v>40</v>
       </c>
       <c r="G31">
         <v>3</v>
@@ -3125,7 +3122,7 @@
         <v>2</v>
       </c>
       <c r="I31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J31">
         <v>3.8</v>
@@ -3193,16 +3190,16 @@
         <v>6782514</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="2">
         <v>45163.95833333334</v>
       </c>
       <c r="E32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -3211,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J32">
         <v>1.571</v>
@@ -3279,16 +3276,16 @@
         <v>6782516</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2">
         <v>45164.75</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G33">
         <v>2</v>
@@ -3297,7 +3294,7 @@
         <v>2</v>
       </c>
       <c r="I33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J33">
         <v>2.2</v>
@@ -3365,16 +3362,16 @@
         <v>7111690</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2">
         <v>45164.79166666666</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G34">
         <v>3</v>
@@ -3383,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="I34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J34">
         <v>1.833</v>
@@ -3451,16 +3448,16 @@
         <v>6782513</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2">
         <v>45164.91666666666</v>
       </c>
       <c r="E35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G35">
         <v>1</v>
@@ -3469,7 +3466,7 @@
         <v>2</v>
       </c>
       <c r="I35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35">
         <v>3.75</v>
@@ -3537,16 +3534,16 @@
         <v>6781353</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2">
         <v>45165.75</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G36">
         <v>3</v>
@@ -3555,7 +3552,7 @@
         <v>2</v>
       </c>
       <c r="I36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J36">
         <v>2</v>
@@ -3623,16 +3620,16 @@
         <v>6782515</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2">
         <v>45165.875</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G37">
         <v>2</v>
@@ -3641,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="I37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J37">
         <v>2.6</v>
@@ -3709,16 +3706,16 @@
         <v>6782522</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2">
         <v>45171.75</v>
       </c>
       <c r="E38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G38">
         <v>1</v>
@@ -3727,7 +3724,7 @@
         <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J38">
         <v>2.5</v>
@@ -3795,16 +3792,16 @@
         <v>6781354</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2">
         <v>45171.75</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G39">
         <v>1</v>
@@ -3813,7 +3810,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J39">
         <v>2.4</v>
@@ -3881,16 +3878,16 @@
         <v>6782521</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2">
         <v>45171.85416666666</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G40">
         <v>2</v>
@@ -3899,7 +3896,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J40">
         <v>2.75</v>
@@ -3967,16 +3964,16 @@
         <v>6782518</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2">
         <v>45171.875</v>
       </c>
       <c r="E41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G41">
         <v>1</v>
@@ -3985,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J41">
         <v>2.3</v>
@@ -4053,16 +4050,16 @@
         <v>6782519</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2">
         <v>45171.95833333334</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42">
         <v>3</v>
@@ -4071,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J42">
         <v>1.363</v>
@@ -4139,16 +4136,16 @@
         <v>6782520</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2">
         <v>45172.83333333334</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G43">
         <v>2</v>
@@ -4157,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J43">
         <v>2</v>
@@ -4225,16 +4222,16 @@
         <v>6782524</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2">
         <v>45178.75</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -4243,7 +4240,7 @@
         <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J44">
         <v>1.85</v>
@@ -4311,16 +4308,16 @@
         <v>6781355</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2">
         <v>45178.79166666666</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4329,7 +4326,7 @@
         <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J45">
         <v>1.9</v>
@@ -4397,16 +4394,16 @@
         <v>6782523</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2">
         <v>45178.91666666666</v>
       </c>
       <c r="E46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G46">
         <v>2</v>
@@ -4415,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="I46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J46">
         <v>1.7</v>
@@ -4483,16 +4480,16 @@
         <v>6782526</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2">
         <v>45178.95833333334</v>
       </c>
       <c r="E47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G47">
         <v>2</v>
@@ -4501,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J47">
         <v>1.3</v>
@@ -4569,16 +4566,16 @@
         <v>6782525</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2">
         <v>45179.58333333334</v>
       </c>
       <c r="E48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4587,7 +4584,7 @@
         <v>1</v>
       </c>
       <c r="I48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J48">
         <v>2.625</v>
@@ -4655,16 +4652,16 @@
         <v>6782527</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2">
         <v>45179.79166666666</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4673,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="I49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J49">
         <v>6</v>
@@ -4741,16 +4738,16 @@
         <v>6782528</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2">
         <v>45181.875</v>
       </c>
       <c r="E50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -4759,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J50">
         <v>2.3</v>
@@ -4827,16 +4824,16 @@
         <v>6782532</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2">
         <v>45181.95833333334</v>
       </c>
       <c r="E51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G51">
         <v>2</v>
@@ -4845,7 +4842,7 @@
         <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J51">
         <v>4.5</v>
@@ -4913,16 +4910,16 @@
         <v>6782531</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2">
         <v>45182.75</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -4931,7 +4928,7 @@
         <v>2</v>
       </c>
       <c r="I52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J52">
         <v>2.5</v>
@@ -4999,16 +4996,16 @@
         <v>7196890</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2">
         <v>45182.875</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G53">
         <v>2</v>
@@ -5017,7 +5014,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J53">
         <v>1.55</v>
@@ -5085,16 +5082,16 @@
         <v>6781356</v>
       </c>
       <c r="C54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2">
         <v>45182.91666666666</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G54">
         <v>1</v>
@@ -5103,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J54">
         <v>1.909</v>
@@ -5171,16 +5168,16 @@
         <v>6782530</v>
       </c>
       <c r="C55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2">
         <v>45182.97916666666</v>
       </c>
       <c r="E55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G55">
         <v>2</v>
@@ -5189,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J55">
         <v>1.5</v>
@@ -5257,16 +5254,16 @@
         <v>6782538</v>
       </c>
       <c r="C56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2">
         <v>45184.875</v>
       </c>
       <c r="E56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G56">
         <v>7</v>
@@ -5275,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J56">
         <v>1.2</v>
@@ -5343,16 +5340,16 @@
         <v>6782533</v>
       </c>
       <c r="C57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2">
         <v>45184.97916666666</v>
       </c>
       <c r="E57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -5361,7 +5358,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J57">
         <v>2.4</v>
@@ -5429,16 +5426,16 @@
         <v>6782535</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2">
         <v>45185.83333333334</v>
       </c>
       <c r="E58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G58">
         <v>2</v>
@@ -5447,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J58">
         <v>2.1</v>
@@ -5515,16 +5512,16 @@
         <v>6782536</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2">
         <v>45185.88194444445</v>
       </c>
       <c r="E59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -5533,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="I59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J59">
         <v>3.4</v>
@@ -5601,17 +5598,17 @@
         <v>6781357</v>
       </c>
       <c r="C60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2">
         <v>45185.95833333334</v>
       </c>
       <c r="E60" t="s">
+        <v>37</v>
+      </c>
+      <c r="F60" t="s">
         <v>38</v>
       </c>
-      <c r="F60" t="s">
-        <v>39</v>
-      </c>
       <c r="G60">
         <v>2</v>
       </c>
@@ -5619,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J60">
         <v>1.363</v>
@@ -5687,16 +5684,16 @@
         <v>6782537</v>
       </c>
       <c r="C61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2">
         <v>45186.58333333334</v>
       </c>
       <c r="E61" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G61">
         <v>2</v>
@@ -5705,7 +5702,7 @@
         <v>1</v>
       </c>
       <c r="I61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J61">
         <v>1.833</v>
@@ -5773,16 +5770,16 @@
         <v>6782540</v>
       </c>
       <c r="C62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2">
         <v>45188.75</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62">
         <v>3</v>
@@ -5791,7 +5788,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J62">
         <v>4</v>
@@ -5859,16 +5856,16 @@
         <v>7229962</v>
       </c>
       <c r="C63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2">
         <v>45188.95833333334</v>
       </c>
       <c r="E63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -5877,7 +5874,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J63">
         <v>1.3</v>
@@ -5945,16 +5942,16 @@
         <v>7233833</v>
       </c>
       <c r="C64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2">
         <v>45189.875</v>
       </c>
       <c r="E64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -5963,7 +5960,7 @@
         <v>3</v>
       </c>
       <c r="I64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J64">
         <v>3.6</v>
@@ -6031,16 +6028,16 @@
         <v>6782541</v>
       </c>
       <c r="C65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2">
         <v>45189.95833333334</v>
       </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65">
         <v>4</v>
@@ -6049,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J65">
         <v>1.5</v>
@@ -6117,16 +6114,16 @@
         <v>6782539</v>
       </c>
       <c r="C66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D66" s="2">
         <v>45189.96875</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G66">
         <v>2</v>
@@ -6135,7 +6132,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J66">
         <v>1.95</v>
@@ -6203,16 +6200,16 @@
         <v>6781358</v>
       </c>
       <c r="C67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D67" s="2">
         <v>45190.95833333334</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -6221,7 +6218,7 @@
         <v>1</v>
       </c>
       <c r="I67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J67">
         <v>3.1</v>
@@ -6289,16 +6286,16 @@
         <v>6782544</v>
       </c>
       <c r="C68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D68" s="2">
         <v>45192.75</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68">
         <v>1</v>
@@ -6307,7 +6304,7 @@
         <v>2</v>
       </c>
       <c r="I68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J68">
         <v>2.5</v>
@@ -6375,16 +6372,16 @@
         <v>6782545</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D69" s="2">
         <v>45192.85416666666</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69">
         <v>2</v>
@@ -6393,7 +6390,7 @@
         <v>2</v>
       </c>
       <c r="I69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J69">
         <v>1.4</v>
@@ -6461,16 +6458,16 @@
         <v>6782546</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D70" s="2">
         <v>45192.95833333334</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70">
         <v>4</v>
@@ -6479,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J70">
         <v>1.285</v>
@@ -6547,16 +6544,16 @@
         <v>6781359</v>
       </c>
       <c r="C71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D71" s="2">
         <v>45193.75</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G71">
         <v>2</v>
@@ -6565,7 +6562,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J71">
         <v>1.85</v>
@@ -6633,16 +6630,16 @@
         <v>6782548</v>
       </c>
       <c r="C72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D72" s="2">
         <v>45193.875</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -6651,7 +6648,7 @@
         <v>2</v>
       </c>
       <c r="I72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J72">
         <v>4.2</v>
@@ -6719,16 +6716,16 @@
         <v>6782547</v>
       </c>
       <c r="C73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D73" s="2">
         <v>45194.75</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G73">
         <v>1</v>
@@ -6737,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J73">
         <v>3.1</v>
@@ -6805,16 +6802,16 @@
         <v>6781360</v>
       </c>
       <c r="C74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D74" s="2">
         <v>45199.875</v>
       </c>
       <c r="E74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -6823,7 +6820,7 @@
         <v>1</v>
       </c>
       <c r="I74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J74">
         <v>2.5</v>
@@ -6891,16 +6888,16 @@
         <v>6782553</v>
       </c>
       <c r="C75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D75" s="2">
         <v>45199.95833333334</v>
       </c>
       <c r="E75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -6909,7 +6906,7 @@
         <v>4</v>
       </c>
       <c r="I75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J75">
         <v>4</v>
@@ -6977,16 +6974,16 @@
         <v>6782549</v>
       </c>
       <c r="C76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D76" s="2">
         <v>45199.96527777778</v>
       </c>
       <c r="E76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G76">
         <v>2</v>
@@ -6995,7 +6992,7 @@
         <v>2</v>
       </c>
       <c r="I76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J76">
         <v>1.95</v>
@@ -7063,16 +7060,16 @@
         <v>6782550</v>
       </c>
       <c r="C77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D77" s="2">
         <v>45200.58333333334</v>
       </c>
       <c r="E77" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G77">
         <v>4</v>
@@ -7081,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="I77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J77">
         <v>1.4</v>
@@ -7149,16 +7146,16 @@
         <v>6782552</v>
       </c>
       <c r="C78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D78" s="2">
         <v>45200.75</v>
       </c>
       <c r="E78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -7167,7 +7164,7 @@
         <v>3</v>
       </c>
       <c r="I78" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J78">
         <v>4.5</v>
@@ -7235,16 +7232,16 @@
         <v>6782551</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D79" s="2">
         <v>45200.88541666666</v>
       </c>
       <c r="E79" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -7253,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J79">
         <v>1.3</v>
@@ -7321,16 +7318,16 @@
         <v>6782557</v>
       </c>
       <c r="C80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2">
         <v>45205.91666666666</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G80">
         <v>0</v>
@@ -7339,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J80">
         <v>2.8</v>
@@ -7407,16 +7404,16 @@
         <v>7301749</v>
       </c>
       <c r="C81" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2">
         <v>45206.83333333334</v>
       </c>
       <c r="E81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G81">
         <v>3</v>
@@ -7425,7 +7422,7 @@
         <v>2</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J81">
         <v>2.05</v>
@@ -7493,16 +7490,16 @@
         <v>6782555</v>
       </c>
       <c r="C82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D82" s="2">
         <v>45206.95833333334</v>
       </c>
       <c r="E82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G82">
         <v>2</v>
@@ -7511,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J82">
         <v>2.6</v>
@@ -7579,16 +7576,16 @@
         <v>6781361</v>
       </c>
       <c r="C83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2">
         <v>45207.75</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -7597,7 +7594,7 @@
         <v>4</v>
       </c>
       <c r="I83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J83">
         <v>2.55</v>
@@ -7665,16 +7662,16 @@
         <v>6782556</v>
       </c>
       <c r="C84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2">
         <v>45207.85416666666</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G84">
         <v>1</v>
@@ -7683,7 +7680,7 @@
         <v>2</v>
       </c>
       <c r="I84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J84">
         <v>1.4</v>
@@ -7751,16 +7748,16 @@
         <v>6782554</v>
       </c>
       <c r="C85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D85" s="2">
         <v>45207.875</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -7769,7 +7766,7 @@
         <v>1</v>
       </c>
       <c r="I85" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J85">
         <v>1.909</v>
@@ -7837,16 +7834,16 @@
         <v>6782562</v>
       </c>
       <c r="C86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D86" s="2">
         <v>45216.75</v>
       </c>
       <c r="E86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G86">
         <v>1</v>
@@ -7855,7 +7852,7 @@
         <v>1</v>
       </c>
       <c r="I86" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J86">
         <v>1.85</v>
@@ -7923,16 +7920,16 @@
         <v>6782563</v>
       </c>
       <c r="C87" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D87" s="2">
         <v>45216.875</v>
       </c>
       <c r="E87" t="s">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s">
         <v>42</v>
-      </c>
-      <c r="F87" t="s">
-        <v>43</v>
       </c>
       <c r="G87">
         <v>2</v>
@@ -7941,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="I87" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J87">
         <v>1.615</v>
@@ -8009,16 +8006,16 @@
         <v>6781362</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2">
         <v>45216.95833333334</v>
       </c>
       <c r="E88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -8027,7 +8024,7 @@
         <v>1</v>
       </c>
       <c r="I88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J88">
         <v>1.333</v>
@@ -8095,16 +8092,16 @@
         <v>6782560</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D89" s="2">
         <v>45217.875</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -8113,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="I89" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J89">
         <v>1.909</v>
@@ -8181,16 +8178,16 @@
         <v>6782561</v>
       </c>
       <c r="C90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D90" s="2">
         <v>45217.97916666666</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G90">
         <v>2</v>
@@ -8199,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J90">
         <v>1.285</v>
@@ -8267,16 +8264,16 @@
         <v>6782568</v>
       </c>
       <c r="C91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D91" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -8285,7 +8282,7 @@
         <v>1</v>
       </c>
       <c r="I91" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J91">
         <v>1.909</v>
@@ -8353,16 +8350,16 @@
         <v>6782566</v>
       </c>
       <c r="C92" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2">
         <v>45220.83333333334</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G92">
         <v>0</v>
@@ -8371,7 +8368,7 @@
         <v>4</v>
       </c>
       <c r="I92" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J92">
         <v>3.2</v>
@@ -8439,16 +8436,16 @@
         <v>6782564</v>
       </c>
       <c r="C93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D93" s="2">
         <v>45220.9375</v>
       </c>
       <c r="E93" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -8457,7 +8454,7 @@
         <v>1</v>
       </c>
       <c r="I93" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J93">
         <v>3.4</v>
@@ -8525,16 +8522,16 @@
         <v>6781363</v>
       </c>
       <c r="C94" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D94" s="2">
         <v>45220.95833333334</v>
       </c>
       <c r="E94" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -8543,7 +8540,7 @@
         <v>1</v>
       </c>
       <c r="I94" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J94">
         <v>1.533</v>
@@ -8611,16 +8608,16 @@
         <v>6782567</v>
       </c>
       <c r="C95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D95" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G95">
         <v>2</v>
@@ -8629,7 +8626,7 @@
         <v>3</v>
       </c>
       <c r="I95" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J95">
         <v>2.875</v>
@@ -8697,16 +8694,16 @@
         <v>6782565</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D96" s="2">
         <v>45221.79166666666</v>
       </c>
       <c r="E96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G96">
         <v>2</v>
@@ -8715,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="I96" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J96">
         <v>1.833</v>
@@ -8783,16 +8780,16 @@
         <v>6782569</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D97" s="2">
         <v>45226.91666666666</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -8801,7 +8798,7 @@
         <v>0</v>
       </c>
       <c r="I97" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J97">
         <v>2.625</v>
@@ -8869,16 +8866,16 @@
         <v>6782572</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D98" s="2">
         <v>45226.95833333334</v>
       </c>
       <c r="E98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G98">
         <v>2</v>
@@ -8887,7 +8884,7 @@
         <v>1</v>
       </c>
       <c r="I98" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J98">
         <v>1.909</v>
@@ -8955,16 +8952,16 @@
         <v>7392781</v>
       </c>
       <c r="C99" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D99" s="2">
         <v>45227.75</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G99">
         <v>1</v>
@@ -8973,7 +8970,7 @@
         <v>2</v>
       </c>
       <c r="I99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J99">
         <v>2.15</v>
@@ -9041,25 +9038,25 @@
         <v>6782573</v>
       </c>
       <c r="C100" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D100" s="2">
         <v>45227.83333333334</v>
       </c>
       <c r="E100" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F100" t="s">
+        <v>42</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
         <v>43</v>
-      </c>
-      <c r="G100">
-        <v>0</v>
-      </c>
-      <c r="H100">
-        <v>2</v>
-      </c>
-      <c r="I100" t="s">
-        <v>44</v>
       </c>
       <c r="J100">
         <v>2.05</v>
@@ -9127,16 +9124,16 @@
         <v>6782571</v>
       </c>
       <c r="C101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D101" s="2">
         <v>45227.95833333334</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G101">
         <v>1</v>
@@ -9145,7 +9142,7 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J101">
         <v>1.909</v>
@@ -9213,16 +9210,16 @@
         <v>6782570</v>
       </c>
       <c r="C102" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D102" s="2">
         <v>45228.79166666666</v>
       </c>
       <c r="E102" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" t="s">
         <v>35</v>
-      </c>
-      <c r="F102" t="s">
-        <v>36</v>
       </c>
       <c r="G102">
         <v>2</v>
@@ -9231,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="I102" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J102">
         <v>1.3</v>
@@ -9299,16 +9296,16 @@
         <v>6781365</v>
       </c>
       <c r="C103" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D103" s="2">
         <v>45233.9375</v>
       </c>
       <c r="E103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G103">
         <v>2</v>
@@ -9317,7 +9314,7 @@
         <v>1</v>
       </c>
       <c r="I103" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J103">
         <v>1.75</v>
@@ -9385,16 +9382,16 @@
         <v>6782574</v>
       </c>
       <c r="C104" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D104" s="2">
         <v>45234.75</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G104">
         <v>1</v>
@@ -9403,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J104">
         <v>1.909</v>
@@ -9471,16 +9468,16 @@
         <v>6782578</v>
       </c>
       <c r="C105" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2">
         <v>45234.83333333334</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G105">
         <v>4</v>
@@ -9489,7 +9486,7 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J105">
         <v>1.7</v>
@@ -9557,16 +9554,16 @@
         <v>6782576</v>
       </c>
       <c r="C106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D106" s="2">
         <v>45234.95833333334</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -9575,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J106">
         <v>1.833</v>
@@ -9643,16 +9640,16 @@
         <v>6782575</v>
       </c>
       <c r="C107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D107" s="2">
         <v>45235.58333333334</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G107">
         <v>3</v>
@@ -9661,7 +9658,7 @@
         <v>2</v>
       </c>
       <c r="I107" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J107">
         <v>1.615</v>
@@ -9729,16 +9726,16 @@
         <v>6782577</v>
       </c>
       <c r="C108" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D108" s="2">
         <v>45235.75</v>
       </c>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G108">
         <v>0</v>
@@ -9747,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J108">
         <v>4.75</v>
@@ -9815,16 +9812,16 @@
         <v>6782583</v>
       </c>
       <c r="C109" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D109" s="2">
         <v>45238.75</v>
       </c>
       <c r="E109" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G109">
         <v>0</v>
@@ -9833,7 +9830,7 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J109">
         <v>2.25</v>
@@ -9901,16 +9898,16 @@
         <v>6782581</v>
       </c>
       <c r="C110" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D110" s="2">
         <v>45238.875</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F110" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110">
         <v>2</v>
@@ -9919,7 +9916,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J110">
         <v>1.181</v>
@@ -9987,16 +9984,16 @@
         <v>6782579</v>
       </c>
       <c r="C111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D111" s="2">
         <v>45238.875</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F111" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -10005,7 +10002,7 @@
         <v>2</v>
       </c>
       <c r="I111" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J111">
         <v>2.4</v>
@@ -10073,16 +10070,16 @@
         <v>6781366</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D112" s="2">
         <v>45238.96875</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G112">
         <v>4</v>
@@ -10091,7 +10088,7 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J112">
         <v>2.05</v>
@@ -10159,16 +10156,16 @@
         <v>6782580</v>
       </c>
       <c r="C113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2">
         <v>45238.97916666666</v>
       </c>
       <c r="E113" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G113">
         <v>1</v>
@@ -10177,7 +10174,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J113">
         <v>1.45</v>
@@ -10245,16 +10242,16 @@
         <v>6782582</v>
       </c>
       <c r="C114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D114" s="2">
         <v>45239.95833333334</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -10263,7 +10260,7 @@
         <v>2</v>
       </c>
       <c r="I114" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J114">
         <v>4.2</v>
@@ -10331,16 +10328,16 @@
         <v>6782585</v>
       </c>
       <c r="C115" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D115" s="2">
         <v>45241.75</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F115" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -10349,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J115">
         <v>1.571</v>
@@ -10417,16 +10414,16 @@
         <v>6782584</v>
       </c>
       <c r="C116" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D116" s="2">
         <v>45241.91666666666</v>
       </c>
       <c r="E116" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G116">
         <v>2</v>
@@ -10435,7 +10432,7 @@
         <v>1</v>
       </c>
       <c r="I116" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J116">
         <v>3.4</v>
@@ -10503,16 +10500,16 @@
         <v>6781367</v>
       </c>
       <c r="C117" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D117" s="2">
         <v>45241.95833333334</v>
       </c>
       <c r="E117" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F117" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -10521,7 +10518,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J117">
         <v>2.05</v>
@@ -10589,16 +10586,16 @@
         <v>6782586</v>
       </c>
       <c r="C118" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D118" s="2">
         <v>45242.58333333334</v>
       </c>
       <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" t="s">
         <v>37</v>
-      </c>
-      <c r="F118" t="s">
-        <v>38</v>
       </c>
       <c r="G118">
         <v>1</v>
@@ -10607,7 +10604,7 @@
         <v>1</v>
       </c>
       <c r="I118" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J118">
         <v>3.1</v>
@@ -10675,16 +10672,16 @@
         <v>6782587</v>
       </c>
       <c r="C119" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D119" s="2">
         <v>45242.79166666666</v>
       </c>
       <c r="E119" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F119" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -10693,7 +10690,7 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J119">
         <v>1.166</v>
@@ -10761,16 +10758,16 @@
         <v>6782588</v>
       </c>
       <c r="C120" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2">
         <v>45242.875</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -10779,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J120">
         <v>2.2</v>
@@ -10847,16 +10844,16 @@
         <v>7476547</v>
       </c>
       <c r="C121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D121" s="2">
         <v>45245.75</v>
       </c>
       <c r="E121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -10865,7 +10862,7 @@
         <v>1</v>
       </c>
       <c r="I121" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J121">
         <v>3</v>
@@ -10933,16 +10930,16 @@
         <v>6782593</v>
       </c>
       <c r="C122" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D122" s="2">
         <v>45251.95833333334</v>
       </c>
       <c r="E122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -10951,7 +10948,7 @@
         <v>1</v>
       </c>
       <c r="I122" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J122">
         <v>2.3</v>
@@ -11019,16 +11016,16 @@
         <v>6782590</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D123" s="2">
         <v>45252.75</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F123" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G123">
         <v>4</v>
@@ -11037,7 +11034,7 @@
         <v>2</v>
       </c>
       <c r="I123" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J123">
         <v>1.8</v>
@@ -11105,16 +11102,16 @@
         <v>6781368</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D124" s="2">
         <v>45252.91666666666</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G124">
         <v>1</v>
@@ -11123,7 +11120,7 @@
         <v>2</v>
       </c>
       <c r="I124" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J124">
         <v>4.2</v>
@@ -11191,16 +11188,16 @@
         <v>6782591</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D125" s="2">
         <v>45252.95833333334</v>
       </c>
       <c r="E125" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G125">
         <v>3</v>
@@ -11209,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J125">
         <v>1.333</v>
@@ -11277,16 +11274,16 @@
         <v>6782592</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D126" s="2">
         <v>45253.75</v>
       </c>
       <c r="E126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G126">
         <v>1</v>
@@ -11295,7 +11292,7 @@
         <v>2</v>
       </c>
       <c r="I126" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J126">
         <v>7.5</v>
@@ -11363,16 +11360,16 @@
         <v>6782589</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D127" s="2">
         <v>45253.91666666666</v>
       </c>
       <c r="E127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F127" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -11381,7 +11378,7 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J127">
         <v>1.4</v>
@@ -11449,16 +11446,16 @@
         <v>6781369</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D128" s="2">
         <v>45255.83333333334</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -11467,7 +11464,7 @@
         <v>2</v>
       </c>
       <c r="I128" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J128">
         <v>1.727</v>
@@ -11535,16 +11532,16 @@
         <v>6782598</v>
       </c>
       <c r="C129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D129" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E129" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F129" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -11553,7 +11550,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J129">
         <v>4.5</v>
@@ -11621,16 +11618,16 @@
         <v>6782595</v>
       </c>
       <c r="C130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D130" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E130" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G130">
         <v>3</v>
@@ -11639,7 +11636,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J130">
         <v>1.4</v>
@@ -11707,16 +11704,16 @@
         <v>6782596</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D131" s="2">
         <v>45255.95833333334</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F131" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G131">
         <v>3</v>
@@ -11725,7 +11722,7 @@
         <v>4</v>
       </c>
       <c r="I131" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J131">
         <v>1.363</v>
@@ -11793,16 +11790,16 @@
         <v>6782594</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2">
         <v>45256.75</v>
       </c>
       <c r="E132" t="s">
+        <v>33</v>
+      </c>
+      <c r="F132" t="s">
         <v>34</v>
-      </c>
-      <c r="F132" t="s">
-        <v>35</v>
       </c>
       <c r="G132">
         <v>1</v>
@@ -11811,7 +11808,7 @@
         <v>2</v>
       </c>
       <c r="I132" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J132">
         <v>5.5</v>
@@ -11879,16 +11876,16 @@
         <v>6782597</v>
       </c>
       <c r="C133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D133" s="2">
         <v>45256.875</v>
       </c>
       <c r="E133" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F133" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -11897,7 +11894,7 @@
         <v>1</v>
       </c>
       <c r="I133" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J133">
         <v>2.4</v>
@@ -11965,16 +11962,16 @@
         <v>7532513</v>
       </c>
       <c r="C134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D134" s="2">
         <v>45262.95833333334</v>
       </c>
       <c r="E134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G134">
         <v>3</v>
@@ -11983,7 +11980,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J134">
         <v>2</v>
@@ -12051,16 +12048,16 @@
         <v>7532514</v>
       </c>
       <c r="C135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D135" s="2">
         <v>45263.58333333334</v>
       </c>
       <c r="E135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F135" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -12069,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="I135" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J135">
         <v>3.4</v>
@@ -12137,16 +12134,16 @@
         <v>7532516</v>
       </c>
       <c r="C136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D136" s="2">
         <v>45269.95833333334</v>
       </c>
       <c r="E136" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F136" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G136">
         <v>4</v>
@@ -12155,7 +12152,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J136">
         <v>1.4</v>
@@ -12223,16 +12220,16 @@
         <v>7532515</v>
       </c>
       <c r="C137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D137" s="2">
         <v>45270.83333333334</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F137" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G137">
         <v>1</v>
@@ -12241,7 +12238,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J137">
         <v>1.95</v>
@@ -12309,16 +12306,16 @@
         <v>7589150</v>
       </c>
       <c r="C138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D138" s="2">
         <v>45274.95833333334</v>
       </c>
       <c r="E138" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G138">
         <v>1</v>
@@ -12327,7 +12324,7 @@
         <v>2</v>
       </c>
       <c r="I138" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J138">
         <v>2.4</v>
@@ -12395,16 +12392,16 @@
         <v>7596073</v>
       </c>
       <c r="C139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D139" s="2">
         <v>45277.83333333334</v>
       </c>
       <c r="E139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G139">
         <v>1</v>
@@ -12413,7 +12410,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J139">
         <v>1.727</v>
@@ -12481,16 +12478,16 @@
         <v>7623885</v>
       </c>
       <c r="C140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D140" s="2">
         <v>45303.95833333334</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G140">
         <v>1</v>
@@ -12499,7 +12496,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J140">
         <v>1.45</v>
@@ -12567,16 +12564,16 @@
         <v>7623884</v>
       </c>
       <c r="C141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D141" s="2">
         <v>45304.75</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G141">
         <v>1</v>
@@ -12585,7 +12582,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J141">
         <v>1.571</v>
@@ -12653,16 +12650,16 @@
         <v>7623883</v>
       </c>
       <c r="C142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D142" s="2">
         <v>45304.79166666666</v>
       </c>
       <c r="E142" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F142" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G142">
         <v>0</v>
@@ -12671,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="I142" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J142">
         <v>2.9</v>
@@ -12739,16 +12736,16 @@
         <v>7623882</v>
       </c>
       <c r="C143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D143" s="2">
         <v>45304.91666666666</v>
       </c>
       <c r="E143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G143">
         <v>3</v>
@@ -12757,7 +12754,7 @@
         <v>2</v>
       </c>
       <c r="I143" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J143">
         <v>1.909</v>
@@ -12825,16 +12822,16 @@
         <v>7624965</v>
       </c>
       <c r="C144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D144" s="2">
         <v>45304.95833333334</v>
       </c>
       <c r="E144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F144" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -12843,7 +12840,7 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J144">
         <v>1.25</v>
@@ -12911,16 +12908,16 @@
         <v>7623973</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D145" s="2">
         <v>45305.79166666666</v>
       </c>
       <c r="E145" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G145">
         <v>1</v>
@@ -12929,7 +12926,7 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J145">
         <v>1.285</v>
@@ -12997,16 +12994,16 @@
         <v>7704994</v>
       </c>
       <c r="C146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D146" s="2">
         <v>45307.91666666666</v>
       </c>
       <c r="E146" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G146">
         <v>2</v>
@@ -13015,7 +13012,7 @@
         <v>4</v>
       </c>
       <c r="I146" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J146">
         <v>2.3</v>
@@ -13083,16 +13080,16 @@
         <v>7623887</v>
       </c>
       <c r="C147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D147" s="2">
         <v>45307.95833333334</v>
       </c>
       <c r="E147" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F147" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G147">
         <v>1</v>
@@ -13101,7 +13098,7 @@
         <v>2</v>
       </c>
       <c r="I147" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J147">
         <v>1.727</v>
@@ -13169,16 +13166,16 @@
         <v>7623889</v>
       </c>
       <c r="C148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D148" s="2">
         <v>45308.75</v>
       </c>
       <c r="E148" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G148">
         <v>2</v>
@@ -13187,7 +13184,7 @@
         <v>2</v>
       </c>
       <c r="I148" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J148">
         <v>3</v>
@@ -13255,16 +13252,16 @@
         <v>7623890</v>
       </c>
       <c r="C149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D149" s="2">
         <v>45308.91666666666</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G149">
         <v>0</v>
@@ -13273,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="I149" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J149">
         <v>4</v>
@@ -13341,16 +13338,16 @@
         <v>7623888</v>
       </c>
       <c r="C150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D150" s="2">
         <v>45308.95833333334</v>
       </c>
       <c r="E150" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G150">
         <v>0</v>
@@ -13359,7 +13356,7 @@
         <v>1</v>
       </c>
       <c r="I150" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J150">
         <v>4</v>
@@ -13427,16 +13424,16 @@
         <v>7623974</v>
       </c>
       <c r="C151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D151" s="2">
         <v>45309.95833333334</v>
       </c>
       <c r="E151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F151" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G151">
         <v>1</v>
@@ -13445,7 +13442,7 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J151">
         <v>6</v>
@@ -13513,16 +13510,16 @@
         <v>7623891</v>
       </c>
       <c r="C152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D152" s="2">
         <v>45311.75</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G152">
         <v>2</v>
@@ -13531,7 +13528,7 @@
         <v>2</v>
       </c>
       <c r="I152" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J152">
         <v>1.727</v>
@@ -13599,16 +13596,16 @@
         <v>7623892</v>
       </c>
       <c r="C153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D153" s="2">
         <v>45311.875</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F153" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G153">
         <v>0</v>
@@ -13617,7 +13614,7 @@
         <v>0</v>
       </c>
       <c r="I153" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J153">
         <v>1.363</v>
@@ -13685,16 +13682,16 @@
         <v>7623893</v>
       </c>
       <c r="C154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D154" s="2">
         <v>45311.95833333334</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F154" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G154">
         <v>0</v>
@@ -13703,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="I154" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J154">
         <v>1.727</v>
@@ -13771,16 +13768,16 @@
         <v>7623975</v>
       </c>
       <c r="C155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D155" s="2">
         <v>45311.97916666666</v>
       </c>
       <c r="E155" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F155" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G155">
         <v>0</v>
@@ -13789,7 +13786,7 @@
         <v>1</v>
       </c>
       <c r="I155" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J155">
         <v>1.533</v>
@@ -13857,16 +13854,16 @@
         <v>7623976</v>
       </c>
       <c r="C156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D156" s="2">
         <v>45312.79166666666</v>
       </c>
       <c r="E156" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G156">
         <v>1</v>
@@ -13875,7 +13872,7 @@
         <v>1</v>
       </c>
       <c r="I156" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J156">
         <v>1.444</v>
@@ -13943,16 +13940,16 @@
         <v>7623977</v>
       </c>
       <c r="C157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D157" s="2">
         <v>45312.875</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G157">
         <v>0</v>
@@ -13961,7 +13958,7 @@
         <v>0</v>
       </c>
       <c r="I157" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J157">
         <v>1.727</v>
@@ -14029,16 +14026,16 @@
         <v>7623897</v>
       </c>
       <c r="C158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D158" s="2">
         <v>45314.95833333334</v>
       </c>
       <c r="E158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -14047,7 +14044,7 @@
         <v>0</v>
       </c>
       <c r="I158" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J158">
         <v>1.4</v>
@@ -14115,16 +14112,16 @@
         <v>7623896</v>
       </c>
       <c r="C159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D159" s="2">
         <v>45315.75</v>
       </c>
       <c r="E159" t="s">
+        <v>40</v>
+      </c>
+      <c r="F159" t="s">
         <v>41</v>
-      </c>
-      <c r="F159" t="s">
-        <v>42</v>
       </c>
       <c r="G159">
         <v>4</v>
@@ -14133,7 +14130,7 @@
         <v>2</v>
       </c>
       <c r="I159" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J159">
         <v>1.727</v>
@@ -14201,16 +14198,16 @@
         <v>7623895</v>
       </c>
       <c r="C160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D160" s="2">
         <v>45315.875</v>
       </c>
       <c r="E160" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F160" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G160">
         <v>2</v>
@@ -14219,7 +14216,7 @@
         <v>1</v>
       </c>
       <c r="I160" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J160">
         <v>1.833</v>
@@ -14287,16 +14284,16 @@
         <v>7624966</v>
       </c>
       <c r="C161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D161" s="2">
         <v>45315.95833333334</v>
       </c>
       <c r="E161" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F161" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G161">
         <v>2</v>
@@ -14305,7 +14302,7 @@
         <v>1</v>
       </c>
       <c r="I161" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J161">
         <v>2.4</v>
@@ -14373,16 +14370,16 @@
         <v>7623894</v>
       </c>
       <c r="C162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D162" s="2">
         <v>45316.91666666666</v>
       </c>
       <c r="E162" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F162" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G162">
         <v>2</v>
@@ -14391,7 +14388,7 @@
         <v>3</v>
       </c>
       <c r="I162" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J162">
         <v>2.3</v>
@@ -14459,16 +14456,16 @@
         <v>7623898</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D163" s="2">
         <v>45316.95833333334</v>
       </c>
       <c r="E163" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F163" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G163">
         <v>2</v>
@@ -14477,7 +14474,7 @@
         <v>1</v>
       </c>
       <c r="I163" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J163">
         <v>1.909</v>
@@ -14545,16 +14542,16 @@
         <v>7623901</v>
       </c>
       <c r="C164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D164" s="2">
         <v>45318.75</v>
       </c>
       <c r="E164" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F164" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G164">
         <v>0</v>
@@ -14563,7 +14560,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J164">
         <v>5.25</v>
@@ -14631,16 +14628,16 @@
         <v>7623979</v>
       </c>
       <c r="C165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D165" s="2">
         <v>45318.875</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F165" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G165">
         <v>0</v>
@@ -14649,7 +14646,7 @@
         <v>2</v>
       </c>
       <c r="I165" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J165">
         <v>4.5</v>
@@ -14717,16 +14714,16 @@
         <v>7623978</v>
       </c>
       <c r="C166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D166" s="2">
         <v>45318.95833333334</v>
       </c>
       <c r="E166" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F166" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -14735,7 +14732,7 @@
         <v>1</v>
       </c>
       <c r="I166" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J166">
         <v>3.8</v>
@@ -14803,16 +14800,16 @@
         <v>7623902</v>
       </c>
       <c r="C167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D167" s="2">
         <v>45319.75</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F167" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G167">
         <v>3</v>
@@ -14821,7 +14818,7 @@
         <v>2</v>
       </c>
       <c r="I167" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J167">
         <v>2.625</v>
@@ -14889,16 +14886,16 @@
         <v>7623899</v>
       </c>
       <c r="C168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D168" s="2">
         <v>45319.79166666666</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F168" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G168">
         <v>0</v>
@@ -14907,7 +14904,7 @@
         <v>1</v>
       </c>
       <c r="I168" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J168">
         <v>1.615</v>
@@ -14975,16 +14972,16 @@
         <v>7623900</v>
       </c>
       <c r="C169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D169" s="2">
         <v>45319.91666666666</v>
       </c>
       <c r="E169" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F169" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G169">
         <v>5</v>
@@ -14993,7 +14990,7 @@
         <v>0</v>
       </c>
       <c r="I169" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J169">
         <v>1.909</v>
@@ -15061,16 +15058,16 @@
         <v>7623905</v>
       </c>
       <c r="C170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D170" s="2">
         <v>45323.95833333334</v>
       </c>
       <c r="E170" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F170" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G170">
         <v>1</v>
@@ -15079,7 +15076,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J170">
         <v>1.333</v>
@@ -15147,16 +15144,16 @@
         <v>7623934</v>
       </c>
       <c r="C171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D171" s="2">
         <v>45330.95833333334</v>
       </c>
       <c r="E171" t="s">
+        <v>37</v>
+      </c>
+      <c r="F171" t="s">
         <v>38</v>
-      </c>
-      <c r="F171" t="s">
-        <v>39</v>
       </c>
       <c r="G171">
         <v>3</v>
@@ -15165,7 +15162,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J171">
         <v>1.444</v>
@@ -15233,16 +15230,16 @@
         <v>7623909</v>
       </c>
       <c r="C172" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D172" s="2">
         <v>45332.875</v>
       </c>
       <c r="E172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F172" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G172">
         <v>1</v>
@@ -15251,7 +15248,7 @@
         <v>2</v>
       </c>
       <c r="I172" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J172">
         <v>3.3</v>
@@ -15319,16 +15316,16 @@
         <v>7623907</v>
       </c>
       <c r="C173" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D173" s="2">
         <v>45332.91666666666</v>
       </c>
       <c r="E173" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G173">
         <v>1</v>
@@ -15337,7 +15334,7 @@
         <v>1</v>
       </c>
       <c r="I173" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J173">
         <v>1.909</v>
@@ -15405,16 +15402,16 @@
         <v>7623983</v>
       </c>
       <c r="C174" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D174" s="2">
         <v>45333</v>
       </c>
       <c r="E174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F174" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G174">
         <v>1</v>
@@ -15423,7 +15420,7 @@
         <v>0</v>
       </c>
       <c r="I174" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J174">
         <v>2.625</v>
@@ -15491,16 +15488,16 @@
         <v>7623982</v>
       </c>
       <c r="C175" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D175" s="2">
         <v>45333.58333333334</v>
       </c>
       <c r="E175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F175" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G175">
         <v>1</v>
@@ -15509,7 +15506,7 @@
         <v>3</v>
       </c>
       <c r="I175" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J175">
         <v>2.625</v>
@@ -15577,16 +15574,16 @@
         <v>7623910</v>
       </c>
       <c r="C176" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D176" s="2">
         <v>45333.75</v>
       </c>
       <c r="E176" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F176" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -15595,7 +15592,7 @@
         <v>1</v>
       </c>
       <c r="I176" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J176">
         <v>5.5</v>
@@ -15663,16 +15660,16 @@
         <v>7623908</v>
       </c>
       <c r="C177" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D177" s="2">
         <v>45333.83333333334</v>
       </c>
       <c r="E177" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G177">
         <v>0</v>
@@ -15681,7 +15678,7 @@
         <v>2</v>
       </c>
       <c r="I177" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J177">
         <v>2.3</v>
@@ -15749,16 +15746,16 @@
         <v>7623984</v>
       </c>
       <c r="C178" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D178" s="2">
         <v>45338.875</v>
       </c>
       <c r="E178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G178">
         <v>0</v>
@@ -15767,7 +15764,7 @@
         <v>2</v>
       </c>
       <c r="I178" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J178">
         <v>2.7</v>
@@ -15835,16 +15832,16 @@
         <v>7623913</v>
       </c>
       <c r="C179" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D179" s="2">
         <v>45339</v>
       </c>
       <c r="E179" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F179" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G179">
         <v>0</v>
@@ -15853,7 +15850,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J179">
         <v>2.25</v>
@@ -15921,16 +15918,16 @@
         <v>7623914</v>
       </c>
       <c r="C180" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D180" s="2">
         <v>45339.75</v>
       </c>
       <c r="E180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F180" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G180">
         <v>2</v>
@@ -15939,7 +15936,7 @@
         <v>1</v>
       </c>
       <c r="I180" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J180">
         <v>2</v>
@@ -16007,16 +16004,16 @@
         <v>7623915</v>
       </c>
       <c r="C181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D181" s="2">
         <v>45339.92708333334</v>
       </c>
       <c r="E181" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F181" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G181">
         <v>3</v>
@@ -16025,7 +16022,7 @@
         <v>1</v>
       </c>
       <c r="I181" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J181">
         <v>2</v>
@@ -16093,16 +16090,16 @@
         <v>7623911</v>
       </c>
       <c r="C182" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D182" s="2">
         <v>45340.58333333334</v>
       </c>
       <c r="E182" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F182" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G182">
         <v>0</v>
@@ -16111,7 +16108,7 @@
         <v>1</v>
       </c>
       <c r="I182" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J182">
         <v>1.666</v>
@@ -16179,16 +16176,16 @@
         <v>7623912</v>
       </c>
       <c r="C183" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D183" s="2">
         <v>45340.875</v>
       </c>
       <c r="E183" t="s">
+        <v>39</v>
+      </c>
+      <c r="F183" t="s">
         <v>40</v>
-      </c>
-      <c r="F183" t="s">
-        <v>41</v>
       </c>
       <c r="G183">
         <v>2</v>
@@ -16197,7 +16194,7 @@
         <v>1</v>
       </c>
       <c r="I183" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J183">
         <v>1.8</v>
@@ -16265,16 +16262,16 @@
         <v>7764338</v>
       </c>
       <c r="C184" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D184" s="2">
         <v>45342.91666666666</v>
       </c>
       <c r="E184" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F184" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G184">
         <v>1</v>
@@ -16283,7 +16280,7 @@
         <v>0</v>
       </c>
       <c r="I184" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J184">
         <v>2.1</v>
@@ -16351,16 +16348,16 @@
         <v>7764528</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D185" s="2">
         <v>45342.95833333334</v>
       </c>
       <c r="E185" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F185" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G185">
         <v>3</v>
@@ -16369,7 +16366,7 @@
         <v>2</v>
       </c>
       <c r="I185" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J185">
         <v>1.533</v>
@@ -16437,16 +16434,16 @@
         <v>7764930</v>
       </c>
       <c r="C186" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D186" s="2">
         <v>45343.75</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F186" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G186">
         <v>1</v>
@@ -16455,7 +16452,7 @@
         <v>1</v>
       </c>
       <c r="I186" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J186">
         <v>2</v>
@@ -16523,17 +16520,17 @@
         <v>7764929</v>
       </c>
       <c r="C187" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D187" s="2">
         <v>45343.91666666666</v>
       </c>
       <c r="E187" t="s">
+        <v>35</v>
+      </c>
+      <c r="F187" t="s">
         <v>36</v>
       </c>
-      <c r="F187" t="s">
-        <v>37</v>
-      </c>
       <c r="G187">
         <v>2</v>
       </c>
@@ -16541,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J187">
         <v>1.909</v>
@@ -16609,16 +16606,16 @@
         <v>7763915</v>
       </c>
       <c r="C188" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D188" s="2">
         <v>45343.95833333334</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F188" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G188">
         <v>2</v>
@@ -16627,7 +16624,7 @@
         <v>1</v>
       </c>
       <c r="I188" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J188">
         <v>1.25</v>
@@ -16695,16 +16692,16 @@
         <v>7623917</v>
       </c>
       <c r="C189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D189" s="2">
         <v>45346.75</v>
       </c>
       <c r="E189" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F189" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G189">
         <v>0</v>
@@ -16713,7 +16710,7 @@
         <v>0</v>
       </c>
       <c r="I189" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J189">
         <v>5</v>
@@ -16781,16 +16778,16 @@
         <v>7623918</v>
       </c>
       <c r="C190" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D190" s="2">
         <v>45346.875</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G190">
         <v>0</v>
@@ -16799,7 +16796,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J190">
         <v>1.909</v>
@@ -16867,16 +16864,16 @@
         <v>7623985</v>
       </c>
       <c r="C191" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D191" s="2">
         <v>45346.9375</v>
       </c>
       <c r="E191" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F191" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G191">
         <v>1</v>
@@ -16885,7 +16882,7 @@
         <v>1</v>
       </c>
       <c r="I191" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J191">
         <v>1.571</v>
@@ -16953,25 +16950,25 @@
         <v>7623916</v>
       </c>
       <c r="C192" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D192" s="2">
         <v>45347.75</v>
       </c>
       <c r="E192" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F192" t="s">
+        <v>42</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>2</v>
+      </c>
+      <c r="I192" t="s">
         <v>43</v>
-      </c>
-      <c r="G192">
-        <v>0</v>
-      </c>
-      <c r="H192">
-        <v>2</v>
-      </c>
-      <c r="I192" t="s">
-        <v>44</v>
       </c>
       <c r="J192">
         <v>2.05</v>
@@ -17039,16 +17036,16 @@
         <v>7623919</v>
       </c>
       <c r="C193" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D193" s="2">
         <v>45347.75</v>
       </c>
       <c r="E193" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F193" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G193">
         <v>2</v>
@@ -17057,7 +17054,7 @@
         <v>0</v>
       </c>
       <c r="I193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J193">
         <v>1.75</v>
@@ -17125,16 +17122,16 @@
         <v>7623986</v>
       </c>
       <c r="C194" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D194" s="2">
         <v>45347.875</v>
       </c>
       <c r="E194" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F194" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G194">
         <v>2</v>
@@ -17143,7 +17140,7 @@
         <v>2</v>
       </c>
       <c r="I194" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J194">
         <v>2.625</v>
@@ -17211,16 +17208,16 @@
         <v>7623931</v>
       </c>
       <c r="C195" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D195" s="2">
         <v>45349.91666666666</v>
       </c>
       <c r="E195" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F195" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G195">
         <v>4</v>
@@ -17229,7 +17226,7 @@
         <v>0</v>
       </c>
       <c r="I195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J195">
         <v>1.333</v>
@@ -17297,16 +17294,16 @@
         <v>7623932</v>
       </c>
       <c r="C196" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D196" s="2">
         <v>45350.75</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F196" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G196">
         <v>1</v>
@@ -17315,7 +17312,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J196">
         <v>2.5</v>
@@ -17383,16 +17380,16 @@
         <v>7623935</v>
       </c>
       <c r="C197" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D197" s="2">
         <v>45350.89583333334</v>
       </c>
       <c r="E197" t="s">
+        <v>41</v>
+      </c>
+      <c r="F197" t="s">
         <v>42</v>
-      </c>
-      <c r="F197" t="s">
-        <v>43</v>
       </c>
       <c r="G197">
         <v>4</v>
@@ -17401,7 +17398,7 @@
         <v>1</v>
       </c>
       <c r="I197" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J197">
         <v>2.2</v>
@@ -17469,16 +17466,16 @@
         <v>7623933</v>
       </c>
       <c r="C198" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D198" s="2">
         <v>45350.95833333334</v>
       </c>
       <c r="E198" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F198" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G198">
         <v>4</v>
@@ -17487,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J198">
         <v>1.533</v>
@@ -17555,16 +17552,16 @@
         <v>7623920</v>
       </c>
       <c r="C199" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D199" s="2">
         <v>45352.95833333334</v>
       </c>
       <c r="E199" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F199" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G199">
         <v>4</v>
@@ -17573,7 +17570,7 @@
         <v>0</v>
       </c>
       <c r="I199" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J199">
         <v>1.25</v>
@@ -17641,17 +17638,17 @@
         <v>7624967</v>
       </c>
       <c r="C200" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D200" s="2">
         <v>45353.75</v>
       </c>
       <c r="E200" t="s">
+        <v>38</v>
+      </c>
+      <c r="F200" t="s">
         <v>39</v>
       </c>
-      <c r="F200" t="s">
-        <v>40</v>
-      </c>
       <c r="G200">
         <v>0</v>
       </c>
@@ -17659,7 +17656,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J200">
         <v>3.75</v>
@@ -17727,16 +17724,16 @@
         <v>7623921</v>
       </c>
       <c r="C201" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D201" s="2">
         <v>45353.75</v>
       </c>
       <c r="E201" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G201">
         <v>1</v>
@@ -17745,7 +17742,7 @@
         <v>2</v>
       </c>
       <c r="I201" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J201">
         <v>2.75</v>
@@ -17813,16 +17810,16 @@
         <v>7623922</v>
       </c>
       <c r="C202" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D202" s="2">
         <v>45353.95833333334</v>
       </c>
       <c r="E202" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F202" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G202">
         <v>0</v>
@@ -17831,7 +17828,7 @@
         <v>0</v>
       </c>
       <c r="I202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J202">
         <v>2.375</v>
@@ -17899,17 +17896,17 @@
         <v>7623987</v>
       </c>
       <c r="C203" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D203" s="2">
         <v>45354.79166666666</v>
       </c>
       <c r="E203" t="s">
+        <v>34</v>
+      </c>
+      <c r="F203" t="s">
         <v>35</v>
       </c>
-      <c r="F203" t="s">
-        <v>36</v>
-      </c>
       <c r="G203">
         <v>2</v>
       </c>
@@ -17917,7 +17914,7 @@
         <v>2</v>
       </c>
       <c r="I203" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J203">
         <v>1.571</v>
@@ -17985,16 +17982,16 @@
         <v>7623988</v>
       </c>
       <c r="C204" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D204" s="2">
         <v>45354.875</v>
       </c>
       <c r="E204" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F204" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G204">
         <v>2</v>
@@ -18003,7 +18000,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J204">
         <v>2.45</v>
@@ -18071,16 +18068,16 @@
         <v>7623926</v>
       </c>
       <c r="C205" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D205" s="2">
         <v>45359.95833333334</v>
       </c>
       <c r="E205" t="s">
+        <v>31</v>
+      </c>
+      <c r="F205" t="s">
         <v>32</v>
-      </c>
-      <c r="F205" t="s">
-        <v>33</v>
       </c>
       <c r="G205">
         <v>3</v>
@@ -18089,7 +18086,7 @@
         <v>1</v>
       </c>
       <c r="I205" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J205">
         <v>1.666</v>
@@ -18157,16 +18154,16 @@
         <v>7920639</v>
       </c>
       <c r="C206" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D206" s="2">
         <v>45360.83333333334</v>
       </c>
       <c r="E206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F206" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G206">
         <v>0</v>
@@ -18175,7 +18172,7 @@
         <v>0</v>
       </c>
       <c r="I206" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J206">
         <v>1.666</v>
@@ -18243,16 +18240,16 @@
         <v>7623923</v>
       </c>
       <c r="C207" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D207" s="2">
         <v>45360.91666666666</v>
       </c>
       <c r="E207" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F207" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G207">
         <v>2</v>
@@ -18261,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="I207" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J207">
         <v>1.363</v>
@@ -18329,16 +18326,16 @@
         <v>7623990</v>
       </c>
       <c r="C208" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D208" s="2">
         <v>45360.95833333334</v>
       </c>
       <c r="E208" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F208" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G208">
         <v>2</v>
@@ -18347,7 +18344,7 @@
         <v>0</v>
       </c>
       <c r="I208" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J208">
         <v>1.444</v>
@@ -18415,16 +18412,16 @@
         <v>7623925</v>
       </c>
       <c r="C209" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D209" s="2">
         <v>45361.75</v>
       </c>
       <c r="E209" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F209" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G209">
         <v>3</v>
@@ -18433,7 +18430,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J209">
         <v>5</v>
@@ -18501,16 +18498,16 @@
         <v>7916002</v>
       </c>
       <c r="C210" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D210" s="2">
         <v>45361.79166666666</v>
       </c>
       <c r="E210" t="s">
+        <v>33</v>
+      </c>
+      <c r="F210" t="s">
         <v>34</v>
-      </c>
-      <c r="F210" t="s">
-        <v>35</v>
       </c>
       <c r="G210">
         <v>1</v>
@@ -18519,7 +18516,7 @@
         <v>3</v>
       </c>
       <c r="I210" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J210">
         <v>6.5</v>
@@ -18587,16 +18584,16 @@
         <v>7623995</v>
       </c>
       <c r="C211" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D211" s="2">
         <v>45377.83333333334</v>
       </c>
       <c r="E211" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F211" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G211">
         <v>1</v>
@@ -18605,7 +18602,7 @@
         <v>2</v>
       </c>
       <c r="I211" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J211">
         <v>2.3</v>
@@ -18673,16 +18670,16 @@
         <v>7623936</v>
       </c>
       <c r="C212" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D212" s="2">
         <v>45377.875</v>
       </c>
       <c r="E212" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F212" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G212">
         <v>0</v>
@@ -18691,7 +18688,7 @@
         <v>0</v>
       </c>
       <c r="I212" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J212">
         <v>2.7</v>
@@ -18759,16 +18756,16 @@
         <v>7623937</v>
       </c>
       <c r="C213" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D213" s="2">
         <v>45377.9375</v>
       </c>
       <c r="E213" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F213" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G213">
         <v>0</v>
@@ -18777,7 +18774,7 @@
         <v>4</v>
       </c>
       <c r="I213" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J213">
         <v>3.75</v>
@@ -18845,16 +18842,16 @@
         <v>7623938</v>
       </c>
       <c r="C214" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D214" s="2">
         <v>45378.75</v>
       </c>
       <c r="E214" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F214" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G214">
         <v>0</v>
@@ -18863,7 +18860,7 @@
         <v>1</v>
       </c>
       <c r="I214" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J214">
         <v>3</v>
@@ -18931,16 +18928,16 @@
         <v>7623993</v>
       </c>
       <c r="C215" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D215" s="2">
         <v>45378.91666666666</v>
       </c>
       <c r="E215" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F215" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G215">
         <v>2</v>
@@ -18949,7 +18946,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J215">
         <v>2.5</v>
@@ -19017,16 +19014,16 @@
         <v>7623994</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D216" s="2">
         <v>45378.95833333334</v>
       </c>
       <c r="E216" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F216" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G216">
         <v>3</v>
@@ -19035,7 +19032,7 @@
         <v>4</v>
       </c>
       <c r="I216" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J216">
         <v>3.25</v>
@@ -19103,16 +19100,16 @@
         <v>7623941</v>
       </c>
       <c r="C217" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D217" s="2">
         <v>45380.91666666666</v>
       </c>
       <c r="E217" t="s">
+        <v>32</v>
+      </c>
+      <c r="F217" t="s">
         <v>33</v>
-      </c>
-      <c r="F217" t="s">
-        <v>34</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -19121,7 +19118,7 @@
         <v>1</v>
       </c>
       <c r="I217" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J217">
         <v>1.75</v>
@@ -19189,16 +19186,16 @@
         <v>8022822</v>
       </c>
       <c r="C218" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D218" s="2">
         <v>45382.75</v>
       </c>
       <c r="E218" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F218" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G218">
         <v>1</v>
@@ -19207,7 +19204,7 @@
         <v>2</v>
       </c>
       <c r="I218" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J218">
         <v>2.2</v>
@@ -19275,16 +19272,16 @@
         <v>7624969</v>
       </c>
       <c r="C219" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D219" s="2">
         <v>45382.79166666666</v>
       </c>
       <c r="E219" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F219" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G219">
         <v>2</v>
@@ -19293,7 +19290,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J219">
         <v>1.833</v>
@@ -19361,16 +19358,16 @@
         <v>7623943</v>
       </c>
       <c r="C220" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D220" s="2">
         <v>45382.85416666666</v>
       </c>
       <c r="E220" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F220" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G220">
         <v>3</v>
@@ -19379,7 +19376,7 @@
         <v>2</v>
       </c>
       <c r="I220" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J220">
         <v>2.1</v>
@@ -19447,16 +19444,16 @@
         <v>7623939</v>
       </c>
       <c r="C221" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D221" s="2">
         <v>45382.91666666666</v>
       </c>
       <c r="E221" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G221">
         <v>1</v>
@@ -19465,7 +19462,7 @@
         <v>1</v>
       </c>
       <c r="I221" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J221">
         <v>1.615</v>
@@ -19533,16 +19530,16 @@
         <v>7623940</v>
       </c>
       <c r="C222" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D222" s="2">
         <v>45383.75</v>
       </c>
       <c r="E222" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F222" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G222">
         <v>2</v>
@@ -19551,7 +19548,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J222">
         <v>3</v>
@@ -19619,16 +19616,16 @@
         <v>7980420</v>
       </c>
       <c r="C223" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D223" s="2">
         <v>45385.95833333334</v>
       </c>
       <c r="E223" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F223" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G223">
         <v>1</v>
@@ -19637,7 +19634,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J223">
         <v>1.222</v>
@@ -19702,22 +19699,22 @@
         <v>222</v>
       </c>
       <c r="B224">
-        <v>7623944</v>
+        <v>7623946</v>
       </c>
       <c r="C224" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D224" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E224" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F224" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G224">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -19726,61 +19723,61 @@
         <v>45</v>
       </c>
       <c r="J224">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="K224">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L224">
-        <v>2.375</v>
+        <v>1.95</v>
       </c>
       <c r="M224">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="N224">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="O224">
-        <v>2.15</v>
+        <v>1.75</v>
       </c>
       <c r="P224">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="Q224">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="R224">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="S224">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="T224">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="U224">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="V224">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="W224">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X224">
         <v>-1</v>
       </c>
       <c r="Y224">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="Z224">
         <v>-1</v>
       </c>
       <c r="AA224">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB224">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="225" spans="1:28">
@@ -19788,85 +19785,85 @@
         <v>223</v>
       </c>
       <c r="B225">
-        <v>7623946</v>
+        <v>7623944</v>
       </c>
       <c r="C225" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D225" s="2">
         <v>45388.83333333334</v>
       </c>
       <c r="E225" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F225" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G225">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H225">
         <v>0</v>
       </c>
       <c r="I225" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J225">
+        <v>2.9</v>
+      </c>
+      <c r="K225">
+        <v>3.25</v>
+      </c>
+      <c r="L225">
+        <v>2.375</v>
+      </c>
+      <c r="M225">
         <v>3.4</v>
       </c>
-      <c r="K225">
-        <v>3.4</v>
-      </c>
-      <c r="L225">
+      <c r="N225">
+        <v>3.2</v>
+      </c>
+      <c r="O225">
+        <v>2.15</v>
+      </c>
+      <c r="P225">
+        <v>0.25</v>
+      </c>
+      <c r="Q225">
         <v>1.95</v>
       </c>
-      <c r="M225">
-        <v>3.8</v>
-      </c>
-      <c r="N225">
-        <v>3.6</v>
-      </c>
-      <c r="O225">
-        <v>1.75</v>
-      </c>
-      <c r="P225">
-        <v>0.75</v>
-      </c>
-      <c r="Q225">
+      <c r="R225">
+        <v>1.85</v>
+      </c>
+      <c r="S225">
+        <v>2.5</v>
+      </c>
+      <c r="T225">
+        <v>2</v>
+      </c>
+      <c r="U225">
         <v>1.8</v>
       </c>
-      <c r="R225">
-        <v>2</v>
-      </c>
-      <c r="S225">
-        <v>2.75</v>
-      </c>
-      <c r="T225">
-        <v>1.925</v>
-      </c>
-      <c r="U225">
-        <v>1.875</v>
-      </c>
       <c r="V225">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="W225">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X225">
         <v>-1</v>
       </c>
       <c r="Y225">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="Z225">
         <v>-1</v>
       </c>
       <c r="AA225">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB225">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="226" spans="1:28">
@@ -19877,16 +19874,16 @@
         <v>7623996</v>
       </c>
       <c r="C226" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D226" s="2">
         <v>45388.92708333334</v>
       </c>
       <c r="E226" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F226" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G226">
         <v>3</v>
@@ -19895,7 +19892,7 @@
         <v>1</v>
       </c>
       <c r="I226" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J226">
         <v>1.363</v>
@@ -19963,16 +19960,16 @@
         <v>7623947</v>
       </c>
       <c r="C227" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D227" s="2">
         <v>45388.95833333334</v>
       </c>
       <c r="E227" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F227" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G227">
         <v>3</v>
@@ -19981,7 +19978,7 @@
         <v>3</v>
       </c>
       <c r="I227" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J227">
         <v>1.3</v>
@@ -20049,16 +20046,16 @@
         <v>8048492</v>
       </c>
       <c r="C228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D228" s="2">
         <v>45389.75</v>
       </c>
       <c r="E228" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F228" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G228">
         <v>3</v>
@@ -20067,7 +20064,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J228">
         <v>2.2</v>
@@ -20135,16 +20132,16 @@
         <v>7623997</v>
       </c>
       <c r="C229" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D229" s="2">
         <v>45389.83333333334</v>
       </c>
       <c r="E229" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F229" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G229">
         <v>2</v>
@@ -20153,7 +20150,7 @@
         <v>1</v>
       </c>
       <c r="I229" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J229">
         <v>1.285</v>
@@ -20221,16 +20218,16 @@
         <v>8070744</v>
       </c>
       <c r="C230" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D230" s="2">
         <v>45394.95833333334</v>
       </c>
       <c r="E230" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F230" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G230">
         <v>1</v>
@@ -20239,7 +20236,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J230">
         <v>1.833</v>
@@ -20307,16 +20304,16 @@
         <v>7623950</v>
       </c>
       <c r="C231" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D231" s="2">
         <v>45395.75</v>
       </c>
       <c r="E231" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F231" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -20325,7 +20322,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J231">
         <v>6</v>
@@ -20393,16 +20390,16 @@
         <v>7623999</v>
       </c>
       <c r="C232" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D232" s="2">
         <v>45395.75</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F232" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G232">
         <v>2</v>
@@ -20411,7 +20408,7 @@
         <v>1</v>
       </c>
       <c r="I232" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J232">
         <v>2.15</v>
@@ -20479,16 +20476,16 @@
         <v>7623998</v>
       </c>
       <c r="C233" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D233" s="2">
         <v>45395.86458333334</v>
       </c>
       <c r="E233" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F233" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G233">
         <v>3</v>
@@ -20497,7 +20494,7 @@
         <v>1</v>
       </c>
       <c r="I233" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J233">
         <v>2.625</v>
@@ -20565,16 +20562,16 @@
         <v>8070745</v>
       </c>
       <c r="C234" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D234" s="2">
         <v>45395.875</v>
       </c>
       <c r="E234" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F234" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -20583,7 +20580,7 @@
         <v>4</v>
       </c>
       <c r="I234" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J234">
         <v>4.2</v>
@@ -20651,16 +20648,16 @@
         <v>7623951</v>
       </c>
       <c r="C235" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D235" s="2">
         <v>45395.97916666666</v>
       </c>
       <c r="E235" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F235" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -20669,7 